--- a/toutReponse.xlsx
+++ b/toutReponse.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Etape\EtapSurveyProject\reponses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Etape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676981A9-6D5A-493C-9730-403F64F373A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B675BE14-BDC0-42B7-BDDB-8CCB1BC1A8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5840" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6360" uniqueCount="414">
   <si>
     <t>id</t>
   </si>
@@ -1181,6 +1181,87 @@
   </si>
   <si>
     <t>2021-09-01 18:56:23</t>
+  </si>
+  <si>
+    <t>2021-09-07 07:59:05</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>2021-09-02</t>
+  </si>
+  <si>
+    <t>Conseil départemental 50</t>
+  </si>
+  <si>
+    <t>L'association Etape propose des moyens de réinsertion très pertinents. Action très efficace.</t>
+  </si>
+  <si>
+    <t>2021-09-07 09:41:35</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>Bon déroulement du bilan, à poursuivre. Bonne perspective pour la 2de session.</t>
+  </si>
+  <si>
+    <t>Valoriser la progression durant l'action.</t>
+  </si>
+  <si>
+    <t>2021-09-07 09:43:37</t>
+  </si>
+  <si>
+    <t>2021-09-07 09:44:56</t>
+  </si>
+  <si>
+    <t>Cela m'a permis de me redécouvrir et de me prouver que j'étais capable de faire des choses et de bien les faire.</t>
+  </si>
+  <si>
+    <t>Je trouve que c'est trop court.</t>
+  </si>
+  <si>
+    <t>2021-09-07 09:47:41</t>
+  </si>
+  <si>
+    <t>Ateliers intéressants, bonne ambiance.</t>
+  </si>
+  <si>
+    <t>Augmenter la durée de l'action.</t>
+  </si>
+  <si>
+    <t>2021-09-07 09:50:24</t>
+  </si>
+  <si>
+    <t>2021-09-07 09:59:02</t>
+  </si>
+  <si>
+    <t>2021-09-07 10:00:24</t>
+  </si>
+  <si>
+    <t>Information collective avec un public intéressant et intéressé</t>
+  </si>
+  <si>
+    <t>2021-09-07 10:02:20</t>
+  </si>
+  <si>
+    <t>2021-09-07 10:03:41</t>
+  </si>
+  <si>
+    <t>2021-09-07 10:04:55</t>
+  </si>
+  <si>
+    <t>Bonne participation du groupe</t>
+  </si>
+  <si>
+    <t>2021-09-07 10:06:30</t>
+  </si>
+  <si>
+    <t>Bon déroulement de l'action Participation des bénéficiaires.</t>
+  </si>
+  <si>
+    <t>2021-09-07 10:08:37</t>
   </si>
 </sst>
 </file>
@@ -2086,10 +2167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO148"/>
+  <dimension ref="A1:AO161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="D152" sqref="D152"/>
+    <sheetView tabSelected="1" topLeftCell="E139" workbookViewId="0">
+      <selection activeCell="H151" sqref="H151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20443,6 +20524,1631 @@
         <v>386</v>
       </c>
     </row>
+    <row r="149" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>377</v>
+      </c>
+      <c r="C149" t="s">
+        <v>294</v>
+      </c>
+      <c r="D149" t="s">
+        <v>385</v>
+      </c>
+      <c r="E149" t="s">
+        <v>385</v>
+      </c>
+      <c r="F149" t="s">
+        <v>53</v>
+      </c>
+      <c r="G149" t="s">
+        <v>53</v>
+      </c>
+      <c r="H149" t="s">
+        <v>41</v>
+      </c>
+      <c r="I149" t="s">
+        <v>41</v>
+      </c>
+      <c r="J149" t="s">
+        <v>41</v>
+      </c>
+      <c r="K149" t="s">
+        <v>41</v>
+      </c>
+      <c r="L149" t="s">
+        <v>41</v>
+      </c>
+      <c r="M149" t="s">
+        <v>72</v>
+      </c>
+      <c r="N149" t="s">
+        <v>42</v>
+      </c>
+      <c r="O149" t="s">
+        <v>42</v>
+      </c>
+      <c r="P149" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>42</v>
+      </c>
+      <c r="R149" t="s">
+        <v>55</v>
+      </c>
+      <c r="S149" t="s">
+        <v>41</v>
+      </c>
+      <c r="T149" t="s">
+        <v>55</v>
+      </c>
+      <c r="U149" t="s">
+        <v>55</v>
+      </c>
+      <c r="V149" t="s">
+        <v>55</v>
+      </c>
+      <c r="W149" t="s">
+        <v>55</v>
+      </c>
+      <c r="X149" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y149" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z149" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA149" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB149" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC149" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD149" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE149" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF149" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG149" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH149" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI149" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ149" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK149" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL149" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM149" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN149" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO149" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="150" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>50</v>
+      </c>
+      <c r="C150" t="s">
+        <v>60</v>
+      </c>
+      <c r="D150" t="s">
+        <v>388</v>
+      </c>
+      <c r="E150" t="s">
+        <v>389</v>
+      </c>
+      <c r="F150" t="s">
+        <v>49</v>
+      </c>
+      <c r="G150" t="s">
+        <v>49</v>
+      </c>
+      <c r="H150" t="s">
+        <v>41</v>
+      </c>
+      <c r="I150" t="s">
+        <v>41</v>
+      </c>
+      <c r="J150" t="s">
+        <v>41</v>
+      </c>
+      <c r="K150" t="s">
+        <v>45</v>
+      </c>
+      <c r="L150" t="s">
+        <v>45</v>
+      </c>
+      <c r="M150" t="s">
+        <v>41</v>
+      </c>
+      <c r="N150" t="s">
+        <v>41</v>
+      </c>
+      <c r="O150" t="s">
+        <v>41</v>
+      </c>
+      <c r="P150" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>41</v>
+      </c>
+      <c r="R150" t="s">
+        <v>41</v>
+      </c>
+      <c r="S150" t="s">
+        <v>41</v>
+      </c>
+      <c r="T150" t="s">
+        <v>41</v>
+      </c>
+      <c r="U150" t="s">
+        <v>41</v>
+      </c>
+      <c r="V150" t="s">
+        <v>41</v>
+      </c>
+      <c r="W150" t="s">
+        <v>41</v>
+      </c>
+      <c r="X150" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y150" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z150" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA150" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB150" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC150" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD150" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE150" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF150" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG150" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH150" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI150" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ150" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK150" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL150" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM150" t="s">
+        <v>391</v>
+      </c>
+      <c r="AN150" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO150" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="151" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>50</v>
+      </c>
+      <c r="C151" t="s">
+        <v>60</v>
+      </c>
+      <c r="D151" t="s">
+        <v>388</v>
+      </c>
+      <c r="E151" t="s">
+        <v>389</v>
+      </c>
+      <c r="F151" t="s">
+        <v>268</v>
+      </c>
+      <c r="G151" t="s">
+        <v>268</v>
+      </c>
+      <c r="H151" t="s">
+        <v>393</v>
+      </c>
+      <c r="I151" t="s">
+        <v>46</v>
+      </c>
+      <c r="J151" t="s">
+        <v>46</v>
+      </c>
+      <c r="K151" t="s">
+        <v>45</v>
+      </c>
+      <c r="L151" t="s">
+        <v>45</v>
+      </c>
+      <c r="M151" t="s">
+        <v>41</v>
+      </c>
+      <c r="N151" t="s">
+        <v>41</v>
+      </c>
+      <c r="O151" t="s">
+        <v>41</v>
+      </c>
+      <c r="P151" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>41</v>
+      </c>
+      <c r="R151" t="s">
+        <v>41</v>
+      </c>
+      <c r="S151" t="s">
+        <v>41</v>
+      </c>
+      <c r="T151" t="s">
+        <v>41</v>
+      </c>
+      <c r="U151" t="s">
+        <v>41</v>
+      </c>
+      <c r="V151" t="s">
+        <v>41</v>
+      </c>
+      <c r="W151" t="s">
+        <v>41</v>
+      </c>
+      <c r="X151" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y151" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z151" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA151" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB151" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC151" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD151" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE151" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF151" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG151" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH151" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI151" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ151" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK151" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL151" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM151" t="s">
+        <v>394</v>
+      </c>
+      <c r="AN151" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO151" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="152" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>50</v>
+      </c>
+      <c r="C152" t="s">
+        <v>60</v>
+      </c>
+      <c r="D152" t="s">
+        <v>388</v>
+      </c>
+      <c r="E152" t="s">
+        <v>389</v>
+      </c>
+      <c r="F152" t="s">
+        <v>56</v>
+      </c>
+      <c r="G152" t="s">
+        <v>56</v>
+      </c>
+      <c r="H152" t="s">
+        <v>393</v>
+      </c>
+      <c r="I152" t="s">
+        <v>46</v>
+      </c>
+      <c r="J152" t="s">
+        <v>46</v>
+      </c>
+      <c r="K152" t="s">
+        <v>45</v>
+      </c>
+      <c r="L152" t="s">
+        <v>45</v>
+      </c>
+      <c r="M152" t="s">
+        <v>41</v>
+      </c>
+      <c r="N152" t="s">
+        <v>41</v>
+      </c>
+      <c r="O152" t="s">
+        <v>41</v>
+      </c>
+      <c r="P152" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>41</v>
+      </c>
+      <c r="R152" t="s">
+        <v>41</v>
+      </c>
+      <c r="S152" t="s">
+        <v>41</v>
+      </c>
+      <c r="T152" t="s">
+        <v>41</v>
+      </c>
+      <c r="U152" t="s">
+        <v>41</v>
+      </c>
+      <c r="V152" t="s">
+        <v>41</v>
+      </c>
+      <c r="W152" t="s">
+        <v>41</v>
+      </c>
+      <c r="X152" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y152" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z152" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA152" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB152" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC152" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD152" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE152" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF152" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG152" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH152" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI152" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ152" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK152" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL152" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM152" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN152" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO152" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="153" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>50</v>
+      </c>
+      <c r="C153" t="s">
+        <v>60</v>
+      </c>
+      <c r="D153" t="s">
+        <v>388</v>
+      </c>
+      <c r="E153" t="s">
+        <v>389</v>
+      </c>
+      <c r="F153" t="s">
+        <v>56</v>
+      </c>
+      <c r="G153" t="s">
+        <v>56</v>
+      </c>
+      <c r="H153" t="s">
+        <v>41</v>
+      </c>
+      <c r="I153" t="s">
+        <v>41</v>
+      </c>
+      <c r="J153" t="s">
+        <v>41</v>
+      </c>
+      <c r="K153" t="s">
+        <v>41</v>
+      </c>
+      <c r="L153" t="s">
+        <v>41</v>
+      </c>
+      <c r="M153" t="s">
+        <v>41</v>
+      </c>
+      <c r="N153" t="s">
+        <v>41</v>
+      </c>
+      <c r="O153" t="s">
+        <v>41</v>
+      </c>
+      <c r="P153" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>41</v>
+      </c>
+      <c r="R153" t="s">
+        <v>41</v>
+      </c>
+      <c r="S153" t="s">
+        <v>41</v>
+      </c>
+      <c r="T153" t="s">
+        <v>41</v>
+      </c>
+      <c r="U153" t="s">
+        <v>41</v>
+      </c>
+      <c r="V153" t="s">
+        <v>41</v>
+      </c>
+      <c r="W153" t="s">
+        <v>41</v>
+      </c>
+      <c r="X153" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y153" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z153" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA153" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB153" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC153" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD153" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE153" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF153" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG153" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH153" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI153" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ153" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK153" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL153" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM153" t="s">
+        <v>398</v>
+      </c>
+      <c r="AN153" t="s">
+        <v>399</v>
+      </c>
+      <c r="AO153" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="154" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>50</v>
+      </c>
+      <c r="C154" t="s">
+        <v>60</v>
+      </c>
+      <c r="D154" t="s">
+        <v>388</v>
+      </c>
+      <c r="E154" t="s">
+        <v>389</v>
+      </c>
+      <c r="F154" t="s">
+        <v>56</v>
+      </c>
+      <c r="G154" t="s">
+        <v>56</v>
+      </c>
+      <c r="H154" t="s">
+        <v>41</v>
+      </c>
+      <c r="I154" t="s">
+        <v>41</v>
+      </c>
+      <c r="J154" t="s">
+        <v>41</v>
+      </c>
+      <c r="K154" t="s">
+        <v>41</v>
+      </c>
+      <c r="L154" t="s">
+        <v>41</v>
+      </c>
+      <c r="M154" t="s">
+        <v>41</v>
+      </c>
+      <c r="N154" t="s">
+        <v>41</v>
+      </c>
+      <c r="O154" t="s">
+        <v>41</v>
+      </c>
+      <c r="P154" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>41</v>
+      </c>
+      <c r="R154" t="s">
+        <v>41</v>
+      </c>
+      <c r="S154" t="s">
+        <v>41</v>
+      </c>
+      <c r="T154" t="s">
+        <v>41</v>
+      </c>
+      <c r="U154" t="s">
+        <v>41</v>
+      </c>
+      <c r="V154" t="s">
+        <v>41</v>
+      </c>
+      <c r="W154" t="s">
+        <v>41</v>
+      </c>
+      <c r="X154" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y154" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z154" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA154" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB154" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC154" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD154" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE154" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF154" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG154" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH154" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI154" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ154" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK154" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL154" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM154" t="s">
+        <v>401</v>
+      </c>
+      <c r="AN154" t="s">
+        <v>402</v>
+      </c>
+      <c r="AO154" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="155" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>50</v>
+      </c>
+      <c r="C155" t="s">
+        <v>60</v>
+      </c>
+      <c r="D155" t="s">
+        <v>388</v>
+      </c>
+      <c r="E155" t="s">
+        <v>389</v>
+      </c>
+      <c r="F155" t="s">
+        <v>53</v>
+      </c>
+      <c r="G155" t="s">
+        <v>53</v>
+      </c>
+      <c r="H155" t="s">
+        <v>41</v>
+      </c>
+      <c r="I155" t="s">
+        <v>41</v>
+      </c>
+      <c r="J155" t="s">
+        <v>41</v>
+      </c>
+      <c r="K155" t="s">
+        <v>41</v>
+      </c>
+      <c r="L155" t="s">
+        <v>41</v>
+      </c>
+      <c r="M155" t="s">
+        <v>72</v>
+      </c>
+      <c r="N155" t="s">
+        <v>42</v>
+      </c>
+      <c r="O155" t="s">
+        <v>42</v>
+      </c>
+      <c r="P155" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>42</v>
+      </c>
+      <c r="R155" t="s">
+        <v>55</v>
+      </c>
+      <c r="S155" t="s">
+        <v>41</v>
+      </c>
+      <c r="T155" t="s">
+        <v>55</v>
+      </c>
+      <c r="U155" t="s">
+        <v>55</v>
+      </c>
+      <c r="V155" t="s">
+        <v>55</v>
+      </c>
+      <c r="W155" t="s">
+        <v>55</v>
+      </c>
+      <c r="X155" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y155" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z155" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA155" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB155" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC155" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD155" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE155" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF155" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG155" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH155" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI155" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ155" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK155" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL155" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM155" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN155" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO155" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="156" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>50</v>
+      </c>
+      <c r="C156" t="s">
+        <v>60</v>
+      </c>
+      <c r="D156" t="s">
+        <v>388</v>
+      </c>
+      <c r="E156" t="s">
+        <v>389</v>
+      </c>
+      <c r="F156" t="s">
+        <v>53</v>
+      </c>
+      <c r="G156" t="s">
+        <v>53</v>
+      </c>
+      <c r="H156" t="s">
+        <v>41</v>
+      </c>
+      <c r="I156" t="s">
+        <v>41</v>
+      </c>
+      <c r="J156" t="s">
+        <v>41</v>
+      </c>
+      <c r="K156" t="s">
+        <v>41</v>
+      </c>
+      <c r="L156" t="s">
+        <v>41</v>
+      </c>
+      <c r="M156" t="s">
+        <v>72</v>
+      </c>
+      <c r="N156" t="s">
+        <v>42</v>
+      </c>
+      <c r="O156" t="s">
+        <v>42</v>
+      </c>
+      <c r="P156" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>41</v>
+      </c>
+      <c r="R156" t="s">
+        <v>55</v>
+      </c>
+      <c r="S156" t="s">
+        <v>41</v>
+      </c>
+      <c r="T156" t="s">
+        <v>55</v>
+      </c>
+      <c r="U156" t="s">
+        <v>55</v>
+      </c>
+      <c r="V156" t="s">
+        <v>55</v>
+      </c>
+      <c r="W156" t="s">
+        <v>55</v>
+      </c>
+      <c r="X156" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y156" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z156" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA156" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB156" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC156" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD156" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE156" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF156" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG156" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH156" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI156" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ156" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK156" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL156" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM156" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN156" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO156" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="157" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>50</v>
+      </c>
+      <c r="C157" t="s">
+        <v>60</v>
+      </c>
+      <c r="D157" t="s">
+        <v>388</v>
+      </c>
+      <c r="E157" t="s">
+        <v>389</v>
+      </c>
+      <c r="F157" t="s">
+        <v>53</v>
+      </c>
+      <c r="G157" t="s">
+        <v>53</v>
+      </c>
+      <c r="H157" t="s">
+        <v>41</v>
+      </c>
+      <c r="I157" t="s">
+        <v>41</v>
+      </c>
+      <c r="J157" t="s">
+        <v>41</v>
+      </c>
+      <c r="K157" t="s">
+        <v>41</v>
+      </c>
+      <c r="L157" t="s">
+        <v>41</v>
+      </c>
+      <c r="M157" t="s">
+        <v>48</v>
+      </c>
+      <c r="N157" t="s">
+        <v>42</v>
+      </c>
+      <c r="O157" t="s">
+        <v>42</v>
+      </c>
+      <c r="P157" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>42</v>
+      </c>
+      <c r="R157" t="s">
+        <v>55</v>
+      </c>
+      <c r="S157" t="s">
+        <v>41</v>
+      </c>
+      <c r="T157" t="s">
+        <v>55</v>
+      </c>
+      <c r="U157" t="s">
+        <v>55</v>
+      </c>
+      <c r="V157" t="s">
+        <v>55</v>
+      </c>
+      <c r="W157" t="s">
+        <v>55</v>
+      </c>
+      <c r="X157" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y157" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z157" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA157" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB157" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC157" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD157" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE157" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF157" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG157" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH157" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI157" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ157" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK157" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL157" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM157" t="s">
+        <v>406</v>
+      </c>
+      <c r="AN157" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO157" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="158" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>50</v>
+      </c>
+      <c r="C158" t="s">
+        <v>60</v>
+      </c>
+      <c r="D158" t="s">
+        <v>388</v>
+      </c>
+      <c r="E158" t="s">
+        <v>389</v>
+      </c>
+      <c r="F158" t="s">
+        <v>53</v>
+      </c>
+      <c r="G158" t="s">
+        <v>53</v>
+      </c>
+      <c r="H158" t="s">
+        <v>41</v>
+      </c>
+      <c r="I158" t="s">
+        <v>41</v>
+      </c>
+      <c r="J158" t="s">
+        <v>41</v>
+      </c>
+      <c r="K158" t="s">
+        <v>41</v>
+      </c>
+      <c r="L158" t="s">
+        <v>41</v>
+      </c>
+      <c r="M158" t="s">
+        <v>48</v>
+      </c>
+      <c r="N158" t="s">
+        <v>42</v>
+      </c>
+      <c r="O158" t="s">
+        <v>41</v>
+      </c>
+      <c r="P158" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>42</v>
+      </c>
+      <c r="R158" t="s">
+        <v>55</v>
+      </c>
+      <c r="S158" t="s">
+        <v>41</v>
+      </c>
+      <c r="T158" t="s">
+        <v>55</v>
+      </c>
+      <c r="U158" t="s">
+        <v>55</v>
+      </c>
+      <c r="V158" t="s">
+        <v>55</v>
+      </c>
+      <c r="W158" t="s">
+        <v>55</v>
+      </c>
+      <c r="X158" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y158" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z158" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA158" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB158" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC158" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD158" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE158" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF158" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG158" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH158" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI158" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ158" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK158" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL158" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM158" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN158" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO158" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="159" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>50</v>
+      </c>
+      <c r="C159" t="s">
+        <v>60</v>
+      </c>
+      <c r="D159" t="s">
+        <v>388</v>
+      </c>
+      <c r="E159" t="s">
+        <v>389</v>
+      </c>
+      <c r="F159" t="s">
+        <v>53</v>
+      </c>
+      <c r="G159" t="s">
+        <v>53</v>
+      </c>
+      <c r="H159" t="s">
+        <v>41</v>
+      </c>
+      <c r="I159" t="s">
+        <v>41</v>
+      </c>
+      <c r="J159" t="s">
+        <v>41</v>
+      </c>
+      <c r="K159" t="s">
+        <v>41</v>
+      </c>
+      <c r="L159" t="s">
+        <v>41</v>
+      </c>
+      <c r="M159" t="s">
+        <v>72</v>
+      </c>
+      <c r="N159" t="s">
+        <v>42</v>
+      </c>
+      <c r="O159" t="s">
+        <v>42</v>
+      </c>
+      <c r="P159" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>42</v>
+      </c>
+      <c r="R159" t="s">
+        <v>55</v>
+      </c>
+      <c r="S159" t="s">
+        <v>41</v>
+      </c>
+      <c r="T159" t="s">
+        <v>55</v>
+      </c>
+      <c r="U159" t="s">
+        <v>55</v>
+      </c>
+      <c r="V159" t="s">
+        <v>55</v>
+      </c>
+      <c r="W159" t="s">
+        <v>55</v>
+      </c>
+      <c r="X159" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y159" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z159" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA159" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB159" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC159" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD159" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE159" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF159" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG159" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH159" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI159" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ159" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK159" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL159" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM159" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN159" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO159" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="160" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>50</v>
+      </c>
+      <c r="C160" t="s">
+        <v>41</v>
+      </c>
+      <c r="D160" t="s">
+        <v>388</v>
+      </c>
+      <c r="E160" t="s">
+        <v>389</v>
+      </c>
+      <c r="F160" t="s">
+        <v>53</v>
+      </c>
+      <c r="G160" t="s">
+        <v>53</v>
+      </c>
+      <c r="H160" t="s">
+        <v>41</v>
+      </c>
+      <c r="I160" t="s">
+        <v>41</v>
+      </c>
+      <c r="J160" t="s">
+        <v>41</v>
+      </c>
+      <c r="K160" t="s">
+        <v>41</v>
+      </c>
+      <c r="L160" t="s">
+        <v>41</v>
+      </c>
+      <c r="M160" t="s">
+        <v>48</v>
+      </c>
+      <c r="N160" t="s">
+        <v>42</v>
+      </c>
+      <c r="O160" t="s">
+        <v>42</v>
+      </c>
+      <c r="P160" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>42</v>
+      </c>
+      <c r="R160" t="s">
+        <v>55</v>
+      </c>
+      <c r="S160" t="s">
+        <v>41</v>
+      </c>
+      <c r="T160" t="s">
+        <v>55</v>
+      </c>
+      <c r="U160" t="s">
+        <v>55</v>
+      </c>
+      <c r="V160" t="s">
+        <v>55</v>
+      </c>
+      <c r="W160" t="s">
+        <v>55</v>
+      </c>
+      <c r="X160" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y160" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z160" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA160" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB160" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC160" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD160" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE160" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF160" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG160" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH160" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI160" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ160" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK160" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL160" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM160" t="s">
+        <v>410</v>
+      </c>
+      <c r="AN160" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO160" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="161" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>50</v>
+      </c>
+      <c r="C161" t="s">
+        <v>60</v>
+      </c>
+      <c r="D161" t="s">
+        <v>388</v>
+      </c>
+      <c r="E161" t="s">
+        <v>389</v>
+      </c>
+      <c r="F161" t="s">
+        <v>53</v>
+      </c>
+      <c r="G161" t="s">
+        <v>53</v>
+      </c>
+      <c r="H161" t="s">
+        <v>41</v>
+      </c>
+      <c r="I161" t="s">
+        <v>41</v>
+      </c>
+      <c r="J161" t="s">
+        <v>41</v>
+      </c>
+      <c r="K161" t="s">
+        <v>41</v>
+      </c>
+      <c r="L161" t="s">
+        <v>41</v>
+      </c>
+      <c r="M161" t="s">
+        <v>48</v>
+      </c>
+      <c r="N161" t="s">
+        <v>42</v>
+      </c>
+      <c r="O161" t="s">
+        <v>42</v>
+      </c>
+      <c r="P161" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>41</v>
+      </c>
+      <c r="R161" t="s">
+        <v>41</v>
+      </c>
+      <c r="S161" t="s">
+        <v>41</v>
+      </c>
+      <c r="T161" t="s">
+        <v>55</v>
+      </c>
+      <c r="U161" t="s">
+        <v>55</v>
+      </c>
+      <c r="V161" t="s">
+        <v>55</v>
+      </c>
+      <c r="W161" t="s">
+        <v>55</v>
+      </c>
+      <c r="X161" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y161" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z161" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA161" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB161" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC161" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD161" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE161" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF161" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG161" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH161" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI161" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ161" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK161" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL161" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM161" t="s">
+        <v>412</v>
+      </c>
+      <c r="AN161" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO161" t="s">
+        <v>413</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/toutReponse.xlsx
+++ b/toutReponse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Etape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B675BE14-BDC0-42B7-BDDB-8CCB1BC1A8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B191EDA-0AED-43E8-9918-D94A19BE5238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6360" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6386" uniqueCount="420">
   <si>
     <t>id</t>
   </si>
@@ -1262,6 +1262,24 @@
   </si>
   <si>
     <t>2021-09-07 10:08:37</t>
+  </si>
+  <si>
+    <t>Caen</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>2021-09-29 06:51:36</t>
+  </si>
+  <si>
+    <t>A refaire, la délocalisation a été très apprécié ainsi que la méthodologie utilisée.</t>
+  </si>
+  <si>
+    <t>moins de sophrologie et pourquoi pas le SST</t>
+  </si>
+  <si>
+    <t>2021-09-29 13:25:31</t>
   </si>
 </sst>
 </file>
@@ -1803,7 +1821,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1812,6 +1830,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2167,10 +2193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO161"/>
+  <dimension ref="A1:AO163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E139" workbookViewId="0">
-      <selection activeCell="H151" sqref="H151"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22149,6 +22175,152 @@
         <v>413</v>
       </c>
     </row>
+    <row r="162" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="E162" s="8">
+        <v>44470</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G162" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H162" s="6"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="6"/>
+      <c r="L162" s="6"/>
+      <c r="M162" s="6"/>
+      <c r="N162" s="6"/>
+      <c r="O162" s="6"/>
+      <c r="P162" s="6"/>
+      <c r="Q162" s="6"/>
+      <c r="R162" s="6"/>
+      <c r="S162" s="6"/>
+      <c r="T162" s="6"/>
+      <c r="U162" s="6"/>
+      <c r="V162" s="6"/>
+      <c r="W162" s="6"/>
+      <c r="X162" s="6"/>
+      <c r="Y162" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z162" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA162" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB162" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC162" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD162" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE162" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF162" s="6"/>
+      <c r="AG162" s="6"/>
+      <c r="AH162" s="6"/>
+      <c r="AI162" s="6"/>
+      <c r="AJ162" s="6"/>
+      <c r="AK162" s="6"/>
+      <c r="AL162" s="6"/>
+      <c r="AM162" s="6"/>
+      <c r="AN162" s="6"/>
+      <c r="AO162" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="163" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>162</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E163" s="9">
+        <v>44469</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I163" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J163" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K163" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L163" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M163" s="4"/>
+      <c r="N163" s="4"/>
+      <c r="O163" s="4"/>
+      <c r="P163" s="4"/>
+      <c r="Q163" s="4"/>
+      <c r="R163" s="4"/>
+      <c r="S163" s="4"/>
+      <c r="T163" s="4"/>
+      <c r="U163" s="4"/>
+      <c r="V163" s="4"/>
+      <c r="W163" s="4"/>
+      <c r="X163" s="4"/>
+      <c r="Y163" s="4"/>
+      <c r="Z163" s="4"/>
+      <c r="AA163" s="4"/>
+      <c r="AB163" s="4"/>
+      <c r="AC163" s="4"/>
+      <c r="AD163" s="4"/>
+      <c r="AE163" s="4"/>
+      <c r="AF163" s="4"/>
+      <c r="AG163" s="4"/>
+      <c r="AH163" s="4"/>
+      <c r="AI163" s="4"/>
+      <c r="AJ163" s="4"/>
+      <c r="AK163" s="4"/>
+      <c r="AL163" s="4"/>
+      <c r="AM163" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="AN163" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="AO163" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/toutReponse.xlsx
+++ b/toutReponse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Etape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B191EDA-0AED-43E8-9918-D94A19BE5238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AECC64C-03C0-451E-AD41-DE6A6EE678AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6386" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7066" uniqueCount="460">
   <si>
     <t>id</t>
   </si>
@@ -1280,6 +1280,126 @@
   </si>
   <si>
     <t>2021-09-29 13:25:31</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>2021-09-14</t>
+  </si>
+  <si>
+    <t>2021-10-04 10:14:14</t>
+  </si>
+  <si>
+    <t>2021-10-04 10:15:39</t>
+  </si>
+  <si>
+    <t>2021-10-04 10:58:56</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-10-01</t>
+  </si>
+  <si>
+    <t>Stage satisfaisant Nous avons appris pas  mal de choses !</t>
+  </si>
+  <si>
+    <t>2021-10-04 13:42:31</t>
+  </si>
+  <si>
+    <t>Contente d'avoir rencontré des gens qui m'ont apporter de nouvelle chose, qui sont à disposition</t>
+  </si>
+  <si>
+    <t>2021-10-04 13:44:26</t>
+  </si>
+  <si>
+    <t>rien à dire parfait</t>
+  </si>
+  <si>
+    <t>faut continuer</t>
+  </si>
+  <si>
+    <t>2021-10-04 13:45:41</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>2021-10-04 13:46:32</t>
+  </si>
+  <si>
+    <t>2021-10-05 06:59:32</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>2021-10-05 09:13:16</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>Le référent de l'Etape a été parfait</t>
+  </si>
+  <si>
+    <t>faire la formation de 2 jours SST</t>
+  </si>
+  <si>
+    <t>2021-10-05 09:17:00</t>
+  </si>
+  <si>
+    <t>Prestation très agréable et sympathique formateur agréable et à l'écoute bonne ambiance dans le groupe</t>
+  </si>
+  <si>
+    <t>faire SST moins de Sophro</t>
+  </si>
+  <si>
+    <t>2021-10-05 09:19:18</t>
+  </si>
+  <si>
+    <t>Merci Tommy est une personne très investie, motivée et motivante</t>
+  </si>
+  <si>
+    <t>2021-10-05 09:20:26</t>
+  </si>
+  <si>
+    <t>Tout était parfait, l'ambiance</t>
+  </si>
+  <si>
+    <t>sécouriste SST</t>
+  </si>
+  <si>
+    <t>2021-10-05 09:21:12</t>
+  </si>
+  <si>
+    <t>Prestation réussie de la part de l'Etape pour nous amener à nos objectifs respectifs. Ecoute, bienveillance au sein de l'équipe et référent formateur ainsi que l'équipe Pole emploi. Ressenti positif ++++</t>
+  </si>
+  <si>
+    <t>faire brevet secouriste</t>
+  </si>
+  <si>
+    <t>2021-10-05 09:23:32</t>
+  </si>
+  <si>
+    <t>La formation m'a permis de me redonner confiance en moi. Tommy est un formateur très investi et à l'écoute. Je retiens que du positif de cette formation</t>
+  </si>
+  <si>
+    <t>2021-10-05 09:25:03</t>
+  </si>
+  <si>
+    <t>Prestation très intéressante. Formateur très compétent.</t>
+  </si>
+  <si>
+    <t>2021-10-05 09:26:00</t>
+  </si>
+  <si>
+    <t>Points très positif que la formation soit à Ouistreham</t>
+  </si>
+  <si>
+    <t>2021-10-05 09:27:07</t>
   </si>
 </sst>
 </file>
@@ -2193,10 +2313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO163"/>
+  <dimension ref="A1:AO180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="E167" sqref="E167"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="D171" sqref="D171:E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22321,6 +22441,2131 @@
         <v>419</v>
       </c>
     </row>
+    <row r="164" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>59</v>
+      </c>
+      <c r="C164" t="s">
+        <v>51</v>
+      </c>
+      <c r="D164" t="s">
+        <v>420</v>
+      </c>
+      <c r="E164" t="s">
+        <v>421</v>
+      </c>
+      <c r="F164" t="s">
+        <v>56</v>
+      </c>
+      <c r="G164" t="s">
+        <v>56</v>
+      </c>
+      <c r="H164" t="s">
+        <v>41</v>
+      </c>
+      <c r="I164" t="s">
+        <v>41</v>
+      </c>
+      <c r="J164" t="s">
+        <v>41</v>
+      </c>
+      <c r="K164" t="s">
+        <v>41</v>
+      </c>
+      <c r="L164" t="s">
+        <v>41</v>
+      </c>
+      <c r="M164" t="s">
+        <v>41</v>
+      </c>
+      <c r="N164" t="s">
+        <v>41</v>
+      </c>
+      <c r="O164" t="s">
+        <v>41</v>
+      </c>
+      <c r="P164" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>41</v>
+      </c>
+      <c r="R164" t="s">
+        <v>41</v>
+      </c>
+      <c r="S164" t="s">
+        <v>41</v>
+      </c>
+      <c r="T164" t="s">
+        <v>41</v>
+      </c>
+      <c r="U164" t="s">
+        <v>41</v>
+      </c>
+      <c r="V164" t="s">
+        <v>41</v>
+      </c>
+      <c r="W164" t="s">
+        <v>41</v>
+      </c>
+      <c r="X164" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y164" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z164" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA164" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB164" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC164" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD164" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE164" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF164" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG164" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH164" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI164" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ164" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK164" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL164" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM164" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN164" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO164" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="165" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>59</v>
+      </c>
+      <c r="C165" t="s">
+        <v>51</v>
+      </c>
+      <c r="D165" t="s">
+        <v>420</v>
+      </c>
+      <c r="E165" t="s">
+        <v>421</v>
+      </c>
+      <c r="F165" t="s">
+        <v>49</v>
+      </c>
+      <c r="G165" t="s">
+        <v>49</v>
+      </c>
+      <c r="H165" t="s">
+        <v>41</v>
+      </c>
+      <c r="I165" t="s">
+        <v>41</v>
+      </c>
+      <c r="J165" t="s">
+        <v>41</v>
+      </c>
+      <c r="K165" t="s">
+        <v>41</v>
+      </c>
+      <c r="L165" t="s">
+        <v>41</v>
+      </c>
+      <c r="M165" t="s">
+        <v>41</v>
+      </c>
+      <c r="N165" t="s">
+        <v>41</v>
+      </c>
+      <c r="O165" t="s">
+        <v>41</v>
+      </c>
+      <c r="P165" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>41</v>
+      </c>
+      <c r="R165" t="s">
+        <v>41</v>
+      </c>
+      <c r="S165" t="s">
+        <v>41</v>
+      </c>
+      <c r="T165" t="s">
+        <v>41</v>
+      </c>
+      <c r="U165" t="s">
+        <v>41</v>
+      </c>
+      <c r="V165" t="s">
+        <v>41</v>
+      </c>
+      <c r="W165" t="s">
+        <v>41</v>
+      </c>
+      <c r="X165" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y165" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z165" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA165" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB165" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC165" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD165" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE165" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF165" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG165" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH165" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI165" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ165" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK165" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL165" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM165" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN165" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO165" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="166" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>59</v>
+      </c>
+      <c r="C166" t="s">
+        <v>51</v>
+      </c>
+      <c r="D166" t="s">
+        <v>420</v>
+      </c>
+      <c r="E166" t="s">
+        <v>421</v>
+      </c>
+      <c r="F166" t="s">
+        <v>53</v>
+      </c>
+      <c r="G166" t="s">
+        <v>53</v>
+      </c>
+      <c r="H166" t="s">
+        <v>41</v>
+      </c>
+      <c r="I166" t="s">
+        <v>41</v>
+      </c>
+      <c r="J166" t="s">
+        <v>41</v>
+      </c>
+      <c r="K166" t="s">
+        <v>41</v>
+      </c>
+      <c r="L166" t="s">
+        <v>41</v>
+      </c>
+      <c r="M166" t="s">
+        <v>72</v>
+      </c>
+      <c r="N166" t="s">
+        <v>42</v>
+      </c>
+      <c r="O166" t="s">
+        <v>42</v>
+      </c>
+      <c r="P166" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>42</v>
+      </c>
+      <c r="R166" t="s">
+        <v>55</v>
+      </c>
+      <c r="S166" t="s">
+        <v>41</v>
+      </c>
+      <c r="T166" t="s">
+        <v>55</v>
+      </c>
+      <c r="U166" t="s">
+        <v>55</v>
+      </c>
+      <c r="V166" t="s">
+        <v>55</v>
+      </c>
+      <c r="W166" t="s">
+        <v>55</v>
+      </c>
+      <c r="X166" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y166" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z166" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA166" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB166" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC166" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD166" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE166" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF166" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG166" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH166" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI166" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ166" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK166" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL166" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM166" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN166" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO166" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="167" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>271</v>
+      </c>
+      <c r="C167" t="s">
+        <v>294</v>
+      </c>
+      <c r="D167" t="s">
+        <v>425</v>
+      </c>
+      <c r="E167" t="s">
+        <v>426</v>
+      </c>
+      <c r="F167" t="s">
+        <v>56</v>
+      </c>
+      <c r="G167" t="s">
+        <v>56</v>
+      </c>
+      <c r="H167" t="s">
+        <v>41</v>
+      </c>
+      <c r="I167" t="s">
+        <v>41</v>
+      </c>
+      <c r="J167" t="s">
+        <v>41</v>
+      </c>
+      <c r="K167" t="s">
+        <v>41</v>
+      </c>
+      <c r="L167" t="s">
+        <v>41</v>
+      </c>
+      <c r="M167" t="s">
+        <v>41</v>
+      </c>
+      <c r="N167" t="s">
+        <v>41</v>
+      </c>
+      <c r="O167" t="s">
+        <v>41</v>
+      </c>
+      <c r="P167" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>41</v>
+      </c>
+      <c r="R167" t="s">
+        <v>41</v>
+      </c>
+      <c r="S167" t="s">
+        <v>41</v>
+      </c>
+      <c r="T167" t="s">
+        <v>41</v>
+      </c>
+      <c r="U167" t="s">
+        <v>41</v>
+      </c>
+      <c r="V167" t="s">
+        <v>41</v>
+      </c>
+      <c r="W167" t="s">
+        <v>41</v>
+      </c>
+      <c r="X167" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y167" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z167" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA167" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB167" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC167" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD167" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE167" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF167" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG167" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH167" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI167" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ167" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK167" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL167" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM167" t="s">
+        <v>427</v>
+      </c>
+      <c r="AN167" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO167" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="168" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>271</v>
+      </c>
+      <c r="C168" t="s">
+        <v>294</v>
+      </c>
+      <c r="D168" t="s">
+        <v>425</v>
+      </c>
+      <c r="E168" t="s">
+        <v>426</v>
+      </c>
+      <c r="F168" t="s">
+        <v>56</v>
+      </c>
+      <c r="G168" t="s">
+        <v>56</v>
+      </c>
+      <c r="H168" t="s">
+        <v>41</v>
+      </c>
+      <c r="I168" t="s">
+        <v>41</v>
+      </c>
+      <c r="J168" t="s">
+        <v>41</v>
+      </c>
+      <c r="K168" t="s">
+        <v>41</v>
+      </c>
+      <c r="L168" t="s">
+        <v>41</v>
+      </c>
+      <c r="M168" t="s">
+        <v>41</v>
+      </c>
+      <c r="N168" t="s">
+        <v>41</v>
+      </c>
+      <c r="O168" t="s">
+        <v>41</v>
+      </c>
+      <c r="P168" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>41</v>
+      </c>
+      <c r="R168" t="s">
+        <v>41</v>
+      </c>
+      <c r="S168" t="s">
+        <v>41</v>
+      </c>
+      <c r="T168" t="s">
+        <v>41</v>
+      </c>
+      <c r="U168" t="s">
+        <v>41</v>
+      </c>
+      <c r="V168" t="s">
+        <v>41</v>
+      </c>
+      <c r="W168" t="s">
+        <v>41</v>
+      </c>
+      <c r="X168" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y168" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z168" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA168" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB168" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC168" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD168" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE168" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF168" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG168" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH168" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI168" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ168" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK168" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL168" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM168" t="s">
+        <v>429</v>
+      </c>
+      <c r="AN168" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO168" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="169" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>271</v>
+      </c>
+      <c r="C169" t="s">
+        <v>294</v>
+      </c>
+      <c r="D169" t="s">
+        <v>425</v>
+      </c>
+      <c r="E169" t="s">
+        <v>426</v>
+      </c>
+      <c r="F169" t="s">
+        <v>56</v>
+      </c>
+      <c r="G169" t="s">
+        <v>56</v>
+      </c>
+      <c r="H169" t="s">
+        <v>41</v>
+      </c>
+      <c r="I169" t="s">
+        <v>41</v>
+      </c>
+      <c r="J169" t="s">
+        <v>41</v>
+      </c>
+      <c r="K169" t="s">
+        <v>41</v>
+      </c>
+      <c r="L169" t="s">
+        <v>41</v>
+      </c>
+      <c r="M169" t="s">
+        <v>41</v>
+      </c>
+      <c r="N169" t="s">
+        <v>41</v>
+      </c>
+      <c r="O169" t="s">
+        <v>41</v>
+      </c>
+      <c r="P169" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>41</v>
+      </c>
+      <c r="R169" t="s">
+        <v>41</v>
+      </c>
+      <c r="S169" t="s">
+        <v>41</v>
+      </c>
+      <c r="T169" t="s">
+        <v>41</v>
+      </c>
+      <c r="U169" t="s">
+        <v>41</v>
+      </c>
+      <c r="V169" t="s">
+        <v>41</v>
+      </c>
+      <c r="W169" t="s">
+        <v>41</v>
+      </c>
+      <c r="X169" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y169" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z169" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA169" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB169" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC169" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD169" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE169" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF169" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG169" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH169" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI169" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ169" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK169" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL169" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM169" t="s">
+        <v>431</v>
+      </c>
+      <c r="AN169" t="s">
+        <v>432</v>
+      </c>
+      <c r="AO169" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="170" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>271</v>
+      </c>
+      <c r="C170" t="s">
+        <v>294</v>
+      </c>
+      <c r="D170" t="s">
+        <v>425</v>
+      </c>
+      <c r="E170" t="s">
+        <v>426</v>
+      </c>
+      <c r="F170" t="s">
+        <v>56</v>
+      </c>
+      <c r="G170" t="s">
+        <v>56</v>
+      </c>
+      <c r="H170" t="s">
+        <v>41</v>
+      </c>
+      <c r="I170" t="s">
+        <v>41</v>
+      </c>
+      <c r="J170" t="s">
+        <v>41</v>
+      </c>
+      <c r="K170" t="s">
+        <v>41</v>
+      </c>
+      <c r="L170" t="s">
+        <v>41</v>
+      </c>
+      <c r="M170" t="s">
+        <v>41</v>
+      </c>
+      <c r="N170" t="s">
+        <v>41</v>
+      </c>
+      <c r="O170" t="s">
+        <v>41</v>
+      </c>
+      <c r="P170" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>41</v>
+      </c>
+      <c r="R170" t="s">
+        <v>41</v>
+      </c>
+      <c r="S170" t="s">
+        <v>41</v>
+      </c>
+      <c r="T170" t="s">
+        <v>41</v>
+      </c>
+      <c r="U170" t="s">
+        <v>41</v>
+      </c>
+      <c r="V170" t="s">
+        <v>41</v>
+      </c>
+      <c r="W170" t="s">
+        <v>41</v>
+      </c>
+      <c r="X170" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y170" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z170" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA170" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB170" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC170" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD170" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE170" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF170" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG170" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH170" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI170" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ170" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK170" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL170" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM170" t="s">
+        <v>434</v>
+      </c>
+      <c r="AN170" t="s">
+        <v>434</v>
+      </c>
+      <c r="AO170" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="171" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>271</v>
+      </c>
+      <c r="C171" t="s">
+        <v>294</v>
+      </c>
+      <c r="D171" t="s">
+        <v>425</v>
+      </c>
+      <c r="E171" t="s">
+        <v>426</v>
+      </c>
+      <c r="F171" t="s">
+        <v>53</v>
+      </c>
+      <c r="G171" t="s">
+        <v>53</v>
+      </c>
+      <c r="H171" t="s">
+        <v>41</v>
+      </c>
+      <c r="I171" t="s">
+        <v>41</v>
+      </c>
+      <c r="J171" t="s">
+        <v>41</v>
+      </c>
+      <c r="K171" t="s">
+        <v>41</v>
+      </c>
+      <c r="L171" t="s">
+        <v>41</v>
+      </c>
+      <c r="M171" t="s">
+        <v>72</v>
+      </c>
+      <c r="N171" t="s">
+        <v>42</v>
+      </c>
+      <c r="O171" t="s">
+        <v>42</v>
+      </c>
+      <c r="P171" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>42</v>
+      </c>
+      <c r="R171" t="s">
+        <v>55</v>
+      </c>
+      <c r="S171" t="s">
+        <v>41</v>
+      </c>
+      <c r="T171" t="s">
+        <v>55</v>
+      </c>
+      <c r="U171" t="s">
+        <v>55</v>
+      </c>
+      <c r="V171" t="s">
+        <v>41</v>
+      </c>
+      <c r="W171" t="s">
+        <v>55</v>
+      </c>
+      <c r="X171" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y171" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z171" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA171" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB171" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC171" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD171" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE171" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF171" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG171" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH171" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI171" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ171" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK171" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL171" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM171" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN171" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO171" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="172" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>287</v>
+      </c>
+      <c r="C172" t="s">
+        <v>294</v>
+      </c>
+      <c r="D172" t="s">
+        <v>437</v>
+      </c>
+      <c r="E172" t="s">
+        <v>426</v>
+      </c>
+      <c r="F172" t="s">
+        <v>53</v>
+      </c>
+      <c r="G172" t="s">
+        <v>53</v>
+      </c>
+      <c r="H172" t="s">
+        <v>41</v>
+      </c>
+      <c r="I172" t="s">
+        <v>41</v>
+      </c>
+      <c r="J172" t="s">
+        <v>41</v>
+      </c>
+      <c r="K172" t="s">
+        <v>41</v>
+      </c>
+      <c r="L172" t="s">
+        <v>41</v>
+      </c>
+      <c r="M172" t="s">
+        <v>48</v>
+      </c>
+      <c r="N172" t="s">
+        <v>236</v>
+      </c>
+      <c r="O172" t="s">
+        <v>42</v>
+      </c>
+      <c r="P172" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>42</v>
+      </c>
+      <c r="R172" t="s">
+        <v>55</v>
+      </c>
+      <c r="S172" t="s">
+        <v>41</v>
+      </c>
+      <c r="T172" t="s">
+        <v>55</v>
+      </c>
+      <c r="U172" t="s">
+        <v>55</v>
+      </c>
+      <c r="V172" t="s">
+        <v>55</v>
+      </c>
+      <c r="W172" t="s">
+        <v>55</v>
+      </c>
+      <c r="X172" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y172" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z172" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA172" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB172" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC172" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD172" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE172" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF172" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG172" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH172" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI172" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ172" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK172" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL172" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM172" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN172" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO172" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="173" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>271</v>
+      </c>
+      <c r="C173" t="s">
+        <v>294</v>
+      </c>
+      <c r="D173" t="s">
+        <v>415</v>
+      </c>
+      <c r="E173" t="s">
+        <v>439</v>
+      </c>
+      <c r="F173" t="s">
+        <v>56</v>
+      </c>
+      <c r="G173" t="s">
+        <v>56</v>
+      </c>
+      <c r="H173" t="s">
+        <v>41</v>
+      </c>
+      <c r="I173" t="s">
+        <v>41</v>
+      </c>
+      <c r="J173" t="s">
+        <v>41</v>
+      </c>
+      <c r="K173" t="s">
+        <v>41</v>
+      </c>
+      <c r="L173" t="s">
+        <v>41</v>
+      </c>
+      <c r="M173" t="s">
+        <v>41</v>
+      </c>
+      <c r="N173" t="s">
+        <v>41</v>
+      </c>
+      <c r="O173" t="s">
+        <v>41</v>
+      </c>
+      <c r="P173" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>41</v>
+      </c>
+      <c r="R173" t="s">
+        <v>41</v>
+      </c>
+      <c r="S173" t="s">
+        <v>41</v>
+      </c>
+      <c r="T173" t="s">
+        <v>41</v>
+      </c>
+      <c r="U173" t="s">
+        <v>41</v>
+      </c>
+      <c r="V173" t="s">
+        <v>41</v>
+      </c>
+      <c r="W173" t="s">
+        <v>41</v>
+      </c>
+      <c r="X173" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y173" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z173" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA173" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB173" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC173" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD173" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE173" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF173" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG173" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH173" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI173" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ173" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK173" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL173" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM173" t="s">
+        <v>440</v>
+      </c>
+      <c r="AN173" t="s">
+        <v>441</v>
+      </c>
+      <c r="AO173" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="174" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>271</v>
+      </c>
+      <c r="C174" t="s">
+        <v>294</v>
+      </c>
+      <c r="D174" t="s">
+        <v>415</v>
+      </c>
+      <c r="E174" t="s">
+        <v>439</v>
+      </c>
+      <c r="F174" t="s">
+        <v>56</v>
+      </c>
+      <c r="G174" t="s">
+        <v>56</v>
+      </c>
+      <c r="H174" t="s">
+        <v>41</v>
+      </c>
+      <c r="I174" t="s">
+        <v>41</v>
+      </c>
+      <c r="J174" t="s">
+        <v>41</v>
+      </c>
+      <c r="K174" t="s">
+        <v>41</v>
+      </c>
+      <c r="L174" t="s">
+        <v>41</v>
+      </c>
+      <c r="M174" t="s">
+        <v>41</v>
+      </c>
+      <c r="N174" t="s">
+        <v>41</v>
+      </c>
+      <c r="O174" t="s">
+        <v>41</v>
+      </c>
+      <c r="P174" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>41</v>
+      </c>
+      <c r="R174" t="s">
+        <v>41</v>
+      </c>
+      <c r="S174" t="s">
+        <v>41</v>
+      </c>
+      <c r="T174" t="s">
+        <v>41</v>
+      </c>
+      <c r="U174" t="s">
+        <v>41</v>
+      </c>
+      <c r="V174" t="s">
+        <v>41</v>
+      </c>
+      <c r="W174" t="s">
+        <v>41</v>
+      </c>
+      <c r="X174" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y174" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z174" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA174" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB174" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC174" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD174" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE174" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF174" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG174" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH174" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI174" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ174" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK174" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL174" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM174" t="s">
+        <v>443</v>
+      </c>
+      <c r="AN174" t="s">
+        <v>444</v>
+      </c>
+      <c r="AO174" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="175" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>271</v>
+      </c>
+      <c r="C175" t="s">
+        <v>294</v>
+      </c>
+      <c r="D175" t="s">
+        <v>415</v>
+      </c>
+      <c r="E175" t="s">
+        <v>439</v>
+      </c>
+      <c r="F175" t="s">
+        <v>56</v>
+      </c>
+      <c r="G175" t="s">
+        <v>56</v>
+      </c>
+      <c r="H175" t="s">
+        <v>41</v>
+      </c>
+      <c r="I175" t="s">
+        <v>41</v>
+      </c>
+      <c r="J175" t="s">
+        <v>41</v>
+      </c>
+      <c r="K175" t="s">
+        <v>41</v>
+      </c>
+      <c r="L175" t="s">
+        <v>41</v>
+      </c>
+      <c r="M175" t="s">
+        <v>41</v>
+      </c>
+      <c r="N175" t="s">
+        <v>41</v>
+      </c>
+      <c r="O175" t="s">
+        <v>41</v>
+      </c>
+      <c r="P175" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>41</v>
+      </c>
+      <c r="R175" t="s">
+        <v>41</v>
+      </c>
+      <c r="S175" t="s">
+        <v>41</v>
+      </c>
+      <c r="T175" t="s">
+        <v>41</v>
+      </c>
+      <c r="U175" t="s">
+        <v>41</v>
+      </c>
+      <c r="V175" t="s">
+        <v>41</v>
+      </c>
+      <c r="W175" t="s">
+        <v>41</v>
+      </c>
+      <c r="X175" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y175" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z175" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA175" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB175" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC175" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD175" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE175" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF175" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG175" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH175" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI175" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ175" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK175" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL175" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM175" t="s">
+        <v>446</v>
+      </c>
+      <c r="AN175" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO175" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="176" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>271</v>
+      </c>
+      <c r="C176" t="s">
+        <v>294</v>
+      </c>
+      <c r="D176" t="s">
+        <v>415</v>
+      </c>
+      <c r="E176" t="s">
+        <v>439</v>
+      </c>
+      <c r="F176" t="s">
+        <v>56</v>
+      </c>
+      <c r="G176" t="s">
+        <v>56</v>
+      </c>
+      <c r="H176" t="s">
+        <v>41</v>
+      </c>
+      <c r="I176" t="s">
+        <v>41</v>
+      </c>
+      <c r="J176" t="s">
+        <v>41</v>
+      </c>
+      <c r="K176" t="s">
+        <v>41</v>
+      </c>
+      <c r="L176" t="s">
+        <v>41</v>
+      </c>
+      <c r="M176" t="s">
+        <v>41</v>
+      </c>
+      <c r="N176" t="s">
+        <v>41</v>
+      </c>
+      <c r="O176" t="s">
+        <v>41</v>
+      </c>
+      <c r="P176" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>41</v>
+      </c>
+      <c r="R176" t="s">
+        <v>41</v>
+      </c>
+      <c r="S176" t="s">
+        <v>41</v>
+      </c>
+      <c r="T176" t="s">
+        <v>41</v>
+      </c>
+      <c r="U176" t="s">
+        <v>41</v>
+      </c>
+      <c r="V176" t="s">
+        <v>41</v>
+      </c>
+      <c r="W176" t="s">
+        <v>41</v>
+      </c>
+      <c r="X176" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y176" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z176" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA176" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB176" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC176" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD176" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE176" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF176" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG176" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH176" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI176" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ176" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK176" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL176" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM176" t="s">
+        <v>448</v>
+      </c>
+      <c r="AN176" t="s">
+        <v>449</v>
+      </c>
+      <c r="AO176" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="177" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>271</v>
+      </c>
+      <c r="C177" t="s">
+        <v>294</v>
+      </c>
+      <c r="D177" t="s">
+        <v>415</v>
+      </c>
+      <c r="E177" t="s">
+        <v>439</v>
+      </c>
+      <c r="F177" t="s">
+        <v>56</v>
+      </c>
+      <c r="G177" t="s">
+        <v>56</v>
+      </c>
+      <c r="H177" t="s">
+        <v>41</v>
+      </c>
+      <c r="I177" t="s">
+        <v>41</v>
+      </c>
+      <c r="J177" t="s">
+        <v>41</v>
+      </c>
+      <c r="K177" t="s">
+        <v>41</v>
+      </c>
+      <c r="L177" t="s">
+        <v>41</v>
+      </c>
+      <c r="M177" t="s">
+        <v>41</v>
+      </c>
+      <c r="N177" t="s">
+        <v>41</v>
+      </c>
+      <c r="O177" t="s">
+        <v>41</v>
+      </c>
+      <c r="P177" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>41</v>
+      </c>
+      <c r="R177" t="s">
+        <v>41</v>
+      </c>
+      <c r="S177" t="s">
+        <v>41</v>
+      </c>
+      <c r="T177" t="s">
+        <v>41</v>
+      </c>
+      <c r="U177" t="s">
+        <v>41</v>
+      </c>
+      <c r="V177" t="s">
+        <v>41</v>
+      </c>
+      <c r="W177" t="s">
+        <v>41</v>
+      </c>
+      <c r="X177" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y177" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z177" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA177" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB177" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC177" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD177" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE177" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF177" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG177" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH177" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI177" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ177" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK177" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL177" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM177" t="s">
+        <v>451</v>
+      </c>
+      <c r="AN177" t="s">
+        <v>452</v>
+      </c>
+      <c r="AO177" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="178" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>271</v>
+      </c>
+      <c r="C178" t="s">
+        <v>294</v>
+      </c>
+      <c r="D178" t="s">
+        <v>415</v>
+      </c>
+      <c r="E178" t="s">
+        <v>439</v>
+      </c>
+      <c r="F178" t="s">
+        <v>56</v>
+      </c>
+      <c r="G178" t="s">
+        <v>56</v>
+      </c>
+      <c r="H178" t="s">
+        <v>41</v>
+      </c>
+      <c r="I178" t="s">
+        <v>41</v>
+      </c>
+      <c r="J178" t="s">
+        <v>41</v>
+      </c>
+      <c r="K178" t="s">
+        <v>41</v>
+      </c>
+      <c r="L178" t="s">
+        <v>41</v>
+      </c>
+      <c r="M178" t="s">
+        <v>41</v>
+      </c>
+      <c r="N178" t="s">
+        <v>41</v>
+      </c>
+      <c r="O178" t="s">
+        <v>41</v>
+      </c>
+      <c r="P178" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>41</v>
+      </c>
+      <c r="R178" t="s">
+        <v>41</v>
+      </c>
+      <c r="S178" t="s">
+        <v>41</v>
+      </c>
+      <c r="T178" t="s">
+        <v>41</v>
+      </c>
+      <c r="U178" t="s">
+        <v>41</v>
+      </c>
+      <c r="V178" t="s">
+        <v>41</v>
+      </c>
+      <c r="W178" t="s">
+        <v>41</v>
+      </c>
+      <c r="X178" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y178" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z178" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA178" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB178" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC178" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD178" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE178" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF178" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG178" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH178" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI178" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ178" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK178" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL178" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM178" t="s">
+        <v>454</v>
+      </c>
+      <c r="AN178" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO178" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="179" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>271</v>
+      </c>
+      <c r="C179" t="s">
+        <v>294</v>
+      </c>
+      <c r="D179" t="s">
+        <v>415</v>
+      </c>
+      <c r="E179" t="s">
+        <v>439</v>
+      </c>
+      <c r="F179" t="s">
+        <v>56</v>
+      </c>
+      <c r="G179" t="s">
+        <v>56</v>
+      </c>
+      <c r="H179" t="s">
+        <v>41</v>
+      </c>
+      <c r="I179" t="s">
+        <v>41</v>
+      </c>
+      <c r="J179" t="s">
+        <v>41</v>
+      </c>
+      <c r="K179" t="s">
+        <v>41</v>
+      </c>
+      <c r="L179" t="s">
+        <v>41</v>
+      </c>
+      <c r="M179" t="s">
+        <v>41</v>
+      </c>
+      <c r="N179" t="s">
+        <v>41</v>
+      </c>
+      <c r="O179" t="s">
+        <v>41</v>
+      </c>
+      <c r="P179" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>41</v>
+      </c>
+      <c r="R179" t="s">
+        <v>41</v>
+      </c>
+      <c r="S179" t="s">
+        <v>41</v>
+      </c>
+      <c r="T179" t="s">
+        <v>41</v>
+      </c>
+      <c r="U179" t="s">
+        <v>41</v>
+      </c>
+      <c r="V179" t="s">
+        <v>41</v>
+      </c>
+      <c r="W179" t="s">
+        <v>41</v>
+      </c>
+      <c r="X179" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y179" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z179" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA179" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB179" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC179" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD179" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE179" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF179" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG179" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH179" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI179" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ179" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK179" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL179" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM179" t="s">
+        <v>456</v>
+      </c>
+      <c r="AN179" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO179" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="180" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>271</v>
+      </c>
+      <c r="C180" t="s">
+        <v>294</v>
+      </c>
+      <c r="D180" t="s">
+        <v>415</v>
+      </c>
+      <c r="E180" t="s">
+        <v>439</v>
+      </c>
+      <c r="F180" t="s">
+        <v>56</v>
+      </c>
+      <c r="G180" t="s">
+        <v>56</v>
+      </c>
+      <c r="H180" t="s">
+        <v>41</v>
+      </c>
+      <c r="I180" t="s">
+        <v>41</v>
+      </c>
+      <c r="J180" t="s">
+        <v>41</v>
+      </c>
+      <c r="K180" t="s">
+        <v>41</v>
+      </c>
+      <c r="L180" t="s">
+        <v>41</v>
+      </c>
+      <c r="M180" t="s">
+        <v>41</v>
+      </c>
+      <c r="N180" t="s">
+        <v>41</v>
+      </c>
+      <c r="O180" t="s">
+        <v>41</v>
+      </c>
+      <c r="P180" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>41</v>
+      </c>
+      <c r="R180" t="s">
+        <v>41</v>
+      </c>
+      <c r="S180" t="s">
+        <v>41</v>
+      </c>
+      <c r="T180" t="s">
+        <v>41</v>
+      </c>
+      <c r="U180" t="s">
+        <v>41</v>
+      </c>
+      <c r="V180" t="s">
+        <v>41</v>
+      </c>
+      <c r="W180" t="s">
+        <v>41</v>
+      </c>
+      <c r="X180" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y180" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z180" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA180" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB180" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC180" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD180" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE180" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF180" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG180" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH180" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI180" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ180" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK180" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL180" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM180" t="s">
+        <v>458</v>
+      </c>
+      <c r="AN180" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO180" t="s">
+        <v>459</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/toutReponse.xlsx
+++ b/toutReponse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Etape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AECC64C-03C0-451E-AD41-DE6A6EE678AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1361D7B-F275-408C-85EE-D17CE2970AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7066" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7506" uniqueCount="479">
   <si>
     <t>id</t>
   </si>
@@ -1400,6 +1400,63 @@
   </si>
   <si>
     <t>2021-10-05 09:27:07</t>
+  </si>
+  <si>
+    <t>2021-10-18</t>
+  </si>
+  <si>
+    <t>2021-10-18 13:07:46</t>
+  </si>
+  <si>
+    <t>j'ai été très satisfaite de la primo sociale. Nous avons appris beaucoup de choses et notre formatrice (Aline) a été très gentille et très efficace. merci beaucoup !</t>
+  </si>
+  <si>
+    <t>2021-10-18 13:11:37</t>
+  </si>
+  <si>
+    <t>Cette primo sociale m'a apporté une confiance en moi. Tous les ateliers m'ont appris différentes choses très intéressantes mais aussi plus rassurée et de partager en groupe. Notre formatrice Aline a été pour moi très importante pour me sentir mieux et avancer par la suite sur la primo sociale.</t>
+  </si>
+  <si>
+    <t>2021-10-18 13:19:02</t>
+  </si>
+  <si>
+    <t>L'Etape m'a beaucoup apporté. Sortir de ma solitude, rencontre avec le groupe. Aline a était très à l'écoute de toutes et tous, toujours souriante et nous aidant dans nos différents problèmes. J'ai beaucoup appris. Merci à tous les intervenants.</t>
+  </si>
+  <si>
+    <t>2021-10-18 13:21:46</t>
+  </si>
+  <si>
+    <t>2021-10-18 13:22:52</t>
+  </si>
+  <si>
+    <t>Très satisfaisant. Bilan positif. Intéressant de partager l'expérience collective du groupe.</t>
+  </si>
+  <si>
+    <t>2021-10-18 13:25:03</t>
+  </si>
+  <si>
+    <t>Le groupe a été acteur dans la présentation du bilan. On sent un groupe uni, bienveillant et dynamique.</t>
+  </si>
+  <si>
+    <t>2021-10-18 13:26:31</t>
+  </si>
+  <si>
+    <t>action très positive avec beaucoup d'ateliers intéressants. Des suites de parcours pour la plupart des stagiaires.</t>
+  </si>
+  <si>
+    <t>2021-10-18 13:28:05</t>
+  </si>
+  <si>
+    <t>2021-10-18 13:37:40</t>
+  </si>
+  <si>
+    <t>2021-10-18 13:38:54</t>
+  </si>
+  <si>
+    <t>Le groupe a été particulièrement dynamique et participatif. Les sensibilisations effectuées en amont ont facilité mon intervention sur l’impact environnemental de notre consommation.</t>
+  </si>
+  <si>
+    <t>2021-10-18 13:39:58</t>
   </si>
 </sst>
 </file>
@@ -2313,10 +2370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO180"/>
+  <dimension ref="A1:AO191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="D171" sqref="D171:E171"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24566,6 +24623,1381 @@
         <v>459</v>
       </c>
     </row>
+    <row r="181" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>47</v>
+      </c>
+      <c r="C181" t="s">
+        <v>87</v>
+      </c>
+      <c r="D181" t="s">
+        <v>78</v>
+      </c>
+      <c r="E181" t="s">
+        <v>460</v>
+      </c>
+      <c r="F181" t="s">
+        <v>56</v>
+      </c>
+      <c r="G181" t="s">
+        <v>56</v>
+      </c>
+      <c r="H181" t="s">
+        <v>41</v>
+      </c>
+      <c r="I181" t="s">
+        <v>41</v>
+      </c>
+      <c r="J181" t="s">
+        <v>41</v>
+      </c>
+      <c r="K181" t="s">
+        <v>41</v>
+      </c>
+      <c r="L181" t="s">
+        <v>41</v>
+      </c>
+      <c r="M181" t="s">
+        <v>41</v>
+      </c>
+      <c r="N181" t="s">
+        <v>41</v>
+      </c>
+      <c r="O181" t="s">
+        <v>41</v>
+      </c>
+      <c r="P181" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>41</v>
+      </c>
+      <c r="R181" t="s">
+        <v>41</v>
+      </c>
+      <c r="S181" t="s">
+        <v>41</v>
+      </c>
+      <c r="T181" t="s">
+        <v>41</v>
+      </c>
+      <c r="U181" t="s">
+        <v>41</v>
+      </c>
+      <c r="V181" t="s">
+        <v>41</v>
+      </c>
+      <c r="W181" t="s">
+        <v>41</v>
+      </c>
+      <c r="X181" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y181" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z181" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA181" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB181" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC181" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD181" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE181" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF181" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG181" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH181" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI181" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ181" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK181" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL181" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM181" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN181" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO181" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="182" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>47</v>
+      </c>
+      <c r="C182" t="s">
+        <v>87</v>
+      </c>
+      <c r="D182" t="s">
+        <v>78</v>
+      </c>
+      <c r="E182" t="s">
+        <v>460</v>
+      </c>
+      <c r="F182" t="s">
+        <v>56</v>
+      </c>
+      <c r="G182" t="s">
+        <v>56</v>
+      </c>
+      <c r="H182" t="s">
+        <v>41</v>
+      </c>
+      <c r="I182" t="s">
+        <v>41</v>
+      </c>
+      <c r="J182" t="s">
+        <v>41</v>
+      </c>
+      <c r="K182" t="s">
+        <v>41</v>
+      </c>
+      <c r="L182" t="s">
+        <v>41</v>
+      </c>
+      <c r="M182" t="s">
+        <v>41</v>
+      </c>
+      <c r="N182" t="s">
+        <v>41</v>
+      </c>
+      <c r="O182" t="s">
+        <v>41</v>
+      </c>
+      <c r="P182" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>41</v>
+      </c>
+      <c r="R182" t="s">
+        <v>41</v>
+      </c>
+      <c r="S182" t="s">
+        <v>41</v>
+      </c>
+      <c r="T182" t="s">
+        <v>41</v>
+      </c>
+      <c r="U182" t="s">
+        <v>41</v>
+      </c>
+      <c r="V182" t="s">
+        <v>41</v>
+      </c>
+      <c r="W182" t="s">
+        <v>41</v>
+      </c>
+      <c r="X182" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y182" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z182" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA182" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB182" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC182" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD182" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE182" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF182" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG182" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH182" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI182" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ182" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK182" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL182" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM182" t="s">
+        <v>462</v>
+      </c>
+      <c r="AN182" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO182" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="183" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>47</v>
+      </c>
+      <c r="C183" t="s">
+        <v>87</v>
+      </c>
+      <c r="D183" t="s">
+        <v>78</v>
+      </c>
+      <c r="E183" t="s">
+        <v>460</v>
+      </c>
+      <c r="F183" t="s">
+        <v>56</v>
+      </c>
+      <c r="G183" t="s">
+        <v>56</v>
+      </c>
+      <c r="H183" t="s">
+        <v>41</v>
+      </c>
+      <c r="I183" t="s">
+        <v>41</v>
+      </c>
+      <c r="J183" t="s">
+        <v>41</v>
+      </c>
+      <c r="K183" t="s">
+        <v>41</v>
+      </c>
+      <c r="L183" t="s">
+        <v>41</v>
+      </c>
+      <c r="M183" t="s">
+        <v>41</v>
+      </c>
+      <c r="N183" t="s">
+        <v>41</v>
+      </c>
+      <c r="O183" t="s">
+        <v>41</v>
+      </c>
+      <c r="P183" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>41</v>
+      </c>
+      <c r="R183" t="s">
+        <v>41</v>
+      </c>
+      <c r="S183" t="s">
+        <v>41</v>
+      </c>
+      <c r="T183" t="s">
+        <v>41</v>
+      </c>
+      <c r="U183" t="s">
+        <v>41</v>
+      </c>
+      <c r="V183" t="s">
+        <v>41</v>
+      </c>
+      <c r="W183" t="s">
+        <v>41</v>
+      </c>
+      <c r="X183" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y183" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z183" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA183" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB183" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC183" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD183" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE183" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF183" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG183" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH183" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI183" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ183" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK183" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL183" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM183" t="s">
+        <v>464</v>
+      </c>
+      <c r="AN183" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO183" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="184" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>47</v>
+      </c>
+      <c r="C184" t="s">
+        <v>87</v>
+      </c>
+      <c r="D184" t="s">
+        <v>78</v>
+      </c>
+      <c r="E184" t="s">
+        <v>460</v>
+      </c>
+      <c r="F184" t="s">
+        <v>56</v>
+      </c>
+      <c r="G184" t="s">
+        <v>56</v>
+      </c>
+      <c r="H184" t="s">
+        <v>41</v>
+      </c>
+      <c r="I184" t="s">
+        <v>41</v>
+      </c>
+      <c r="J184" t="s">
+        <v>41</v>
+      </c>
+      <c r="K184" t="s">
+        <v>41</v>
+      </c>
+      <c r="L184" t="s">
+        <v>41</v>
+      </c>
+      <c r="M184" t="s">
+        <v>41</v>
+      </c>
+      <c r="N184" t="s">
+        <v>41</v>
+      </c>
+      <c r="O184" t="s">
+        <v>41</v>
+      </c>
+      <c r="P184" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>41</v>
+      </c>
+      <c r="R184" t="s">
+        <v>41</v>
+      </c>
+      <c r="S184" t="s">
+        <v>41</v>
+      </c>
+      <c r="T184" t="s">
+        <v>41</v>
+      </c>
+      <c r="U184" t="s">
+        <v>41</v>
+      </c>
+      <c r="V184" t="s">
+        <v>41</v>
+      </c>
+      <c r="W184" t="s">
+        <v>41</v>
+      </c>
+      <c r="X184" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y184" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z184" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA184" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB184" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC184" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD184" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE184" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF184" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG184" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH184" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI184" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ184" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK184" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL184" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM184" t="s">
+        <v>466</v>
+      </c>
+      <c r="AN184" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO184" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="185" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>47</v>
+      </c>
+      <c r="C185" t="s">
+        <v>87</v>
+      </c>
+      <c r="D185" t="s">
+        <v>78</v>
+      </c>
+      <c r="E185" t="s">
+        <v>460</v>
+      </c>
+      <c r="F185" t="s">
+        <v>56</v>
+      </c>
+      <c r="G185" t="s">
+        <v>56</v>
+      </c>
+      <c r="H185" t="s">
+        <v>41</v>
+      </c>
+      <c r="I185" t="s">
+        <v>41</v>
+      </c>
+      <c r="J185" t="s">
+        <v>41</v>
+      </c>
+      <c r="K185" t="s">
+        <v>41</v>
+      </c>
+      <c r="L185" t="s">
+        <v>41</v>
+      </c>
+      <c r="M185" t="s">
+        <v>41</v>
+      </c>
+      <c r="N185" t="s">
+        <v>41</v>
+      </c>
+      <c r="O185" t="s">
+        <v>41</v>
+      </c>
+      <c r="P185" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>41</v>
+      </c>
+      <c r="R185" t="s">
+        <v>41</v>
+      </c>
+      <c r="S185" t="s">
+        <v>41</v>
+      </c>
+      <c r="T185" t="s">
+        <v>41</v>
+      </c>
+      <c r="U185" t="s">
+        <v>41</v>
+      </c>
+      <c r="V185" t="s">
+        <v>41</v>
+      </c>
+      <c r="W185" t="s">
+        <v>41</v>
+      </c>
+      <c r="X185" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y185" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z185" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA185" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB185" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC185" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD185" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE185" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF185" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG185" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH185" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI185" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ185" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK185" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL185" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM185" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN185" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO185" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="186" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>47</v>
+      </c>
+      <c r="C186" t="s">
+        <v>87</v>
+      </c>
+      <c r="D186" t="s">
+        <v>78</v>
+      </c>
+      <c r="E186" t="s">
+        <v>460</v>
+      </c>
+      <c r="F186" t="s">
+        <v>49</v>
+      </c>
+      <c r="G186" t="s">
+        <v>49</v>
+      </c>
+      <c r="H186" t="s">
+        <v>41</v>
+      </c>
+      <c r="I186" t="s">
+        <v>41</v>
+      </c>
+      <c r="J186" t="s">
+        <v>41</v>
+      </c>
+      <c r="K186" t="s">
+        <v>41</v>
+      </c>
+      <c r="L186" t="s">
+        <v>41</v>
+      </c>
+      <c r="M186" t="s">
+        <v>41</v>
+      </c>
+      <c r="N186" t="s">
+        <v>41</v>
+      </c>
+      <c r="O186" t="s">
+        <v>41</v>
+      </c>
+      <c r="P186" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>41</v>
+      </c>
+      <c r="R186" t="s">
+        <v>41</v>
+      </c>
+      <c r="S186" t="s">
+        <v>41</v>
+      </c>
+      <c r="T186" t="s">
+        <v>41</v>
+      </c>
+      <c r="U186" t="s">
+        <v>41</v>
+      </c>
+      <c r="V186" t="s">
+        <v>41</v>
+      </c>
+      <c r="W186" t="s">
+        <v>41</v>
+      </c>
+      <c r="X186" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y186" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z186" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA186" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB186" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC186" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD186" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE186" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF186" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG186" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH186" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI186" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ186" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK186" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL186" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM186" t="s">
+        <v>469</v>
+      </c>
+      <c r="AN186" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO186" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="187" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>47</v>
+      </c>
+      <c r="C187" t="s">
+        <v>87</v>
+      </c>
+      <c r="D187" t="s">
+        <v>78</v>
+      </c>
+      <c r="E187" t="s">
+        <v>460</v>
+      </c>
+      <c r="F187" t="s">
+        <v>49</v>
+      </c>
+      <c r="G187" t="s">
+        <v>49</v>
+      </c>
+      <c r="H187" t="s">
+        <v>41</v>
+      </c>
+      <c r="I187" t="s">
+        <v>41</v>
+      </c>
+      <c r="J187" t="s">
+        <v>41</v>
+      </c>
+      <c r="K187" t="s">
+        <v>41</v>
+      </c>
+      <c r="L187" t="s">
+        <v>41</v>
+      </c>
+      <c r="M187" t="s">
+        <v>41</v>
+      </c>
+      <c r="N187" t="s">
+        <v>41</v>
+      </c>
+      <c r="O187" t="s">
+        <v>41</v>
+      </c>
+      <c r="P187" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>41</v>
+      </c>
+      <c r="R187" t="s">
+        <v>41</v>
+      </c>
+      <c r="S187" t="s">
+        <v>41</v>
+      </c>
+      <c r="T187" t="s">
+        <v>41</v>
+      </c>
+      <c r="U187" t="s">
+        <v>41</v>
+      </c>
+      <c r="V187" t="s">
+        <v>41</v>
+      </c>
+      <c r="W187" t="s">
+        <v>41</v>
+      </c>
+      <c r="X187" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y187" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z187" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA187" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB187" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC187" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD187" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE187" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF187" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG187" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH187" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI187" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ187" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK187" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL187" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM187" t="s">
+        <v>471</v>
+      </c>
+      <c r="AN187" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO187" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="188" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>47</v>
+      </c>
+      <c r="C188" t="s">
+        <v>87</v>
+      </c>
+      <c r="D188" t="s">
+        <v>78</v>
+      </c>
+      <c r="E188" t="s">
+        <v>460</v>
+      </c>
+      <c r="F188" t="s">
+        <v>268</v>
+      </c>
+      <c r="G188" t="s">
+        <v>268</v>
+      </c>
+      <c r="H188" t="s">
+        <v>45</v>
+      </c>
+      <c r="I188" t="s">
+        <v>45</v>
+      </c>
+      <c r="J188" t="s">
+        <v>45</v>
+      </c>
+      <c r="K188" t="s">
+        <v>45</v>
+      </c>
+      <c r="L188" t="s">
+        <v>45</v>
+      </c>
+      <c r="M188" t="s">
+        <v>41</v>
+      </c>
+      <c r="N188" t="s">
+        <v>41</v>
+      </c>
+      <c r="O188" t="s">
+        <v>41</v>
+      </c>
+      <c r="P188" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>41</v>
+      </c>
+      <c r="R188" t="s">
+        <v>41</v>
+      </c>
+      <c r="S188" t="s">
+        <v>41</v>
+      </c>
+      <c r="T188" t="s">
+        <v>41</v>
+      </c>
+      <c r="U188" t="s">
+        <v>41</v>
+      </c>
+      <c r="V188" t="s">
+        <v>41</v>
+      </c>
+      <c r="W188" t="s">
+        <v>41</v>
+      </c>
+      <c r="X188" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y188" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z188" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA188" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB188" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC188" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD188" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE188" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF188" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG188" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH188" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI188" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ188" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK188" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL188" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM188" t="s">
+        <v>473</v>
+      </c>
+      <c r="AN188" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO188" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="189" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>47</v>
+      </c>
+      <c r="C189" t="s">
+        <v>87</v>
+      </c>
+      <c r="D189" t="s">
+        <v>78</v>
+      </c>
+      <c r="E189" t="s">
+        <v>460</v>
+      </c>
+      <c r="F189" t="s">
+        <v>53</v>
+      </c>
+      <c r="G189" t="s">
+        <v>53</v>
+      </c>
+      <c r="H189" t="s">
+        <v>41</v>
+      </c>
+      <c r="I189" t="s">
+        <v>41</v>
+      </c>
+      <c r="J189" t="s">
+        <v>41</v>
+      </c>
+      <c r="K189" t="s">
+        <v>41</v>
+      </c>
+      <c r="L189" t="s">
+        <v>41</v>
+      </c>
+      <c r="M189" t="s">
+        <v>72</v>
+      </c>
+      <c r="N189" t="s">
+        <v>42</v>
+      </c>
+      <c r="O189" t="s">
+        <v>42</v>
+      </c>
+      <c r="P189" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>42</v>
+      </c>
+      <c r="R189" t="s">
+        <v>55</v>
+      </c>
+      <c r="S189" t="s">
+        <v>41</v>
+      </c>
+      <c r="T189" t="s">
+        <v>55</v>
+      </c>
+      <c r="U189" t="s">
+        <v>55</v>
+      </c>
+      <c r="V189" t="s">
+        <v>55</v>
+      </c>
+      <c r="W189" t="s">
+        <v>55</v>
+      </c>
+      <c r="X189" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y189" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z189" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA189" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB189" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC189" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD189" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE189" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF189" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG189" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH189" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI189" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ189" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK189" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL189" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM189" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN189" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO189" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="190" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>47</v>
+      </c>
+      <c r="C190" t="s">
+        <v>87</v>
+      </c>
+      <c r="D190" t="s">
+        <v>78</v>
+      </c>
+      <c r="E190" t="s">
+        <v>460</v>
+      </c>
+      <c r="F190" t="s">
+        <v>53</v>
+      </c>
+      <c r="G190" t="s">
+        <v>53</v>
+      </c>
+      <c r="H190" t="s">
+        <v>41</v>
+      </c>
+      <c r="I190" t="s">
+        <v>41</v>
+      </c>
+      <c r="J190" t="s">
+        <v>41</v>
+      </c>
+      <c r="K190" t="s">
+        <v>41</v>
+      </c>
+      <c r="L190" t="s">
+        <v>41</v>
+      </c>
+      <c r="M190" t="s">
+        <v>48</v>
+      </c>
+      <c r="N190" t="s">
+        <v>42</v>
+      </c>
+      <c r="O190" t="s">
+        <v>42</v>
+      </c>
+      <c r="P190" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>42</v>
+      </c>
+      <c r="R190" t="s">
+        <v>55</v>
+      </c>
+      <c r="S190" t="s">
+        <v>41</v>
+      </c>
+      <c r="T190" t="s">
+        <v>55</v>
+      </c>
+      <c r="U190" t="s">
+        <v>55</v>
+      </c>
+      <c r="V190" t="s">
+        <v>55</v>
+      </c>
+      <c r="W190" t="s">
+        <v>55</v>
+      </c>
+      <c r="X190" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y190" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z190" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA190" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB190" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC190" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD190" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE190" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF190" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG190" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH190" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI190" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ190" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK190" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL190" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM190" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN190" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO190" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="191" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>47</v>
+      </c>
+      <c r="C191" t="s">
+        <v>87</v>
+      </c>
+      <c r="D191" t="s">
+        <v>78</v>
+      </c>
+      <c r="E191" t="s">
+        <v>460</v>
+      </c>
+      <c r="F191" t="s">
+        <v>53</v>
+      </c>
+      <c r="G191" t="s">
+        <v>53</v>
+      </c>
+      <c r="H191" t="s">
+        <v>41</v>
+      </c>
+      <c r="I191" t="s">
+        <v>41</v>
+      </c>
+      <c r="J191" t="s">
+        <v>41</v>
+      </c>
+      <c r="K191" t="s">
+        <v>41</v>
+      </c>
+      <c r="L191" t="s">
+        <v>41</v>
+      </c>
+      <c r="M191" t="s">
+        <v>48</v>
+      </c>
+      <c r="N191" t="s">
+        <v>42</v>
+      </c>
+      <c r="O191" t="s">
+        <v>42</v>
+      </c>
+      <c r="P191" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>42</v>
+      </c>
+      <c r="R191" t="s">
+        <v>55</v>
+      </c>
+      <c r="S191" t="s">
+        <v>41</v>
+      </c>
+      <c r="T191" t="s">
+        <v>55</v>
+      </c>
+      <c r="U191" t="s">
+        <v>55</v>
+      </c>
+      <c r="V191" t="s">
+        <v>55</v>
+      </c>
+      <c r="W191" t="s">
+        <v>55</v>
+      </c>
+      <c r="X191" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y191" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z191" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA191" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB191" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC191" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD191" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE191" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF191" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG191" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH191" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI191" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ191" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK191" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL191" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM191" t="s">
+        <v>477</v>
+      </c>
+      <c r="AN191" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO191" t="s">
+        <v>478</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/toutReponse.xlsx
+++ b/toutReponse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Etape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1361D7B-F275-408C-85EE-D17CE2970AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA4280B-7D1F-4983-A796-67DF6580199F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7506" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7626" uniqueCount="484">
   <si>
     <t>id</t>
   </si>
@@ -1457,6 +1457,21 @@
   </si>
   <si>
     <t>2021-10-18 13:39:58</t>
+  </si>
+  <si>
+    <t>Satisfaisant. super ateliers, très intéressant.</t>
+  </si>
+  <si>
+    <t>rien à dire, c'est bien.</t>
+  </si>
+  <si>
+    <t>2021-10-20 08:39:27</t>
+  </si>
+  <si>
+    <t>2021-10-20 08:41:49</t>
+  </si>
+  <si>
+    <t>2021-10-20 08:52:43</t>
   </si>
 </sst>
 </file>
@@ -2370,10 +2385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO191"/>
+  <dimension ref="A1:AO194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="B184" sqref="B184"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25998,6 +26013,381 @@
         <v>478</v>
       </c>
     </row>
+    <row r="192" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>47</v>
+      </c>
+      <c r="C192" t="s">
+        <v>87</v>
+      </c>
+      <c r="D192" t="s">
+        <v>78</v>
+      </c>
+      <c r="E192" t="s">
+        <v>460</v>
+      </c>
+      <c r="F192" t="s">
+        <v>56</v>
+      </c>
+      <c r="G192" t="s">
+        <v>56</v>
+      </c>
+      <c r="H192" t="s">
+        <v>41</v>
+      </c>
+      <c r="I192" t="s">
+        <v>41</v>
+      </c>
+      <c r="J192" t="s">
+        <v>41</v>
+      </c>
+      <c r="K192" t="s">
+        <v>41</v>
+      </c>
+      <c r="L192" t="s">
+        <v>41</v>
+      </c>
+      <c r="M192" t="s">
+        <v>41</v>
+      </c>
+      <c r="N192" t="s">
+        <v>41</v>
+      </c>
+      <c r="O192" t="s">
+        <v>41</v>
+      </c>
+      <c r="P192" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>41</v>
+      </c>
+      <c r="R192" t="s">
+        <v>41</v>
+      </c>
+      <c r="S192" t="s">
+        <v>41</v>
+      </c>
+      <c r="T192" t="s">
+        <v>41</v>
+      </c>
+      <c r="U192" t="s">
+        <v>41</v>
+      </c>
+      <c r="V192" t="s">
+        <v>41</v>
+      </c>
+      <c r="W192" t="s">
+        <v>41</v>
+      </c>
+      <c r="X192" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y192" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z192" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA192" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB192" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC192" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD192" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE192" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF192" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG192" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH192" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI192" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ192" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK192" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL192" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM192" t="s">
+        <v>479</v>
+      </c>
+      <c r="AN192" t="s">
+        <v>480</v>
+      </c>
+      <c r="AO192" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="193" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>47</v>
+      </c>
+      <c r="C193" t="s">
+        <v>87</v>
+      </c>
+      <c r="D193" t="s">
+        <v>78</v>
+      </c>
+      <c r="E193" t="s">
+        <v>460</v>
+      </c>
+      <c r="F193" t="s">
+        <v>53</v>
+      </c>
+      <c r="G193" t="s">
+        <v>53</v>
+      </c>
+      <c r="H193" t="s">
+        <v>41</v>
+      </c>
+      <c r="I193" t="s">
+        <v>41</v>
+      </c>
+      <c r="J193" t="s">
+        <v>41</v>
+      </c>
+      <c r="K193" t="s">
+        <v>41</v>
+      </c>
+      <c r="L193" t="s">
+        <v>41</v>
+      </c>
+      <c r="M193" t="s">
+        <v>48</v>
+      </c>
+      <c r="N193" t="s">
+        <v>236</v>
+      </c>
+      <c r="O193" t="s">
+        <v>42</v>
+      </c>
+      <c r="P193" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>42</v>
+      </c>
+      <c r="R193" t="s">
+        <v>55</v>
+      </c>
+      <c r="S193" t="s">
+        <v>41</v>
+      </c>
+      <c r="T193" t="s">
+        <v>55</v>
+      </c>
+      <c r="U193" t="s">
+        <v>55</v>
+      </c>
+      <c r="V193" t="s">
+        <v>55</v>
+      </c>
+      <c r="W193" t="s">
+        <v>55</v>
+      </c>
+      <c r="X193" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y193" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z193" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA193" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB193" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC193" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD193" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE193" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF193" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG193" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH193" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI193" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ193" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK193" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL193" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM193" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN193" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO193" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="194" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>47</v>
+      </c>
+      <c r="C194" t="s">
+        <v>87</v>
+      </c>
+      <c r="D194" t="s">
+        <v>78</v>
+      </c>
+      <c r="E194" t="s">
+        <v>460</v>
+      </c>
+      <c r="F194" t="s">
+        <v>49</v>
+      </c>
+      <c r="G194" t="s">
+        <v>49</v>
+      </c>
+      <c r="H194" t="s">
+        <v>41</v>
+      </c>
+      <c r="I194" t="s">
+        <v>41</v>
+      </c>
+      <c r="J194" t="s">
+        <v>41</v>
+      </c>
+      <c r="K194" t="s">
+        <v>41</v>
+      </c>
+      <c r="L194" t="s">
+        <v>41</v>
+      </c>
+      <c r="M194" t="s">
+        <v>41</v>
+      </c>
+      <c r="N194" t="s">
+        <v>41</v>
+      </c>
+      <c r="O194" t="s">
+        <v>41</v>
+      </c>
+      <c r="P194" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>41</v>
+      </c>
+      <c r="R194" t="s">
+        <v>41</v>
+      </c>
+      <c r="S194" t="s">
+        <v>41</v>
+      </c>
+      <c r="T194" t="s">
+        <v>41</v>
+      </c>
+      <c r="U194" t="s">
+        <v>41</v>
+      </c>
+      <c r="V194" t="s">
+        <v>41</v>
+      </c>
+      <c r="W194" t="s">
+        <v>41</v>
+      </c>
+      <c r="X194" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y194" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z194" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA194" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB194" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC194" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD194" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE194" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF194" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG194" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH194" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI194" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ194" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK194" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL194" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM194" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN194" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO194" t="s">
+        <v>483</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/toutReponse.xlsx
+++ b/toutReponse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Etape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA4280B-7D1F-4983-A796-67DF6580199F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93CA9E9-9EA6-4103-B18E-99F5128E104B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7626" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8026" uniqueCount="507">
   <si>
     <t>id</t>
   </si>
@@ -1472,6 +1472,75 @@
   </si>
   <si>
     <t>2021-10-20 08:52:43</t>
+  </si>
+  <si>
+    <t>2021-03-12</t>
+  </si>
+  <si>
+    <t>2021-10-12</t>
+  </si>
+  <si>
+    <t>beneficiaire_FSE</t>
+  </si>
+  <si>
+    <t>CONTENTE D'AVOIR ETE ENTENDUE POUR TROUVER UN EMPLOI</t>
+  </si>
+  <si>
+    <t>PLUS DE RDV DANS LE MOIS</t>
+  </si>
+  <si>
+    <t>2021-10-26 08:32:47</t>
+  </si>
+  <si>
+    <t>2021-10-21</t>
+  </si>
+  <si>
+    <t>2021-10-26 08:33:53</t>
+  </si>
+  <si>
+    <t>2021-10-26 08:34:52</t>
+  </si>
+  <si>
+    <t>2021-10-26 08:35:41</t>
+  </si>
+  <si>
+    <t>2021-03-30</t>
+  </si>
+  <si>
+    <t>2021-10-11</t>
+  </si>
+  <si>
+    <t>2021-10-26 08:36:36</t>
+  </si>
+  <si>
+    <t>2021-10-26 08:37:25</t>
+  </si>
+  <si>
+    <t>2021-12-22</t>
+  </si>
+  <si>
+    <t>2021-06-28</t>
+  </si>
+  <si>
+    <t>Mme GUEDON, référente de l'Etape, m'a beaucoup aidé, motivé et informé. Un grand pas en avant grâce à elle!</t>
+  </si>
+  <si>
+    <t>2021-10-26 08:39:13</t>
+  </si>
+  <si>
+    <t>2021-10-26 08:40:08</t>
+  </si>
+  <si>
+    <t>2021-12-08</t>
+  </si>
+  <si>
+    <t>2021-06-18</t>
+  </si>
+  <si>
+    <t>2021-10-26 08:40:58</t>
+  </si>
+  <si>
+    <t>2021-10-26 08:41:44</t>
   </si>
 </sst>
 </file>
@@ -2385,10 +2454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO194"/>
+  <dimension ref="A1:AO204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="B190" sqref="B190"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26014,7 +26083,7 @@
       </c>
     </row>
     <row r="192" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A192">
+      <c r="A192" s="3">
         <v>191</v>
       </c>
       <c r="B192" t="s">
@@ -26139,7 +26208,7 @@
       </c>
     </row>
     <row r="193" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A193" s="3">
+      <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
@@ -26264,7 +26333,7 @@
       </c>
     </row>
     <row r="194" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A194">
+      <c r="A194" s="3">
         <v>193</v>
       </c>
       <c r="B194" t="s">
@@ -26386,6 +26455,1256 @@
       </c>
       <c r="AO194" t="s">
         <v>483</v>
+      </c>
+    </row>
+    <row r="195" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>52</v>
+      </c>
+      <c r="C195" t="s">
+        <v>51</v>
+      </c>
+      <c r="D195" t="s">
+        <v>484</v>
+      </c>
+      <c r="E195" t="s">
+        <v>485</v>
+      </c>
+      <c r="F195" t="s">
+        <v>56</v>
+      </c>
+      <c r="G195" t="s">
+        <v>486</v>
+      </c>
+      <c r="H195" t="s">
+        <v>41</v>
+      </c>
+      <c r="I195" t="s">
+        <v>41</v>
+      </c>
+      <c r="J195" t="s">
+        <v>41</v>
+      </c>
+      <c r="K195" t="s">
+        <v>41</v>
+      </c>
+      <c r="L195" t="s">
+        <v>41</v>
+      </c>
+      <c r="M195" t="s">
+        <v>41</v>
+      </c>
+      <c r="N195" t="s">
+        <v>41</v>
+      </c>
+      <c r="O195" t="s">
+        <v>41</v>
+      </c>
+      <c r="P195" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>41</v>
+      </c>
+      <c r="R195" t="s">
+        <v>41</v>
+      </c>
+      <c r="S195" t="s">
+        <v>41</v>
+      </c>
+      <c r="T195" t="s">
+        <v>41</v>
+      </c>
+      <c r="U195" t="s">
+        <v>41</v>
+      </c>
+      <c r="V195" t="s">
+        <v>41</v>
+      </c>
+      <c r="W195" t="s">
+        <v>41</v>
+      </c>
+      <c r="X195" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y195" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z195" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA195" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB195" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC195" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD195" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE195" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF195" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG195" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH195" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI195" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ195" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK195" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL195" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM195" t="s">
+        <v>487</v>
+      </c>
+      <c r="AN195" t="s">
+        <v>488</v>
+      </c>
+      <c r="AO195" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="196" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>52</v>
+      </c>
+      <c r="C196" t="s">
+        <v>51</v>
+      </c>
+      <c r="D196" t="s">
+        <v>293</v>
+      </c>
+      <c r="E196" t="s">
+        <v>490</v>
+      </c>
+      <c r="F196" t="s">
+        <v>56</v>
+      </c>
+      <c r="G196" t="s">
+        <v>486</v>
+      </c>
+      <c r="H196" t="s">
+        <v>41</v>
+      </c>
+      <c r="I196" t="s">
+        <v>41</v>
+      </c>
+      <c r="J196" t="s">
+        <v>41</v>
+      </c>
+      <c r="K196" t="s">
+        <v>41</v>
+      </c>
+      <c r="L196" t="s">
+        <v>41</v>
+      </c>
+      <c r="M196" t="s">
+        <v>41</v>
+      </c>
+      <c r="N196" t="s">
+        <v>41</v>
+      </c>
+      <c r="O196" t="s">
+        <v>41</v>
+      </c>
+      <c r="P196" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>41</v>
+      </c>
+      <c r="R196" t="s">
+        <v>41</v>
+      </c>
+      <c r="S196" t="s">
+        <v>41</v>
+      </c>
+      <c r="T196" t="s">
+        <v>41</v>
+      </c>
+      <c r="U196" t="s">
+        <v>41</v>
+      </c>
+      <c r="V196" t="s">
+        <v>41</v>
+      </c>
+      <c r="W196" t="s">
+        <v>41</v>
+      </c>
+      <c r="X196" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y196" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z196" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA196" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB196" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC196" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD196" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE196" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF196" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG196" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH196" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI196" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ196" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK196" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL196" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM196" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN196" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO196" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="197" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>52</v>
+      </c>
+      <c r="C197" t="s">
+        <v>51</v>
+      </c>
+      <c r="D197" t="s">
+        <v>484</v>
+      </c>
+      <c r="E197" t="s">
+        <v>485</v>
+      </c>
+      <c r="F197" t="s">
+        <v>53</v>
+      </c>
+      <c r="G197" t="s">
+        <v>53</v>
+      </c>
+      <c r="H197" t="s">
+        <v>41</v>
+      </c>
+      <c r="I197" t="s">
+        <v>41</v>
+      </c>
+      <c r="J197" t="s">
+        <v>41</v>
+      </c>
+      <c r="K197" t="s">
+        <v>41</v>
+      </c>
+      <c r="L197" t="s">
+        <v>41</v>
+      </c>
+      <c r="M197" t="s">
+        <v>72</v>
+      </c>
+      <c r="N197" t="s">
+        <v>42</v>
+      </c>
+      <c r="O197" t="s">
+        <v>42</v>
+      </c>
+      <c r="P197" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>42</v>
+      </c>
+      <c r="R197" t="s">
+        <v>55</v>
+      </c>
+      <c r="S197" t="s">
+        <v>45</v>
+      </c>
+      <c r="T197" t="s">
+        <v>55</v>
+      </c>
+      <c r="U197" t="s">
+        <v>55</v>
+      </c>
+      <c r="V197" t="s">
+        <v>55</v>
+      </c>
+      <c r="W197" t="s">
+        <v>55</v>
+      </c>
+      <c r="X197" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y197" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z197" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA197" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB197" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC197" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD197" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE197" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF197" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG197" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH197" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI197" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ197" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK197" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL197" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM197" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN197" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO197" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="198" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>52</v>
+      </c>
+      <c r="C198" t="s">
+        <v>51</v>
+      </c>
+      <c r="D198" t="s">
+        <v>293</v>
+      </c>
+      <c r="E198" t="s">
+        <v>490</v>
+      </c>
+      <c r="F198" t="s">
+        <v>53</v>
+      </c>
+      <c r="G198" t="s">
+        <v>53</v>
+      </c>
+      <c r="H198" t="s">
+        <v>41</v>
+      </c>
+      <c r="I198" t="s">
+        <v>41</v>
+      </c>
+      <c r="J198" t="s">
+        <v>41</v>
+      </c>
+      <c r="K198" t="s">
+        <v>41</v>
+      </c>
+      <c r="L198" t="s">
+        <v>41</v>
+      </c>
+      <c r="M198" t="s">
+        <v>72</v>
+      </c>
+      <c r="N198" t="s">
+        <v>42</v>
+      </c>
+      <c r="O198" t="s">
+        <v>42</v>
+      </c>
+      <c r="P198" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>42</v>
+      </c>
+      <c r="R198" t="s">
+        <v>55</v>
+      </c>
+      <c r="S198" t="s">
+        <v>45</v>
+      </c>
+      <c r="T198" t="s">
+        <v>55</v>
+      </c>
+      <c r="U198" t="s">
+        <v>55</v>
+      </c>
+      <c r="V198" t="s">
+        <v>55</v>
+      </c>
+      <c r="W198" t="s">
+        <v>55</v>
+      </c>
+      <c r="X198" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y198" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z198" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA198" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB198" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC198" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD198" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE198" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF198" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG198" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH198" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI198" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ198" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK198" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL198" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM198" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN198" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO198" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="199" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>52</v>
+      </c>
+      <c r="C199" t="s">
+        <v>51</v>
+      </c>
+      <c r="D199" t="s">
+        <v>494</v>
+      </c>
+      <c r="E199" t="s">
+        <v>495</v>
+      </c>
+      <c r="F199" t="s">
+        <v>56</v>
+      </c>
+      <c r="G199" t="s">
+        <v>486</v>
+      </c>
+      <c r="H199" t="s">
+        <v>41</v>
+      </c>
+      <c r="I199" t="s">
+        <v>41</v>
+      </c>
+      <c r="J199" t="s">
+        <v>41</v>
+      </c>
+      <c r="K199" t="s">
+        <v>41</v>
+      </c>
+      <c r="L199" t="s">
+        <v>41</v>
+      </c>
+      <c r="M199" t="s">
+        <v>41</v>
+      </c>
+      <c r="N199" t="s">
+        <v>41</v>
+      </c>
+      <c r="O199" t="s">
+        <v>41</v>
+      </c>
+      <c r="P199" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>41</v>
+      </c>
+      <c r="R199" t="s">
+        <v>41</v>
+      </c>
+      <c r="S199" t="s">
+        <v>41</v>
+      </c>
+      <c r="T199" t="s">
+        <v>41</v>
+      </c>
+      <c r="U199" t="s">
+        <v>41</v>
+      </c>
+      <c r="V199" t="s">
+        <v>41</v>
+      </c>
+      <c r="W199" t="s">
+        <v>41</v>
+      </c>
+      <c r="X199" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y199" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z199" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA199" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB199" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC199" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD199" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE199" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF199" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG199" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH199" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI199" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ199" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK199" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL199" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM199" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN199" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO199" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="200" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>52</v>
+      </c>
+      <c r="C200" t="s">
+        <v>51</v>
+      </c>
+      <c r="D200" t="s">
+        <v>494</v>
+      </c>
+      <c r="E200" t="s">
+        <v>495</v>
+      </c>
+      <c r="F200" t="s">
+        <v>53</v>
+      </c>
+      <c r="G200" t="s">
+        <v>53</v>
+      </c>
+      <c r="H200" t="s">
+        <v>41</v>
+      </c>
+      <c r="I200" t="s">
+        <v>41</v>
+      </c>
+      <c r="J200" t="s">
+        <v>41</v>
+      </c>
+      <c r="K200" t="s">
+        <v>41</v>
+      </c>
+      <c r="L200" t="s">
+        <v>41</v>
+      </c>
+      <c r="M200" t="s">
+        <v>72</v>
+      </c>
+      <c r="N200" t="s">
+        <v>42</v>
+      </c>
+      <c r="O200" t="s">
+        <v>42</v>
+      </c>
+      <c r="P200" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>42</v>
+      </c>
+      <c r="R200" t="s">
+        <v>55</v>
+      </c>
+      <c r="S200" t="s">
+        <v>41</v>
+      </c>
+      <c r="T200" t="s">
+        <v>55</v>
+      </c>
+      <c r="U200" t="s">
+        <v>55</v>
+      </c>
+      <c r="V200" t="s">
+        <v>55</v>
+      </c>
+      <c r="W200" t="s">
+        <v>55</v>
+      </c>
+      <c r="X200" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y200" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z200" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA200" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB200" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC200" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD200" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE200" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF200" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG200" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH200" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI200" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ200" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK200" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL200" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM200" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN200" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO200" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="201" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>52</v>
+      </c>
+      <c r="C201" t="s">
+        <v>51</v>
+      </c>
+      <c r="D201" t="s">
+        <v>498</v>
+      </c>
+      <c r="E201" t="s">
+        <v>499</v>
+      </c>
+      <c r="F201" t="s">
+        <v>56</v>
+      </c>
+      <c r="G201" t="s">
+        <v>486</v>
+      </c>
+      <c r="H201" t="s">
+        <v>41</v>
+      </c>
+      <c r="I201" t="s">
+        <v>41</v>
+      </c>
+      <c r="J201" t="s">
+        <v>41</v>
+      </c>
+      <c r="K201" t="s">
+        <v>41</v>
+      </c>
+      <c r="L201" t="s">
+        <v>41</v>
+      </c>
+      <c r="M201" t="s">
+        <v>41</v>
+      </c>
+      <c r="N201" t="s">
+        <v>41</v>
+      </c>
+      <c r="O201" t="s">
+        <v>41</v>
+      </c>
+      <c r="P201" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>41</v>
+      </c>
+      <c r="R201" t="s">
+        <v>41</v>
+      </c>
+      <c r="S201" t="s">
+        <v>41</v>
+      </c>
+      <c r="T201" t="s">
+        <v>41</v>
+      </c>
+      <c r="U201" t="s">
+        <v>41</v>
+      </c>
+      <c r="V201" t="s">
+        <v>41</v>
+      </c>
+      <c r="W201" t="s">
+        <v>41</v>
+      </c>
+      <c r="X201" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y201" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z201" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA201" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB201" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC201" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD201" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE201" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF201" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG201" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH201" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI201" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ201" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK201" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL201" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM201" t="s">
+        <v>500</v>
+      </c>
+      <c r="AN201" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO201" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="202" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>52</v>
+      </c>
+      <c r="C202" t="s">
+        <v>51</v>
+      </c>
+      <c r="D202" t="s">
+        <v>498</v>
+      </c>
+      <c r="E202" t="s">
+        <v>499</v>
+      </c>
+      <c r="F202" t="s">
+        <v>53</v>
+      </c>
+      <c r="G202" t="s">
+        <v>53</v>
+      </c>
+      <c r="H202" t="s">
+        <v>41</v>
+      </c>
+      <c r="I202" t="s">
+        <v>41</v>
+      </c>
+      <c r="J202" t="s">
+        <v>41</v>
+      </c>
+      <c r="K202" t="s">
+        <v>41</v>
+      </c>
+      <c r="L202" t="s">
+        <v>41</v>
+      </c>
+      <c r="M202" t="s">
+        <v>72</v>
+      </c>
+      <c r="N202" t="s">
+        <v>42</v>
+      </c>
+      <c r="O202" t="s">
+        <v>42</v>
+      </c>
+      <c r="P202" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>42</v>
+      </c>
+      <c r="R202" t="s">
+        <v>54</v>
+      </c>
+      <c r="S202" t="s">
+        <v>45</v>
+      </c>
+      <c r="T202" t="s">
+        <v>55</v>
+      </c>
+      <c r="U202" t="s">
+        <v>55</v>
+      </c>
+      <c r="V202" t="s">
+        <v>55</v>
+      </c>
+      <c r="W202" t="s">
+        <v>55</v>
+      </c>
+      <c r="X202" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y202" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z202" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA202" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB202" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC202" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD202" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE202" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF202" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG202" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH202" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI202" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ202" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK202" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL202" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM202" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN202" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO202" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="203" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>52</v>
+      </c>
+      <c r="C203" t="s">
+        <v>51</v>
+      </c>
+      <c r="D203" t="s">
+        <v>503</v>
+      </c>
+      <c r="E203" t="s">
+        <v>504</v>
+      </c>
+      <c r="F203" t="s">
+        <v>56</v>
+      </c>
+      <c r="G203" t="s">
+        <v>486</v>
+      </c>
+      <c r="H203" t="s">
+        <v>41</v>
+      </c>
+      <c r="I203" t="s">
+        <v>41</v>
+      </c>
+      <c r="J203" t="s">
+        <v>41</v>
+      </c>
+      <c r="K203" t="s">
+        <v>41</v>
+      </c>
+      <c r="L203" t="s">
+        <v>41</v>
+      </c>
+      <c r="M203" t="s">
+        <v>41</v>
+      </c>
+      <c r="N203" t="s">
+        <v>41</v>
+      </c>
+      <c r="O203" t="s">
+        <v>41</v>
+      </c>
+      <c r="P203" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>41</v>
+      </c>
+      <c r="R203" t="s">
+        <v>41</v>
+      </c>
+      <c r="S203" t="s">
+        <v>41</v>
+      </c>
+      <c r="T203" t="s">
+        <v>41</v>
+      </c>
+      <c r="U203" t="s">
+        <v>41</v>
+      </c>
+      <c r="V203" t="s">
+        <v>41</v>
+      </c>
+      <c r="W203" t="s">
+        <v>41</v>
+      </c>
+      <c r="X203" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y203" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z203" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA203" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB203" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC203" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD203" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE203" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF203" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG203" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH203" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI203" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ203" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK203" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL203" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM203" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN203" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO203" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="204" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>52</v>
+      </c>
+      <c r="C204" t="s">
+        <v>51</v>
+      </c>
+      <c r="D204" t="s">
+        <v>503</v>
+      </c>
+      <c r="E204" t="s">
+        <v>504</v>
+      </c>
+      <c r="F204" t="s">
+        <v>53</v>
+      </c>
+      <c r="G204" t="s">
+        <v>53</v>
+      </c>
+      <c r="H204" t="s">
+        <v>41</v>
+      </c>
+      <c r="I204" t="s">
+        <v>41</v>
+      </c>
+      <c r="J204" t="s">
+        <v>41</v>
+      </c>
+      <c r="K204" t="s">
+        <v>41</v>
+      </c>
+      <c r="L204" t="s">
+        <v>41</v>
+      </c>
+      <c r="M204" t="s">
+        <v>72</v>
+      </c>
+      <c r="N204" t="s">
+        <v>42</v>
+      </c>
+      <c r="O204" t="s">
+        <v>42</v>
+      </c>
+      <c r="P204" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>42</v>
+      </c>
+      <c r="R204" t="s">
+        <v>54</v>
+      </c>
+      <c r="S204" t="s">
+        <v>45</v>
+      </c>
+      <c r="T204" t="s">
+        <v>55</v>
+      </c>
+      <c r="U204" t="s">
+        <v>55</v>
+      </c>
+      <c r="V204" t="s">
+        <v>55</v>
+      </c>
+      <c r="W204" t="s">
+        <v>55</v>
+      </c>
+      <c r="X204" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y204" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z204" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA204" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB204" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC204" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD204" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE204" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF204" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG204" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH204" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI204" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ204" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK204" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL204" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM204" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN204" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO204" t="s">
+        <v>506</v>
       </c>
     </row>
   </sheetData>

--- a/toutReponse.xlsx
+++ b/toutReponse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Etape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93CA9E9-9EA6-4103-B18E-99F5128E104B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912A7EC7-2CFE-46DE-A4B1-BFE9BBE358F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8026" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8266" uniqueCount="521">
   <si>
     <t>id</t>
   </si>
@@ -1541,6 +1541,48 @@
   </si>
   <si>
     <t>2021-10-26 08:41:44</t>
+  </si>
+  <si>
+    <t>2021-10-28</t>
+  </si>
+  <si>
+    <t>2021-11-04</t>
+  </si>
+  <si>
+    <t>Non concerné</t>
+  </si>
+  <si>
+    <t>Une intervention passionnante. Merci!</t>
+  </si>
+  <si>
+    <t>2021-11-09 09:15:38</t>
+  </si>
+  <si>
+    <t>2021-11-09 09:36:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merci à l'intervenante "intervention excellente" on peut ressentir son investissement. </t>
+  </si>
+  <si>
+    <t>2021-11-09 10:25:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intervention d'Olga très intéressante  </t>
+  </si>
+  <si>
+    <t>Peut-être un support de présentation plus synthétique avec une durée d'intervention d'une heure (au regard de notre charge de travail)</t>
+  </si>
+  <si>
+    <t>2021-11-09 10:30:30</t>
+  </si>
+  <si>
+    <t>2021-11-09 10:40:03</t>
+  </si>
+  <si>
+    <t>2021-11-28</t>
+  </si>
+  <si>
+    <t>2021-11-09 11:21:20</t>
   </si>
 </sst>
 </file>
@@ -2454,10 +2496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO204"/>
+  <dimension ref="A1:AO210"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="B205" sqref="B205"/>
+      <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27707,6 +27749,756 @@
         <v>506</v>
       </c>
     </row>
+    <row r="205" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>377</v>
+      </c>
+      <c r="C205" t="s">
+        <v>51</v>
+      </c>
+      <c r="D205" t="s">
+        <v>507</v>
+      </c>
+      <c r="E205" t="s">
+        <v>508</v>
+      </c>
+      <c r="F205" t="s">
+        <v>49</v>
+      </c>
+      <c r="G205" t="s">
+        <v>49</v>
+      </c>
+      <c r="H205" t="s">
+        <v>41</v>
+      </c>
+      <c r="I205" t="s">
+        <v>41</v>
+      </c>
+      <c r="J205" t="s">
+        <v>41</v>
+      </c>
+      <c r="K205" t="s">
+        <v>41</v>
+      </c>
+      <c r="L205" t="s">
+        <v>41</v>
+      </c>
+      <c r="M205" t="s">
+        <v>41</v>
+      </c>
+      <c r="N205" t="s">
+        <v>41</v>
+      </c>
+      <c r="O205" t="s">
+        <v>41</v>
+      </c>
+      <c r="P205" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>41</v>
+      </c>
+      <c r="R205" t="s">
+        <v>41</v>
+      </c>
+      <c r="S205" t="s">
+        <v>41</v>
+      </c>
+      <c r="T205" t="s">
+        <v>41</v>
+      </c>
+      <c r="U205" t="s">
+        <v>41</v>
+      </c>
+      <c r="V205" t="s">
+        <v>41</v>
+      </c>
+      <c r="W205" t="s">
+        <v>41</v>
+      </c>
+      <c r="X205" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y205" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z205" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA205" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB205" t="s">
+        <v>509</v>
+      </c>
+      <c r="AC205" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD205" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE205" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF205" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG205" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH205" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI205" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ205" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK205" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL205" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM205" t="s">
+        <v>510</v>
+      </c>
+      <c r="AN205" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO205" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="206" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>377</v>
+      </c>
+      <c r="C206" t="s">
+        <v>51</v>
+      </c>
+      <c r="D206" t="s">
+        <v>507</v>
+      </c>
+      <c r="E206" t="s">
+        <v>508</v>
+      </c>
+      <c r="F206" t="s">
+        <v>56</v>
+      </c>
+      <c r="G206" t="s">
+        <v>56</v>
+      </c>
+      <c r="H206" t="s">
+        <v>41</v>
+      </c>
+      <c r="I206" t="s">
+        <v>41</v>
+      </c>
+      <c r="J206" t="s">
+        <v>41</v>
+      </c>
+      <c r="K206" t="s">
+        <v>41</v>
+      </c>
+      <c r="L206" t="s">
+        <v>41</v>
+      </c>
+      <c r="M206" t="s">
+        <v>41</v>
+      </c>
+      <c r="N206" t="s">
+        <v>41</v>
+      </c>
+      <c r="O206" t="s">
+        <v>41</v>
+      </c>
+      <c r="P206" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>41</v>
+      </c>
+      <c r="R206" t="s">
+        <v>41</v>
+      </c>
+      <c r="S206" t="s">
+        <v>41</v>
+      </c>
+      <c r="T206" t="s">
+        <v>41</v>
+      </c>
+      <c r="U206" t="s">
+        <v>41</v>
+      </c>
+      <c r="V206" t="s">
+        <v>41</v>
+      </c>
+      <c r="W206" t="s">
+        <v>41</v>
+      </c>
+      <c r="X206" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y206" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z206" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA206" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB206" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC206" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD206" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE206" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF206" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG206" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH206" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI206" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ206" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK206" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL206" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM206" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN206" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO206" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="207" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>377</v>
+      </c>
+      <c r="C207" t="s">
+        <v>51</v>
+      </c>
+      <c r="D207" t="s">
+        <v>507</v>
+      </c>
+      <c r="E207" t="s">
+        <v>508</v>
+      </c>
+      <c r="F207" t="s">
+        <v>56</v>
+      </c>
+      <c r="G207" t="s">
+        <v>56</v>
+      </c>
+      <c r="H207" t="s">
+        <v>41</v>
+      </c>
+      <c r="I207" t="s">
+        <v>41</v>
+      </c>
+      <c r="J207" t="s">
+        <v>41</v>
+      </c>
+      <c r="K207" t="s">
+        <v>41</v>
+      </c>
+      <c r="L207" t="s">
+        <v>41</v>
+      </c>
+      <c r="M207" t="s">
+        <v>41</v>
+      </c>
+      <c r="N207" t="s">
+        <v>41</v>
+      </c>
+      <c r="O207" t="s">
+        <v>41</v>
+      </c>
+      <c r="P207" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>41</v>
+      </c>
+      <c r="R207" t="s">
+        <v>41</v>
+      </c>
+      <c r="S207" t="s">
+        <v>41</v>
+      </c>
+      <c r="T207" t="s">
+        <v>41</v>
+      </c>
+      <c r="U207" t="s">
+        <v>41</v>
+      </c>
+      <c r="V207" t="s">
+        <v>41</v>
+      </c>
+      <c r="W207" t="s">
+        <v>41</v>
+      </c>
+      <c r="X207" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y207" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z207" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA207" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB207" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC207" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD207" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE207" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF207" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG207" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH207" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI207" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ207" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK207" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL207" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM207" t="s">
+        <v>513</v>
+      </c>
+      <c r="AN207" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO207" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="208" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>319</v>
+      </c>
+      <c r="C208" t="s">
+        <v>51</v>
+      </c>
+      <c r="D208" t="s">
+        <v>507</v>
+      </c>
+      <c r="E208" t="s">
+        <v>507</v>
+      </c>
+      <c r="F208" t="s">
+        <v>49</v>
+      </c>
+      <c r="G208" t="s">
+        <v>49</v>
+      </c>
+      <c r="H208" t="s">
+        <v>41</v>
+      </c>
+      <c r="I208" t="s">
+        <v>41</v>
+      </c>
+      <c r="J208" t="s">
+        <v>41</v>
+      </c>
+      <c r="K208" t="s">
+        <v>41</v>
+      </c>
+      <c r="L208" t="s">
+        <v>41</v>
+      </c>
+      <c r="M208" t="s">
+        <v>41</v>
+      </c>
+      <c r="N208" t="s">
+        <v>41</v>
+      </c>
+      <c r="O208" t="s">
+        <v>41</v>
+      </c>
+      <c r="P208" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>41</v>
+      </c>
+      <c r="R208" t="s">
+        <v>41</v>
+      </c>
+      <c r="S208" t="s">
+        <v>41</v>
+      </c>
+      <c r="T208" t="s">
+        <v>41</v>
+      </c>
+      <c r="U208" t="s">
+        <v>41</v>
+      </c>
+      <c r="V208" t="s">
+        <v>41</v>
+      </c>
+      <c r="W208" t="s">
+        <v>41</v>
+      </c>
+      <c r="X208" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y208" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z208" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA208" t="s">
+        <v>509</v>
+      </c>
+      <c r="AB208" t="s">
+        <v>509</v>
+      </c>
+      <c r="AC208" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD208" t="s">
+        <v>509</v>
+      </c>
+      <c r="AE208" t="s">
+        <v>509</v>
+      </c>
+      <c r="AF208" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG208" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH208" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI208" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ208" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK208" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL208" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM208" t="s">
+        <v>515</v>
+      </c>
+      <c r="AN208" t="s">
+        <v>516</v>
+      </c>
+      <c r="AO208" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="209" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>377</v>
+      </c>
+      <c r="C209" t="s">
+        <v>51</v>
+      </c>
+      <c r="D209" t="s">
+        <v>507</v>
+      </c>
+      <c r="E209" t="s">
+        <v>508</v>
+      </c>
+      <c r="F209" t="s">
+        <v>56</v>
+      </c>
+      <c r="G209" t="s">
+        <v>56</v>
+      </c>
+      <c r="H209" t="s">
+        <v>41</v>
+      </c>
+      <c r="I209" t="s">
+        <v>41</v>
+      </c>
+      <c r="J209" t="s">
+        <v>41</v>
+      </c>
+      <c r="K209" t="s">
+        <v>41</v>
+      </c>
+      <c r="L209" t="s">
+        <v>41</v>
+      </c>
+      <c r="M209" t="s">
+        <v>41</v>
+      </c>
+      <c r="N209" t="s">
+        <v>41</v>
+      </c>
+      <c r="O209" t="s">
+        <v>41</v>
+      </c>
+      <c r="P209" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>41</v>
+      </c>
+      <c r="R209" t="s">
+        <v>41</v>
+      </c>
+      <c r="S209" t="s">
+        <v>41</v>
+      </c>
+      <c r="T209" t="s">
+        <v>41</v>
+      </c>
+      <c r="U209" t="s">
+        <v>41</v>
+      </c>
+      <c r="V209" t="s">
+        <v>41</v>
+      </c>
+      <c r="W209" t="s">
+        <v>41</v>
+      </c>
+      <c r="X209" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y209" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z209" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA209" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB209" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC209" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD209" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE209" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF209" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG209" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH209" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI209" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ209" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK209" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL209" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM209" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN209" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO209" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="210" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>377</v>
+      </c>
+      <c r="C210" t="s">
+        <v>51</v>
+      </c>
+      <c r="D210" t="s">
+        <v>519</v>
+      </c>
+      <c r="E210" t="s">
+        <v>508</v>
+      </c>
+      <c r="F210" t="s">
+        <v>56</v>
+      </c>
+      <c r="G210" t="s">
+        <v>56</v>
+      </c>
+      <c r="H210" t="s">
+        <v>41</v>
+      </c>
+      <c r="I210" t="s">
+        <v>41</v>
+      </c>
+      <c r="J210" t="s">
+        <v>41</v>
+      </c>
+      <c r="K210" t="s">
+        <v>41</v>
+      </c>
+      <c r="L210" t="s">
+        <v>41</v>
+      </c>
+      <c r="M210" t="s">
+        <v>41</v>
+      </c>
+      <c r="N210" t="s">
+        <v>41</v>
+      </c>
+      <c r="O210" t="s">
+        <v>41</v>
+      </c>
+      <c r="P210" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>41</v>
+      </c>
+      <c r="R210" t="s">
+        <v>41</v>
+      </c>
+      <c r="S210" t="s">
+        <v>41</v>
+      </c>
+      <c r="T210" t="s">
+        <v>41</v>
+      </c>
+      <c r="U210" t="s">
+        <v>41</v>
+      </c>
+      <c r="V210" t="s">
+        <v>41</v>
+      </c>
+      <c r="W210" t="s">
+        <v>41</v>
+      </c>
+      <c r="X210" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y210" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z210" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA210" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB210" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC210" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD210" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE210" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF210" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG210" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH210" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI210" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ210" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK210" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL210" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM210" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN210" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO210" t="s">
+        <v>520</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/toutReponse.xlsx
+++ b/toutReponse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Etape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912A7EC7-2CFE-46DE-A4B1-BFE9BBE358F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFA685E-87AC-4FC7-AE23-7C568DE18222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8266" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8706" uniqueCount="536">
   <si>
     <t>id</t>
   </si>
@@ -1583,6 +1583,51 @@
   </si>
   <si>
     <t>2021-11-09 11:21:20</t>
+  </si>
+  <si>
+    <t>PPAIP</t>
+  </si>
+  <si>
+    <t>2021-09-27</t>
+  </si>
+  <si>
+    <t>2021-11-22</t>
+  </si>
+  <si>
+    <t>2021-11-24 13:59:19</t>
+  </si>
+  <si>
+    <t>2021-11-24 14:01:59</t>
+  </si>
+  <si>
+    <t>2021-11-26 13:46:48</t>
+  </si>
+  <si>
+    <t>2021-11-26 13:47:32</t>
+  </si>
+  <si>
+    <t>2021-11-26 13:48:10</t>
+  </si>
+  <si>
+    <t>2021-11-26 13:48:54</t>
+  </si>
+  <si>
+    <t>2021-11-26 13:49:31</t>
+  </si>
+  <si>
+    <t>2021-11-26 13:50:09</t>
+  </si>
+  <si>
+    <t>Pièce de théâtre très enrichissante, pertinente.</t>
+  </si>
+  <si>
+    <t>2021-11-26 13:51:19</t>
+  </si>
+  <si>
+    <t>2021-11-26 13:52:00</t>
+  </si>
+  <si>
+    <t>2021-11-26 13:52:43</t>
   </si>
 </sst>
 </file>
@@ -2496,10 +2541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO210"/>
+  <dimension ref="A1:AO221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="B207" sqref="B207"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="B212" sqref="B212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28499,6 +28544,1381 @@
         <v>520</v>
       </c>
     </row>
+    <row r="211" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>521</v>
+      </c>
+      <c r="C211" t="s">
+        <v>87</v>
+      </c>
+      <c r="D211" t="s">
+        <v>522</v>
+      </c>
+      <c r="E211" t="s">
+        <v>523</v>
+      </c>
+      <c r="F211" t="s">
+        <v>56</v>
+      </c>
+      <c r="G211" t="s">
+        <v>56</v>
+      </c>
+      <c r="H211" t="s">
+        <v>41</v>
+      </c>
+      <c r="I211" t="s">
+        <v>41</v>
+      </c>
+      <c r="J211" t="s">
+        <v>41</v>
+      </c>
+      <c r="K211" t="s">
+        <v>41</v>
+      </c>
+      <c r="L211" t="s">
+        <v>41</v>
+      </c>
+      <c r="M211" t="s">
+        <v>41</v>
+      </c>
+      <c r="N211" t="s">
+        <v>41</v>
+      </c>
+      <c r="O211" t="s">
+        <v>41</v>
+      </c>
+      <c r="P211" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>41</v>
+      </c>
+      <c r="R211" t="s">
+        <v>41</v>
+      </c>
+      <c r="S211" t="s">
+        <v>41</v>
+      </c>
+      <c r="T211" t="s">
+        <v>41</v>
+      </c>
+      <c r="U211" t="s">
+        <v>41</v>
+      </c>
+      <c r="V211" t="s">
+        <v>41</v>
+      </c>
+      <c r="W211" t="s">
+        <v>41</v>
+      </c>
+      <c r="X211" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y211" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z211" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA211" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB211" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC211" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD211" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE211" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF211" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG211" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH211" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI211" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ211" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK211" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL211" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM211" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN211" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO211" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="212" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>521</v>
+      </c>
+      <c r="C212" t="s">
+        <v>87</v>
+      </c>
+      <c r="D212" t="s">
+        <v>522</v>
+      </c>
+      <c r="E212" t="s">
+        <v>523</v>
+      </c>
+      <c r="F212" t="s">
+        <v>53</v>
+      </c>
+      <c r="G212" t="s">
+        <v>53</v>
+      </c>
+      <c r="H212" t="s">
+        <v>41</v>
+      </c>
+      <c r="I212" t="s">
+        <v>41</v>
+      </c>
+      <c r="J212" t="s">
+        <v>41</v>
+      </c>
+      <c r="K212" t="s">
+        <v>41</v>
+      </c>
+      <c r="L212" t="s">
+        <v>41</v>
+      </c>
+      <c r="M212" t="s">
+        <v>72</v>
+      </c>
+      <c r="N212" t="s">
+        <v>42</v>
+      </c>
+      <c r="O212" t="s">
+        <v>42</v>
+      </c>
+      <c r="P212" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>42</v>
+      </c>
+      <c r="R212" t="s">
+        <v>55</v>
+      </c>
+      <c r="S212" t="s">
+        <v>41</v>
+      </c>
+      <c r="T212" t="s">
+        <v>55</v>
+      </c>
+      <c r="U212" t="s">
+        <v>55</v>
+      </c>
+      <c r="V212" t="s">
+        <v>55</v>
+      </c>
+      <c r="W212" t="s">
+        <v>55</v>
+      </c>
+      <c r="X212" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y212" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z212" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA212" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB212" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC212" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD212" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE212" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF212" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG212" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH212" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI212" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ212" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK212" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL212" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM212" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN212" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO212" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="213" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>377</v>
+      </c>
+      <c r="C213" t="s">
+        <v>294</v>
+      </c>
+      <c r="D213" t="s">
+        <v>523</v>
+      </c>
+      <c r="E213" t="s">
+        <v>523</v>
+      </c>
+      <c r="F213" t="s">
+        <v>56</v>
+      </c>
+      <c r="G213" t="s">
+        <v>56</v>
+      </c>
+      <c r="H213" t="s">
+        <v>41</v>
+      </c>
+      <c r="I213" t="s">
+        <v>41</v>
+      </c>
+      <c r="J213" t="s">
+        <v>41</v>
+      </c>
+      <c r="K213" t="s">
+        <v>41</v>
+      </c>
+      <c r="L213" t="s">
+        <v>41</v>
+      </c>
+      <c r="M213" t="s">
+        <v>41</v>
+      </c>
+      <c r="N213" t="s">
+        <v>41</v>
+      </c>
+      <c r="O213" t="s">
+        <v>41</v>
+      </c>
+      <c r="P213" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>41</v>
+      </c>
+      <c r="R213" t="s">
+        <v>41</v>
+      </c>
+      <c r="S213" t="s">
+        <v>41</v>
+      </c>
+      <c r="T213" t="s">
+        <v>41</v>
+      </c>
+      <c r="U213" t="s">
+        <v>41</v>
+      </c>
+      <c r="V213" t="s">
+        <v>41</v>
+      </c>
+      <c r="W213" t="s">
+        <v>41</v>
+      </c>
+      <c r="X213" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y213" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z213" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA213" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB213" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC213" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD213" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE213" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF213" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG213" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH213" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI213" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ213" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK213" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL213" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM213" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN213" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO213" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="214" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>377</v>
+      </c>
+      <c r="C214" t="s">
+        <v>294</v>
+      </c>
+      <c r="D214" t="s">
+        <v>523</v>
+      </c>
+      <c r="E214" t="s">
+        <v>523</v>
+      </c>
+      <c r="F214" t="s">
+        <v>56</v>
+      </c>
+      <c r="G214" t="s">
+        <v>56</v>
+      </c>
+      <c r="H214" t="s">
+        <v>41</v>
+      </c>
+      <c r="I214" t="s">
+        <v>41</v>
+      </c>
+      <c r="J214" t="s">
+        <v>41</v>
+      </c>
+      <c r="K214" t="s">
+        <v>41</v>
+      </c>
+      <c r="L214" t="s">
+        <v>41</v>
+      </c>
+      <c r="M214" t="s">
+        <v>41</v>
+      </c>
+      <c r="N214" t="s">
+        <v>41</v>
+      </c>
+      <c r="O214" t="s">
+        <v>41</v>
+      </c>
+      <c r="P214" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>41</v>
+      </c>
+      <c r="R214" t="s">
+        <v>41</v>
+      </c>
+      <c r="S214" t="s">
+        <v>41</v>
+      </c>
+      <c r="T214" t="s">
+        <v>41</v>
+      </c>
+      <c r="U214" t="s">
+        <v>41</v>
+      </c>
+      <c r="V214" t="s">
+        <v>41</v>
+      </c>
+      <c r="W214" t="s">
+        <v>41</v>
+      </c>
+      <c r="X214" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y214" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z214" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA214" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB214" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC214" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD214" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE214" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF214" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG214" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH214" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI214" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ214" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK214" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL214" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM214" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN214" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO214" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="215" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>377</v>
+      </c>
+      <c r="C215" t="s">
+        <v>294</v>
+      </c>
+      <c r="D215" t="s">
+        <v>523</v>
+      </c>
+      <c r="E215" t="s">
+        <v>523</v>
+      </c>
+      <c r="F215" t="s">
+        <v>56</v>
+      </c>
+      <c r="G215" t="s">
+        <v>56</v>
+      </c>
+      <c r="H215" t="s">
+        <v>41</v>
+      </c>
+      <c r="I215" t="s">
+        <v>41</v>
+      </c>
+      <c r="J215" t="s">
+        <v>41</v>
+      </c>
+      <c r="K215" t="s">
+        <v>41</v>
+      </c>
+      <c r="L215" t="s">
+        <v>41</v>
+      </c>
+      <c r="M215" t="s">
+        <v>41</v>
+      </c>
+      <c r="N215" t="s">
+        <v>41</v>
+      </c>
+      <c r="O215" t="s">
+        <v>41</v>
+      </c>
+      <c r="P215" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>41</v>
+      </c>
+      <c r="R215" t="s">
+        <v>41</v>
+      </c>
+      <c r="S215" t="s">
+        <v>41</v>
+      </c>
+      <c r="T215" t="s">
+        <v>41</v>
+      </c>
+      <c r="U215" t="s">
+        <v>41</v>
+      </c>
+      <c r="V215" t="s">
+        <v>41</v>
+      </c>
+      <c r="W215" t="s">
+        <v>41</v>
+      </c>
+      <c r="X215" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y215" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z215" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA215" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB215" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC215" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD215" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE215" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF215" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG215" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH215" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI215" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ215" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK215" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL215" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM215" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN215" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO215" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="216" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>377</v>
+      </c>
+      <c r="C216" t="s">
+        <v>294</v>
+      </c>
+      <c r="D216" t="s">
+        <v>523</v>
+      </c>
+      <c r="E216" t="s">
+        <v>523</v>
+      </c>
+      <c r="F216" t="s">
+        <v>56</v>
+      </c>
+      <c r="G216" t="s">
+        <v>56</v>
+      </c>
+      <c r="H216" t="s">
+        <v>41</v>
+      </c>
+      <c r="I216" t="s">
+        <v>41</v>
+      </c>
+      <c r="J216" t="s">
+        <v>41</v>
+      </c>
+      <c r="K216" t="s">
+        <v>41</v>
+      </c>
+      <c r="L216" t="s">
+        <v>41</v>
+      </c>
+      <c r="M216" t="s">
+        <v>41</v>
+      </c>
+      <c r="N216" t="s">
+        <v>41</v>
+      </c>
+      <c r="O216" t="s">
+        <v>41</v>
+      </c>
+      <c r="P216" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>41</v>
+      </c>
+      <c r="R216" t="s">
+        <v>41</v>
+      </c>
+      <c r="S216" t="s">
+        <v>41</v>
+      </c>
+      <c r="T216" t="s">
+        <v>41</v>
+      </c>
+      <c r="U216" t="s">
+        <v>41</v>
+      </c>
+      <c r="V216" t="s">
+        <v>41</v>
+      </c>
+      <c r="W216" t="s">
+        <v>41</v>
+      </c>
+      <c r="X216" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y216" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z216" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA216" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB216" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC216" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD216" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE216" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF216" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG216" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH216" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI216" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ216" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK216" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL216" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM216" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN216" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO216" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="217" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>377</v>
+      </c>
+      <c r="C217" t="s">
+        <v>294</v>
+      </c>
+      <c r="D217" t="s">
+        <v>523</v>
+      </c>
+      <c r="E217" t="s">
+        <v>523</v>
+      </c>
+      <c r="F217" t="s">
+        <v>56</v>
+      </c>
+      <c r="G217" t="s">
+        <v>56</v>
+      </c>
+      <c r="H217" t="s">
+        <v>41</v>
+      </c>
+      <c r="I217" t="s">
+        <v>41</v>
+      </c>
+      <c r="J217" t="s">
+        <v>41</v>
+      </c>
+      <c r="K217" t="s">
+        <v>41</v>
+      </c>
+      <c r="L217" t="s">
+        <v>41</v>
+      </c>
+      <c r="M217" t="s">
+        <v>41</v>
+      </c>
+      <c r="N217" t="s">
+        <v>41</v>
+      </c>
+      <c r="O217" t="s">
+        <v>41</v>
+      </c>
+      <c r="P217" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>41</v>
+      </c>
+      <c r="R217" t="s">
+        <v>41</v>
+      </c>
+      <c r="S217" t="s">
+        <v>41</v>
+      </c>
+      <c r="T217" t="s">
+        <v>41</v>
+      </c>
+      <c r="U217" t="s">
+        <v>41</v>
+      </c>
+      <c r="V217" t="s">
+        <v>41</v>
+      </c>
+      <c r="W217" t="s">
+        <v>41</v>
+      </c>
+      <c r="X217" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y217" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z217" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA217" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB217" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC217" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD217" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE217" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF217" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG217" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH217" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI217" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ217" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK217" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL217" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM217" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN217" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO217" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="218" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>377</v>
+      </c>
+      <c r="C218" t="s">
+        <v>294</v>
+      </c>
+      <c r="D218" t="s">
+        <v>523</v>
+      </c>
+      <c r="E218" t="s">
+        <v>523</v>
+      </c>
+      <c r="F218" t="s">
+        <v>56</v>
+      </c>
+      <c r="G218" t="s">
+        <v>56</v>
+      </c>
+      <c r="H218" t="s">
+        <v>41</v>
+      </c>
+      <c r="I218" t="s">
+        <v>41</v>
+      </c>
+      <c r="J218" t="s">
+        <v>41</v>
+      </c>
+      <c r="K218" t="s">
+        <v>41</v>
+      </c>
+      <c r="L218" t="s">
+        <v>41</v>
+      </c>
+      <c r="M218" t="s">
+        <v>41</v>
+      </c>
+      <c r="N218" t="s">
+        <v>41</v>
+      </c>
+      <c r="O218" t="s">
+        <v>41</v>
+      </c>
+      <c r="P218" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>41</v>
+      </c>
+      <c r="R218" t="s">
+        <v>41</v>
+      </c>
+      <c r="S218" t="s">
+        <v>41</v>
+      </c>
+      <c r="T218" t="s">
+        <v>41</v>
+      </c>
+      <c r="U218" t="s">
+        <v>41</v>
+      </c>
+      <c r="V218" t="s">
+        <v>41</v>
+      </c>
+      <c r="W218" t="s">
+        <v>41</v>
+      </c>
+      <c r="X218" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y218" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z218" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA218" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB218" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC218" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD218" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE218" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF218" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG218" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH218" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI218" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ218" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK218" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL218" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM218" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN218" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO218" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="219" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>377</v>
+      </c>
+      <c r="C219" t="s">
+        <v>294</v>
+      </c>
+      <c r="D219" t="s">
+        <v>523</v>
+      </c>
+      <c r="E219" t="s">
+        <v>523</v>
+      </c>
+      <c r="F219" t="s">
+        <v>56</v>
+      </c>
+      <c r="G219" t="s">
+        <v>56</v>
+      </c>
+      <c r="H219" t="s">
+        <v>41</v>
+      </c>
+      <c r="I219" t="s">
+        <v>41</v>
+      </c>
+      <c r="J219" t="s">
+        <v>41</v>
+      </c>
+      <c r="K219" t="s">
+        <v>41</v>
+      </c>
+      <c r="L219" t="s">
+        <v>41</v>
+      </c>
+      <c r="M219" t="s">
+        <v>41</v>
+      </c>
+      <c r="N219" t="s">
+        <v>41</v>
+      </c>
+      <c r="O219" t="s">
+        <v>41</v>
+      </c>
+      <c r="P219" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>41</v>
+      </c>
+      <c r="R219" t="s">
+        <v>41</v>
+      </c>
+      <c r="S219" t="s">
+        <v>41</v>
+      </c>
+      <c r="T219" t="s">
+        <v>41</v>
+      </c>
+      <c r="U219" t="s">
+        <v>41</v>
+      </c>
+      <c r="V219" t="s">
+        <v>41</v>
+      </c>
+      <c r="W219" t="s">
+        <v>41</v>
+      </c>
+      <c r="X219" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y219" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z219" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA219" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB219" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC219" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD219" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE219" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF219" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG219" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH219" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI219" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ219" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK219" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL219" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM219" t="s">
+        <v>532</v>
+      </c>
+      <c r="AN219" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO219" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="220" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>377</v>
+      </c>
+      <c r="C220" t="s">
+        <v>294</v>
+      </c>
+      <c r="D220" t="s">
+        <v>523</v>
+      </c>
+      <c r="E220" t="s">
+        <v>523</v>
+      </c>
+      <c r="F220" t="s">
+        <v>56</v>
+      </c>
+      <c r="G220" t="s">
+        <v>56</v>
+      </c>
+      <c r="H220" t="s">
+        <v>41</v>
+      </c>
+      <c r="I220" t="s">
+        <v>41</v>
+      </c>
+      <c r="J220" t="s">
+        <v>41</v>
+      </c>
+      <c r="K220" t="s">
+        <v>41</v>
+      </c>
+      <c r="L220" t="s">
+        <v>41</v>
+      </c>
+      <c r="M220" t="s">
+        <v>41</v>
+      </c>
+      <c r="N220" t="s">
+        <v>41</v>
+      </c>
+      <c r="O220" t="s">
+        <v>41</v>
+      </c>
+      <c r="P220" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>41</v>
+      </c>
+      <c r="R220" t="s">
+        <v>41</v>
+      </c>
+      <c r="S220" t="s">
+        <v>41</v>
+      </c>
+      <c r="T220" t="s">
+        <v>41</v>
+      </c>
+      <c r="U220" t="s">
+        <v>41</v>
+      </c>
+      <c r="V220" t="s">
+        <v>41</v>
+      </c>
+      <c r="W220" t="s">
+        <v>41</v>
+      </c>
+      <c r="X220" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y220" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z220" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA220" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB220" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC220" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD220" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE220" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF220" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG220" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH220" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI220" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ220" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK220" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL220" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM220" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN220" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO220" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="221" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>377</v>
+      </c>
+      <c r="C221" t="s">
+        <v>294</v>
+      </c>
+      <c r="D221" t="s">
+        <v>523</v>
+      </c>
+      <c r="E221" t="s">
+        <v>523</v>
+      </c>
+      <c r="F221" t="s">
+        <v>56</v>
+      </c>
+      <c r="G221" t="s">
+        <v>56</v>
+      </c>
+      <c r="H221" t="s">
+        <v>41</v>
+      </c>
+      <c r="I221" t="s">
+        <v>41</v>
+      </c>
+      <c r="J221" t="s">
+        <v>41</v>
+      </c>
+      <c r="K221" t="s">
+        <v>41</v>
+      </c>
+      <c r="L221" t="s">
+        <v>41</v>
+      </c>
+      <c r="M221" t="s">
+        <v>41</v>
+      </c>
+      <c r="N221" t="s">
+        <v>41</v>
+      </c>
+      <c r="O221" t="s">
+        <v>41</v>
+      </c>
+      <c r="P221" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>41</v>
+      </c>
+      <c r="R221" t="s">
+        <v>41</v>
+      </c>
+      <c r="S221" t="s">
+        <v>41</v>
+      </c>
+      <c r="T221" t="s">
+        <v>41</v>
+      </c>
+      <c r="U221" t="s">
+        <v>41</v>
+      </c>
+      <c r="V221" t="s">
+        <v>41</v>
+      </c>
+      <c r="W221" t="s">
+        <v>41</v>
+      </c>
+      <c r="X221" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y221" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z221" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA221" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB221" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC221" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD221" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE221" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF221" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG221" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH221" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI221" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ221" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK221" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL221" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM221" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN221" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO221" t="s">
+        <v>535</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/toutReponse.xlsx
+++ b/toutReponse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Etape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFA685E-87AC-4FC7-AE23-7C568DE18222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9EE847-F78B-4982-9B27-9995C07C76D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8706" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9106" uniqueCount="552">
   <si>
     <t>id</t>
   </si>
@@ -1628,6 +1628,54 @@
   </si>
   <si>
     <t>2021-11-26 13:52:43</t>
+  </si>
+  <si>
+    <t>2021-11-29 13:44:30</t>
+  </si>
+  <si>
+    <t>2021-11-29 13:45:42</t>
+  </si>
+  <si>
+    <t>2021-11-29 13:46:26</t>
+  </si>
+  <si>
+    <t>2021-11-29 13:47:06</t>
+  </si>
+  <si>
+    <t>Formation de qualité. Action théâtre très intéressante et dynamique. A refaire</t>
+  </si>
+  <si>
+    <t>2021-11-29 13:48:20</t>
+  </si>
+  <si>
+    <t>Superbe pièce de théâtre , pertinente.  Intervention des psychologues et psychiatres enrichissantes, Merci</t>
+  </si>
+  <si>
+    <t>2021-11-29 13:50:05</t>
+  </si>
+  <si>
+    <t>2021-11-29 13:50:39</t>
+  </si>
+  <si>
+    <t>Pas du tout satisfaisant</t>
+  </si>
+  <si>
+    <t>Beaucoup trop axé sur l'exploitation agricole N'a pas répondu à mes attentes ni à la problématique posée</t>
+  </si>
+  <si>
+    <t>2021-11-29 13:52:04</t>
+  </si>
+  <si>
+    <t>2021-11-26</t>
+  </si>
+  <si>
+    <t>2021-11-29 13:52:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bonne capacité à mobiliser des intervenants de haut niveau  qualité d'animation  </t>
+  </si>
+  <si>
+    <t>2021-11-30 13:28:15</t>
   </si>
 </sst>
 </file>
@@ -2541,10 +2589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO221"/>
+  <dimension ref="A1:AO231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="B212" sqref="B212"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="B236" sqref="B236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29919,6 +29967,1256 @@
         <v>535</v>
       </c>
     </row>
+    <row r="222" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>377</v>
+      </c>
+      <c r="C222" t="s">
+        <v>294</v>
+      </c>
+      <c r="D222" t="s">
+        <v>523</v>
+      </c>
+      <c r="E222" t="s">
+        <v>523</v>
+      </c>
+      <c r="F222" t="s">
+        <v>56</v>
+      </c>
+      <c r="G222" t="s">
+        <v>56</v>
+      </c>
+      <c r="H222" t="s">
+        <v>41</v>
+      </c>
+      <c r="I222" t="s">
+        <v>41</v>
+      </c>
+      <c r="J222" t="s">
+        <v>41</v>
+      </c>
+      <c r="K222" t="s">
+        <v>41</v>
+      </c>
+      <c r="L222" t="s">
+        <v>41</v>
+      </c>
+      <c r="M222" t="s">
+        <v>41</v>
+      </c>
+      <c r="N222" t="s">
+        <v>41</v>
+      </c>
+      <c r="O222" t="s">
+        <v>41</v>
+      </c>
+      <c r="P222" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>41</v>
+      </c>
+      <c r="R222" t="s">
+        <v>41</v>
+      </c>
+      <c r="S222" t="s">
+        <v>41</v>
+      </c>
+      <c r="T222" t="s">
+        <v>41</v>
+      </c>
+      <c r="U222" t="s">
+        <v>41</v>
+      </c>
+      <c r="V222" t="s">
+        <v>41</v>
+      </c>
+      <c r="W222" t="s">
+        <v>41</v>
+      </c>
+      <c r="X222" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y222" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z222" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA222" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB222" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC222" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD222" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE222" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF222" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG222" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH222" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI222" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ222" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK222" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL222" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM222" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN222" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO222" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="223" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>377</v>
+      </c>
+      <c r="C223" t="s">
+        <v>294</v>
+      </c>
+      <c r="D223" t="s">
+        <v>523</v>
+      </c>
+      <c r="E223" t="s">
+        <v>523</v>
+      </c>
+      <c r="F223" t="s">
+        <v>56</v>
+      </c>
+      <c r="G223" t="s">
+        <v>56</v>
+      </c>
+      <c r="H223" t="s">
+        <v>41</v>
+      </c>
+      <c r="I223" t="s">
+        <v>41</v>
+      </c>
+      <c r="J223" t="s">
+        <v>41</v>
+      </c>
+      <c r="K223" t="s">
+        <v>41</v>
+      </c>
+      <c r="L223" t="s">
+        <v>41</v>
+      </c>
+      <c r="M223" t="s">
+        <v>41</v>
+      </c>
+      <c r="N223" t="s">
+        <v>41</v>
+      </c>
+      <c r="O223" t="s">
+        <v>41</v>
+      </c>
+      <c r="P223" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>41</v>
+      </c>
+      <c r="R223" t="s">
+        <v>41</v>
+      </c>
+      <c r="S223" t="s">
+        <v>41</v>
+      </c>
+      <c r="T223" t="s">
+        <v>41</v>
+      </c>
+      <c r="U223" t="s">
+        <v>41</v>
+      </c>
+      <c r="V223" t="s">
+        <v>41</v>
+      </c>
+      <c r="W223" t="s">
+        <v>41</v>
+      </c>
+      <c r="X223" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y223" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z223" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA223" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB223" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC223" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD223" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE223" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF223" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG223" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH223" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI223" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ223" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK223" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL223" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM223" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN223" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO223" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="224" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>377</v>
+      </c>
+      <c r="C224" t="s">
+        <v>294</v>
+      </c>
+      <c r="D224" t="s">
+        <v>523</v>
+      </c>
+      <c r="E224" t="s">
+        <v>523</v>
+      </c>
+      <c r="F224" t="s">
+        <v>56</v>
+      </c>
+      <c r="G224" t="s">
+        <v>56</v>
+      </c>
+      <c r="H224" t="s">
+        <v>41</v>
+      </c>
+      <c r="I224" t="s">
+        <v>41</v>
+      </c>
+      <c r="J224" t="s">
+        <v>41</v>
+      </c>
+      <c r="K224" t="s">
+        <v>41</v>
+      </c>
+      <c r="L224" t="s">
+        <v>41</v>
+      </c>
+      <c r="M224" t="s">
+        <v>41</v>
+      </c>
+      <c r="N224" t="s">
+        <v>41</v>
+      </c>
+      <c r="O224" t="s">
+        <v>41</v>
+      </c>
+      <c r="P224" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>41</v>
+      </c>
+      <c r="R224" t="s">
+        <v>41</v>
+      </c>
+      <c r="S224" t="s">
+        <v>41</v>
+      </c>
+      <c r="T224" t="s">
+        <v>41</v>
+      </c>
+      <c r="U224" t="s">
+        <v>41</v>
+      </c>
+      <c r="V224" t="s">
+        <v>41</v>
+      </c>
+      <c r="W224" t="s">
+        <v>41</v>
+      </c>
+      <c r="X224" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y224" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z224" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA224" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB224" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC224" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD224" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE224" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF224" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG224" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH224" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI224" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ224" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK224" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL224" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM224" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN224" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO224" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="225" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>377</v>
+      </c>
+      <c r="C225" t="s">
+        <v>294</v>
+      </c>
+      <c r="D225" t="s">
+        <v>523</v>
+      </c>
+      <c r="E225" t="s">
+        <v>523</v>
+      </c>
+      <c r="F225" t="s">
+        <v>56</v>
+      </c>
+      <c r="G225" t="s">
+        <v>56</v>
+      </c>
+      <c r="H225" t="s">
+        <v>41</v>
+      </c>
+      <c r="I225" t="s">
+        <v>41</v>
+      </c>
+      <c r="J225" t="s">
+        <v>41</v>
+      </c>
+      <c r="K225" t="s">
+        <v>41</v>
+      </c>
+      <c r="L225" t="s">
+        <v>41</v>
+      </c>
+      <c r="M225" t="s">
+        <v>41</v>
+      </c>
+      <c r="N225" t="s">
+        <v>41</v>
+      </c>
+      <c r="O225" t="s">
+        <v>41</v>
+      </c>
+      <c r="P225" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>41</v>
+      </c>
+      <c r="R225" t="s">
+        <v>41</v>
+      </c>
+      <c r="S225" t="s">
+        <v>41</v>
+      </c>
+      <c r="T225" t="s">
+        <v>41</v>
+      </c>
+      <c r="U225" t="s">
+        <v>41</v>
+      </c>
+      <c r="V225" t="s">
+        <v>41</v>
+      </c>
+      <c r="W225" t="s">
+        <v>41</v>
+      </c>
+      <c r="X225" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y225" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z225" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA225" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB225" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC225" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD225" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE225" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF225" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG225" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH225" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI225" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ225" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK225" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL225" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM225" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN225" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO225" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="226" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>377</v>
+      </c>
+      <c r="C226" t="s">
+        <v>294</v>
+      </c>
+      <c r="D226" t="s">
+        <v>523</v>
+      </c>
+      <c r="E226" t="s">
+        <v>523</v>
+      </c>
+      <c r="F226" t="s">
+        <v>56</v>
+      </c>
+      <c r="G226" t="s">
+        <v>56</v>
+      </c>
+      <c r="H226" t="s">
+        <v>41</v>
+      </c>
+      <c r="I226" t="s">
+        <v>41</v>
+      </c>
+      <c r="J226" t="s">
+        <v>41</v>
+      </c>
+      <c r="K226" t="s">
+        <v>41</v>
+      </c>
+      <c r="L226" t="s">
+        <v>41</v>
+      </c>
+      <c r="M226" t="s">
+        <v>41</v>
+      </c>
+      <c r="N226" t="s">
+        <v>41</v>
+      </c>
+      <c r="O226" t="s">
+        <v>41</v>
+      </c>
+      <c r="P226" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>41</v>
+      </c>
+      <c r="R226" t="s">
+        <v>41</v>
+      </c>
+      <c r="S226" t="s">
+        <v>41</v>
+      </c>
+      <c r="T226" t="s">
+        <v>41</v>
+      </c>
+      <c r="U226" t="s">
+        <v>41</v>
+      </c>
+      <c r="V226" t="s">
+        <v>41</v>
+      </c>
+      <c r="W226" t="s">
+        <v>41</v>
+      </c>
+      <c r="X226" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y226" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z226" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA226" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB226" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC226" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD226" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE226" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF226" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG226" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH226" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI226" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ226" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK226" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL226" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM226" t="s">
+        <v>540</v>
+      </c>
+      <c r="AN226" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO226" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="227" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>377</v>
+      </c>
+      <c r="C227" t="s">
+        <v>294</v>
+      </c>
+      <c r="D227" t="s">
+        <v>523</v>
+      </c>
+      <c r="E227" t="s">
+        <v>523</v>
+      </c>
+      <c r="F227" t="s">
+        <v>56</v>
+      </c>
+      <c r="G227" t="s">
+        <v>56</v>
+      </c>
+      <c r="H227" t="s">
+        <v>41</v>
+      </c>
+      <c r="I227" t="s">
+        <v>41</v>
+      </c>
+      <c r="J227" t="s">
+        <v>41</v>
+      </c>
+      <c r="K227" t="s">
+        <v>41</v>
+      </c>
+      <c r="L227" t="s">
+        <v>41</v>
+      </c>
+      <c r="M227" t="s">
+        <v>41</v>
+      </c>
+      <c r="N227" t="s">
+        <v>41</v>
+      </c>
+      <c r="O227" t="s">
+        <v>41</v>
+      </c>
+      <c r="P227" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>41</v>
+      </c>
+      <c r="R227" t="s">
+        <v>41</v>
+      </c>
+      <c r="S227" t="s">
+        <v>41</v>
+      </c>
+      <c r="T227" t="s">
+        <v>41</v>
+      </c>
+      <c r="U227" t="s">
+        <v>41</v>
+      </c>
+      <c r="V227" t="s">
+        <v>41</v>
+      </c>
+      <c r="W227" t="s">
+        <v>41</v>
+      </c>
+      <c r="X227" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y227" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z227" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA227" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB227" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC227" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD227" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE227" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF227" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG227" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH227" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI227" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ227" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK227" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL227" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM227" t="s">
+        <v>542</v>
+      </c>
+      <c r="AN227" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO227" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="228" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>377</v>
+      </c>
+      <c r="C228" t="s">
+        <v>294</v>
+      </c>
+      <c r="D228" t="s">
+        <v>523</v>
+      </c>
+      <c r="E228" t="s">
+        <v>523</v>
+      </c>
+      <c r="F228" t="s">
+        <v>56</v>
+      </c>
+      <c r="G228" t="s">
+        <v>56</v>
+      </c>
+      <c r="H228" t="s">
+        <v>41</v>
+      </c>
+      <c r="I228" t="s">
+        <v>41</v>
+      </c>
+      <c r="J228" t="s">
+        <v>41</v>
+      </c>
+      <c r="K228" t="s">
+        <v>41</v>
+      </c>
+      <c r="L228" t="s">
+        <v>41</v>
+      </c>
+      <c r="M228" t="s">
+        <v>41</v>
+      </c>
+      <c r="N228" t="s">
+        <v>41</v>
+      </c>
+      <c r="O228" t="s">
+        <v>41</v>
+      </c>
+      <c r="P228" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>41</v>
+      </c>
+      <c r="R228" t="s">
+        <v>41</v>
+      </c>
+      <c r="S228" t="s">
+        <v>41</v>
+      </c>
+      <c r="T228" t="s">
+        <v>41</v>
+      </c>
+      <c r="U228" t="s">
+        <v>41</v>
+      </c>
+      <c r="V228" t="s">
+        <v>41</v>
+      </c>
+      <c r="W228" t="s">
+        <v>41</v>
+      </c>
+      <c r="X228" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y228" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z228" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA228" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB228" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC228" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD228" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE228" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF228" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG228" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH228" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI228" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ228" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK228" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL228" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM228" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN228" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO228" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="229" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>377</v>
+      </c>
+      <c r="C229" t="s">
+        <v>294</v>
+      </c>
+      <c r="D229" t="s">
+        <v>523</v>
+      </c>
+      <c r="E229" t="s">
+        <v>523</v>
+      </c>
+      <c r="F229" t="s">
+        <v>56</v>
+      </c>
+      <c r="G229" t="s">
+        <v>56</v>
+      </c>
+      <c r="H229" t="s">
+        <v>41</v>
+      </c>
+      <c r="I229" t="s">
+        <v>41</v>
+      </c>
+      <c r="J229" t="s">
+        <v>41</v>
+      </c>
+      <c r="K229" t="s">
+        <v>41</v>
+      </c>
+      <c r="L229" t="s">
+        <v>41</v>
+      </c>
+      <c r="M229" t="s">
+        <v>41</v>
+      </c>
+      <c r="N229" t="s">
+        <v>41</v>
+      </c>
+      <c r="O229" t="s">
+        <v>41</v>
+      </c>
+      <c r="P229" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q229" t="s">
+        <v>41</v>
+      </c>
+      <c r="R229" t="s">
+        <v>41</v>
+      </c>
+      <c r="S229" t="s">
+        <v>41</v>
+      </c>
+      <c r="T229" t="s">
+        <v>41</v>
+      </c>
+      <c r="U229" t="s">
+        <v>41</v>
+      </c>
+      <c r="V229" t="s">
+        <v>41</v>
+      </c>
+      <c r="W229" t="s">
+        <v>41</v>
+      </c>
+      <c r="X229" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y229" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z229" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA229" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB229" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC229" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD229" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE229" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF229" t="s">
+        <v>545</v>
+      </c>
+      <c r="AG229" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH229" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI229" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ229" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK229" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL229" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM229" t="s">
+        <v>546</v>
+      </c>
+      <c r="AN229" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO229" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="230" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>377</v>
+      </c>
+      <c r="C230" t="s">
+        <v>294</v>
+      </c>
+      <c r="D230" t="s">
+        <v>548</v>
+      </c>
+      <c r="E230" t="s">
+        <v>548</v>
+      </c>
+      <c r="F230" t="s">
+        <v>56</v>
+      </c>
+      <c r="G230" t="s">
+        <v>56</v>
+      </c>
+      <c r="H230" t="s">
+        <v>41</v>
+      </c>
+      <c r="I230" t="s">
+        <v>41</v>
+      </c>
+      <c r="J230" t="s">
+        <v>41</v>
+      </c>
+      <c r="K230" t="s">
+        <v>41</v>
+      </c>
+      <c r="L230" t="s">
+        <v>41</v>
+      </c>
+      <c r="M230" t="s">
+        <v>41</v>
+      </c>
+      <c r="N230" t="s">
+        <v>41</v>
+      </c>
+      <c r="O230" t="s">
+        <v>41</v>
+      </c>
+      <c r="P230" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q230" t="s">
+        <v>41</v>
+      </c>
+      <c r="R230" t="s">
+        <v>41</v>
+      </c>
+      <c r="S230" t="s">
+        <v>41</v>
+      </c>
+      <c r="T230" t="s">
+        <v>41</v>
+      </c>
+      <c r="U230" t="s">
+        <v>41</v>
+      </c>
+      <c r="V230" t="s">
+        <v>41</v>
+      </c>
+      <c r="W230" t="s">
+        <v>41</v>
+      </c>
+      <c r="X230" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y230" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z230" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA230" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB230" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC230" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD230" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE230" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF230" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG230" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH230" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI230" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ230" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK230" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL230" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM230" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN230" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO230" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="231" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>377</v>
+      </c>
+      <c r="C231" t="s">
+        <v>51</v>
+      </c>
+      <c r="D231" t="s">
+        <v>523</v>
+      </c>
+      <c r="E231" t="s">
+        <v>548</v>
+      </c>
+      <c r="F231" t="s">
+        <v>268</v>
+      </c>
+      <c r="G231" t="s">
+        <v>268</v>
+      </c>
+      <c r="H231" t="s">
+        <v>45</v>
+      </c>
+      <c r="I231" t="s">
+        <v>45</v>
+      </c>
+      <c r="J231" t="s">
+        <v>45</v>
+      </c>
+      <c r="K231" t="s">
+        <v>45</v>
+      </c>
+      <c r="L231" t="s">
+        <v>45</v>
+      </c>
+      <c r="M231" t="s">
+        <v>41</v>
+      </c>
+      <c r="N231" t="s">
+        <v>41</v>
+      </c>
+      <c r="O231" t="s">
+        <v>41</v>
+      </c>
+      <c r="P231" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q231" t="s">
+        <v>41</v>
+      </c>
+      <c r="R231" t="s">
+        <v>41</v>
+      </c>
+      <c r="S231" t="s">
+        <v>41</v>
+      </c>
+      <c r="T231" t="s">
+        <v>41</v>
+      </c>
+      <c r="U231" t="s">
+        <v>41</v>
+      </c>
+      <c r="V231" t="s">
+        <v>41</v>
+      </c>
+      <c r="W231" t="s">
+        <v>41</v>
+      </c>
+      <c r="X231" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y231" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z231" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA231" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB231" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC231" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD231" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE231" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF231" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG231" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH231" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI231" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ231" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK231" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL231" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM231" t="s">
+        <v>550</v>
+      </c>
+      <c r="AN231" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO231" t="s">
+        <v>551</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/toutReponse.xlsx
+++ b/toutReponse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Etape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9EE847-F78B-4982-9B27-9995C07C76D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E79CC38-52AF-4205-82A2-C98927D29B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9106" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9386" uniqueCount="566">
   <si>
     <t>id</t>
   </si>
@@ -1676,6 +1676,48 @@
   </si>
   <si>
     <t>2021-11-30 13:28:15</t>
+  </si>
+  <si>
+    <t>2021-05-27</t>
+  </si>
+  <si>
+    <t>2021-12-02</t>
+  </si>
+  <si>
+    <t>2021-12-02 13:25:43</t>
+  </si>
+  <si>
+    <t>2021-12-02 13:26:50</t>
+  </si>
+  <si>
+    <t>2021-11-05</t>
+  </si>
+  <si>
+    <t>2021-12-02 13:27:43</t>
+  </si>
+  <si>
+    <t>2021-12-02 13:28:54</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>2021-12-05</t>
+  </si>
+  <si>
+    <t>2021-12-02 13:29:49</t>
+  </si>
+  <si>
+    <t>2021-11-15</t>
+  </si>
+  <si>
+    <t>2021-12-02 13:30:53</t>
+  </si>
+  <si>
+    <t>2021-09-24</t>
+  </si>
+  <si>
+    <t>2021-12-02 13:31:45</t>
   </si>
 </sst>
 </file>
@@ -2589,10 +2631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO231"/>
+  <dimension ref="A1:AO238"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="B236" sqref="B236"/>
+      <selection activeCell="D232" sqref="D232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31217,6 +31259,881 @@
         <v>551</v>
       </c>
     </row>
+    <row r="232" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>52</v>
+      </c>
+      <c r="C232" t="s">
+        <v>51</v>
+      </c>
+      <c r="D232" t="s">
+        <v>552</v>
+      </c>
+      <c r="E232" t="s">
+        <v>553</v>
+      </c>
+      <c r="F232" t="s">
+        <v>56</v>
+      </c>
+      <c r="G232" t="s">
+        <v>56</v>
+      </c>
+      <c r="H232" t="s">
+        <v>41</v>
+      </c>
+      <c r="I232" t="s">
+        <v>41</v>
+      </c>
+      <c r="J232" t="s">
+        <v>41</v>
+      </c>
+      <c r="K232" t="s">
+        <v>41</v>
+      </c>
+      <c r="L232" t="s">
+        <v>41</v>
+      </c>
+      <c r="M232" t="s">
+        <v>41</v>
+      </c>
+      <c r="N232" t="s">
+        <v>41</v>
+      </c>
+      <c r="O232" t="s">
+        <v>41</v>
+      </c>
+      <c r="P232" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q232" t="s">
+        <v>41</v>
+      </c>
+      <c r="R232" t="s">
+        <v>41</v>
+      </c>
+      <c r="S232" t="s">
+        <v>41</v>
+      </c>
+      <c r="T232" t="s">
+        <v>41</v>
+      </c>
+      <c r="U232" t="s">
+        <v>41</v>
+      </c>
+      <c r="V232" t="s">
+        <v>41</v>
+      </c>
+      <c r="W232" t="s">
+        <v>41</v>
+      </c>
+      <c r="X232" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y232" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z232" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA232" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB232" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC232" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD232" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE232" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF232" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG232" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH232" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI232" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ232" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK232" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL232" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM232" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN232" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO232" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="233" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>52</v>
+      </c>
+      <c r="C233" t="s">
+        <v>51</v>
+      </c>
+      <c r="D233" t="s">
+        <v>552</v>
+      </c>
+      <c r="E233" t="s">
+        <v>553</v>
+      </c>
+      <c r="F233" t="s">
+        <v>53</v>
+      </c>
+      <c r="G233" t="s">
+        <v>53</v>
+      </c>
+      <c r="H233" t="s">
+        <v>41</v>
+      </c>
+      <c r="I233" t="s">
+        <v>41</v>
+      </c>
+      <c r="J233" t="s">
+        <v>41</v>
+      </c>
+      <c r="K233" t="s">
+        <v>41</v>
+      </c>
+      <c r="L233" t="s">
+        <v>41</v>
+      </c>
+      <c r="M233" t="s">
+        <v>72</v>
+      </c>
+      <c r="N233" t="s">
+        <v>42</v>
+      </c>
+      <c r="O233" t="s">
+        <v>42</v>
+      </c>
+      <c r="P233" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q233" t="s">
+        <v>42</v>
+      </c>
+      <c r="R233" t="s">
+        <v>54</v>
+      </c>
+      <c r="S233" t="s">
+        <v>45</v>
+      </c>
+      <c r="T233" t="s">
+        <v>55</v>
+      </c>
+      <c r="U233" t="s">
+        <v>55</v>
+      </c>
+      <c r="V233" t="s">
+        <v>55</v>
+      </c>
+      <c r="W233" t="s">
+        <v>55</v>
+      </c>
+      <c r="X233" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y233" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z233" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA233" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB233" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC233" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD233" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE233" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF233" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG233" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH233" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI233" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ233" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK233" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL233" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM233" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN233" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO233" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="234" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>52</v>
+      </c>
+      <c r="C234" t="s">
+        <v>51</v>
+      </c>
+      <c r="D234" t="s">
+        <v>78</v>
+      </c>
+      <c r="E234" t="s">
+        <v>556</v>
+      </c>
+      <c r="F234" t="s">
+        <v>56</v>
+      </c>
+      <c r="G234" t="s">
+        <v>56</v>
+      </c>
+      <c r="H234" t="s">
+        <v>41</v>
+      </c>
+      <c r="I234" t="s">
+        <v>41</v>
+      </c>
+      <c r="J234" t="s">
+        <v>41</v>
+      </c>
+      <c r="K234" t="s">
+        <v>41</v>
+      </c>
+      <c r="L234" t="s">
+        <v>41</v>
+      </c>
+      <c r="M234" t="s">
+        <v>41</v>
+      </c>
+      <c r="N234" t="s">
+        <v>41</v>
+      </c>
+      <c r="O234" t="s">
+        <v>41</v>
+      </c>
+      <c r="P234" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q234" t="s">
+        <v>41</v>
+      </c>
+      <c r="R234" t="s">
+        <v>41</v>
+      </c>
+      <c r="S234" t="s">
+        <v>41</v>
+      </c>
+      <c r="T234" t="s">
+        <v>41</v>
+      </c>
+      <c r="U234" t="s">
+        <v>41</v>
+      </c>
+      <c r="V234" t="s">
+        <v>41</v>
+      </c>
+      <c r="W234" t="s">
+        <v>41</v>
+      </c>
+      <c r="X234" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y234" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z234" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA234" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB234" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC234" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD234" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE234" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF234" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG234" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH234" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI234" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ234" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK234" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL234" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM234" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN234" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO234" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="235" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>52</v>
+      </c>
+      <c r="C235" t="s">
+        <v>51</v>
+      </c>
+      <c r="D235" t="s">
+        <v>78</v>
+      </c>
+      <c r="E235" t="s">
+        <v>556</v>
+      </c>
+      <c r="F235" t="s">
+        <v>53</v>
+      </c>
+      <c r="G235" t="s">
+        <v>53</v>
+      </c>
+      <c r="H235" t="s">
+        <v>41</v>
+      </c>
+      <c r="I235" t="s">
+        <v>41</v>
+      </c>
+      <c r="J235" t="s">
+        <v>41</v>
+      </c>
+      <c r="K235" t="s">
+        <v>41</v>
+      </c>
+      <c r="L235" t="s">
+        <v>41</v>
+      </c>
+      <c r="M235" t="s">
+        <v>72</v>
+      </c>
+      <c r="N235" t="s">
+        <v>42</v>
+      </c>
+      <c r="O235" t="s">
+        <v>42</v>
+      </c>
+      <c r="P235" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>42</v>
+      </c>
+      <c r="R235" t="s">
+        <v>54</v>
+      </c>
+      <c r="S235" t="s">
+        <v>45</v>
+      </c>
+      <c r="T235" t="s">
+        <v>55</v>
+      </c>
+      <c r="U235" t="s">
+        <v>55</v>
+      </c>
+      <c r="V235" t="s">
+        <v>55</v>
+      </c>
+      <c r="W235" t="s">
+        <v>55</v>
+      </c>
+      <c r="X235" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y235" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z235" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA235" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB235" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC235" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD235" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE235" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF235" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG235" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH235" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI235" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ235" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK235" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL235" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM235" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN235" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO235" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="236" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>52</v>
+      </c>
+      <c r="C236" t="s">
+        <v>51</v>
+      </c>
+      <c r="D236" t="s">
+        <v>559</v>
+      </c>
+      <c r="E236" t="s">
+        <v>560</v>
+      </c>
+      <c r="F236" t="s">
+        <v>56</v>
+      </c>
+      <c r="G236" t="s">
+        <v>56</v>
+      </c>
+      <c r="H236" t="s">
+        <v>41</v>
+      </c>
+      <c r="I236" t="s">
+        <v>41</v>
+      </c>
+      <c r="J236" t="s">
+        <v>41</v>
+      </c>
+      <c r="K236" t="s">
+        <v>41</v>
+      </c>
+      <c r="L236" t="s">
+        <v>41</v>
+      </c>
+      <c r="M236" t="s">
+        <v>41</v>
+      </c>
+      <c r="N236" t="s">
+        <v>41</v>
+      </c>
+      <c r="O236" t="s">
+        <v>41</v>
+      </c>
+      <c r="P236" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q236" t="s">
+        <v>41</v>
+      </c>
+      <c r="R236" t="s">
+        <v>41</v>
+      </c>
+      <c r="S236" t="s">
+        <v>41</v>
+      </c>
+      <c r="T236" t="s">
+        <v>41</v>
+      </c>
+      <c r="U236" t="s">
+        <v>41</v>
+      </c>
+      <c r="V236" t="s">
+        <v>41</v>
+      </c>
+      <c r="W236" t="s">
+        <v>41</v>
+      </c>
+      <c r="X236" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y236" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z236" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA236" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB236" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC236" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD236" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE236" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF236" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG236" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH236" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI236" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ236" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK236" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL236" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM236" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN236" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO236" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="237" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>52</v>
+      </c>
+      <c r="C237" t="s">
+        <v>51</v>
+      </c>
+      <c r="D237" t="s">
+        <v>421</v>
+      </c>
+      <c r="E237" t="s">
+        <v>562</v>
+      </c>
+      <c r="F237" t="s">
+        <v>56</v>
+      </c>
+      <c r="G237" t="s">
+        <v>56</v>
+      </c>
+      <c r="H237" t="s">
+        <v>41</v>
+      </c>
+      <c r="I237" t="s">
+        <v>41</v>
+      </c>
+      <c r="J237" t="s">
+        <v>41</v>
+      </c>
+      <c r="K237" t="s">
+        <v>41</v>
+      </c>
+      <c r="L237" t="s">
+        <v>41</v>
+      </c>
+      <c r="M237" t="s">
+        <v>41</v>
+      </c>
+      <c r="N237" t="s">
+        <v>41</v>
+      </c>
+      <c r="O237" t="s">
+        <v>41</v>
+      </c>
+      <c r="P237" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>41</v>
+      </c>
+      <c r="R237" t="s">
+        <v>41</v>
+      </c>
+      <c r="S237" t="s">
+        <v>41</v>
+      </c>
+      <c r="T237" t="s">
+        <v>41</v>
+      </c>
+      <c r="U237" t="s">
+        <v>41</v>
+      </c>
+      <c r="V237" t="s">
+        <v>41</v>
+      </c>
+      <c r="W237" t="s">
+        <v>41</v>
+      </c>
+      <c r="X237" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y237" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z237" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA237" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB237" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC237" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD237" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE237" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF237" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG237" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH237" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI237" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ237" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK237" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL237" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM237" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN237" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO237" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="238" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>52</v>
+      </c>
+      <c r="C238" t="s">
+        <v>51</v>
+      </c>
+      <c r="D238" t="s">
+        <v>564</v>
+      </c>
+      <c r="E238" t="s">
+        <v>562</v>
+      </c>
+      <c r="F238" t="s">
+        <v>53</v>
+      </c>
+      <c r="G238" t="s">
+        <v>53</v>
+      </c>
+      <c r="H238" t="s">
+        <v>41</v>
+      </c>
+      <c r="I238" t="s">
+        <v>41</v>
+      </c>
+      <c r="J238" t="s">
+        <v>41</v>
+      </c>
+      <c r="K238" t="s">
+        <v>41</v>
+      </c>
+      <c r="L238" t="s">
+        <v>41</v>
+      </c>
+      <c r="M238" t="s">
+        <v>72</v>
+      </c>
+      <c r="N238" t="s">
+        <v>42</v>
+      </c>
+      <c r="O238" t="s">
+        <v>42</v>
+      </c>
+      <c r="P238" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q238" t="s">
+        <v>42</v>
+      </c>
+      <c r="R238" t="s">
+        <v>54</v>
+      </c>
+      <c r="S238" t="s">
+        <v>45</v>
+      </c>
+      <c r="T238" t="s">
+        <v>55</v>
+      </c>
+      <c r="U238" t="s">
+        <v>55</v>
+      </c>
+      <c r="V238" t="s">
+        <v>55</v>
+      </c>
+      <c r="W238" t="s">
+        <v>55</v>
+      </c>
+      <c r="X238" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y238" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z238" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA238" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB238" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC238" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD238" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE238" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF238" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG238" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH238" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI238" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ238" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK238" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL238" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM238" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN238" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO238" t="s">
+        <v>565</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/toutReponse.xlsx
+++ b/toutReponse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Etape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E79CC38-52AF-4205-82A2-C98927D29B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA857FE1-8BFF-4623-AA16-5BCF0F6EE0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9386" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9906" uniqueCount="591">
   <si>
     <t>id</t>
   </si>
@@ -1718,6 +1718,81 @@
   </si>
   <si>
     <t>2021-12-02 13:31:45</t>
+  </si>
+  <si>
+    <t>2021-06-10</t>
+  </si>
+  <si>
+    <t>2021-12-14</t>
+  </si>
+  <si>
+    <t>2021-12-14 10:52:37</t>
+  </si>
+  <si>
+    <t>2021-12-14 10:53:43</t>
+  </si>
+  <si>
+    <t>2021-12-09</t>
+  </si>
+  <si>
+    <t>2021-12-14 10:54:40</t>
+  </si>
+  <si>
+    <t>2021-12-14 10:55:23</t>
+  </si>
+  <si>
+    <t>2021-12-06</t>
+  </si>
+  <si>
+    <t>2021-12-14 10:56:04</t>
+  </si>
+  <si>
+    <t>2021-12-14 10:56:58</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2021-12-03</t>
+  </si>
+  <si>
+    <t>2021-12-14 10:57:41</t>
+  </si>
+  <si>
+    <t>2021-12-14 10:58:28</t>
+  </si>
+  <si>
+    <t>2021-12-14 10:59:12</t>
+  </si>
+  <si>
+    <t>2021-07-08</t>
+  </si>
+  <si>
+    <t>2021-11-16</t>
+  </si>
+  <si>
+    <t>2021-12-17 09:55:07</t>
+  </si>
+  <si>
+    <t>2021-09-13</t>
+  </si>
+  <si>
+    <t>2021-12-17</t>
+  </si>
+  <si>
+    <t>2021-12-17 13:08:09</t>
+  </si>
+  <si>
+    <t>Un grand merci à Mme Groussard pour son écoute, soutien.</t>
+  </si>
+  <si>
+    <t>2021-12-17 13:11:26</t>
+  </si>
+  <si>
+    <t>Je ressors plus sereine. Une meilleure évolution pour la suite de mon parcours professionnel.</t>
+  </si>
+  <si>
+    <t>2021-12-17 13:17:52</t>
   </si>
 </sst>
 </file>
@@ -2631,10 +2706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO238"/>
+  <dimension ref="A1:AO251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="D232" sqref="D232"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="A236" sqref="A236:A251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32134,6 +32209,1631 @@
         <v>565</v>
       </c>
     </row>
+    <row r="239" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>52</v>
+      </c>
+      <c r="C239" t="s">
+        <v>51</v>
+      </c>
+      <c r="D239" t="s">
+        <v>566</v>
+      </c>
+      <c r="E239" t="s">
+        <v>567</v>
+      </c>
+      <c r="F239" t="s">
+        <v>56</v>
+      </c>
+      <c r="G239" t="s">
+        <v>486</v>
+      </c>
+      <c r="H239" t="s">
+        <v>41</v>
+      </c>
+      <c r="I239" t="s">
+        <v>41</v>
+      </c>
+      <c r="J239" t="s">
+        <v>41</v>
+      </c>
+      <c r="K239" t="s">
+        <v>41</v>
+      </c>
+      <c r="L239" t="s">
+        <v>41</v>
+      </c>
+      <c r="M239" t="s">
+        <v>41</v>
+      </c>
+      <c r="N239" t="s">
+        <v>41</v>
+      </c>
+      <c r="O239" t="s">
+        <v>41</v>
+      </c>
+      <c r="P239" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q239" t="s">
+        <v>41</v>
+      </c>
+      <c r="R239" t="s">
+        <v>41</v>
+      </c>
+      <c r="S239" t="s">
+        <v>41</v>
+      </c>
+      <c r="T239" t="s">
+        <v>41</v>
+      </c>
+      <c r="U239" t="s">
+        <v>41</v>
+      </c>
+      <c r="V239" t="s">
+        <v>41</v>
+      </c>
+      <c r="W239" t="s">
+        <v>41</v>
+      </c>
+      <c r="X239" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y239" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z239" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA239" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB239" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC239" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD239" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE239" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF239" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG239" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH239" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI239" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ239" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK239" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL239" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM239" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN239" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO239" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="240" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>52</v>
+      </c>
+      <c r="C240" t="s">
+        <v>51</v>
+      </c>
+      <c r="D240" t="s">
+        <v>566</v>
+      </c>
+      <c r="E240" t="s">
+        <v>567</v>
+      </c>
+      <c r="F240" t="s">
+        <v>53</v>
+      </c>
+      <c r="G240" t="s">
+        <v>53</v>
+      </c>
+      <c r="H240" t="s">
+        <v>41</v>
+      </c>
+      <c r="I240" t="s">
+        <v>41</v>
+      </c>
+      <c r="J240" t="s">
+        <v>41</v>
+      </c>
+      <c r="K240" t="s">
+        <v>41</v>
+      </c>
+      <c r="L240" t="s">
+        <v>41</v>
+      </c>
+      <c r="M240" t="s">
+        <v>72</v>
+      </c>
+      <c r="N240" t="s">
+        <v>42</v>
+      </c>
+      <c r="O240" t="s">
+        <v>42</v>
+      </c>
+      <c r="P240" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q240" t="s">
+        <v>42</v>
+      </c>
+      <c r="R240" t="s">
+        <v>54</v>
+      </c>
+      <c r="S240" t="s">
+        <v>45</v>
+      </c>
+      <c r="T240" t="s">
+        <v>55</v>
+      </c>
+      <c r="U240" t="s">
+        <v>55</v>
+      </c>
+      <c r="V240" t="s">
+        <v>55</v>
+      </c>
+      <c r="W240" t="s">
+        <v>55</v>
+      </c>
+      <c r="X240" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y240" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z240" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA240" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB240" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC240" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD240" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE240" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF240" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG240" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH240" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI240" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ240" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK240" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL240" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM240" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN240" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO240" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="241" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>52</v>
+      </c>
+      <c r="C241" t="s">
+        <v>51</v>
+      </c>
+      <c r="D241" t="s">
+        <v>67</v>
+      </c>
+      <c r="E241" t="s">
+        <v>570</v>
+      </c>
+      <c r="F241" t="s">
+        <v>56</v>
+      </c>
+      <c r="G241" t="s">
+        <v>486</v>
+      </c>
+      <c r="H241" t="s">
+        <v>41</v>
+      </c>
+      <c r="I241" t="s">
+        <v>41</v>
+      </c>
+      <c r="J241" t="s">
+        <v>41</v>
+      </c>
+      <c r="K241" t="s">
+        <v>41</v>
+      </c>
+      <c r="L241" t="s">
+        <v>41</v>
+      </c>
+      <c r="M241" t="s">
+        <v>41</v>
+      </c>
+      <c r="N241" t="s">
+        <v>41</v>
+      </c>
+      <c r="O241" t="s">
+        <v>41</v>
+      </c>
+      <c r="P241" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q241" t="s">
+        <v>41</v>
+      </c>
+      <c r="R241" t="s">
+        <v>41</v>
+      </c>
+      <c r="S241" t="s">
+        <v>41</v>
+      </c>
+      <c r="T241" t="s">
+        <v>41</v>
+      </c>
+      <c r="U241" t="s">
+        <v>41</v>
+      </c>
+      <c r="V241" t="s">
+        <v>41</v>
+      </c>
+      <c r="W241" t="s">
+        <v>41</v>
+      </c>
+      <c r="X241" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y241" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z241" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA241" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB241" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC241" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD241" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE241" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF241" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG241" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH241" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI241" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ241" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK241" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL241" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM241" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN241" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO241" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="242" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>52</v>
+      </c>
+      <c r="C242" t="s">
+        <v>51</v>
+      </c>
+      <c r="D242" t="s">
+        <v>67</v>
+      </c>
+      <c r="E242" t="s">
+        <v>570</v>
+      </c>
+      <c r="F242" t="s">
+        <v>53</v>
+      </c>
+      <c r="G242" t="s">
+        <v>53</v>
+      </c>
+      <c r="H242" t="s">
+        <v>41</v>
+      </c>
+      <c r="I242" t="s">
+        <v>41</v>
+      </c>
+      <c r="J242" t="s">
+        <v>41</v>
+      </c>
+      <c r="K242" t="s">
+        <v>41</v>
+      </c>
+      <c r="L242" t="s">
+        <v>41</v>
+      </c>
+      <c r="M242" t="s">
+        <v>72</v>
+      </c>
+      <c r="N242" t="s">
+        <v>42</v>
+      </c>
+      <c r="O242" t="s">
+        <v>42</v>
+      </c>
+      <c r="P242" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q242" t="s">
+        <v>41</v>
+      </c>
+      <c r="R242" t="s">
+        <v>54</v>
+      </c>
+      <c r="S242" t="s">
+        <v>45</v>
+      </c>
+      <c r="T242" t="s">
+        <v>55</v>
+      </c>
+      <c r="U242" t="s">
+        <v>55</v>
+      </c>
+      <c r="V242" t="s">
+        <v>55</v>
+      </c>
+      <c r="W242" t="s">
+        <v>55</v>
+      </c>
+      <c r="X242" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y242" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z242" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA242" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB242" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC242" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD242" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE242" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF242" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG242" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH242" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI242" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ242" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK242" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL242" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM242" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN242" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO242" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="243" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>52</v>
+      </c>
+      <c r="C243" t="s">
+        <v>51</v>
+      </c>
+      <c r="D243" t="s">
+        <v>552</v>
+      </c>
+      <c r="E243" t="s">
+        <v>573</v>
+      </c>
+      <c r="F243" t="s">
+        <v>56</v>
+      </c>
+      <c r="G243" t="s">
+        <v>486</v>
+      </c>
+      <c r="H243" t="s">
+        <v>41</v>
+      </c>
+      <c r="I243" t="s">
+        <v>41</v>
+      </c>
+      <c r="J243" t="s">
+        <v>41</v>
+      </c>
+      <c r="K243" t="s">
+        <v>41</v>
+      </c>
+      <c r="L243" t="s">
+        <v>41</v>
+      </c>
+      <c r="M243" t="s">
+        <v>41</v>
+      </c>
+      <c r="N243" t="s">
+        <v>41</v>
+      </c>
+      <c r="O243" t="s">
+        <v>41</v>
+      </c>
+      <c r="P243" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q243" t="s">
+        <v>41</v>
+      </c>
+      <c r="R243" t="s">
+        <v>41</v>
+      </c>
+      <c r="S243" t="s">
+        <v>41</v>
+      </c>
+      <c r="T243" t="s">
+        <v>41</v>
+      </c>
+      <c r="U243" t="s">
+        <v>41</v>
+      </c>
+      <c r="V243" t="s">
+        <v>41</v>
+      </c>
+      <c r="W243" t="s">
+        <v>41</v>
+      </c>
+      <c r="X243" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y243" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z243" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA243" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB243" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC243" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD243" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE243" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF243" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG243" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH243" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI243" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ243" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK243" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL243" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM243" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN243" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO243" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="244" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>52</v>
+      </c>
+      <c r="C244" t="s">
+        <v>51</v>
+      </c>
+      <c r="D244" t="s">
+        <v>108</v>
+      </c>
+      <c r="E244" t="s">
+        <v>573</v>
+      </c>
+      <c r="F244" t="s">
+        <v>53</v>
+      </c>
+      <c r="G244" t="s">
+        <v>53</v>
+      </c>
+      <c r="H244" t="s">
+        <v>41</v>
+      </c>
+      <c r="I244" t="s">
+        <v>41</v>
+      </c>
+      <c r="J244" t="s">
+        <v>41</v>
+      </c>
+      <c r="K244" t="s">
+        <v>41</v>
+      </c>
+      <c r="L244" t="s">
+        <v>41</v>
+      </c>
+      <c r="M244" t="s">
+        <v>72</v>
+      </c>
+      <c r="N244" t="s">
+        <v>42</v>
+      </c>
+      <c r="O244" t="s">
+        <v>42</v>
+      </c>
+      <c r="P244" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q244" t="s">
+        <v>42</v>
+      </c>
+      <c r="R244" t="s">
+        <v>54</v>
+      </c>
+      <c r="S244" t="s">
+        <v>45</v>
+      </c>
+      <c r="T244" t="s">
+        <v>55</v>
+      </c>
+      <c r="U244" t="s">
+        <v>55</v>
+      </c>
+      <c r="V244" t="s">
+        <v>55</v>
+      </c>
+      <c r="W244" t="s">
+        <v>55</v>
+      </c>
+      <c r="X244" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y244" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z244" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA244" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB244" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC244" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD244" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE244" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF244" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG244" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH244" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI244" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ244" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK244" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL244" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM244" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN244" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO244" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="245" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>52</v>
+      </c>
+      <c r="C245" t="s">
+        <v>51</v>
+      </c>
+      <c r="D245" t="s">
+        <v>576</v>
+      </c>
+      <c r="E245" t="s">
+        <v>577</v>
+      </c>
+      <c r="F245" t="s">
+        <v>56</v>
+      </c>
+      <c r="G245" t="s">
+        <v>486</v>
+      </c>
+      <c r="H245" t="s">
+        <v>41</v>
+      </c>
+      <c r="I245" t="s">
+        <v>41</v>
+      </c>
+      <c r="J245" t="s">
+        <v>41</v>
+      </c>
+      <c r="K245" t="s">
+        <v>41</v>
+      </c>
+      <c r="L245" t="s">
+        <v>41</v>
+      </c>
+      <c r="M245" t="s">
+        <v>41</v>
+      </c>
+      <c r="N245" t="s">
+        <v>41</v>
+      </c>
+      <c r="O245" t="s">
+        <v>41</v>
+      </c>
+      <c r="P245" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q245" t="s">
+        <v>41</v>
+      </c>
+      <c r="R245" t="s">
+        <v>41</v>
+      </c>
+      <c r="S245" t="s">
+        <v>41</v>
+      </c>
+      <c r="T245" t="s">
+        <v>41</v>
+      </c>
+      <c r="U245" t="s">
+        <v>41</v>
+      </c>
+      <c r="V245" t="s">
+        <v>41</v>
+      </c>
+      <c r="W245" t="s">
+        <v>41</v>
+      </c>
+      <c r="X245" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y245" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z245" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA245" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB245" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC245" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD245" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE245" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF245" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG245" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH245" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI245" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ245" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK245" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL245" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM245" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN245" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO245" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="246" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>52</v>
+      </c>
+      <c r="C246" t="s">
+        <v>51</v>
+      </c>
+      <c r="D246" t="s">
+        <v>576</v>
+      </c>
+      <c r="E246" t="s">
+        <v>577</v>
+      </c>
+      <c r="F246" t="s">
+        <v>56</v>
+      </c>
+      <c r="G246" t="s">
+        <v>56</v>
+      </c>
+      <c r="H246" t="s">
+        <v>41</v>
+      </c>
+      <c r="I246" t="s">
+        <v>41</v>
+      </c>
+      <c r="J246" t="s">
+        <v>41</v>
+      </c>
+      <c r="K246" t="s">
+        <v>41</v>
+      </c>
+      <c r="L246" t="s">
+        <v>41</v>
+      </c>
+      <c r="M246" t="s">
+        <v>41</v>
+      </c>
+      <c r="N246" t="s">
+        <v>41</v>
+      </c>
+      <c r="O246" t="s">
+        <v>41</v>
+      </c>
+      <c r="P246" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q246" t="s">
+        <v>41</v>
+      </c>
+      <c r="R246" t="s">
+        <v>41</v>
+      </c>
+      <c r="S246" t="s">
+        <v>41</v>
+      </c>
+      <c r="T246" t="s">
+        <v>41</v>
+      </c>
+      <c r="U246" t="s">
+        <v>41</v>
+      </c>
+      <c r="V246" t="s">
+        <v>41</v>
+      </c>
+      <c r="W246" t="s">
+        <v>41</v>
+      </c>
+      <c r="X246" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y246" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z246" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA246" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB246" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC246" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD246" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE246" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF246" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG246" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH246" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI246" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ246" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK246" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL246" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM246" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN246" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO246" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="247" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>52</v>
+      </c>
+      <c r="C247" t="s">
+        <v>51</v>
+      </c>
+      <c r="D247" t="s">
+        <v>576</v>
+      </c>
+      <c r="E247" t="s">
+        <v>577</v>
+      </c>
+      <c r="F247" t="s">
+        <v>53</v>
+      </c>
+      <c r="G247" t="s">
+        <v>53</v>
+      </c>
+      <c r="H247" t="s">
+        <v>41</v>
+      </c>
+      <c r="I247" t="s">
+        <v>41</v>
+      </c>
+      <c r="J247" t="s">
+        <v>41</v>
+      </c>
+      <c r="K247" t="s">
+        <v>41</v>
+      </c>
+      <c r="L247" t="s">
+        <v>41</v>
+      </c>
+      <c r="M247" t="s">
+        <v>72</v>
+      </c>
+      <c r="N247" t="s">
+        <v>42</v>
+      </c>
+      <c r="O247" t="s">
+        <v>42</v>
+      </c>
+      <c r="P247" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q247" t="s">
+        <v>42</v>
+      </c>
+      <c r="R247" t="s">
+        <v>54</v>
+      </c>
+      <c r="S247" t="s">
+        <v>45</v>
+      </c>
+      <c r="T247" t="s">
+        <v>55</v>
+      </c>
+      <c r="U247" t="s">
+        <v>55</v>
+      </c>
+      <c r="V247" t="s">
+        <v>55</v>
+      </c>
+      <c r="W247" t="s">
+        <v>55</v>
+      </c>
+      <c r="X247" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y247" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z247" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA247" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB247" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC247" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD247" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE247" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF247" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG247" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH247" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI247" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ247" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK247" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL247" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM247" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN247" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO247" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="248" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>59</v>
+      </c>
+      <c r="C248" t="s">
+        <v>51</v>
+      </c>
+      <c r="D248" t="s">
+        <v>581</v>
+      </c>
+      <c r="E248" t="s">
+        <v>582</v>
+      </c>
+      <c r="F248" t="s">
+        <v>53</v>
+      </c>
+      <c r="G248" t="s">
+        <v>53</v>
+      </c>
+      <c r="H248" t="s">
+        <v>41</v>
+      </c>
+      <c r="I248" t="s">
+        <v>41</v>
+      </c>
+      <c r="J248" t="s">
+        <v>41</v>
+      </c>
+      <c r="K248" t="s">
+        <v>41</v>
+      </c>
+      <c r="L248" t="s">
+        <v>41</v>
+      </c>
+      <c r="M248" t="s">
+        <v>72</v>
+      </c>
+      <c r="N248" t="s">
+        <v>42</v>
+      </c>
+      <c r="O248" t="s">
+        <v>42</v>
+      </c>
+      <c r="P248" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q248" t="s">
+        <v>42</v>
+      </c>
+      <c r="R248" t="s">
+        <v>54</v>
+      </c>
+      <c r="S248" t="s">
+        <v>45</v>
+      </c>
+      <c r="T248" t="s">
+        <v>55</v>
+      </c>
+      <c r="U248" t="s">
+        <v>55</v>
+      </c>
+      <c r="V248" t="s">
+        <v>55</v>
+      </c>
+      <c r="W248" t="s">
+        <v>55</v>
+      </c>
+      <c r="X248" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y248" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z248" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA248" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB248" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC248" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD248" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE248" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF248" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG248" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH248" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI248" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ248" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK248" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL248" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM248" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN248" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO248" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="249" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>59</v>
+      </c>
+      <c r="C249" t="s">
+        <v>44</v>
+      </c>
+      <c r="D249" t="s">
+        <v>584</v>
+      </c>
+      <c r="E249" t="s">
+        <v>585</v>
+      </c>
+      <c r="F249" t="s">
+        <v>53</v>
+      </c>
+      <c r="G249" t="s">
+        <v>53</v>
+      </c>
+      <c r="H249" t="s">
+        <v>41</v>
+      </c>
+      <c r="I249" t="s">
+        <v>41</v>
+      </c>
+      <c r="J249" t="s">
+        <v>41</v>
+      </c>
+      <c r="K249" t="s">
+        <v>41</v>
+      </c>
+      <c r="L249" t="s">
+        <v>41</v>
+      </c>
+      <c r="M249" t="s">
+        <v>72</v>
+      </c>
+      <c r="N249" t="s">
+        <v>42</v>
+      </c>
+      <c r="O249" t="s">
+        <v>42</v>
+      </c>
+      <c r="P249" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q249" t="s">
+        <v>42</v>
+      </c>
+      <c r="R249" t="s">
+        <v>55</v>
+      </c>
+      <c r="S249" t="s">
+        <v>41</v>
+      </c>
+      <c r="T249" t="s">
+        <v>55</v>
+      </c>
+      <c r="U249" t="s">
+        <v>55</v>
+      </c>
+      <c r="V249" t="s">
+        <v>55</v>
+      </c>
+      <c r="W249" t="s">
+        <v>55</v>
+      </c>
+      <c r="X249" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y249" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z249" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA249" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB249" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC249" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD249" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE249" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF249" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG249" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH249" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI249" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ249" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK249" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL249" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM249" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN249" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO249" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="250" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>59</v>
+      </c>
+      <c r="C250" t="s">
+        <v>44</v>
+      </c>
+      <c r="D250" t="s">
+        <v>584</v>
+      </c>
+      <c r="E250" t="s">
+        <v>585</v>
+      </c>
+      <c r="F250" t="s">
+        <v>56</v>
+      </c>
+      <c r="G250" t="s">
+        <v>56</v>
+      </c>
+      <c r="H250" t="s">
+        <v>41</v>
+      </c>
+      <c r="I250" t="s">
+        <v>41</v>
+      </c>
+      <c r="J250" t="s">
+        <v>41</v>
+      </c>
+      <c r="K250" t="s">
+        <v>41</v>
+      </c>
+      <c r="L250" t="s">
+        <v>41</v>
+      </c>
+      <c r="M250" t="s">
+        <v>41</v>
+      </c>
+      <c r="N250" t="s">
+        <v>41</v>
+      </c>
+      <c r="O250" t="s">
+        <v>41</v>
+      </c>
+      <c r="P250" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q250" t="s">
+        <v>41</v>
+      </c>
+      <c r="R250" t="s">
+        <v>41</v>
+      </c>
+      <c r="S250" t="s">
+        <v>41</v>
+      </c>
+      <c r="T250" t="s">
+        <v>41</v>
+      </c>
+      <c r="U250" t="s">
+        <v>41</v>
+      </c>
+      <c r="V250" t="s">
+        <v>41</v>
+      </c>
+      <c r="W250" t="s">
+        <v>41</v>
+      </c>
+      <c r="X250" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y250" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z250" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA250" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB250" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC250" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD250" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE250" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF250" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG250" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH250" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI250" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ250" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK250" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL250" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM250" t="s">
+        <v>587</v>
+      </c>
+      <c r="AN250" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO250" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="251" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>59</v>
+      </c>
+      <c r="C251" t="s">
+        <v>44</v>
+      </c>
+      <c r="D251" t="s">
+        <v>584</v>
+      </c>
+      <c r="E251" t="s">
+        <v>585</v>
+      </c>
+      <c r="F251" t="s">
+        <v>49</v>
+      </c>
+      <c r="G251" t="s">
+        <v>49</v>
+      </c>
+      <c r="H251" t="s">
+        <v>41</v>
+      </c>
+      <c r="I251" t="s">
+        <v>41</v>
+      </c>
+      <c r="J251" t="s">
+        <v>41</v>
+      </c>
+      <c r="K251" t="s">
+        <v>41</v>
+      </c>
+      <c r="L251" t="s">
+        <v>41</v>
+      </c>
+      <c r="M251" t="s">
+        <v>41</v>
+      </c>
+      <c r="N251" t="s">
+        <v>41</v>
+      </c>
+      <c r="O251" t="s">
+        <v>41</v>
+      </c>
+      <c r="P251" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q251" t="s">
+        <v>41</v>
+      </c>
+      <c r="R251" t="s">
+        <v>41</v>
+      </c>
+      <c r="S251" t="s">
+        <v>41</v>
+      </c>
+      <c r="T251" t="s">
+        <v>41</v>
+      </c>
+      <c r="U251" t="s">
+        <v>41</v>
+      </c>
+      <c r="V251" t="s">
+        <v>41</v>
+      </c>
+      <c r="W251" t="s">
+        <v>41</v>
+      </c>
+      <c r="X251" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y251" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z251" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA251" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB251" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC251" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD251" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE251" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF251" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG251" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH251" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI251" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ251" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK251" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL251" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM251" t="s">
+        <v>589</v>
+      </c>
+      <c r="AN251" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO251" t="s">
+        <v>590</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/toutReponse.xlsx
+++ b/toutReponse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Etape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA857FE1-8BFF-4623-AA16-5BCF0F6EE0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD82145-C9E4-4768-BDD5-C5267FDC966C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9906" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10266" uniqueCount="611">
   <si>
     <t>id</t>
   </si>
@@ -1793,6 +1793,66 @@
   </si>
   <si>
     <t>2021-12-17 13:17:52</t>
+  </si>
+  <si>
+    <t>2021-12-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">« L’action a été plus que satisfaisante. Très bonne initiative de Pole emploi. Horaires très bien (2 jours par semaine). Très bonne ambiance au sein du groupe. Divers ateliers très intéressants. (en informatique, retravailler son Cv, lettre de motivation…). L’Etape aide à reprendre confiance en soi </t>
+  </si>
+  <si>
+    <t>2021-12-23 09:08:09</t>
+  </si>
+  <si>
+    <t>« Formation très bien pour sa diversité autant que la recherche d’emploi. Les sorties découvertes et en entreprises ont été dans une bonne ambiance, grâce notamment au formateur Tommy qui était très bien. »</t>
+  </si>
+  <si>
+    <t>Tout est bien.</t>
+  </si>
+  <si>
+    <t>2021-12-23 10:00:36</t>
+  </si>
+  <si>
+    <t>2021-09-28</t>
+  </si>
+  <si>
+    <t>2021-12-23 10:07:30</t>
+  </si>
+  <si>
+    <t>Bon groupe avec un conseiller en insertion à l'écoute et toujours disponible.</t>
+  </si>
+  <si>
+    <t>2021-12-23 11:54:54</t>
+  </si>
+  <si>
+    <t>2021-12-23 11:55:49</t>
+  </si>
+  <si>
+    <t>« J’ai apprécié faire partie du dispositif « La Dynamique de l’Emploi » car plusieurs domaines sont proposés comme la recherche d’emploi ou de formations, exemples de lettres pour stages, les activités sportives ou ludiques et les visites d’entreprises. J’ai fait aussi le choix de mettre de côté l’o</t>
+  </si>
+  <si>
+    <t>2021-12-23 12:28:08</t>
+  </si>
+  <si>
+    <t>2021-12-23 12:44:29</t>
+  </si>
+  <si>
+    <t>« Bonne entente dans le groupe. Formateur sympa, efficace et réactif. De la détente dans les activités sportives et dans les jeux proposés. Merci à Tommy. »</t>
+  </si>
+  <si>
+    <t>Tout était bien</t>
+  </si>
+  <si>
+    <t>2021-12-23 13:00:34</t>
+  </si>
+  <si>
+    <t>« La dynamique de l’emploi est une très bonne formation, très constructive nous aide sur le plan professionnel et qui nous aide à avoir plus confiance en soi. »</t>
+  </si>
+  <si>
+    <t>Avoir un micro-onde à disposition.</t>
+  </si>
+  <si>
+    <t>2021-12-23 13:52:16</t>
   </si>
 </sst>
 </file>
@@ -2706,10 +2766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO251"/>
+  <dimension ref="A1:AO260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="A236" sqref="A236:A251"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="C256" sqref="C256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33834,6 +33894,1131 @@
         <v>590</v>
       </c>
     </row>
+    <row r="252" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>295</v>
+      </c>
+      <c r="C252" t="s">
+        <v>414</v>
+      </c>
+      <c r="D252" t="s">
+        <v>564</v>
+      </c>
+      <c r="E252" t="s">
+        <v>591</v>
+      </c>
+      <c r="F252" t="s">
+        <v>56</v>
+      </c>
+      <c r="G252" t="s">
+        <v>56</v>
+      </c>
+      <c r="H252" t="s">
+        <v>41</v>
+      </c>
+      <c r="I252" t="s">
+        <v>41</v>
+      </c>
+      <c r="J252" t="s">
+        <v>41</v>
+      </c>
+      <c r="K252" t="s">
+        <v>41</v>
+      </c>
+      <c r="L252" t="s">
+        <v>41</v>
+      </c>
+      <c r="M252" t="s">
+        <v>41</v>
+      </c>
+      <c r="N252" t="s">
+        <v>41</v>
+      </c>
+      <c r="O252" t="s">
+        <v>41</v>
+      </c>
+      <c r="P252" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q252" t="s">
+        <v>41</v>
+      </c>
+      <c r="R252" t="s">
+        <v>41</v>
+      </c>
+      <c r="S252" t="s">
+        <v>41</v>
+      </c>
+      <c r="T252" t="s">
+        <v>41</v>
+      </c>
+      <c r="U252" t="s">
+        <v>41</v>
+      </c>
+      <c r="V252" t="s">
+        <v>41</v>
+      </c>
+      <c r="W252" t="s">
+        <v>41</v>
+      </c>
+      <c r="X252" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y252" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z252" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA252" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB252" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC252" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD252" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE252" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF252" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG252" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH252" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI252" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ252" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK252" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL252" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM252" t="s">
+        <v>592</v>
+      </c>
+      <c r="AN252" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO252" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="253" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>295</v>
+      </c>
+      <c r="C253" t="s">
+        <v>414</v>
+      </c>
+      <c r="D253" t="s">
+        <v>564</v>
+      </c>
+      <c r="E253" t="s">
+        <v>591</v>
+      </c>
+      <c r="F253" t="s">
+        <v>56</v>
+      </c>
+      <c r="G253" t="s">
+        <v>56</v>
+      </c>
+      <c r="H253" t="s">
+        <v>41</v>
+      </c>
+      <c r="I253" t="s">
+        <v>41</v>
+      </c>
+      <c r="J253" t="s">
+        <v>41</v>
+      </c>
+      <c r="K253" t="s">
+        <v>41</v>
+      </c>
+      <c r="L253" t="s">
+        <v>41</v>
+      </c>
+      <c r="M253" t="s">
+        <v>41</v>
+      </c>
+      <c r="N253" t="s">
+        <v>41</v>
+      </c>
+      <c r="O253" t="s">
+        <v>41</v>
+      </c>
+      <c r="P253" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q253" t="s">
+        <v>41</v>
+      </c>
+      <c r="R253" t="s">
+        <v>41</v>
+      </c>
+      <c r="S253" t="s">
+        <v>41</v>
+      </c>
+      <c r="T253" t="s">
+        <v>41</v>
+      </c>
+      <c r="U253" t="s">
+        <v>41</v>
+      </c>
+      <c r="V253" t="s">
+        <v>41</v>
+      </c>
+      <c r="W253" t="s">
+        <v>41</v>
+      </c>
+      <c r="X253" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y253" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z253" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA253" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB253" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC253" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD253" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE253" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF253" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG253" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH253" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI253" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ253" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK253" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL253" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM253" t="s">
+        <v>594</v>
+      </c>
+      <c r="AN253" t="s">
+        <v>595</v>
+      </c>
+      <c r="AO253" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="254" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>295</v>
+      </c>
+      <c r="C254" t="s">
+        <v>41</v>
+      </c>
+      <c r="D254" t="s">
+        <v>597</v>
+      </c>
+      <c r="E254" t="s">
+        <v>591</v>
+      </c>
+      <c r="F254" t="s">
+        <v>268</v>
+      </c>
+      <c r="G254" t="s">
+        <v>268</v>
+      </c>
+      <c r="H254" t="s">
+        <v>45</v>
+      </c>
+      <c r="I254" t="s">
+        <v>46</v>
+      </c>
+      <c r="J254" t="s">
+        <v>46</v>
+      </c>
+      <c r="K254" t="s">
+        <v>45</v>
+      </c>
+      <c r="L254" t="s">
+        <v>45</v>
+      </c>
+      <c r="M254" t="s">
+        <v>41</v>
+      </c>
+      <c r="N254" t="s">
+        <v>41</v>
+      </c>
+      <c r="O254" t="s">
+        <v>41</v>
+      </c>
+      <c r="P254" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q254" t="s">
+        <v>41</v>
+      </c>
+      <c r="R254" t="s">
+        <v>41</v>
+      </c>
+      <c r="S254" t="s">
+        <v>41</v>
+      </c>
+      <c r="T254" t="s">
+        <v>41</v>
+      </c>
+      <c r="U254" t="s">
+        <v>41</v>
+      </c>
+      <c r="V254" t="s">
+        <v>41</v>
+      </c>
+      <c r="W254" t="s">
+        <v>41</v>
+      </c>
+      <c r="X254" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y254" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z254" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA254" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB254" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC254" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD254" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE254" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF254" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG254" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH254" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI254" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ254" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK254" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL254" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM254" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN254" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO254" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="255" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>295</v>
+      </c>
+      <c r="C255" t="s">
+        <v>414</v>
+      </c>
+      <c r="D255" t="s">
+        <v>564</v>
+      </c>
+      <c r="E255" t="s">
+        <v>591</v>
+      </c>
+      <c r="F255" t="s">
+        <v>56</v>
+      </c>
+      <c r="G255" t="s">
+        <v>56</v>
+      </c>
+      <c r="H255" t="s">
+        <v>41</v>
+      </c>
+      <c r="I255" t="s">
+        <v>41</v>
+      </c>
+      <c r="J255" t="s">
+        <v>41</v>
+      </c>
+      <c r="K255" t="s">
+        <v>41</v>
+      </c>
+      <c r="L255" t="s">
+        <v>41</v>
+      </c>
+      <c r="M255" t="s">
+        <v>41</v>
+      </c>
+      <c r="N255" t="s">
+        <v>41</v>
+      </c>
+      <c r="O255" t="s">
+        <v>41</v>
+      </c>
+      <c r="P255" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q255" t="s">
+        <v>41</v>
+      </c>
+      <c r="R255" t="s">
+        <v>41</v>
+      </c>
+      <c r="S255" t="s">
+        <v>41</v>
+      </c>
+      <c r="T255" t="s">
+        <v>41</v>
+      </c>
+      <c r="U255" t="s">
+        <v>41</v>
+      </c>
+      <c r="V255" t="s">
+        <v>41</v>
+      </c>
+      <c r="W255" t="s">
+        <v>41</v>
+      </c>
+      <c r="X255" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y255" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z255" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA255" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB255" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC255" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD255" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE255" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF255" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG255" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH255" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI255" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ255" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK255" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL255" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM255" t="s">
+        <v>599</v>
+      </c>
+      <c r="AN255" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO255" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="256" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>295</v>
+      </c>
+      <c r="C256" t="s">
+        <v>414</v>
+      </c>
+      <c r="D256" t="s">
+        <v>564</v>
+      </c>
+      <c r="E256" t="s">
+        <v>591</v>
+      </c>
+      <c r="F256" t="s">
+        <v>56</v>
+      </c>
+      <c r="G256" t="s">
+        <v>56</v>
+      </c>
+      <c r="H256" t="s">
+        <v>41</v>
+      </c>
+      <c r="I256" t="s">
+        <v>41</v>
+      </c>
+      <c r="J256" t="s">
+        <v>41</v>
+      </c>
+      <c r="K256" t="s">
+        <v>41</v>
+      </c>
+      <c r="L256" t="s">
+        <v>41</v>
+      </c>
+      <c r="M256" t="s">
+        <v>41</v>
+      </c>
+      <c r="N256" t="s">
+        <v>41</v>
+      </c>
+      <c r="O256" t="s">
+        <v>41</v>
+      </c>
+      <c r="P256" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q256" t="s">
+        <v>41</v>
+      </c>
+      <c r="R256" t="s">
+        <v>41</v>
+      </c>
+      <c r="S256" t="s">
+        <v>41</v>
+      </c>
+      <c r="T256" t="s">
+        <v>41</v>
+      </c>
+      <c r="U256" t="s">
+        <v>41</v>
+      </c>
+      <c r="V256" t="s">
+        <v>41</v>
+      </c>
+      <c r="W256" t="s">
+        <v>41</v>
+      </c>
+      <c r="X256" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y256" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z256" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA256" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB256" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC256" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD256" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE256" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF256" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG256" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH256" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI256" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ256" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK256" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL256" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM256" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN256" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO256" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="257" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>295</v>
+      </c>
+      <c r="C257" t="s">
+        <v>414</v>
+      </c>
+      <c r="D257" t="s">
+        <v>564</v>
+      </c>
+      <c r="E257" t="s">
+        <v>591</v>
+      </c>
+      <c r="F257" t="s">
+        <v>56</v>
+      </c>
+      <c r="G257" t="s">
+        <v>56</v>
+      </c>
+      <c r="H257" t="s">
+        <v>41</v>
+      </c>
+      <c r="I257" t="s">
+        <v>41</v>
+      </c>
+      <c r="J257" t="s">
+        <v>41</v>
+      </c>
+      <c r="K257" t="s">
+        <v>41</v>
+      </c>
+      <c r="L257" t="s">
+        <v>41</v>
+      </c>
+      <c r="M257" t="s">
+        <v>41</v>
+      </c>
+      <c r="N257" t="s">
+        <v>41</v>
+      </c>
+      <c r="O257" t="s">
+        <v>41</v>
+      </c>
+      <c r="P257" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q257" t="s">
+        <v>41</v>
+      </c>
+      <c r="R257" t="s">
+        <v>41</v>
+      </c>
+      <c r="S257" t="s">
+        <v>41</v>
+      </c>
+      <c r="T257" t="s">
+        <v>41</v>
+      </c>
+      <c r="U257" t="s">
+        <v>41</v>
+      </c>
+      <c r="V257" t="s">
+        <v>41</v>
+      </c>
+      <c r="W257" t="s">
+        <v>41</v>
+      </c>
+      <c r="X257" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y257" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z257" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA257" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB257" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC257" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD257" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE257" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF257" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG257" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH257" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI257" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ257" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK257" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL257" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM257" t="s">
+        <v>602</v>
+      </c>
+      <c r="AN257" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO257" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="258" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>295</v>
+      </c>
+      <c r="C258" t="s">
+        <v>414</v>
+      </c>
+      <c r="D258" t="s">
+        <v>564</v>
+      </c>
+      <c r="E258" t="s">
+        <v>591</v>
+      </c>
+      <c r="F258" t="s">
+        <v>56</v>
+      </c>
+      <c r="G258" t="s">
+        <v>56</v>
+      </c>
+      <c r="H258" t="s">
+        <v>41</v>
+      </c>
+      <c r="I258" t="s">
+        <v>41</v>
+      </c>
+      <c r="J258" t="s">
+        <v>41</v>
+      </c>
+      <c r="K258" t="s">
+        <v>41</v>
+      </c>
+      <c r="L258" t="s">
+        <v>41</v>
+      </c>
+      <c r="M258" t="s">
+        <v>41</v>
+      </c>
+      <c r="N258" t="s">
+        <v>41</v>
+      </c>
+      <c r="O258" t="s">
+        <v>41</v>
+      </c>
+      <c r="P258" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q258" t="s">
+        <v>41</v>
+      </c>
+      <c r="R258" t="s">
+        <v>41</v>
+      </c>
+      <c r="S258" t="s">
+        <v>41</v>
+      </c>
+      <c r="T258" t="s">
+        <v>41</v>
+      </c>
+      <c r="U258" t="s">
+        <v>41</v>
+      </c>
+      <c r="V258" t="s">
+        <v>41</v>
+      </c>
+      <c r="W258" t="s">
+        <v>41</v>
+      </c>
+      <c r="X258" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y258" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z258" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA258" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB258" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC258" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD258" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE258" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF258" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG258" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH258" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI258" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ258" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK258" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL258" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM258" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN258" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO258" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="259" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>295</v>
+      </c>
+      <c r="C259" t="s">
+        <v>414</v>
+      </c>
+      <c r="D259" t="s">
+        <v>564</v>
+      </c>
+      <c r="E259" t="s">
+        <v>591</v>
+      </c>
+      <c r="F259" t="s">
+        <v>56</v>
+      </c>
+      <c r="G259" t="s">
+        <v>56</v>
+      </c>
+      <c r="H259" t="s">
+        <v>41</v>
+      </c>
+      <c r="I259" t="s">
+        <v>41</v>
+      </c>
+      <c r="J259" t="s">
+        <v>41</v>
+      </c>
+      <c r="K259" t="s">
+        <v>41</v>
+      </c>
+      <c r="L259" t="s">
+        <v>41</v>
+      </c>
+      <c r="M259" t="s">
+        <v>41</v>
+      </c>
+      <c r="N259" t="s">
+        <v>41</v>
+      </c>
+      <c r="O259" t="s">
+        <v>41</v>
+      </c>
+      <c r="P259" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q259" t="s">
+        <v>41</v>
+      </c>
+      <c r="R259" t="s">
+        <v>41</v>
+      </c>
+      <c r="S259" t="s">
+        <v>41</v>
+      </c>
+      <c r="T259" t="s">
+        <v>41</v>
+      </c>
+      <c r="U259" t="s">
+        <v>41</v>
+      </c>
+      <c r="V259" t="s">
+        <v>41</v>
+      </c>
+      <c r="W259" t="s">
+        <v>41</v>
+      </c>
+      <c r="X259" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y259" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z259" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA259" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB259" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC259" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD259" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE259" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF259" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG259" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH259" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI259" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ259" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK259" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL259" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM259" t="s">
+        <v>605</v>
+      </c>
+      <c r="AN259" t="s">
+        <v>606</v>
+      </c>
+      <c r="AO259" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="260" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>295</v>
+      </c>
+      <c r="C260" t="s">
+        <v>414</v>
+      </c>
+      <c r="D260" t="s">
+        <v>564</v>
+      </c>
+      <c r="E260" t="s">
+        <v>591</v>
+      </c>
+      <c r="F260" t="s">
+        <v>56</v>
+      </c>
+      <c r="G260" t="s">
+        <v>56</v>
+      </c>
+      <c r="H260" t="s">
+        <v>41</v>
+      </c>
+      <c r="I260" t="s">
+        <v>41</v>
+      </c>
+      <c r="J260" t="s">
+        <v>41</v>
+      </c>
+      <c r="K260" t="s">
+        <v>41</v>
+      </c>
+      <c r="L260" t="s">
+        <v>41</v>
+      </c>
+      <c r="M260" t="s">
+        <v>41</v>
+      </c>
+      <c r="N260" t="s">
+        <v>41</v>
+      </c>
+      <c r="O260" t="s">
+        <v>41</v>
+      </c>
+      <c r="P260" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q260" t="s">
+        <v>41</v>
+      </c>
+      <c r="R260" t="s">
+        <v>41</v>
+      </c>
+      <c r="S260" t="s">
+        <v>41</v>
+      </c>
+      <c r="T260" t="s">
+        <v>41</v>
+      </c>
+      <c r="U260" t="s">
+        <v>41</v>
+      </c>
+      <c r="V260" t="s">
+        <v>41</v>
+      </c>
+      <c r="W260" t="s">
+        <v>41</v>
+      </c>
+      <c r="X260" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y260" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z260" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA260" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB260" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC260" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD260" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE260" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF260" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG260" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH260" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI260" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ260" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK260" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL260" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM260" t="s">
+        <v>608</v>
+      </c>
+      <c r="AN260" t="s">
+        <v>609</v>
+      </c>
+      <c r="AO260" t="s">
+        <v>610</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/toutReponse.xlsx
+++ b/toutReponse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Etape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD82145-C9E4-4768-BDD5-C5267FDC966C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B86867-B09A-47E9-A5CE-2DCBEBA5D0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10266" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11226" uniqueCount="681">
   <si>
     <t>id</t>
   </si>
@@ -1853,6 +1853,216 @@
   </si>
   <si>
     <t>2021-12-23 13:52:16</t>
+  </si>
+  <si>
+    <t>2021-09-23</t>
+  </si>
+  <si>
+    <t>2021-12-21</t>
+  </si>
+  <si>
+    <t>2022-01-04 12:45:40</t>
+  </si>
+  <si>
+    <t>2022-01-04 12:46:35</t>
+  </si>
+  <si>
+    <t>2022-01-04 12:47:59</t>
+  </si>
+  <si>
+    <t>2021-07-15</t>
+  </si>
+  <si>
+    <t>2022-01-25</t>
+  </si>
+  <si>
+    <t>2022-01-21 13:10:34</t>
+  </si>
+  <si>
+    <t>2022-01-04</t>
+  </si>
+  <si>
+    <t>Aucun, bien</t>
+  </si>
+  <si>
+    <t>Projet en cours</t>
+  </si>
+  <si>
+    <t>2022-01-21 13:11:49</t>
+  </si>
+  <si>
+    <t>2021-07-28</t>
+  </si>
+  <si>
+    <t>2022-01-11</t>
+  </si>
+  <si>
+    <t>2022-01-21 13:12:31</t>
+  </si>
+  <si>
+    <t>2022-01-21 13:13:26</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>2022-01-21 13:14:11</t>
+  </si>
+  <si>
+    <t>Bonne orientation</t>
+  </si>
+  <si>
+    <t>RAS</t>
+  </si>
+  <si>
+    <t>2022-01-31 09:04:56</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>2022-01-13</t>
+  </si>
+  <si>
+    <t>M'a aidé à y voir plus clair dans mes projets Travail sur le CV et lettre de motivation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / </t>
+  </si>
+  <si>
+    <t>2022-01-31 09:09:22</t>
+  </si>
+  <si>
+    <t>Heureusement que les personnes responsables de ces projets sont très sérieuses et compétentes, car en détention nous n'avons aucun moyen de recherche pour nos projets. Bravo à votre équipe qui fait tout ce qui est possible avec peu de moyens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /</t>
+  </si>
+  <si>
+    <t>2022-01-31 09:11:48</t>
+  </si>
+  <si>
+    <t>2021-10-08</t>
+  </si>
+  <si>
+    <t>Je vous remercie pour l'accompagnement.</t>
+  </si>
+  <si>
+    <t>2022-01-31 09:12:49</t>
+  </si>
+  <si>
+    <t>J'ai été très satisfait, cela me permet d'avancer dans mes projets professionnels.</t>
+  </si>
+  <si>
+    <t>Il n'y a rien à changer dans mes décisions.</t>
+  </si>
+  <si>
+    <t>2022-01-31 09:14:49</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>2022-01-31</t>
+  </si>
+  <si>
+    <t>2022-01-31 10:12:22</t>
+  </si>
+  <si>
+    <t>Très satisfaite de ce bilan de compétences ainsi que de la communication avec Mme GROUSSARD. J'en ressors ravie et avec un projet professionnel bien avancé.</t>
+  </si>
+  <si>
+    <t>2022-01-31 10:14:34</t>
+  </si>
+  <si>
+    <t>Très satisfaite de ce bilan de compétences ainsi que du lien et des échanges avec Mme GROUSSARD. Un véritable projet professionnel en ressort avec toutes les aides nécessaires pour la mise en place de ce projet</t>
+  </si>
+  <si>
+    <t>2022-01-31 10:31:17</t>
+  </si>
+  <si>
+    <t>Mortain</t>
+  </si>
+  <si>
+    <t>2022-01-14</t>
+  </si>
+  <si>
+    <t>Travail sur le projet dans de bonnes conditions et très intéressant.</t>
+  </si>
+  <si>
+    <t>2022-02-08 11:50:34</t>
+  </si>
+  <si>
+    <t>Conseillère à l'écoute et très investie.</t>
+  </si>
+  <si>
+    <t>2022-02-08 11:52:39</t>
+  </si>
+  <si>
+    <t>2021-11-03</t>
+  </si>
+  <si>
+    <t>2022-01-26</t>
+  </si>
+  <si>
+    <t>Très bons contact et échanges avec ma référente.</t>
+  </si>
+  <si>
+    <t>2022-02-08 11:54:32</t>
+  </si>
+  <si>
+    <t>Conde-sur-Noireau</t>
+  </si>
+  <si>
+    <t>2021-11-09</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>2022-03-01 11:34:48</t>
+  </si>
+  <si>
+    <t>2021-11-29</t>
+  </si>
+  <si>
+    <t>2022-01-22</t>
+  </si>
+  <si>
+    <t>Très bon accompagnement</t>
+  </si>
+  <si>
+    <t>2022-03-22 08:41:49</t>
+  </si>
+  <si>
+    <t>2022-03-22</t>
+  </si>
+  <si>
+    <t>Super accompagnement, merci à l'équipe PPAIP, qui a été au-delà de mes attentes. Indispensable pour toute personne voulant réussir une rédemption, une nouvelle vie. Mon suivi va plus loin que les mots. Merci encore.</t>
+  </si>
+  <si>
+    <t>2022-03-24 11:25:37</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>2022-03-10</t>
+  </si>
+  <si>
+    <t>Je suis très content de ces modules, les intervenants expliquent clairement et j'ai eu un suivi qui était très bon et je suis satisfait.</t>
+  </si>
+  <si>
+    <t>2022-03-24 11:27:13</t>
+  </si>
+  <si>
+    <t>2022-03-19</t>
+  </si>
+  <si>
+    <t>Un suivi formidable avec les formateurs. Toutes mes félicitations.</t>
+  </si>
+  <si>
+    <t>2022-03-24 11:28:29</t>
   </si>
 </sst>
 </file>
@@ -2766,10 +2976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO260"/>
+  <dimension ref="A1:AO284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="C256" sqref="C256"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B280" sqref="B280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35019,6 +35229,3006 @@
         <v>610</v>
       </c>
     </row>
+    <row r="261" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>59</v>
+      </c>
+      <c r="C261" t="s">
+        <v>51</v>
+      </c>
+      <c r="D261" t="s">
+        <v>611</v>
+      </c>
+      <c r="E261" t="s">
+        <v>612</v>
+      </c>
+      <c r="F261" t="s">
+        <v>53</v>
+      </c>
+      <c r="G261" t="s">
+        <v>53</v>
+      </c>
+      <c r="H261" t="s">
+        <v>41</v>
+      </c>
+      <c r="I261" t="s">
+        <v>41</v>
+      </c>
+      <c r="J261" t="s">
+        <v>41</v>
+      </c>
+      <c r="K261" t="s">
+        <v>41</v>
+      </c>
+      <c r="L261" t="s">
+        <v>41</v>
+      </c>
+      <c r="M261" t="s">
+        <v>72</v>
+      </c>
+      <c r="N261" t="s">
+        <v>42</v>
+      </c>
+      <c r="O261" t="s">
+        <v>42</v>
+      </c>
+      <c r="P261" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q261" t="s">
+        <v>42</v>
+      </c>
+      <c r="R261" t="s">
+        <v>55</v>
+      </c>
+      <c r="S261" t="s">
+        <v>41</v>
+      </c>
+      <c r="T261" t="s">
+        <v>55</v>
+      </c>
+      <c r="U261" t="s">
+        <v>55</v>
+      </c>
+      <c r="V261" t="s">
+        <v>55</v>
+      </c>
+      <c r="W261" t="s">
+        <v>55</v>
+      </c>
+      <c r="X261" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y261" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z261" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA261" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB261" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC261" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD261" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE261" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF261" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG261" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH261" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI261" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ261" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK261" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL261" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM261" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN261" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO261" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="262" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>59</v>
+      </c>
+      <c r="C262" t="s">
+        <v>51</v>
+      </c>
+      <c r="D262" t="s">
+        <v>611</v>
+      </c>
+      <c r="E262" t="s">
+        <v>612</v>
+      </c>
+      <c r="F262" t="s">
+        <v>56</v>
+      </c>
+      <c r="G262" t="s">
+        <v>56</v>
+      </c>
+      <c r="H262" t="s">
+        <v>41</v>
+      </c>
+      <c r="I262" t="s">
+        <v>41</v>
+      </c>
+      <c r="J262" t="s">
+        <v>41</v>
+      </c>
+      <c r="K262" t="s">
+        <v>41</v>
+      </c>
+      <c r="L262" t="s">
+        <v>41</v>
+      </c>
+      <c r="M262" t="s">
+        <v>41</v>
+      </c>
+      <c r="N262" t="s">
+        <v>41</v>
+      </c>
+      <c r="O262" t="s">
+        <v>41</v>
+      </c>
+      <c r="P262" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q262" t="s">
+        <v>41</v>
+      </c>
+      <c r="R262" t="s">
+        <v>41</v>
+      </c>
+      <c r="S262" t="s">
+        <v>41</v>
+      </c>
+      <c r="T262" t="s">
+        <v>41</v>
+      </c>
+      <c r="U262" t="s">
+        <v>41</v>
+      </c>
+      <c r="V262" t="s">
+        <v>41</v>
+      </c>
+      <c r="W262" t="s">
+        <v>41</v>
+      </c>
+      <c r="X262" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y262" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z262" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA262" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB262" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC262" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD262" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE262" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF262" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG262" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH262" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI262" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ262" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK262" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL262" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM262" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN262" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO262" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="263" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>59</v>
+      </c>
+      <c r="C263" t="s">
+        <v>51</v>
+      </c>
+      <c r="D263" t="s">
+        <v>611</v>
+      </c>
+      <c r="E263" t="s">
+        <v>612</v>
+      </c>
+      <c r="F263" t="s">
+        <v>49</v>
+      </c>
+      <c r="G263" t="s">
+        <v>347</v>
+      </c>
+      <c r="H263" t="s">
+        <v>41</v>
+      </c>
+      <c r="I263" t="s">
+        <v>41</v>
+      </c>
+      <c r="J263" t="s">
+        <v>41</v>
+      </c>
+      <c r="K263" t="s">
+        <v>41</v>
+      </c>
+      <c r="L263" t="s">
+        <v>41</v>
+      </c>
+      <c r="M263" t="s">
+        <v>41</v>
+      </c>
+      <c r="N263" t="s">
+        <v>41</v>
+      </c>
+      <c r="O263" t="s">
+        <v>41</v>
+      </c>
+      <c r="P263" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q263" t="s">
+        <v>41</v>
+      </c>
+      <c r="R263" t="s">
+        <v>41</v>
+      </c>
+      <c r="S263" t="s">
+        <v>41</v>
+      </c>
+      <c r="T263" t="s">
+        <v>41</v>
+      </c>
+      <c r="U263" t="s">
+        <v>41</v>
+      </c>
+      <c r="V263" t="s">
+        <v>41</v>
+      </c>
+      <c r="W263" t="s">
+        <v>41</v>
+      </c>
+      <c r="X263" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y263" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z263" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA263" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB263" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC263" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD263" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE263" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF263" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG263" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH263" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI263" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ263" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK263" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL263" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM263" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN263" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO263" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="264" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>521</v>
+      </c>
+      <c r="C264" t="s">
+        <v>87</v>
+      </c>
+      <c r="D264" t="s">
+        <v>616</v>
+      </c>
+      <c r="E264" t="s">
+        <v>617</v>
+      </c>
+      <c r="F264" t="s">
+        <v>56</v>
+      </c>
+      <c r="G264" t="s">
+        <v>56</v>
+      </c>
+      <c r="H264" t="s">
+        <v>41</v>
+      </c>
+      <c r="I264" t="s">
+        <v>41</v>
+      </c>
+      <c r="J264" t="s">
+        <v>41</v>
+      </c>
+      <c r="K264" t="s">
+        <v>41</v>
+      </c>
+      <c r="L264" t="s">
+        <v>41</v>
+      </c>
+      <c r="M264" t="s">
+        <v>41</v>
+      </c>
+      <c r="N264" t="s">
+        <v>41</v>
+      </c>
+      <c r="O264" t="s">
+        <v>41</v>
+      </c>
+      <c r="P264" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q264" t="s">
+        <v>41</v>
+      </c>
+      <c r="R264" t="s">
+        <v>41</v>
+      </c>
+      <c r="S264" t="s">
+        <v>41</v>
+      </c>
+      <c r="T264" t="s">
+        <v>41</v>
+      </c>
+      <c r="U264" t="s">
+        <v>41</v>
+      </c>
+      <c r="V264" t="s">
+        <v>41</v>
+      </c>
+      <c r="W264" t="s">
+        <v>41</v>
+      </c>
+      <c r="X264" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y264" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z264" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA264" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB264" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC264" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD264" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE264" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF264" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG264" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH264" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI264" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ264" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK264" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL264" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM264" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN264" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO264" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="265" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>521</v>
+      </c>
+      <c r="C265" t="s">
+        <v>87</v>
+      </c>
+      <c r="D265" t="s">
+        <v>426</v>
+      </c>
+      <c r="E265" t="s">
+        <v>619</v>
+      </c>
+      <c r="F265" t="s">
+        <v>56</v>
+      </c>
+      <c r="G265" t="s">
+        <v>56</v>
+      </c>
+      <c r="H265" t="s">
+        <v>41</v>
+      </c>
+      <c r="I265" t="s">
+        <v>41</v>
+      </c>
+      <c r="J265" t="s">
+        <v>41</v>
+      </c>
+      <c r="K265" t="s">
+        <v>41</v>
+      </c>
+      <c r="L265" t="s">
+        <v>41</v>
+      </c>
+      <c r="M265" t="s">
+        <v>41</v>
+      </c>
+      <c r="N265" t="s">
+        <v>41</v>
+      </c>
+      <c r="O265" t="s">
+        <v>41</v>
+      </c>
+      <c r="P265" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q265" t="s">
+        <v>41</v>
+      </c>
+      <c r="R265" t="s">
+        <v>41</v>
+      </c>
+      <c r="S265" t="s">
+        <v>41</v>
+      </c>
+      <c r="T265" t="s">
+        <v>41</v>
+      </c>
+      <c r="U265" t="s">
+        <v>41</v>
+      </c>
+      <c r="V265" t="s">
+        <v>41</v>
+      </c>
+      <c r="W265" t="s">
+        <v>41</v>
+      </c>
+      <c r="X265" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y265" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z265" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA265" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB265" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC265" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD265" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE265" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF265" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG265" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH265" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI265" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ265" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK265" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL265" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM265" t="s">
+        <v>620</v>
+      </c>
+      <c r="AN265" t="s">
+        <v>621</v>
+      </c>
+      <c r="AO265" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="266" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>521</v>
+      </c>
+      <c r="C266" t="s">
+        <v>87</v>
+      </c>
+      <c r="D266" t="s">
+        <v>623</v>
+      </c>
+      <c r="E266" t="s">
+        <v>624</v>
+      </c>
+      <c r="F266" t="s">
+        <v>56</v>
+      </c>
+      <c r="G266" t="s">
+        <v>56</v>
+      </c>
+      <c r="H266" t="s">
+        <v>41</v>
+      </c>
+      <c r="I266" t="s">
+        <v>41</v>
+      </c>
+      <c r="J266" t="s">
+        <v>41</v>
+      </c>
+      <c r="K266" t="s">
+        <v>41</v>
+      </c>
+      <c r="L266" t="s">
+        <v>41</v>
+      </c>
+      <c r="M266" t="s">
+        <v>41</v>
+      </c>
+      <c r="N266" t="s">
+        <v>41</v>
+      </c>
+      <c r="O266" t="s">
+        <v>41</v>
+      </c>
+      <c r="P266" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q266" t="s">
+        <v>41</v>
+      </c>
+      <c r="R266" t="s">
+        <v>41</v>
+      </c>
+      <c r="S266" t="s">
+        <v>41</v>
+      </c>
+      <c r="T266" t="s">
+        <v>41</v>
+      </c>
+      <c r="U266" t="s">
+        <v>41</v>
+      </c>
+      <c r="V266" t="s">
+        <v>41</v>
+      </c>
+      <c r="W266" t="s">
+        <v>41</v>
+      </c>
+      <c r="X266" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y266" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z266" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA266" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB266" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC266" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD266" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE266" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF266" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG266" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH266" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI266" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ266" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK266" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL266" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM266" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN266" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO266" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="267" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>521</v>
+      </c>
+      <c r="C267" t="s">
+        <v>87</v>
+      </c>
+      <c r="D267" t="s">
+        <v>426</v>
+      </c>
+      <c r="E267" t="s">
+        <v>619</v>
+      </c>
+      <c r="F267" t="s">
+        <v>53</v>
+      </c>
+      <c r="G267" t="s">
+        <v>53</v>
+      </c>
+      <c r="H267" t="s">
+        <v>41</v>
+      </c>
+      <c r="I267" t="s">
+        <v>41</v>
+      </c>
+      <c r="J267" t="s">
+        <v>41</v>
+      </c>
+      <c r="K267" t="s">
+        <v>41</v>
+      </c>
+      <c r="L267" t="s">
+        <v>41</v>
+      </c>
+      <c r="M267" t="s">
+        <v>48</v>
+      </c>
+      <c r="N267" t="s">
+        <v>42</v>
+      </c>
+      <c r="O267" t="s">
+        <v>42</v>
+      </c>
+      <c r="P267" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q267" t="s">
+        <v>42</v>
+      </c>
+      <c r="R267" t="s">
+        <v>55</v>
+      </c>
+      <c r="S267" t="s">
+        <v>41</v>
+      </c>
+      <c r="T267" t="s">
+        <v>41</v>
+      </c>
+      <c r="U267" t="s">
+        <v>41</v>
+      </c>
+      <c r="V267" t="s">
+        <v>41</v>
+      </c>
+      <c r="W267" t="s">
+        <v>41</v>
+      </c>
+      <c r="X267" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y267" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z267" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA267" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB267" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC267" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD267" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE267" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF267" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG267" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH267" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI267" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ267" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK267" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL267" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM267" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN267" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO267" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="268" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>521</v>
+      </c>
+      <c r="C268" t="s">
+        <v>87</v>
+      </c>
+      <c r="D268" t="s">
+        <v>627</v>
+      </c>
+      <c r="E268" t="s">
+        <v>624</v>
+      </c>
+      <c r="F268" t="s">
+        <v>56</v>
+      </c>
+      <c r="G268" t="s">
+        <v>56</v>
+      </c>
+      <c r="H268" t="s">
+        <v>41</v>
+      </c>
+      <c r="I268" t="s">
+        <v>41</v>
+      </c>
+      <c r="J268" t="s">
+        <v>41</v>
+      </c>
+      <c r="K268" t="s">
+        <v>41</v>
+      </c>
+      <c r="L268" t="s">
+        <v>41</v>
+      </c>
+      <c r="M268" t="s">
+        <v>41</v>
+      </c>
+      <c r="N268" t="s">
+        <v>41</v>
+      </c>
+      <c r="O268" t="s">
+        <v>41</v>
+      </c>
+      <c r="P268" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q268" t="s">
+        <v>41</v>
+      </c>
+      <c r="R268" t="s">
+        <v>41</v>
+      </c>
+      <c r="S268" t="s">
+        <v>41</v>
+      </c>
+      <c r="T268" t="s">
+        <v>41</v>
+      </c>
+      <c r="U268" t="s">
+        <v>41</v>
+      </c>
+      <c r="V268" t="s">
+        <v>41</v>
+      </c>
+      <c r="W268" t="s">
+        <v>41</v>
+      </c>
+      <c r="X268" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y268" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z268" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA268" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB268" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC268" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD268" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE268" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF268" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG268" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH268" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI268" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ268" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK268" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL268" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM268" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN268" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO268" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="269" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>521</v>
+      </c>
+      <c r="C269" t="s">
+        <v>87</v>
+      </c>
+      <c r="D269" t="s">
+        <v>425</v>
+      </c>
+      <c r="E269" t="s">
+        <v>617</v>
+      </c>
+      <c r="F269" t="s">
+        <v>56</v>
+      </c>
+      <c r="G269" t="s">
+        <v>56</v>
+      </c>
+      <c r="H269" t="s">
+        <v>41</v>
+      </c>
+      <c r="I269" t="s">
+        <v>41</v>
+      </c>
+      <c r="J269" t="s">
+        <v>41</v>
+      </c>
+      <c r="K269" t="s">
+        <v>41</v>
+      </c>
+      <c r="L269" t="s">
+        <v>41</v>
+      </c>
+      <c r="M269" t="s">
+        <v>41</v>
+      </c>
+      <c r="N269" t="s">
+        <v>41</v>
+      </c>
+      <c r="O269" t="s">
+        <v>41</v>
+      </c>
+      <c r="P269" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q269" t="s">
+        <v>41</v>
+      </c>
+      <c r="R269" t="s">
+        <v>41</v>
+      </c>
+      <c r="S269" t="s">
+        <v>41</v>
+      </c>
+      <c r="T269" t="s">
+        <v>41</v>
+      </c>
+      <c r="U269" t="s">
+        <v>41</v>
+      </c>
+      <c r="V269" t="s">
+        <v>41</v>
+      </c>
+      <c r="W269" t="s">
+        <v>41</v>
+      </c>
+      <c r="X269" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y269" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z269" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA269" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB269" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC269" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD269" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE269" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF269" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG269" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH269" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI269" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ269" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK269" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL269" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM269" t="s">
+        <v>629</v>
+      </c>
+      <c r="AN269" t="s">
+        <v>630</v>
+      </c>
+      <c r="AO269" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="270" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>521</v>
+      </c>
+      <c r="C270" t="s">
+        <v>87</v>
+      </c>
+      <c r="D270" t="s">
+        <v>632</v>
+      </c>
+      <c r="E270" t="s">
+        <v>633</v>
+      </c>
+      <c r="F270" t="s">
+        <v>56</v>
+      </c>
+      <c r="G270" t="s">
+        <v>56</v>
+      </c>
+      <c r="H270" t="s">
+        <v>41</v>
+      </c>
+      <c r="I270" t="s">
+        <v>41</v>
+      </c>
+      <c r="J270" t="s">
+        <v>41</v>
+      </c>
+      <c r="K270" t="s">
+        <v>41</v>
+      </c>
+      <c r="L270" t="s">
+        <v>41</v>
+      </c>
+      <c r="M270" t="s">
+        <v>41</v>
+      </c>
+      <c r="N270" t="s">
+        <v>41</v>
+      </c>
+      <c r="O270" t="s">
+        <v>41</v>
+      </c>
+      <c r="P270" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q270" t="s">
+        <v>41</v>
+      </c>
+      <c r="R270" t="s">
+        <v>41</v>
+      </c>
+      <c r="S270" t="s">
+        <v>41</v>
+      </c>
+      <c r="T270" t="s">
+        <v>41</v>
+      </c>
+      <c r="U270" t="s">
+        <v>41</v>
+      </c>
+      <c r="V270" t="s">
+        <v>41</v>
+      </c>
+      <c r="W270" t="s">
+        <v>41</v>
+      </c>
+      <c r="X270" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y270" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z270" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA270" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB270" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC270" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD270" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE270" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF270" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG270" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH270" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI270" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ270" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK270" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL270" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM270" t="s">
+        <v>634</v>
+      </c>
+      <c r="AN270" t="s">
+        <v>635</v>
+      </c>
+      <c r="AO270" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="271" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>521</v>
+      </c>
+      <c r="C271" t="s">
+        <v>87</v>
+      </c>
+      <c r="D271" t="s">
+        <v>426</v>
+      </c>
+      <c r="E271" t="s">
+        <v>633</v>
+      </c>
+      <c r="F271" t="s">
+        <v>56</v>
+      </c>
+      <c r="G271" t="s">
+        <v>56</v>
+      </c>
+      <c r="H271" t="s">
+        <v>41</v>
+      </c>
+      <c r="I271" t="s">
+        <v>41</v>
+      </c>
+      <c r="J271" t="s">
+        <v>41</v>
+      </c>
+      <c r="K271" t="s">
+        <v>41</v>
+      </c>
+      <c r="L271" t="s">
+        <v>41</v>
+      </c>
+      <c r="M271" t="s">
+        <v>41</v>
+      </c>
+      <c r="N271" t="s">
+        <v>41</v>
+      </c>
+      <c r="O271" t="s">
+        <v>41</v>
+      </c>
+      <c r="P271" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q271" t="s">
+        <v>41</v>
+      </c>
+      <c r="R271" t="s">
+        <v>41</v>
+      </c>
+      <c r="S271" t="s">
+        <v>41</v>
+      </c>
+      <c r="T271" t="s">
+        <v>41</v>
+      </c>
+      <c r="U271" t="s">
+        <v>41</v>
+      </c>
+      <c r="V271" t="s">
+        <v>41</v>
+      </c>
+      <c r="W271" t="s">
+        <v>41</v>
+      </c>
+      <c r="X271" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y271" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z271" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA271" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB271" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC271" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD271" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE271" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF271" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG271" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH271" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI271" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ271" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK271" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL271" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM271" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN271" t="s">
+        <v>638</v>
+      </c>
+      <c r="AO271" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="272" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>521</v>
+      </c>
+      <c r="C272" t="s">
+        <v>87</v>
+      </c>
+      <c r="D272" t="s">
+        <v>640</v>
+      </c>
+      <c r="E272" t="s">
+        <v>617</v>
+      </c>
+      <c r="F272" t="s">
+        <v>56</v>
+      </c>
+      <c r="G272" t="s">
+        <v>56</v>
+      </c>
+      <c r="H272" t="s">
+        <v>41</v>
+      </c>
+      <c r="I272" t="s">
+        <v>41</v>
+      </c>
+      <c r="J272" t="s">
+        <v>41</v>
+      </c>
+      <c r="K272" t="s">
+        <v>41</v>
+      </c>
+      <c r="L272" t="s">
+        <v>41</v>
+      </c>
+      <c r="M272" t="s">
+        <v>41</v>
+      </c>
+      <c r="N272" t="s">
+        <v>41</v>
+      </c>
+      <c r="O272" t="s">
+        <v>41</v>
+      </c>
+      <c r="P272" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q272" t="s">
+        <v>41</v>
+      </c>
+      <c r="R272" t="s">
+        <v>41</v>
+      </c>
+      <c r="S272" t="s">
+        <v>41</v>
+      </c>
+      <c r="T272" t="s">
+        <v>41</v>
+      </c>
+      <c r="U272" t="s">
+        <v>41</v>
+      </c>
+      <c r="V272" t="s">
+        <v>41</v>
+      </c>
+      <c r="W272" t="s">
+        <v>41</v>
+      </c>
+      <c r="X272" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y272" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z272" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA272" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB272" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC272" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD272" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE272" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF272" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG272" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH272" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI272" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ272" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK272" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL272" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM272" t="s">
+        <v>641</v>
+      </c>
+      <c r="AN272" t="s">
+        <v>638</v>
+      </c>
+      <c r="AO272" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="273" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>521</v>
+      </c>
+      <c r="C273" t="s">
+        <v>87</v>
+      </c>
+      <c r="D273" t="s">
+        <v>616</v>
+      </c>
+      <c r="E273" t="s">
+        <v>617</v>
+      </c>
+      <c r="F273" t="s">
+        <v>56</v>
+      </c>
+      <c r="G273" t="s">
+        <v>56</v>
+      </c>
+      <c r="H273" t="s">
+        <v>41</v>
+      </c>
+      <c r="I273" t="s">
+        <v>41</v>
+      </c>
+      <c r="J273" t="s">
+        <v>41</v>
+      </c>
+      <c r="K273" t="s">
+        <v>41</v>
+      </c>
+      <c r="L273" t="s">
+        <v>41</v>
+      </c>
+      <c r="M273" t="s">
+        <v>41</v>
+      </c>
+      <c r="N273" t="s">
+        <v>41</v>
+      </c>
+      <c r="O273" t="s">
+        <v>41</v>
+      </c>
+      <c r="P273" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q273" t="s">
+        <v>41</v>
+      </c>
+      <c r="R273" t="s">
+        <v>41</v>
+      </c>
+      <c r="S273" t="s">
+        <v>41</v>
+      </c>
+      <c r="T273" t="s">
+        <v>41</v>
+      </c>
+      <c r="U273" t="s">
+        <v>41</v>
+      </c>
+      <c r="V273" t="s">
+        <v>41</v>
+      </c>
+      <c r="W273" t="s">
+        <v>41</v>
+      </c>
+      <c r="X273" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y273" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z273" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA273" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB273" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC273" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD273" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE273" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF273" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG273" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH273" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI273" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ273" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK273" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL273" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM273" t="s">
+        <v>643</v>
+      </c>
+      <c r="AN273" t="s">
+        <v>644</v>
+      </c>
+      <c r="AO273" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="274" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>59</v>
+      </c>
+      <c r="C274" t="s">
+        <v>51</v>
+      </c>
+      <c r="D274" t="s">
+        <v>646</v>
+      </c>
+      <c r="E274" t="s">
+        <v>647</v>
+      </c>
+      <c r="F274" t="s">
+        <v>53</v>
+      </c>
+      <c r="G274" t="s">
+        <v>53</v>
+      </c>
+      <c r="H274" t="s">
+        <v>41</v>
+      </c>
+      <c r="I274" t="s">
+        <v>41</v>
+      </c>
+      <c r="J274" t="s">
+        <v>41</v>
+      </c>
+      <c r="K274" t="s">
+        <v>41</v>
+      </c>
+      <c r="L274" t="s">
+        <v>41</v>
+      </c>
+      <c r="M274" t="s">
+        <v>72</v>
+      </c>
+      <c r="N274" t="s">
+        <v>42</v>
+      </c>
+      <c r="O274" t="s">
+        <v>42</v>
+      </c>
+      <c r="P274" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q274" t="s">
+        <v>42</v>
+      </c>
+      <c r="R274" t="s">
+        <v>55</v>
+      </c>
+      <c r="S274" t="s">
+        <v>41</v>
+      </c>
+      <c r="T274" t="s">
+        <v>55</v>
+      </c>
+      <c r="U274" t="s">
+        <v>55</v>
+      </c>
+      <c r="V274" t="s">
+        <v>55</v>
+      </c>
+      <c r="W274" t="s">
+        <v>55</v>
+      </c>
+      <c r="X274" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y274" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z274" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA274" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB274" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC274" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD274" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE274" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF274" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG274" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH274" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI274" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ274" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK274" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL274" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM274" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN274" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO274" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="275" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>59</v>
+      </c>
+      <c r="C275" t="s">
+        <v>51</v>
+      </c>
+      <c r="D275" t="s">
+        <v>646</v>
+      </c>
+      <c r="E275" t="s">
+        <v>647</v>
+      </c>
+      <c r="F275" t="s">
+        <v>56</v>
+      </c>
+      <c r="G275" t="s">
+        <v>56</v>
+      </c>
+      <c r="H275" t="s">
+        <v>41</v>
+      </c>
+      <c r="I275" t="s">
+        <v>41</v>
+      </c>
+      <c r="J275" t="s">
+        <v>41</v>
+      </c>
+      <c r="K275" t="s">
+        <v>41</v>
+      </c>
+      <c r="L275" t="s">
+        <v>41</v>
+      </c>
+      <c r="M275" t="s">
+        <v>41</v>
+      </c>
+      <c r="N275" t="s">
+        <v>41</v>
+      </c>
+      <c r="O275" t="s">
+        <v>41</v>
+      </c>
+      <c r="P275" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q275" t="s">
+        <v>41</v>
+      </c>
+      <c r="R275" t="s">
+        <v>41</v>
+      </c>
+      <c r="S275" t="s">
+        <v>41</v>
+      </c>
+      <c r="T275" t="s">
+        <v>41</v>
+      </c>
+      <c r="U275" t="s">
+        <v>41</v>
+      </c>
+      <c r="V275" t="s">
+        <v>41</v>
+      </c>
+      <c r="W275" t="s">
+        <v>41</v>
+      </c>
+      <c r="X275" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y275" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z275" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA275" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB275" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC275" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD275" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE275" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF275" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG275" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH275" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI275" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ275" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK275" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL275" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM275" t="s">
+        <v>649</v>
+      </c>
+      <c r="AN275" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO275" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="276" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>59</v>
+      </c>
+      <c r="C276" t="s">
+        <v>51</v>
+      </c>
+      <c r="D276" t="s">
+        <v>646</v>
+      </c>
+      <c r="E276" t="s">
+        <v>647</v>
+      </c>
+      <c r="F276" t="s">
+        <v>49</v>
+      </c>
+      <c r="G276" t="s">
+        <v>49</v>
+      </c>
+      <c r="H276" t="s">
+        <v>41</v>
+      </c>
+      <c r="I276" t="s">
+        <v>41</v>
+      </c>
+      <c r="J276" t="s">
+        <v>41</v>
+      </c>
+      <c r="K276" t="s">
+        <v>41</v>
+      </c>
+      <c r="L276" t="s">
+        <v>41</v>
+      </c>
+      <c r="M276" t="s">
+        <v>41</v>
+      </c>
+      <c r="N276" t="s">
+        <v>41</v>
+      </c>
+      <c r="O276" t="s">
+        <v>41</v>
+      </c>
+      <c r="P276" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q276" t="s">
+        <v>41</v>
+      </c>
+      <c r="R276" t="s">
+        <v>41</v>
+      </c>
+      <c r="S276" t="s">
+        <v>41</v>
+      </c>
+      <c r="T276" t="s">
+        <v>41</v>
+      </c>
+      <c r="U276" t="s">
+        <v>41</v>
+      </c>
+      <c r="V276" t="s">
+        <v>41</v>
+      </c>
+      <c r="W276" t="s">
+        <v>41</v>
+      </c>
+      <c r="X276" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y276" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z276" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA276" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB276" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC276" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD276" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE276" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF276" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG276" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH276" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI276" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ276" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK276" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL276" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM276" t="s">
+        <v>651</v>
+      </c>
+      <c r="AN276" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO276" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="277" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>59</v>
+      </c>
+      <c r="C277" t="s">
+        <v>653</v>
+      </c>
+      <c r="D277" t="s">
+        <v>640</v>
+      </c>
+      <c r="E277" t="s">
+        <v>654</v>
+      </c>
+      <c r="F277" t="s">
+        <v>56</v>
+      </c>
+      <c r="G277" t="s">
+        <v>56</v>
+      </c>
+      <c r="H277" t="s">
+        <v>41</v>
+      </c>
+      <c r="I277" t="s">
+        <v>41</v>
+      </c>
+      <c r="J277" t="s">
+        <v>41</v>
+      </c>
+      <c r="K277" t="s">
+        <v>41</v>
+      </c>
+      <c r="L277" t="s">
+        <v>41</v>
+      </c>
+      <c r="M277" t="s">
+        <v>41</v>
+      </c>
+      <c r="N277" t="s">
+        <v>41</v>
+      </c>
+      <c r="O277" t="s">
+        <v>41</v>
+      </c>
+      <c r="P277" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q277" t="s">
+        <v>41</v>
+      </c>
+      <c r="R277" t="s">
+        <v>41</v>
+      </c>
+      <c r="S277" t="s">
+        <v>41</v>
+      </c>
+      <c r="T277" t="s">
+        <v>41</v>
+      </c>
+      <c r="U277" t="s">
+        <v>41</v>
+      </c>
+      <c r="V277" t="s">
+        <v>41</v>
+      </c>
+      <c r="W277" t="s">
+        <v>41</v>
+      </c>
+      <c r="X277" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y277" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z277" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA277" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB277" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC277" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD277" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE277" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF277" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG277" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH277" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI277" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ277" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK277" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL277" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM277" t="s">
+        <v>655</v>
+      </c>
+      <c r="AN277" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO277" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="278" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>59</v>
+      </c>
+      <c r="C278" t="s">
+        <v>653</v>
+      </c>
+      <c r="D278" t="s">
+        <v>640</v>
+      </c>
+      <c r="E278" t="s">
+        <v>585</v>
+      </c>
+      <c r="F278" t="s">
+        <v>56</v>
+      </c>
+      <c r="G278" t="s">
+        <v>56</v>
+      </c>
+      <c r="H278" t="s">
+        <v>41</v>
+      </c>
+      <c r="I278" t="s">
+        <v>41</v>
+      </c>
+      <c r="J278" t="s">
+        <v>41</v>
+      </c>
+      <c r="K278" t="s">
+        <v>41</v>
+      </c>
+      <c r="L278" t="s">
+        <v>41</v>
+      </c>
+      <c r="M278" t="s">
+        <v>41</v>
+      </c>
+      <c r="N278" t="s">
+        <v>41</v>
+      </c>
+      <c r="O278" t="s">
+        <v>41</v>
+      </c>
+      <c r="P278" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q278" t="s">
+        <v>41</v>
+      </c>
+      <c r="R278" t="s">
+        <v>41</v>
+      </c>
+      <c r="S278" t="s">
+        <v>41</v>
+      </c>
+      <c r="T278" t="s">
+        <v>41</v>
+      </c>
+      <c r="U278" t="s">
+        <v>41</v>
+      </c>
+      <c r="V278" t="s">
+        <v>41</v>
+      </c>
+      <c r="W278" t="s">
+        <v>41</v>
+      </c>
+      <c r="X278" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y278" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z278" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA278" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB278" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC278" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD278" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE278" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF278" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG278" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH278" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI278" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ278" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK278" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL278" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM278" t="s">
+        <v>657</v>
+      </c>
+      <c r="AN278" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO278" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="279" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>59</v>
+      </c>
+      <c r="C279" t="s">
+        <v>60</v>
+      </c>
+      <c r="D279" t="s">
+        <v>659</v>
+      </c>
+      <c r="E279" t="s">
+        <v>660</v>
+      </c>
+      <c r="F279" t="s">
+        <v>56</v>
+      </c>
+      <c r="G279" t="s">
+        <v>56</v>
+      </c>
+      <c r="H279" t="s">
+        <v>41</v>
+      </c>
+      <c r="I279" t="s">
+        <v>41</v>
+      </c>
+      <c r="J279" t="s">
+        <v>41</v>
+      </c>
+      <c r="K279" t="s">
+        <v>41</v>
+      </c>
+      <c r="L279" t="s">
+        <v>41</v>
+      </c>
+      <c r="M279" t="s">
+        <v>41</v>
+      </c>
+      <c r="N279" t="s">
+        <v>41</v>
+      </c>
+      <c r="O279" t="s">
+        <v>41</v>
+      </c>
+      <c r="P279" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q279" t="s">
+        <v>41</v>
+      </c>
+      <c r="R279" t="s">
+        <v>41</v>
+      </c>
+      <c r="S279" t="s">
+        <v>41</v>
+      </c>
+      <c r="T279" t="s">
+        <v>41</v>
+      </c>
+      <c r="U279" t="s">
+        <v>41</v>
+      </c>
+      <c r="V279" t="s">
+        <v>41</v>
+      </c>
+      <c r="W279" t="s">
+        <v>41</v>
+      </c>
+      <c r="X279" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y279" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z279" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA279" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB279" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC279" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD279" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE279" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF279" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG279" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH279" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI279" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ279" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK279" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL279" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM279" t="s">
+        <v>661</v>
+      </c>
+      <c r="AN279" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO279" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="280" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>59</v>
+      </c>
+      <c r="C280" t="s">
+        <v>663</v>
+      </c>
+      <c r="D280" t="s">
+        <v>664</v>
+      </c>
+      <c r="E280" t="s">
+        <v>665</v>
+      </c>
+      <c r="F280" t="s">
+        <v>53</v>
+      </c>
+      <c r="G280" t="s">
+        <v>53</v>
+      </c>
+      <c r="H280" t="s">
+        <v>41</v>
+      </c>
+      <c r="I280" t="s">
+        <v>41</v>
+      </c>
+      <c r="J280" t="s">
+        <v>41</v>
+      </c>
+      <c r="K280" t="s">
+        <v>41</v>
+      </c>
+      <c r="L280" t="s">
+        <v>41</v>
+      </c>
+      <c r="M280" t="s">
+        <v>72</v>
+      </c>
+      <c r="N280" t="s">
+        <v>42</v>
+      </c>
+      <c r="O280" t="s">
+        <v>42</v>
+      </c>
+      <c r="P280" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q280" t="s">
+        <v>42</v>
+      </c>
+      <c r="R280" t="s">
+        <v>55</v>
+      </c>
+      <c r="S280" t="s">
+        <v>41</v>
+      </c>
+      <c r="T280" t="s">
+        <v>55</v>
+      </c>
+      <c r="U280" t="s">
+        <v>55</v>
+      </c>
+      <c r="V280" t="s">
+        <v>55</v>
+      </c>
+      <c r="W280" t="s">
+        <v>55</v>
+      </c>
+      <c r="X280" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y280" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z280" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA280" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB280" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC280" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD280" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE280" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF280" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG280" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH280" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI280" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ280" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK280" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL280" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM280" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN280" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO280" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="281" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>521</v>
+      </c>
+      <c r="C281" t="s">
+        <v>87</v>
+      </c>
+      <c r="D281" t="s">
+        <v>667</v>
+      </c>
+      <c r="E281" t="s">
+        <v>668</v>
+      </c>
+      <c r="F281" t="s">
+        <v>56</v>
+      </c>
+      <c r="G281" t="s">
+        <v>56</v>
+      </c>
+      <c r="H281" t="s">
+        <v>41</v>
+      </c>
+      <c r="I281" t="s">
+        <v>41</v>
+      </c>
+      <c r="J281" t="s">
+        <v>41</v>
+      </c>
+      <c r="K281" t="s">
+        <v>41</v>
+      </c>
+      <c r="L281" t="s">
+        <v>41</v>
+      </c>
+      <c r="M281" t="s">
+        <v>41</v>
+      </c>
+      <c r="N281" t="s">
+        <v>41</v>
+      </c>
+      <c r="O281" t="s">
+        <v>41</v>
+      </c>
+      <c r="P281" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q281" t="s">
+        <v>41</v>
+      </c>
+      <c r="R281" t="s">
+        <v>41</v>
+      </c>
+      <c r="S281" t="s">
+        <v>41</v>
+      </c>
+      <c r="T281" t="s">
+        <v>41</v>
+      </c>
+      <c r="U281" t="s">
+        <v>41</v>
+      </c>
+      <c r="V281" t="s">
+        <v>41</v>
+      </c>
+      <c r="W281" t="s">
+        <v>41</v>
+      </c>
+      <c r="X281" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y281" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z281" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA281" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB281" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC281" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD281" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE281" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF281" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG281" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH281" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI281" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ281" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK281" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL281" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM281" t="s">
+        <v>669</v>
+      </c>
+      <c r="AN281" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO281" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="282" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>521</v>
+      </c>
+      <c r="C282" t="s">
+        <v>87</v>
+      </c>
+      <c r="D282" t="s">
+        <v>627</v>
+      </c>
+      <c r="E282" t="s">
+        <v>671</v>
+      </c>
+      <c r="F282" t="s">
+        <v>56</v>
+      </c>
+      <c r="G282" t="s">
+        <v>56</v>
+      </c>
+      <c r="H282" t="s">
+        <v>41</v>
+      </c>
+      <c r="I282" t="s">
+        <v>41</v>
+      </c>
+      <c r="J282" t="s">
+        <v>41</v>
+      </c>
+      <c r="K282" t="s">
+        <v>41</v>
+      </c>
+      <c r="L282" t="s">
+        <v>41</v>
+      </c>
+      <c r="M282" t="s">
+        <v>41</v>
+      </c>
+      <c r="N282" t="s">
+        <v>41</v>
+      </c>
+      <c r="O282" t="s">
+        <v>41</v>
+      </c>
+      <c r="P282" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q282" t="s">
+        <v>41</v>
+      </c>
+      <c r="R282" t="s">
+        <v>41</v>
+      </c>
+      <c r="S282" t="s">
+        <v>41</v>
+      </c>
+      <c r="T282" t="s">
+        <v>41</v>
+      </c>
+      <c r="U282" t="s">
+        <v>41</v>
+      </c>
+      <c r="V282" t="s">
+        <v>41</v>
+      </c>
+      <c r="W282" t="s">
+        <v>41</v>
+      </c>
+      <c r="X282" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y282" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z282" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA282" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB282" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC282" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD282" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE282" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF282" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG282" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH282" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI282" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ282" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK282" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL282" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM282" t="s">
+        <v>672</v>
+      </c>
+      <c r="AN282" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO282" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="283" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>521</v>
+      </c>
+      <c r="C283" t="s">
+        <v>87</v>
+      </c>
+      <c r="D283" t="s">
+        <v>674</v>
+      </c>
+      <c r="E283" t="s">
+        <v>675</v>
+      </c>
+      <c r="F283" t="s">
+        <v>56</v>
+      </c>
+      <c r="G283" t="s">
+        <v>56</v>
+      </c>
+      <c r="H283" t="s">
+        <v>41</v>
+      </c>
+      <c r="I283" t="s">
+        <v>41</v>
+      </c>
+      <c r="J283" t="s">
+        <v>41</v>
+      </c>
+      <c r="K283" t="s">
+        <v>41</v>
+      </c>
+      <c r="L283" t="s">
+        <v>41</v>
+      </c>
+      <c r="M283" t="s">
+        <v>41</v>
+      </c>
+      <c r="N283" t="s">
+        <v>41</v>
+      </c>
+      <c r="O283" t="s">
+        <v>41</v>
+      </c>
+      <c r="P283" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q283" t="s">
+        <v>41</v>
+      </c>
+      <c r="R283" t="s">
+        <v>41</v>
+      </c>
+      <c r="S283" t="s">
+        <v>41</v>
+      </c>
+      <c r="T283" t="s">
+        <v>41</v>
+      </c>
+      <c r="U283" t="s">
+        <v>41</v>
+      </c>
+      <c r="V283" t="s">
+        <v>41</v>
+      </c>
+      <c r="W283" t="s">
+        <v>41</v>
+      </c>
+      <c r="X283" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y283" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z283" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA283" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB283" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC283" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD283" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE283" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF283" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG283" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH283" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI283" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ283" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK283" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL283" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM283" t="s">
+        <v>676</v>
+      </c>
+      <c r="AN283" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO283" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="284" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>521</v>
+      </c>
+      <c r="C284" t="s">
+        <v>87</v>
+      </c>
+      <c r="D284" t="s">
+        <v>674</v>
+      </c>
+      <c r="E284" t="s">
+        <v>678</v>
+      </c>
+      <c r="F284" t="s">
+        <v>56</v>
+      </c>
+      <c r="G284" t="s">
+        <v>56</v>
+      </c>
+      <c r="H284" t="s">
+        <v>41</v>
+      </c>
+      <c r="I284" t="s">
+        <v>41</v>
+      </c>
+      <c r="J284" t="s">
+        <v>41</v>
+      </c>
+      <c r="K284" t="s">
+        <v>41</v>
+      </c>
+      <c r="L284" t="s">
+        <v>41</v>
+      </c>
+      <c r="M284" t="s">
+        <v>41</v>
+      </c>
+      <c r="N284" t="s">
+        <v>41</v>
+      </c>
+      <c r="O284" t="s">
+        <v>41</v>
+      </c>
+      <c r="P284" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q284" t="s">
+        <v>41</v>
+      </c>
+      <c r="R284" t="s">
+        <v>41</v>
+      </c>
+      <c r="S284" t="s">
+        <v>41</v>
+      </c>
+      <c r="T284" t="s">
+        <v>41</v>
+      </c>
+      <c r="U284" t="s">
+        <v>41</v>
+      </c>
+      <c r="V284" t="s">
+        <v>41</v>
+      </c>
+      <c r="W284" t="s">
+        <v>41</v>
+      </c>
+      <c r="X284" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y284" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z284" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA284" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB284" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC284" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD284" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE284" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF284" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG284" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH284" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI284" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ284" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK284" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL284" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM284" t="s">
+        <v>679</v>
+      </c>
+      <c r="AN284" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO284" t="s">
+        <v>680</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/toutReponse.xlsx
+++ b/toutReponse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Etape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B86867-B09A-47E9-A5CE-2DCBEBA5D0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E0DE23-B13C-422F-9EAF-A5BAD8822CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11226" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11546" uniqueCount="701">
   <si>
     <t>id</t>
   </si>
@@ -2063,6 +2063,66 @@
   </si>
   <si>
     <t>2022-03-24 11:28:29</t>
+  </si>
+  <si>
+    <t>2021-10-22</t>
+  </si>
+  <si>
+    <t>2022-03-21</t>
+  </si>
+  <si>
+    <t>suite de parcours intéressant pour certains stagiaires (primo sociale, primo pro, chantier d'insertion)</t>
+  </si>
+  <si>
+    <t>2022-03-25 12:17:26</t>
+  </si>
+  <si>
+    <t>Dispositif d'insertion professionelle trop rare // potentiel public concerné. L'actualité d'une campagne présidentielle nous le démontre parfois encore par l'absurde. Multiplié par dix ce dispositif mais également des débouchés d'emploi aidé au sortir des primo pro.</t>
+  </si>
+  <si>
+    <t>2022-03-25 12:21:26</t>
+  </si>
+  <si>
+    <t>La prestation correspond aux attentes. Les objectifs de l'action sont atteints.</t>
+  </si>
+  <si>
+    <t>2022-03-25 12:23:03</t>
+  </si>
+  <si>
+    <t>Conseil départemental 14</t>
+  </si>
+  <si>
+    <t>Formation très riche en apport pour les bénéficiaires. Très positif en terme d'insertion sociale et professionnelle. A poursuivre +++</t>
+  </si>
+  <si>
+    <t>A poursuivre</t>
+  </si>
+  <si>
+    <t>2022-03-25 12:24:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satisfaite de commencer un emploi et de me réadapter à la vie professionnelle et serai active. </t>
+  </si>
+  <si>
+    <t>se mettre dans la peau de, voir méthode retravailler employeur recruteur.</t>
+  </si>
+  <si>
+    <t>2022-03-25 12:26:36</t>
+  </si>
+  <si>
+    <t>2022-03-25 12:27:27</t>
+  </si>
+  <si>
+    <t>Très bonne formation quipermet de mettre à jour un Cv ou comment optimiser ses chances de lemettre en valeur dans l'objectif de retrouver un emploi ou une formation.</t>
+  </si>
+  <si>
+    <t>2022-03-25 12:29:16</t>
+  </si>
+  <si>
+    <t>plus d'heure</t>
+  </si>
+  <si>
+    <t>2022-03-25 12:30:04</t>
   </si>
 </sst>
 </file>
@@ -2976,10 +3036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO284"/>
+  <dimension ref="A1:AO292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B280" sqref="B280"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="C294" sqref="C294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38229,6 +38289,1006 @@
         <v>680</v>
       </c>
     </row>
+    <row r="285" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>43</v>
+      </c>
+      <c r="C285" t="s">
+        <v>44</v>
+      </c>
+      <c r="D285" t="s">
+        <v>681</v>
+      </c>
+      <c r="E285" t="s">
+        <v>682</v>
+      </c>
+      <c r="F285" t="s">
+        <v>49</v>
+      </c>
+      <c r="G285" t="s">
+        <v>49</v>
+      </c>
+      <c r="H285" t="s">
+        <v>41</v>
+      </c>
+      <c r="I285" t="s">
+        <v>41</v>
+      </c>
+      <c r="J285" t="s">
+        <v>41</v>
+      </c>
+      <c r="K285" t="s">
+        <v>41</v>
+      </c>
+      <c r="L285" t="s">
+        <v>41</v>
+      </c>
+      <c r="M285" t="s">
+        <v>41</v>
+      </c>
+      <c r="N285" t="s">
+        <v>41</v>
+      </c>
+      <c r="O285" t="s">
+        <v>41</v>
+      </c>
+      <c r="P285" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q285" t="s">
+        <v>41</v>
+      </c>
+      <c r="R285" t="s">
+        <v>41</v>
+      </c>
+      <c r="S285" t="s">
+        <v>41</v>
+      </c>
+      <c r="T285" t="s">
+        <v>41</v>
+      </c>
+      <c r="U285" t="s">
+        <v>41</v>
+      </c>
+      <c r="V285" t="s">
+        <v>41</v>
+      </c>
+      <c r="W285" t="s">
+        <v>41</v>
+      </c>
+      <c r="X285" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y285" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z285" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA285" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB285" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC285" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD285" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE285" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF285" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG285" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH285" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI285" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ285" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK285" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL285" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM285" t="s">
+        <v>683</v>
+      </c>
+      <c r="AN285" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO285" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="286" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>43</v>
+      </c>
+      <c r="C286" t="s">
+        <v>44</v>
+      </c>
+      <c r="D286" t="s">
+        <v>681</v>
+      </c>
+      <c r="E286" t="s">
+        <v>682</v>
+      </c>
+      <c r="F286" t="s">
+        <v>49</v>
+      </c>
+      <c r="G286" t="s">
+        <v>49</v>
+      </c>
+      <c r="H286" t="s">
+        <v>41</v>
+      </c>
+      <c r="I286" t="s">
+        <v>41</v>
+      </c>
+      <c r="J286" t="s">
+        <v>41</v>
+      </c>
+      <c r="K286" t="s">
+        <v>41</v>
+      </c>
+      <c r="L286" t="s">
+        <v>41</v>
+      </c>
+      <c r="M286" t="s">
+        <v>41</v>
+      </c>
+      <c r="N286" t="s">
+        <v>41</v>
+      </c>
+      <c r="O286" t="s">
+        <v>41</v>
+      </c>
+      <c r="P286" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q286" t="s">
+        <v>41</v>
+      </c>
+      <c r="R286" t="s">
+        <v>41</v>
+      </c>
+      <c r="S286" t="s">
+        <v>41</v>
+      </c>
+      <c r="T286" t="s">
+        <v>41</v>
+      </c>
+      <c r="U286" t="s">
+        <v>41</v>
+      </c>
+      <c r="V286" t="s">
+        <v>41</v>
+      </c>
+      <c r="W286" t="s">
+        <v>41</v>
+      </c>
+      <c r="X286" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y286" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z286" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA286" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB286" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC286" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD286" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE286" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF286" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG286" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH286" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI286" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ286" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK286" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL286" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM286" t="s">
+        <v>685</v>
+      </c>
+      <c r="AN286" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO286" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="287" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>43</v>
+      </c>
+      <c r="C287" t="s">
+        <v>44</v>
+      </c>
+      <c r="D287" t="s">
+        <v>681</v>
+      </c>
+      <c r="E287" t="s">
+        <v>682</v>
+      </c>
+      <c r="F287" t="s">
+        <v>268</v>
+      </c>
+      <c r="G287" t="s">
+        <v>268</v>
+      </c>
+      <c r="H287" t="s">
+        <v>45</v>
+      </c>
+      <c r="I287" t="s">
+        <v>45</v>
+      </c>
+      <c r="J287" t="s">
+        <v>45</v>
+      </c>
+      <c r="K287" t="s">
+        <v>45</v>
+      </c>
+      <c r="L287" t="s">
+        <v>46</v>
+      </c>
+      <c r="M287" t="s">
+        <v>41</v>
+      </c>
+      <c r="N287" t="s">
+        <v>41</v>
+      </c>
+      <c r="O287" t="s">
+        <v>41</v>
+      </c>
+      <c r="P287" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q287" t="s">
+        <v>41</v>
+      </c>
+      <c r="R287" t="s">
+        <v>41</v>
+      </c>
+      <c r="S287" t="s">
+        <v>41</v>
+      </c>
+      <c r="T287" t="s">
+        <v>41</v>
+      </c>
+      <c r="U287" t="s">
+        <v>41</v>
+      </c>
+      <c r="V287" t="s">
+        <v>41</v>
+      </c>
+      <c r="W287" t="s">
+        <v>41</v>
+      </c>
+      <c r="X287" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y287" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z287" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA287" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB287" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC287" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD287" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE287" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF287" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG287" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH287" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI287" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ287" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK287" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL287" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM287" t="s">
+        <v>687</v>
+      </c>
+      <c r="AN287" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO287" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="288" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>43</v>
+      </c>
+      <c r="C288" t="s">
+        <v>44</v>
+      </c>
+      <c r="D288" t="s">
+        <v>681</v>
+      </c>
+      <c r="E288" t="s">
+        <v>682</v>
+      </c>
+      <c r="F288" t="s">
+        <v>49</v>
+      </c>
+      <c r="G288" t="s">
+        <v>49</v>
+      </c>
+      <c r="H288" t="s">
+        <v>41</v>
+      </c>
+      <c r="I288" t="s">
+        <v>41</v>
+      </c>
+      <c r="J288" t="s">
+        <v>41</v>
+      </c>
+      <c r="K288" t="s">
+        <v>41</v>
+      </c>
+      <c r="L288" t="s">
+        <v>41</v>
+      </c>
+      <c r="M288" t="s">
+        <v>41</v>
+      </c>
+      <c r="N288" t="s">
+        <v>41</v>
+      </c>
+      <c r="O288" t="s">
+        <v>41</v>
+      </c>
+      <c r="P288" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q288" t="s">
+        <v>41</v>
+      </c>
+      <c r="R288" t="s">
+        <v>41</v>
+      </c>
+      <c r="S288" t="s">
+        <v>41</v>
+      </c>
+      <c r="T288" t="s">
+        <v>41</v>
+      </c>
+      <c r="U288" t="s">
+        <v>41</v>
+      </c>
+      <c r="V288" t="s">
+        <v>41</v>
+      </c>
+      <c r="W288" t="s">
+        <v>41</v>
+      </c>
+      <c r="X288" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y288" t="s">
+        <v>689</v>
+      </c>
+      <c r="Z288" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA288" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB288" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC288" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD288" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE288" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF288" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG288" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH288" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI288" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ288" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK288" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL288" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM288" t="s">
+        <v>690</v>
+      </c>
+      <c r="AN288" t="s">
+        <v>691</v>
+      </c>
+      <c r="AO288" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="289" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>43</v>
+      </c>
+      <c r="C289" t="s">
+        <v>44</v>
+      </c>
+      <c r="D289" t="s">
+        <v>681</v>
+      </c>
+      <c r="E289" t="s">
+        <v>682</v>
+      </c>
+      <c r="F289" t="s">
+        <v>56</v>
+      </c>
+      <c r="G289" t="s">
+        <v>56</v>
+      </c>
+      <c r="H289" t="s">
+        <v>41</v>
+      </c>
+      <c r="I289" t="s">
+        <v>41</v>
+      </c>
+      <c r="J289" t="s">
+        <v>41</v>
+      </c>
+      <c r="K289" t="s">
+        <v>41</v>
+      </c>
+      <c r="L289" t="s">
+        <v>41</v>
+      </c>
+      <c r="M289" t="s">
+        <v>41</v>
+      </c>
+      <c r="N289" t="s">
+        <v>41</v>
+      </c>
+      <c r="O289" t="s">
+        <v>41</v>
+      </c>
+      <c r="P289" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q289" t="s">
+        <v>41</v>
+      </c>
+      <c r="R289" t="s">
+        <v>41</v>
+      </c>
+      <c r="S289" t="s">
+        <v>41</v>
+      </c>
+      <c r="T289" t="s">
+        <v>41</v>
+      </c>
+      <c r="U289" t="s">
+        <v>41</v>
+      </c>
+      <c r="V289" t="s">
+        <v>41</v>
+      </c>
+      <c r="W289" t="s">
+        <v>41</v>
+      </c>
+      <c r="X289" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y289" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z289" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA289" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB289" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC289" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD289" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE289" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF289" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG289" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH289" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI289" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ289" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK289" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL289" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM289" t="s">
+        <v>693</v>
+      </c>
+      <c r="AN289" t="s">
+        <v>694</v>
+      </c>
+      <c r="AO289" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="290" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>43</v>
+      </c>
+      <c r="C290" t="s">
+        <v>44</v>
+      </c>
+      <c r="D290" t="s">
+        <v>681</v>
+      </c>
+      <c r="E290" t="s">
+        <v>682</v>
+      </c>
+      <c r="F290" t="s">
+        <v>56</v>
+      </c>
+      <c r="G290" t="s">
+        <v>56</v>
+      </c>
+      <c r="H290" t="s">
+        <v>41</v>
+      </c>
+      <c r="I290" t="s">
+        <v>41</v>
+      </c>
+      <c r="J290" t="s">
+        <v>41</v>
+      </c>
+      <c r="K290" t="s">
+        <v>41</v>
+      </c>
+      <c r="L290" t="s">
+        <v>41</v>
+      </c>
+      <c r="M290" t="s">
+        <v>41</v>
+      </c>
+      <c r="N290" t="s">
+        <v>41</v>
+      </c>
+      <c r="O290" t="s">
+        <v>41</v>
+      </c>
+      <c r="P290" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q290" t="s">
+        <v>41</v>
+      </c>
+      <c r="R290" t="s">
+        <v>41</v>
+      </c>
+      <c r="S290" t="s">
+        <v>41</v>
+      </c>
+      <c r="T290" t="s">
+        <v>41</v>
+      </c>
+      <c r="U290" t="s">
+        <v>41</v>
+      </c>
+      <c r="V290" t="s">
+        <v>41</v>
+      </c>
+      <c r="W290" t="s">
+        <v>41</v>
+      </c>
+      <c r="X290" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y290" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z290" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA290" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB290" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC290" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD290" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE290" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF290" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG290" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH290" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI290" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ290" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK290" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL290" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM290" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN290" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO290" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="291" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>43</v>
+      </c>
+      <c r="C291" t="s">
+        <v>44</v>
+      </c>
+      <c r="D291" t="s">
+        <v>681</v>
+      </c>
+      <c r="E291" t="s">
+        <v>682</v>
+      </c>
+      <c r="F291" t="s">
+        <v>56</v>
+      </c>
+      <c r="G291" t="s">
+        <v>56</v>
+      </c>
+      <c r="H291" t="s">
+        <v>41</v>
+      </c>
+      <c r="I291" t="s">
+        <v>41</v>
+      </c>
+      <c r="J291" t="s">
+        <v>41</v>
+      </c>
+      <c r="K291" t="s">
+        <v>41</v>
+      </c>
+      <c r="L291" t="s">
+        <v>41</v>
+      </c>
+      <c r="M291" t="s">
+        <v>41</v>
+      </c>
+      <c r="N291" t="s">
+        <v>41</v>
+      </c>
+      <c r="O291" t="s">
+        <v>41</v>
+      </c>
+      <c r="P291" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q291" t="s">
+        <v>41</v>
+      </c>
+      <c r="R291" t="s">
+        <v>41</v>
+      </c>
+      <c r="S291" t="s">
+        <v>41</v>
+      </c>
+      <c r="T291" t="s">
+        <v>41</v>
+      </c>
+      <c r="U291" t="s">
+        <v>41</v>
+      </c>
+      <c r="V291" t="s">
+        <v>41</v>
+      </c>
+      <c r="W291" t="s">
+        <v>41</v>
+      </c>
+      <c r="X291" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y291" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z291" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA291" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB291" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC291" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD291" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE291" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF291" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG291" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH291" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI291" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ291" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK291" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL291" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM291" t="s">
+        <v>697</v>
+      </c>
+      <c r="AN291" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO291" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="292" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>43</v>
+      </c>
+      <c r="C292" t="s">
+        <v>44</v>
+      </c>
+      <c r="D292" t="s">
+        <v>681</v>
+      </c>
+      <c r="E292" t="s">
+        <v>682</v>
+      </c>
+      <c r="F292" t="s">
+        <v>56</v>
+      </c>
+      <c r="G292" t="s">
+        <v>56</v>
+      </c>
+      <c r="H292" t="s">
+        <v>41</v>
+      </c>
+      <c r="I292" t="s">
+        <v>41</v>
+      </c>
+      <c r="J292" t="s">
+        <v>41</v>
+      </c>
+      <c r="K292" t="s">
+        <v>41</v>
+      </c>
+      <c r="L292" t="s">
+        <v>41</v>
+      </c>
+      <c r="M292" t="s">
+        <v>41</v>
+      </c>
+      <c r="N292" t="s">
+        <v>41</v>
+      </c>
+      <c r="O292" t="s">
+        <v>41</v>
+      </c>
+      <c r="P292" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q292" t="s">
+        <v>41</v>
+      </c>
+      <c r="R292" t="s">
+        <v>41</v>
+      </c>
+      <c r="S292" t="s">
+        <v>41</v>
+      </c>
+      <c r="T292" t="s">
+        <v>41</v>
+      </c>
+      <c r="U292" t="s">
+        <v>41</v>
+      </c>
+      <c r="V292" t="s">
+        <v>41</v>
+      </c>
+      <c r="W292" t="s">
+        <v>41</v>
+      </c>
+      <c r="X292" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y292" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z292" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA292" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB292" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC292" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD292" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE292" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF292" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG292" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH292" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI292" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ292" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK292" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL292" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM292" t="s">
+        <v>699</v>
+      </c>
+      <c r="AN292" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO292" t="s">
+        <v>700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/toutReponse.xlsx
+++ b/toutReponse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Etape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E0DE23-B13C-422F-9EAF-A5BAD8822CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8C5429-EC45-4545-9732-445912DB7AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11546" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12106" uniqueCount="728">
   <si>
     <t>id</t>
   </si>
@@ -2123,6 +2123,87 @@
   </si>
   <si>
     <t>2022-03-25 12:30:04</t>
+  </si>
+  <si>
+    <t>2022-09-14</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>Bonne ambiance, création de liens d'amitié, référente à l'écoute.</t>
+  </si>
+  <si>
+    <t>2022-04-05 13:26:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonne ambiance sur le groupe et entraide. </t>
+  </si>
+  <si>
+    <t>2022-04-05 13:29:11</t>
+  </si>
+  <si>
+    <t>2022-04-05 13:30:17</t>
+  </si>
+  <si>
+    <t>Très bien dans l'ensemble.</t>
+  </si>
+  <si>
+    <t>2022-04-05 13:31:40</t>
+  </si>
+  <si>
+    <t>Bonne ambiance, action intéressante et référente à l'écoute</t>
+  </si>
+  <si>
+    <t>2022-04-05 13:35:49</t>
+  </si>
+  <si>
+    <t>2022-04-05 13:37:00</t>
+  </si>
+  <si>
+    <t>intervenant_FSE</t>
+  </si>
+  <si>
+    <t>2022-04-05 13:41:21</t>
+  </si>
+  <si>
+    <t>2021-10-14</t>
+  </si>
+  <si>
+    <t>2022-04-05 13:42:28</t>
+  </si>
+  <si>
+    <t>Public participatif</t>
+  </si>
+  <si>
+    <t>2022-04-05 13:44:17</t>
+  </si>
+  <si>
+    <t>Bon accueil, bonne participation avec des échanges constructifs.</t>
+  </si>
+  <si>
+    <t>2022-04-05 13:45:55</t>
+  </si>
+  <si>
+    <t>Très bon accueil</t>
+  </si>
+  <si>
+    <t>2022-04-05 13:47:09</t>
+  </si>
+  <si>
+    <t>Bon accueil et bonne participation.</t>
+  </si>
+  <si>
+    <t>2022-04-05 13:48:42</t>
+  </si>
+  <si>
+    <t>Bonne participation du groupe et respect mutuel entre les participants.</t>
+  </si>
+  <si>
+    <t>2022-04-05 13:52:01</t>
+  </si>
+  <si>
+    <t>2022-04-05 13:53:43</t>
   </si>
 </sst>
 </file>
@@ -3036,10 +3117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO292"/>
+  <dimension ref="A1:AO306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="C294" sqref="C294"/>
+    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="C301" sqref="C301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39289,6 +39370,1756 @@
         <v>700</v>
       </c>
     </row>
+    <row r="293" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>50</v>
+      </c>
+      <c r="C293" t="s">
+        <v>60</v>
+      </c>
+      <c r="D293" t="s">
+        <v>701</v>
+      </c>
+      <c r="E293" t="s">
+        <v>702</v>
+      </c>
+      <c r="F293" t="s">
+        <v>56</v>
+      </c>
+      <c r="G293" t="s">
+        <v>486</v>
+      </c>
+      <c r="H293" t="s">
+        <v>41</v>
+      </c>
+      <c r="I293" t="s">
+        <v>41</v>
+      </c>
+      <c r="J293" t="s">
+        <v>41</v>
+      </c>
+      <c r="K293" t="s">
+        <v>41</v>
+      </c>
+      <c r="L293" t="s">
+        <v>41</v>
+      </c>
+      <c r="M293" t="s">
+        <v>41</v>
+      </c>
+      <c r="N293" t="s">
+        <v>41</v>
+      </c>
+      <c r="O293" t="s">
+        <v>41</v>
+      </c>
+      <c r="P293" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q293" t="s">
+        <v>41</v>
+      </c>
+      <c r="R293" t="s">
+        <v>41</v>
+      </c>
+      <c r="S293" t="s">
+        <v>41</v>
+      </c>
+      <c r="T293" t="s">
+        <v>41</v>
+      </c>
+      <c r="U293" t="s">
+        <v>41</v>
+      </c>
+      <c r="V293" t="s">
+        <v>41</v>
+      </c>
+      <c r="W293" t="s">
+        <v>41</v>
+      </c>
+      <c r="X293" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y293" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z293" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA293" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB293" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC293" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD293" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE293" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF293" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG293" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH293" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI293" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ293" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK293" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL293" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM293" t="s">
+        <v>703</v>
+      </c>
+      <c r="AN293" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO293" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="294" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>50</v>
+      </c>
+      <c r="C294" t="s">
+        <v>60</v>
+      </c>
+      <c r="D294" t="s">
+        <v>421</v>
+      </c>
+      <c r="E294" t="s">
+        <v>702</v>
+      </c>
+      <c r="F294" t="s">
+        <v>56</v>
+      </c>
+      <c r="G294" t="s">
+        <v>486</v>
+      </c>
+      <c r="H294" t="s">
+        <v>41</v>
+      </c>
+      <c r="I294" t="s">
+        <v>41</v>
+      </c>
+      <c r="J294" t="s">
+        <v>41</v>
+      </c>
+      <c r="K294" t="s">
+        <v>41</v>
+      </c>
+      <c r="L294" t="s">
+        <v>41</v>
+      </c>
+      <c r="M294" t="s">
+        <v>41</v>
+      </c>
+      <c r="N294" t="s">
+        <v>41</v>
+      </c>
+      <c r="O294" t="s">
+        <v>41</v>
+      </c>
+      <c r="P294" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q294" t="s">
+        <v>41</v>
+      </c>
+      <c r="R294" t="s">
+        <v>41</v>
+      </c>
+      <c r="S294" t="s">
+        <v>41</v>
+      </c>
+      <c r="T294" t="s">
+        <v>41</v>
+      </c>
+      <c r="U294" t="s">
+        <v>41</v>
+      </c>
+      <c r="V294" t="s">
+        <v>41</v>
+      </c>
+      <c r="W294" t="s">
+        <v>41</v>
+      </c>
+      <c r="X294" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y294" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z294" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA294" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB294" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC294" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD294" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE294" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF294" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG294" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH294" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI294" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ294" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK294" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL294" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM294" t="s">
+        <v>705</v>
+      </c>
+      <c r="AN294" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO294" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="295" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>50</v>
+      </c>
+      <c r="C295" t="s">
+        <v>60</v>
+      </c>
+      <c r="D295" t="s">
+        <v>421</v>
+      </c>
+      <c r="E295" t="s">
+        <v>702</v>
+      </c>
+      <c r="F295" t="s">
+        <v>56</v>
+      </c>
+      <c r="G295" t="s">
+        <v>486</v>
+      </c>
+      <c r="H295" t="s">
+        <v>41</v>
+      </c>
+      <c r="I295" t="s">
+        <v>41</v>
+      </c>
+      <c r="J295" t="s">
+        <v>41</v>
+      </c>
+      <c r="K295" t="s">
+        <v>41</v>
+      </c>
+      <c r="L295" t="s">
+        <v>41</v>
+      </c>
+      <c r="M295" t="s">
+        <v>41</v>
+      </c>
+      <c r="N295" t="s">
+        <v>41</v>
+      </c>
+      <c r="O295" t="s">
+        <v>41</v>
+      </c>
+      <c r="P295" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q295" t="s">
+        <v>41</v>
+      </c>
+      <c r="R295" t="s">
+        <v>41</v>
+      </c>
+      <c r="S295" t="s">
+        <v>41</v>
+      </c>
+      <c r="T295" t="s">
+        <v>41</v>
+      </c>
+      <c r="U295" t="s">
+        <v>41</v>
+      </c>
+      <c r="V295" t="s">
+        <v>41</v>
+      </c>
+      <c r="W295" t="s">
+        <v>41</v>
+      </c>
+      <c r="X295" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y295" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z295" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA295" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB295" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC295" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD295" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE295" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF295" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG295" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH295" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI295" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ295" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK295" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL295" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM295" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN295" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO295" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="296" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>50</v>
+      </c>
+      <c r="C296" t="s">
+        <v>60</v>
+      </c>
+      <c r="D296" t="s">
+        <v>421</v>
+      </c>
+      <c r="E296" t="s">
+        <v>702</v>
+      </c>
+      <c r="F296" t="s">
+        <v>56</v>
+      </c>
+      <c r="G296" t="s">
+        <v>486</v>
+      </c>
+      <c r="H296" t="s">
+        <v>41</v>
+      </c>
+      <c r="I296" t="s">
+        <v>41</v>
+      </c>
+      <c r="J296" t="s">
+        <v>41</v>
+      </c>
+      <c r="K296" t="s">
+        <v>41</v>
+      </c>
+      <c r="L296" t="s">
+        <v>41</v>
+      </c>
+      <c r="M296" t="s">
+        <v>41</v>
+      </c>
+      <c r="N296" t="s">
+        <v>41</v>
+      </c>
+      <c r="O296" t="s">
+        <v>41</v>
+      </c>
+      <c r="P296" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q296" t="s">
+        <v>41</v>
+      </c>
+      <c r="R296" t="s">
+        <v>41</v>
+      </c>
+      <c r="S296" t="s">
+        <v>41</v>
+      </c>
+      <c r="T296" t="s">
+        <v>41</v>
+      </c>
+      <c r="U296" t="s">
+        <v>41</v>
+      </c>
+      <c r="V296" t="s">
+        <v>41</v>
+      </c>
+      <c r="W296" t="s">
+        <v>41</v>
+      </c>
+      <c r="X296" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y296" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z296" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA296" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB296" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC296" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD296" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE296" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF296" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG296" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH296" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI296" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ296" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK296" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL296" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM296" t="s">
+        <v>708</v>
+      </c>
+      <c r="AN296" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO296" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="297" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>50</v>
+      </c>
+      <c r="C297" t="s">
+        <v>60</v>
+      </c>
+      <c r="D297" t="s">
+        <v>421</v>
+      </c>
+      <c r="E297" t="s">
+        <v>702</v>
+      </c>
+      <c r="F297" t="s">
+        <v>56</v>
+      </c>
+      <c r="G297" t="s">
+        <v>486</v>
+      </c>
+      <c r="H297" t="s">
+        <v>41</v>
+      </c>
+      <c r="I297" t="s">
+        <v>41</v>
+      </c>
+      <c r="J297" t="s">
+        <v>41</v>
+      </c>
+      <c r="K297" t="s">
+        <v>41</v>
+      </c>
+      <c r="L297" t="s">
+        <v>41</v>
+      </c>
+      <c r="M297" t="s">
+        <v>41</v>
+      </c>
+      <c r="N297" t="s">
+        <v>41</v>
+      </c>
+      <c r="O297" t="s">
+        <v>41</v>
+      </c>
+      <c r="P297" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q297" t="s">
+        <v>41</v>
+      </c>
+      <c r="R297" t="s">
+        <v>41</v>
+      </c>
+      <c r="S297" t="s">
+        <v>41</v>
+      </c>
+      <c r="T297" t="s">
+        <v>41</v>
+      </c>
+      <c r="U297" t="s">
+        <v>41</v>
+      </c>
+      <c r="V297" t="s">
+        <v>41</v>
+      </c>
+      <c r="W297" t="s">
+        <v>41</v>
+      </c>
+      <c r="X297" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y297" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z297" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA297" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB297" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC297" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD297" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE297" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF297" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG297" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH297" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI297" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ297" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK297" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL297" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM297" t="s">
+        <v>710</v>
+      </c>
+      <c r="AN297" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO297" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="298" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>50</v>
+      </c>
+      <c r="C298" t="s">
+        <v>60</v>
+      </c>
+      <c r="D298" t="s">
+        <v>421</v>
+      </c>
+      <c r="E298" t="s">
+        <v>702</v>
+      </c>
+      <c r="F298" t="s">
+        <v>56</v>
+      </c>
+      <c r="G298" t="s">
+        <v>486</v>
+      </c>
+      <c r="H298" t="s">
+        <v>41</v>
+      </c>
+      <c r="I298" t="s">
+        <v>41</v>
+      </c>
+      <c r="J298" t="s">
+        <v>41</v>
+      </c>
+      <c r="K298" t="s">
+        <v>41</v>
+      </c>
+      <c r="L298" t="s">
+        <v>41</v>
+      </c>
+      <c r="M298" t="s">
+        <v>41</v>
+      </c>
+      <c r="N298" t="s">
+        <v>41</v>
+      </c>
+      <c r="O298" t="s">
+        <v>41</v>
+      </c>
+      <c r="P298" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q298" t="s">
+        <v>41</v>
+      </c>
+      <c r="R298" t="s">
+        <v>41</v>
+      </c>
+      <c r="S298" t="s">
+        <v>41</v>
+      </c>
+      <c r="T298" t="s">
+        <v>41</v>
+      </c>
+      <c r="U298" t="s">
+        <v>41</v>
+      </c>
+      <c r="V298" t="s">
+        <v>41</v>
+      </c>
+      <c r="W298" t="s">
+        <v>41</v>
+      </c>
+      <c r="X298" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y298" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z298" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA298" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB298" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC298" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD298" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE298" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF298" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG298" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH298" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI298" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ298" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK298" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL298" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM298" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN298" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO298" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="299" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>50</v>
+      </c>
+      <c r="C299" t="s">
+        <v>60</v>
+      </c>
+      <c r="D299" t="s">
+        <v>421</v>
+      </c>
+      <c r="E299" t="s">
+        <v>702</v>
+      </c>
+      <c r="F299" t="s">
+        <v>53</v>
+      </c>
+      <c r="G299" t="s">
+        <v>713</v>
+      </c>
+      <c r="H299" t="s">
+        <v>41</v>
+      </c>
+      <c r="I299" t="s">
+        <v>41</v>
+      </c>
+      <c r="J299" t="s">
+        <v>41</v>
+      </c>
+      <c r="K299" t="s">
+        <v>41</v>
+      </c>
+      <c r="L299" t="s">
+        <v>41</v>
+      </c>
+      <c r="M299" t="s">
+        <v>48</v>
+      </c>
+      <c r="N299" t="s">
+        <v>42</v>
+      </c>
+      <c r="O299" t="s">
+        <v>42</v>
+      </c>
+      <c r="P299" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q299" t="s">
+        <v>41</v>
+      </c>
+      <c r="R299" t="s">
+        <v>55</v>
+      </c>
+      <c r="S299" t="s">
+        <v>41</v>
+      </c>
+      <c r="T299" t="s">
+        <v>55</v>
+      </c>
+      <c r="U299" t="s">
+        <v>55</v>
+      </c>
+      <c r="V299" t="s">
+        <v>55</v>
+      </c>
+      <c r="W299" t="s">
+        <v>55</v>
+      </c>
+      <c r="X299" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y299" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z299" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA299" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB299" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC299" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD299" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE299" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF299" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG299" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH299" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI299" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ299" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK299" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL299" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM299" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN299" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO299" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="300" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>50</v>
+      </c>
+      <c r="C300" t="s">
+        <v>60</v>
+      </c>
+      <c r="D300" t="s">
+        <v>715</v>
+      </c>
+      <c r="E300" t="s">
+        <v>702</v>
+      </c>
+      <c r="F300" t="s">
+        <v>53</v>
+      </c>
+      <c r="G300" t="s">
+        <v>713</v>
+      </c>
+      <c r="H300" t="s">
+        <v>41</v>
+      </c>
+      <c r="I300" t="s">
+        <v>41</v>
+      </c>
+      <c r="J300" t="s">
+        <v>41</v>
+      </c>
+      <c r="K300" t="s">
+        <v>41</v>
+      </c>
+      <c r="L300" t="s">
+        <v>41</v>
+      </c>
+      <c r="M300" t="s">
+        <v>48</v>
+      </c>
+      <c r="N300" t="s">
+        <v>42</v>
+      </c>
+      <c r="O300" t="s">
+        <v>42</v>
+      </c>
+      <c r="P300" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q300" t="s">
+        <v>42</v>
+      </c>
+      <c r="R300" t="s">
+        <v>55</v>
+      </c>
+      <c r="S300" t="s">
+        <v>41</v>
+      </c>
+      <c r="T300" t="s">
+        <v>55</v>
+      </c>
+      <c r="U300" t="s">
+        <v>55</v>
+      </c>
+      <c r="V300" t="s">
+        <v>55</v>
+      </c>
+      <c r="W300" t="s">
+        <v>55</v>
+      </c>
+      <c r="X300" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y300" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z300" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA300" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB300" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC300" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD300" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE300" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF300" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG300" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH300" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI300" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ300" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK300" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL300" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM300" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN300" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO300" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="301" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>50</v>
+      </c>
+      <c r="C301" t="s">
+        <v>41</v>
+      </c>
+      <c r="D301" t="s">
+        <v>421</v>
+      </c>
+      <c r="E301" t="s">
+        <v>702</v>
+      </c>
+      <c r="F301" t="s">
+        <v>53</v>
+      </c>
+      <c r="G301" t="s">
+        <v>713</v>
+      </c>
+      <c r="H301" t="s">
+        <v>41</v>
+      </c>
+      <c r="I301" t="s">
+        <v>41</v>
+      </c>
+      <c r="J301" t="s">
+        <v>41</v>
+      </c>
+      <c r="K301" t="s">
+        <v>41</v>
+      </c>
+      <c r="L301" t="s">
+        <v>41</v>
+      </c>
+      <c r="M301" t="s">
+        <v>48</v>
+      </c>
+      <c r="N301" t="s">
+        <v>42</v>
+      </c>
+      <c r="O301" t="s">
+        <v>42</v>
+      </c>
+      <c r="P301" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q301" t="s">
+        <v>42</v>
+      </c>
+      <c r="R301" t="s">
+        <v>55</v>
+      </c>
+      <c r="S301" t="s">
+        <v>41</v>
+      </c>
+      <c r="T301" t="s">
+        <v>55</v>
+      </c>
+      <c r="U301" t="s">
+        <v>55</v>
+      </c>
+      <c r="V301" t="s">
+        <v>55</v>
+      </c>
+      <c r="W301" t="s">
+        <v>55</v>
+      </c>
+      <c r="X301" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y301" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z301" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA301" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB301" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC301" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD301" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE301" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF301" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG301" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH301" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI301" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ301" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK301" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL301" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM301" t="s">
+        <v>717</v>
+      </c>
+      <c r="AN301" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO301" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="302" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>50</v>
+      </c>
+      <c r="C302" t="s">
+        <v>60</v>
+      </c>
+      <c r="D302" t="s">
+        <v>421</v>
+      </c>
+      <c r="E302" t="s">
+        <v>702</v>
+      </c>
+      <c r="F302" t="s">
+        <v>53</v>
+      </c>
+      <c r="G302" t="s">
+        <v>713</v>
+      </c>
+      <c r="H302" t="s">
+        <v>41</v>
+      </c>
+      <c r="I302" t="s">
+        <v>41</v>
+      </c>
+      <c r="J302" t="s">
+        <v>41</v>
+      </c>
+      <c r="K302" t="s">
+        <v>41</v>
+      </c>
+      <c r="L302" t="s">
+        <v>41</v>
+      </c>
+      <c r="M302" t="s">
+        <v>48</v>
+      </c>
+      <c r="N302" t="s">
+        <v>42</v>
+      </c>
+      <c r="O302" t="s">
+        <v>42</v>
+      </c>
+      <c r="P302" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q302" t="s">
+        <v>41</v>
+      </c>
+      <c r="R302" t="s">
+        <v>55</v>
+      </c>
+      <c r="S302" t="s">
+        <v>41</v>
+      </c>
+      <c r="T302" t="s">
+        <v>55</v>
+      </c>
+      <c r="U302" t="s">
+        <v>55</v>
+      </c>
+      <c r="V302" t="s">
+        <v>55</v>
+      </c>
+      <c r="W302" t="s">
+        <v>55</v>
+      </c>
+      <c r="X302" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y302" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z302" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA302" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB302" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC302" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD302" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE302" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF302" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG302" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH302" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI302" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ302" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK302" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL302" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM302" t="s">
+        <v>719</v>
+      </c>
+      <c r="AN302" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO302" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="303" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>50</v>
+      </c>
+      <c r="C303" t="s">
+        <v>41</v>
+      </c>
+      <c r="D303" t="s">
+        <v>421</v>
+      </c>
+      <c r="E303" t="s">
+        <v>702</v>
+      </c>
+      <c r="F303" t="s">
+        <v>53</v>
+      </c>
+      <c r="G303" t="s">
+        <v>713</v>
+      </c>
+      <c r="H303" t="s">
+        <v>41</v>
+      </c>
+      <c r="I303" t="s">
+        <v>41</v>
+      </c>
+      <c r="J303" t="s">
+        <v>41</v>
+      </c>
+      <c r="K303" t="s">
+        <v>41</v>
+      </c>
+      <c r="L303" t="s">
+        <v>41</v>
+      </c>
+      <c r="M303" t="s">
+        <v>48</v>
+      </c>
+      <c r="N303" t="s">
+        <v>42</v>
+      </c>
+      <c r="O303" t="s">
+        <v>42</v>
+      </c>
+      <c r="P303" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q303" t="s">
+        <v>42</v>
+      </c>
+      <c r="R303" t="s">
+        <v>55</v>
+      </c>
+      <c r="S303" t="s">
+        <v>41</v>
+      </c>
+      <c r="T303" t="s">
+        <v>55</v>
+      </c>
+      <c r="U303" t="s">
+        <v>55</v>
+      </c>
+      <c r="V303" t="s">
+        <v>55</v>
+      </c>
+      <c r="W303" t="s">
+        <v>55</v>
+      </c>
+      <c r="X303" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y303" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z303" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA303" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB303" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC303" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD303" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE303" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF303" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG303" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH303" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI303" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ303" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK303" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL303" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM303" t="s">
+        <v>721</v>
+      </c>
+      <c r="AN303" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO303" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="304" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>50</v>
+      </c>
+      <c r="C304" t="s">
+        <v>60</v>
+      </c>
+      <c r="D304" t="s">
+        <v>421</v>
+      </c>
+      <c r="E304" t="s">
+        <v>702</v>
+      </c>
+      <c r="F304" t="s">
+        <v>53</v>
+      </c>
+      <c r="G304" t="s">
+        <v>713</v>
+      </c>
+      <c r="H304" t="s">
+        <v>41</v>
+      </c>
+      <c r="I304" t="s">
+        <v>41</v>
+      </c>
+      <c r="J304" t="s">
+        <v>41</v>
+      </c>
+      <c r="K304" t="s">
+        <v>41</v>
+      </c>
+      <c r="L304" t="s">
+        <v>41</v>
+      </c>
+      <c r="M304" t="s">
+        <v>72</v>
+      </c>
+      <c r="N304" t="s">
+        <v>42</v>
+      </c>
+      <c r="O304" t="s">
+        <v>42</v>
+      </c>
+      <c r="P304" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q304" t="s">
+        <v>42</v>
+      </c>
+      <c r="R304" t="s">
+        <v>55</v>
+      </c>
+      <c r="S304" t="s">
+        <v>41</v>
+      </c>
+      <c r="T304" t="s">
+        <v>55</v>
+      </c>
+      <c r="U304" t="s">
+        <v>55</v>
+      </c>
+      <c r="V304" t="s">
+        <v>55</v>
+      </c>
+      <c r="W304" t="s">
+        <v>55</v>
+      </c>
+      <c r="X304" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y304" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z304" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA304" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB304" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC304" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD304" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE304" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF304" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG304" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH304" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI304" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ304" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK304" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL304" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM304" t="s">
+        <v>723</v>
+      </c>
+      <c r="AN304" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO304" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="305" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>50</v>
+      </c>
+      <c r="C305" t="s">
+        <v>60</v>
+      </c>
+      <c r="D305" t="s">
+        <v>421</v>
+      </c>
+      <c r="E305" t="s">
+        <v>702</v>
+      </c>
+      <c r="F305" t="s">
+        <v>53</v>
+      </c>
+      <c r="G305" t="s">
+        <v>713</v>
+      </c>
+      <c r="H305" t="s">
+        <v>41</v>
+      </c>
+      <c r="I305" t="s">
+        <v>41</v>
+      </c>
+      <c r="J305" t="s">
+        <v>41</v>
+      </c>
+      <c r="K305" t="s">
+        <v>41</v>
+      </c>
+      <c r="L305" t="s">
+        <v>41</v>
+      </c>
+      <c r="M305" t="s">
+        <v>72</v>
+      </c>
+      <c r="N305" t="s">
+        <v>42</v>
+      </c>
+      <c r="O305" t="s">
+        <v>42</v>
+      </c>
+      <c r="P305" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q305" t="s">
+        <v>42</v>
+      </c>
+      <c r="R305" t="s">
+        <v>55</v>
+      </c>
+      <c r="S305" t="s">
+        <v>45</v>
+      </c>
+      <c r="T305" t="s">
+        <v>55</v>
+      </c>
+      <c r="U305" t="s">
+        <v>55</v>
+      </c>
+      <c r="V305" t="s">
+        <v>55</v>
+      </c>
+      <c r="W305" t="s">
+        <v>55</v>
+      </c>
+      <c r="X305" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y305" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z305" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA305" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB305" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC305" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD305" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE305" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF305" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG305" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH305" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI305" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ305" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK305" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL305" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM305" t="s">
+        <v>725</v>
+      </c>
+      <c r="AN305" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO305" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="306" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>50</v>
+      </c>
+      <c r="C306" t="s">
+        <v>60</v>
+      </c>
+      <c r="D306" t="s">
+        <v>421</v>
+      </c>
+      <c r="E306" t="s">
+        <v>702</v>
+      </c>
+      <c r="F306" t="s">
+        <v>53</v>
+      </c>
+      <c r="G306" t="s">
+        <v>713</v>
+      </c>
+      <c r="H306" t="s">
+        <v>41</v>
+      </c>
+      <c r="I306" t="s">
+        <v>41</v>
+      </c>
+      <c r="J306" t="s">
+        <v>41</v>
+      </c>
+      <c r="K306" t="s">
+        <v>41</v>
+      </c>
+      <c r="L306" t="s">
+        <v>41</v>
+      </c>
+      <c r="M306" t="s">
+        <v>48</v>
+      </c>
+      <c r="N306" t="s">
+        <v>42</v>
+      </c>
+      <c r="O306" t="s">
+        <v>42</v>
+      </c>
+      <c r="P306" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q306" t="s">
+        <v>41</v>
+      </c>
+      <c r="R306" t="s">
+        <v>55</v>
+      </c>
+      <c r="S306" t="s">
+        <v>41</v>
+      </c>
+      <c r="T306" t="s">
+        <v>55</v>
+      </c>
+      <c r="U306" t="s">
+        <v>55</v>
+      </c>
+      <c r="V306" t="s">
+        <v>55</v>
+      </c>
+      <c r="W306" t="s">
+        <v>55</v>
+      </c>
+      <c r="X306" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y306" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z306" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA306" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB306" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC306" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD306" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE306" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF306" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG306" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH306" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI306" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ306" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK306" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL306" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM306" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN306" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO306" t="s">
+        <v>727</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/toutReponse.xlsx
+++ b/toutReponse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Etape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8C5429-EC45-4545-9732-445912DB7AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52384D4D-7337-4162-9F4C-6F0317DBEF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12106" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12746" uniqueCount="763">
   <si>
     <t>id</t>
   </si>
@@ -2204,6 +2204,111 @@
   </si>
   <si>
     <t>2022-04-05 13:53:43</t>
+  </si>
+  <si>
+    <t>Reseau de soutien et de recherche d'emploi</t>
+  </si>
+  <si>
+    <t>2022-01-18</t>
+  </si>
+  <si>
+    <t>2022-04-08</t>
+  </si>
+  <si>
+    <t>2022-04-06 08:43:03</t>
+  </si>
+  <si>
+    <t>Bonne communication avec la référente primo pro</t>
+  </si>
+  <si>
+    <t>2022-04-06 14:01:57</t>
+  </si>
+  <si>
+    <t>2021-10-19</t>
+  </si>
+  <si>
+    <t>Echange très facile avec l'interlocutrice Rdv pour faire le point sur la situation de la personne orientée très fluide</t>
+  </si>
+  <si>
+    <t>2022-04-06 14:04:16</t>
+  </si>
+  <si>
+    <t>Je ne remercierais jamais assez l'Etape surtout Aline Lindner en primo sociale et Cécile Gabin en primo pro. Je rentre en chaniter d'insertion, il y a 1 an de ça je ne l'aurai jamais cru. Un grand merci à toutes et tous surtout Aline et Cécile. Je ne vous oublierais jamais. V.Q.</t>
+  </si>
+  <si>
+    <t>2022-04-06 14:07:30</t>
+  </si>
+  <si>
+    <t>2022-04-06 14:08:26</t>
+  </si>
+  <si>
+    <t>Bon suivi tout au long du programme. Satisfait du travail mis en place avec l'Etape J'y ai appris beaucoup grâce à l'etape durant le parcours</t>
+  </si>
+  <si>
+    <t>2022-04-06 14:10:28</t>
+  </si>
+  <si>
+    <t>Très satisfait de la primo pro et la conseillère a été gentille et efficace</t>
+  </si>
+  <si>
+    <t>2022-04-06 14:12:12</t>
+  </si>
+  <si>
+    <t>Bien suivi et bien aidé</t>
+  </si>
+  <si>
+    <t>des journées complètes pour plus de travail</t>
+  </si>
+  <si>
+    <t>2022-04-06 14:13:45</t>
+  </si>
+  <si>
+    <t>2022-03-01</t>
+  </si>
+  <si>
+    <t>Très bonne prestation à l'étape.  Contacts et échanges très facilités Parcours d'insertion des personnes bien travaillés</t>
+  </si>
+  <si>
+    <t>2022-04-06 14:17:14</t>
+  </si>
+  <si>
+    <t>Le groupe s'est investi et a trouvé une bonne cohésion entre ses membres. Les ateliers ont permis à chacun de s'ouvrir et de se relancer dans un parcours d'insertion. l'objectif est atteint et les perspectives de poursuite vers d'autres actions sont interessantes</t>
+  </si>
+  <si>
+    <t>atelier budget avec finances et pédagogie (revoir le montant du budget dans l'exercice car trop élevé par rapport au situation des gens)</t>
+  </si>
+  <si>
+    <t>2022-04-06 14:21:43</t>
+  </si>
+  <si>
+    <t>Très satisfaite de la qualité des échanges et du dynamisme de la prestation</t>
+  </si>
+  <si>
+    <t>une indemnisation plus élevée des frais de carburant</t>
+  </si>
+  <si>
+    <t>2022-04-06 14:24:35</t>
+  </si>
+  <si>
+    <t>2022-04-06 14:25:58</t>
+  </si>
+  <si>
+    <t>2022-04-06 14:26:56</t>
+  </si>
+  <si>
+    <t>augmentation de l'indemnisation du carburant - pas assez 0.15€</t>
+  </si>
+  <si>
+    <t>2022-04-06 14:28:12</t>
+  </si>
+  <si>
+    <t>+ de ménage + remboursement carburant pas assez élévé</t>
+  </si>
+  <si>
+    <t>2022-04-06 14:30:11</t>
+  </si>
+  <si>
+    <t>2022-04-06 14:30:54</t>
   </si>
 </sst>
 </file>
@@ -3117,10 +3222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO306"/>
+  <dimension ref="A1:AO322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="C301" sqref="C301"/>
+    <sheetView tabSelected="1" topLeftCell="AH303" workbookViewId="0">
+      <selection activeCell="AM321" sqref="AM321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41120,6 +41225,2006 @@
         <v>727</v>
       </c>
     </row>
+    <row r="307" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>728</v>
+      </c>
+      <c r="C307" t="s">
+        <v>41</v>
+      </c>
+      <c r="D307" t="s">
+        <v>729</v>
+      </c>
+      <c r="E307" t="s">
+        <v>730</v>
+      </c>
+      <c r="F307" t="s">
+        <v>268</v>
+      </c>
+      <c r="G307" t="s">
+        <v>268</v>
+      </c>
+      <c r="H307" t="s">
+        <v>41</v>
+      </c>
+      <c r="I307" t="s">
+        <v>41</v>
+      </c>
+      <c r="J307" t="s">
+        <v>41</v>
+      </c>
+      <c r="K307" t="s">
+        <v>41</v>
+      </c>
+      <c r="L307" t="s">
+        <v>41</v>
+      </c>
+      <c r="M307" t="s">
+        <v>41</v>
+      </c>
+      <c r="N307" t="s">
+        <v>41</v>
+      </c>
+      <c r="O307" t="s">
+        <v>41</v>
+      </c>
+      <c r="P307" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q307" t="s">
+        <v>41</v>
+      </c>
+      <c r="R307" t="s">
+        <v>41</v>
+      </c>
+      <c r="S307" t="s">
+        <v>41</v>
+      </c>
+      <c r="T307" t="s">
+        <v>41</v>
+      </c>
+      <c r="U307" t="s">
+        <v>41</v>
+      </c>
+      <c r="V307" t="s">
+        <v>41</v>
+      </c>
+      <c r="W307" t="s">
+        <v>41</v>
+      </c>
+      <c r="X307" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y307" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z307" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA307" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB307" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC307" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD307" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE307" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF307" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG307" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH307" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI307" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ307" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK307" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL307" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM307" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN307" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO307" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="308" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
+        <v>43</v>
+      </c>
+      <c r="C308" t="s">
+        <v>87</v>
+      </c>
+      <c r="D308" t="s">
+        <v>335</v>
+      </c>
+      <c r="E308" t="s">
+        <v>671</v>
+      </c>
+      <c r="F308" t="s">
+        <v>49</v>
+      </c>
+      <c r="G308" t="s">
+        <v>49</v>
+      </c>
+      <c r="H308" t="s">
+        <v>41</v>
+      </c>
+      <c r="I308" t="s">
+        <v>41</v>
+      </c>
+      <c r="J308" t="s">
+        <v>41</v>
+      </c>
+      <c r="K308" t="s">
+        <v>41</v>
+      </c>
+      <c r="L308" t="s">
+        <v>41</v>
+      </c>
+      <c r="M308" t="s">
+        <v>41</v>
+      </c>
+      <c r="N308" t="s">
+        <v>41</v>
+      </c>
+      <c r="O308" t="s">
+        <v>41</v>
+      </c>
+      <c r="P308" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q308" t="s">
+        <v>41</v>
+      </c>
+      <c r="R308" t="s">
+        <v>41</v>
+      </c>
+      <c r="S308" t="s">
+        <v>41</v>
+      </c>
+      <c r="T308" t="s">
+        <v>41</v>
+      </c>
+      <c r="U308" t="s">
+        <v>41</v>
+      </c>
+      <c r="V308" t="s">
+        <v>41</v>
+      </c>
+      <c r="W308" t="s">
+        <v>41</v>
+      </c>
+      <c r="X308" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y308" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z308" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA308" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB308" t="s">
+        <v>509</v>
+      </c>
+      <c r="AC308" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD308" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE308" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF308" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG308" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH308" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI308" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ308" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK308" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL308" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM308" t="s">
+        <v>732</v>
+      </c>
+      <c r="AN308" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO308" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="309" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>43</v>
+      </c>
+      <c r="C309" t="s">
+        <v>41</v>
+      </c>
+      <c r="D309" t="s">
+        <v>734</v>
+      </c>
+      <c r="E309" t="s">
+        <v>671</v>
+      </c>
+      <c r="F309" t="s">
+        <v>49</v>
+      </c>
+      <c r="G309" t="s">
+        <v>49</v>
+      </c>
+      <c r="H309" t="s">
+        <v>41</v>
+      </c>
+      <c r="I309" t="s">
+        <v>41</v>
+      </c>
+      <c r="J309" t="s">
+        <v>41</v>
+      </c>
+      <c r="K309" t="s">
+        <v>41</v>
+      </c>
+      <c r="L309" t="s">
+        <v>41</v>
+      </c>
+      <c r="M309" t="s">
+        <v>41</v>
+      </c>
+      <c r="N309" t="s">
+        <v>41</v>
+      </c>
+      <c r="O309" t="s">
+        <v>41</v>
+      </c>
+      <c r="P309" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q309" t="s">
+        <v>41</v>
+      </c>
+      <c r="R309" t="s">
+        <v>41</v>
+      </c>
+      <c r="S309" t="s">
+        <v>41</v>
+      </c>
+      <c r="T309" t="s">
+        <v>41</v>
+      </c>
+      <c r="U309" t="s">
+        <v>41</v>
+      </c>
+      <c r="V309" t="s">
+        <v>41</v>
+      </c>
+      <c r="W309" t="s">
+        <v>41</v>
+      </c>
+      <c r="X309" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y309" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z309" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA309" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB309" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC309" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD309" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE309" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF309" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG309" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH309" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI309" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ309" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK309" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL309" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM309" t="s">
+        <v>735</v>
+      </c>
+      <c r="AN309" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO309" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="310" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>43</v>
+      </c>
+      <c r="C310" t="s">
+        <v>41</v>
+      </c>
+      <c r="D310" t="s">
+        <v>734</v>
+      </c>
+      <c r="E310" t="s">
+        <v>671</v>
+      </c>
+      <c r="F310" t="s">
+        <v>56</v>
+      </c>
+      <c r="G310" t="s">
+        <v>56</v>
+      </c>
+      <c r="H310" t="s">
+        <v>41</v>
+      </c>
+      <c r="I310" t="s">
+        <v>41</v>
+      </c>
+      <c r="J310" t="s">
+        <v>41</v>
+      </c>
+      <c r="K310" t="s">
+        <v>41</v>
+      </c>
+      <c r="L310" t="s">
+        <v>41</v>
+      </c>
+      <c r="M310" t="s">
+        <v>41</v>
+      </c>
+      <c r="N310" t="s">
+        <v>41</v>
+      </c>
+      <c r="O310" t="s">
+        <v>41</v>
+      </c>
+      <c r="P310" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q310" t="s">
+        <v>41</v>
+      </c>
+      <c r="R310" t="s">
+        <v>41</v>
+      </c>
+      <c r="S310" t="s">
+        <v>41</v>
+      </c>
+      <c r="T310" t="s">
+        <v>41</v>
+      </c>
+      <c r="U310" t="s">
+        <v>41</v>
+      </c>
+      <c r="V310" t="s">
+        <v>41</v>
+      </c>
+      <c r="W310" t="s">
+        <v>41</v>
+      </c>
+      <c r="X310" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y310" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z310" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA310" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB310" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC310" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD310" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE310" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF310" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG310" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH310" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI310" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ310" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK310" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL310" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM310" t="s">
+        <v>737</v>
+      </c>
+      <c r="AN310" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO310" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="311" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
+        <v>43</v>
+      </c>
+      <c r="C311" t="s">
+        <v>41</v>
+      </c>
+      <c r="D311" t="s">
+        <v>335</v>
+      </c>
+      <c r="E311" t="s">
+        <v>671</v>
+      </c>
+      <c r="F311" t="s">
+        <v>56</v>
+      </c>
+      <c r="G311" t="s">
+        <v>56</v>
+      </c>
+      <c r="H311" t="s">
+        <v>41</v>
+      </c>
+      <c r="I311" t="s">
+        <v>41</v>
+      </c>
+      <c r="J311" t="s">
+        <v>41</v>
+      </c>
+      <c r="K311" t="s">
+        <v>41</v>
+      </c>
+      <c r="L311" t="s">
+        <v>41</v>
+      </c>
+      <c r="M311" t="s">
+        <v>41</v>
+      </c>
+      <c r="N311" t="s">
+        <v>41</v>
+      </c>
+      <c r="O311" t="s">
+        <v>41</v>
+      </c>
+      <c r="P311" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q311" t="s">
+        <v>41</v>
+      </c>
+      <c r="R311" t="s">
+        <v>41</v>
+      </c>
+      <c r="S311" t="s">
+        <v>41</v>
+      </c>
+      <c r="T311" t="s">
+        <v>41</v>
+      </c>
+      <c r="U311" t="s">
+        <v>41</v>
+      </c>
+      <c r="V311" t="s">
+        <v>41</v>
+      </c>
+      <c r="W311" t="s">
+        <v>41</v>
+      </c>
+      <c r="X311" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y311" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z311" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA311" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB311" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC311" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD311" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE311" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF311" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG311" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH311" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI311" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ311" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK311" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL311" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM311" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN311" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO311" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="312" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312" t="s">
+        <v>43</v>
+      </c>
+      <c r="C312" t="s">
+        <v>87</v>
+      </c>
+      <c r="D312" t="s">
+        <v>335</v>
+      </c>
+      <c r="E312" t="s">
+        <v>671</v>
+      </c>
+      <c r="F312" t="s">
+        <v>56</v>
+      </c>
+      <c r="G312" t="s">
+        <v>56</v>
+      </c>
+      <c r="H312" t="s">
+        <v>41</v>
+      </c>
+      <c r="I312" t="s">
+        <v>41</v>
+      </c>
+      <c r="J312" t="s">
+        <v>41</v>
+      </c>
+      <c r="K312" t="s">
+        <v>41</v>
+      </c>
+      <c r="L312" t="s">
+        <v>41</v>
+      </c>
+      <c r="M312" t="s">
+        <v>41</v>
+      </c>
+      <c r="N312" t="s">
+        <v>41</v>
+      </c>
+      <c r="O312" t="s">
+        <v>41</v>
+      </c>
+      <c r="P312" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q312" t="s">
+        <v>41</v>
+      </c>
+      <c r="R312" t="s">
+        <v>41</v>
+      </c>
+      <c r="S312" t="s">
+        <v>41</v>
+      </c>
+      <c r="T312" t="s">
+        <v>41</v>
+      </c>
+      <c r="U312" t="s">
+        <v>41</v>
+      </c>
+      <c r="V312" t="s">
+        <v>41</v>
+      </c>
+      <c r="W312" t="s">
+        <v>41</v>
+      </c>
+      <c r="X312" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y312" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z312" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA312" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB312" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC312" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD312" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE312" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF312" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG312" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH312" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI312" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ312" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK312" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL312" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM312" t="s">
+        <v>740</v>
+      </c>
+      <c r="AN312" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO312" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="313" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313" t="s">
+        <v>43</v>
+      </c>
+      <c r="C313" t="s">
+        <v>87</v>
+      </c>
+      <c r="D313" t="s">
+        <v>335</v>
+      </c>
+      <c r="E313" t="s">
+        <v>671</v>
+      </c>
+      <c r="F313" t="s">
+        <v>56</v>
+      </c>
+      <c r="G313" t="s">
+        <v>56</v>
+      </c>
+      <c r="H313" t="s">
+        <v>41</v>
+      </c>
+      <c r="I313" t="s">
+        <v>41</v>
+      </c>
+      <c r="J313" t="s">
+        <v>41</v>
+      </c>
+      <c r="K313" t="s">
+        <v>41</v>
+      </c>
+      <c r="L313" t="s">
+        <v>41</v>
+      </c>
+      <c r="M313" t="s">
+        <v>41</v>
+      </c>
+      <c r="N313" t="s">
+        <v>41</v>
+      </c>
+      <c r="O313" t="s">
+        <v>41</v>
+      </c>
+      <c r="P313" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q313" t="s">
+        <v>41</v>
+      </c>
+      <c r="R313" t="s">
+        <v>41</v>
+      </c>
+      <c r="S313" t="s">
+        <v>41</v>
+      </c>
+      <c r="T313" t="s">
+        <v>41</v>
+      </c>
+      <c r="U313" t="s">
+        <v>41</v>
+      </c>
+      <c r="V313" t="s">
+        <v>41</v>
+      </c>
+      <c r="W313" t="s">
+        <v>41</v>
+      </c>
+      <c r="X313" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y313" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z313" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA313" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB313" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC313" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD313" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE313" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF313" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG313" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH313" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI313" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ313" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK313" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL313" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM313" t="s">
+        <v>742</v>
+      </c>
+      <c r="AN313" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO313" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="314" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314" t="s">
+        <v>43</v>
+      </c>
+      <c r="C314" t="s">
+        <v>87</v>
+      </c>
+      <c r="D314" t="s">
+        <v>734</v>
+      </c>
+      <c r="E314" t="s">
+        <v>671</v>
+      </c>
+      <c r="F314" t="s">
+        <v>56</v>
+      </c>
+      <c r="G314" t="s">
+        <v>56</v>
+      </c>
+      <c r="H314" t="s">
+        <v>41</v>
+      </c>
+      <c r="I314" t="s">
+        <v>41</v>
+      </c>
+      <c r="J314" t="s">
+        <v>41</v>
+      </c>
+      <c r="K314" t="s">
+        <v>41</v>
+      </c>
+      <c r="L314" t="s">
+        <v>41</v>
+      </c>
+      <c r="M314" t="s">
+        <v>41</v>
+      </c>
+      <c r="N314" t="s">
+        <v>41</v>
+      </c>
+      <c r="O314" t="s">
+        <v>41</v>
+      </c>
+      <c r="P314" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q314" t="s">
+        <v>41</v>
+      </c>
+      <c r="R314" t="s">
+        <v>41</v>
+      </c>
+      <c r="S314" t="s">
+        <v>41</v>
+      </c>
+      <c r="T314" t="s">
+        <v>41</v>
+      </c>
+      <c r="U314" t="s">
+        <v>41</v>
+      </c>
+      <c r="V314" t="s">
+        <v>41</v>
+      </c>
+      <c r="W314" t="s">
+        <v>41</v>
+      </c>
+      <c r="X314" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y314" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z314" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA314" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB314" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC314" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD314" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE314" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF314" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG314" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH314" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI314" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ314" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK314" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL314" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM314" t="s">
+        <v>744</v>
+      </c>
+      <c r="AN314" t="s">
+        <v>745</v>
+      </c>
+      <c r="AO314" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="315" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315" t="s">
+        <v>47</v>
+      </c>
+      <c r="C315" t="s">
+        <v>44</v>
+      </c>
+      <c r="D315" t="s">
+        <v>421</v>
+      </c>
+      <c r="E315" t="s">
+        <v>747</v>
+      </c>
+      <c r="F315" t="s">
+        <v>49</v>
+      </c>
+      <c r="G315" t="s">
+        <v>49</v>
+      </c>
+      <c r="H315" t="s">
+        <v>41</v>
+      </c>
+      <c r="I315" t="s">
+        <v>41</v>
+      </c>
+      <c r="J315" t="s">
+        <v>41</v>
+      </c>
+      <c r="K315" t="s">
+        <v>41</v>
+      </c>
+      <c r="L315" t="s">
+        <v>41</v>
+      </c>
+      <c r="M315" t="s">
+        <v>41</v>
+      </c>
+      <c r="N315" t="s">
+        <v>41</v>
+      </c>
+      <c r="O315" t="s">
+        <v>41</v>
+      </c>
+      <c r="P315" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q315" t="s">
+        <v>41</v>
+      </c>
+      <c r="R315" t="s">
+        <v>41</v>
+      </c>
+      <c r="S315" t="s">
+        <v>41</v>
+      </c>
+      <c r="T315" t="s">
+        <v>41</v>
+      </c>
+      <c r="U315" t="s">
+        <v>41</v>
+      </c>
+      <c r="V315" t="s">
+        <v>41</v>
+      </c>
+      <c r="W315" t="s">
+        <v>41</v>
+      </c>
+      <c r="X315" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y315" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z315" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA315" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB315" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC315" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD315" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE315" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF315" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG315" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH315" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI315" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ315" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK315" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL315" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM315" t="s">
+        <v>748</v>
+      </c>
+      <c r="AN315" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO315" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="316" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
+        <v>47</v>
+      </c>
+      <c r="C316" t="s">
+        <v>44</v>
+      </c>
+      <c r="D316" t="s">
+        <v>421</v>
+      </c>
+      <c r="E316" t="s">
+        <v>747</v>
+      </c>
+      <c r="F316" t="s">
+        <v>268</v>
+      </c>
+      <c r="G316" t="s">
+        <v>268</v>
+      </c>
+      <c r="H316" t="s">
+        <v>45</v>
+      </c>
+      <c r="I316" t="s">
+        <v>45</v>
+      </c>
+      <c r="J316" t="s">
+        <v>45</v>
+      </c>
+      <c r="K316" t="s">
+        <v>45</v>
+      </c>
+      <c r="L316" t="s">
+        <v>45</v>
+      </c>
+      <c r="M316" t="s">
+        <v>41</v>
+      </c>
+      <c r="N316" t="s">
+        <v>41</v>
+      </c>
+      <c r="O316" t="s">
+        <v>41</v>
+      </c>
+      <c r="P316" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q316" t="s">
+        <v>41</v>
+      </c>
+      <c r="R316" t="s">
+        <v>41</v>
+      </c>
+      <c r="S316" t="s">
+        <v>41</v>
+      </c>
+      <c r="T316" t="s">
+        <v>41</v>
+      </c>
+      <c r="U316" t="s">
+        <v>41</v>
+      </c>
+      <c r="V316" t="s">
+        <v>41</v>
+      </c>
+      <c r="W316" t="s">
+        <v>41</v>
+      </c>
+      <c r="X316" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y316" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z316" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA316" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB316" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC316" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD316" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE316" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF316" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG316" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH316" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI316" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ316" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK316" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL316" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM316" t="s">
+        <v>750</v>
+      </c>
+      <c r="AN316" t="s">
+        <v>751</v>
+      </c>
+      <c r="AO316" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="317" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317" t="s">
+        <v>47</v>
+      </c>
+      <c r="C317" t="s">
+        <v>44</v>
+      </c>
+      <c r="D317" t="s">
+        <v>421</v>
+      </c>
+      <c r="E317" t="s">
+        <v>747</v>
+      </c>
+      <c r="F317" t="s">
+        <v>56</v>
+      </c>
+      <c r="G317" t="s">
+        <v>56</v>
+      </c>
+      <c r="H317" t="s">
+        <v>41</v>
+      </c>
+      <c r="I317" t="s">
+        <v>41</v>
+      </c>
+      <c r="J317" t="s">
+        <v>41</v>
+      </c>
+      <c r="K317" t="s">
+        <v>41</v>
+      </c>
+      <c r="L317" t="s">
+        <v>41</v>
+      </c>
+      <c r="M317" t="s">
+        <v>41</v>
+      </c>
+      <c r="N317" t="s">
+        <v>41</v>
+      </c>
+      <c r="O317" t="s">
+        <v>41</v>
+      </c>
+      <c r="P317" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q317" t="s">
+        <v>41</v>
+      </c>
+      <c r="R317" t="s">
+        <v>41</v>
+      </c>
+      <c r="S317" t="s">
+        <v>41</v>
+      </c>
+      <c r="T317" t="s">
+        <v>41</v>
+      </c>
+      <c r="U317" t="s">
+        <v>41</v>
+      </c>
+      <c r="V317" t="s">
+        <v>41</v>
+      </c>
+      <c r="W317" t="s">
+        <v>41</v>
+      </c>
+      <c r="X317" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y317" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z317" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA317" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB317" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC317" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD317" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE317" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF317" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG317" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH317" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI317" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ317" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK317" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL317" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM317" t="s">
+        <v>753</v>
+      </c>
+      <c r="AN317" t="s">
+        <v>754</v>
+      </c>
+      <c r="AO317" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="318" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318" t="s">
+        <v>47</v>
+      </c>
+      <c r="C318" t="s">
+        <v>44</v>
+      </c>
+      <c r="D318" t="s">
+        <v>421</v>
+      </c>
+      <c r="E318" t="s">
+        <v>747</v>
+      </c>
+      <c r="F318" t="s">
+        <v>56</v>
+      </c>
+      <c r="G318" t="s">
+        <v>56</v>
+      </c>
+      <c r="H318" t="s">
+        <v>41</v>
+      </c>
+      <c r="I318" t="s">
+        <v>41</v>
+      </c>
+      <c r="J318" t="s">
+        <v>41</v>
+      </c>
+      <c r="K318" t="s">
+        <v>41</v>
+      </c>
+      <c r="L318" t="s">
+        <v>41</v>
+      </c>
+      <c r="M318" t="s">
+        <v>41</v>
+      </c>
+      <c r="N318" t="s">
+        <v>41</v>
+      </c>
+      <c r="O318" t="s">
+        <v>41</v>
+      </c>
+      <c r="P318" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q318" t="s">
+        <v>41</v>
+      </c>
+      <c r="R318" t="s">
+        <v>41</v>
+      </c>
+      <c r="S318" t="s">
+        <v>41</v>
+      </c>
+      <c r="T318" t="s">
+        <v>41</v>
+      </c>
+      <c r="U318" t="s">
+        <v>41</v>
+      </c>
+      <c r="V318" t="s">
+        <v>41</v>
+      </c>
+      <c r="W318" t="s">
+        <v>41</v>
+      </c>
+      <c r="X318" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y318" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z318" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA318" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB318" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC318" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD318" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE318" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF318" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG318" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH318" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI318" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ318" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK318" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL318" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM318" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN318" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO318" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="319" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319" t="s">
+        <v>47</v>
+      </c>
+      <c r="C319" t="s">
+        <v>44</v>
+      </c>
+      <c r="D319" t="s">
+        <v>421</v>
+      </c>
+      <c r="E319" t="s">
+        <v>747</v>
+      </c>
+      <c r="F319" t="s">
+        <v>56</v>
+      </c>
+      <c r="G319" t="s">
+        <v>56</v>
+      </c>
+      <c r="H319" t="s">
+        <v>41</v>
+      </c>
+      <c r="I319" t="s">
+        <v>41</v>
+      </c>
+      <c r="J319" t="s">
+        <v>41</v>
+      </c>
+      <c r="K319" t="s">
+        <v>41</v>
+      </c>
+      <c r="L319" t="s">
+        <v>41</v>
+      </c>
+      <c r="M319" t="s">
+        <v>41</v>
+      </c>
+      <c r="N319" t="s">
+        <v>41</v>
+      </c>
+      <c r="O319" t="s">
+        <v>41</v>
+      </c>
+      <c r="P319" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q319" t="s">
+        <v>41</v>
+      </c>
+      <c r="R319" t="s">
+        <v>41</v>
+      </c>
+      <c r="S319" t="s">
+        <v>41</v>
+      </c>
+      <c r="T319" t="s">
+        <v>41</v>
+      </c>
+      <c r="U319" t="s">
+        <v>41</v>
+      </c>
+      <c r="V319" t="s">
+        <v>41</v>
+      </c>
+      <c r="W319" t="s">
+        <v>41</v>
+      </c>
+      <c r="X319" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y319" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z319" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA319" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB319" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC319" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD319" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE319" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF319" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG319" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH319" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI319" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ319" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK319" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL319" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM319" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN319" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO319" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="320" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320" t="s">
+        <v>47</v>
+      </c>
+      <c r="C320" t="s">
+        <v>44</v>
+      </c>
+      <c r="D320" t="s">
+        <v>421</v>
+      </c>
+      <c r="E320" t="s">
+        <v>747</v>
+      </c>
+      <c r="F320" t="s">
+        <v>56</v>
+      </c>
+      <c r="G320" t="s">
+        <v>56</v>
+      </c>
+      <c r="H320" t="s">
+        <v>41</v>
+      </c>
+      <c r="I320" t="s">
+        <v>41</v>
+      </c>
+      <c r="J320" t="s">
+        <v>41</v>
+      </c>
+      <c r="K320" t="s">
+        <v>41</v>
+      </c>
+      <c r="L320" t="s">
+        <v>41</v>
+      </c>
+      <c r="M320" t="s">
+        <v>41</v>
+      </c>
+      <c r="N320" t="s">
+        <v>41</v>
+      </c>
+      <c r="O320" t="s">
+        <v>41</v>
+      </c>
+      <c r="P320" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q320" t="s">
+        <v>41</v>
+      </c>
+      <c r="R320" t="s">
+        <v>41</v>
+      </c>
+      <c r="S320" t="s">
+        <v>41</v>
+      </c>
+      <c r="T320" t="s">
+        <v>41</v>
+      </c>
+      <c r="U320" t="s">
+        <v>41</v>
+      </c>
+      <c r="V320" t="s">
+        <v>41</v>
+      </c>
+      <c r="W320" t="s">
+        <v>41</v>
+      </c>
+      <c r="X320" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y320" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z320" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA320" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB320" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC320" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD320" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE320" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF320" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG320" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH320" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI320" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ320" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK320" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL320" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM320" t="s">
+        <v>758</v>
+      </c>
+      <c r="AN320" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO320" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="321" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321" t="s">
+        <v>47</v>
+      </c>
+      <c r="C321" t="s">
+        <v>44</v>
+      </c>
+      <c r="D321" t="s">
+        <v>421</v>
+      </c>
+      <c r="E321" t="s">
+        <v>747</v>
+      </c>
+      <c r="F321" t="s">
+        <v>56</v>
+      </c>
+      <c r="G321" t="s">
+        <v>56</v>
+      </c>
+      <c r="H321" t="s">
+        <v>41</v>
+      </c>
+      <c r="I321" t="s">
+        <v>41</v>
+      </c>
+      <c r="J321" t="s">
+        <v>41</v>
+      </c>
+      <c r="K321" t="s">
+        <v>41</v>
+      </c>
+      <c r="L321" t="s">
+        <v>41</v>
+      </c>
+      <c r="M321" t="s">
+        <v>41</v>
+      </c>
+      <c r="N321" t="s">
+        <v>41</v>
+      </c>
+      <c r="O321" t="s">
+        <v>41</v>
+      </c>
+      <c r="P321" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q321" t="s">
+        <v>41</v>
+      </c>
+      <c r="R321" t="s">
+        <v>41</v>
+      </c>
+      <c r="S321" t="s">
+        <v>41</v>
+      </c>
+      <c r="T321" t="s">
+        <v>41</v>
+      </c>
+      <c r="U321" t="s">
+        <v>41</v>
+      </c>
+      <c r="V321" t="s">
+        <v>41</v>
+      </c>
+      <c r="W321" t="s">
+        <v>41</v>
+      </c>
+      <c r="X321" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y321" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z321" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA321" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB321" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC321" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD321" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE321" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF321" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG321" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH321" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI321" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ321" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK321" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL321" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM321" t="s">
+        <v>760</v>
+      </c>
+      <c r="AN321" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO321" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="322" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322" t="s">
+        <v>47</v>
+      </c>
+      <c r="C322" t="s">
+        <v>44</v>
+      </c>
+      <c r="D322" t="s">
+        <v>421</v>
+      </c>
+      <c r="E322" t="s">
+        <v>747</v>
+      </c>
+      <c r="F322" t="s">
+        <v>56</v>
+      </c>
+      <c r="G322" t="s">
+        <v>56</v>
+      </c>
+      <c r="H322" t="s">
+        <v>41</v>
+      </c>
+      <c r="I322" t="s">
+        <v>41</v>
+      </c>
+      <c r="J322" t="s">
+        <v>41</v>
+      </c>
+      <c r="K322" t="s">
+        <v>41</v>
+      </c>
+      <c r="L322" t="s">
+        <v>41</v>
+      </c>
+      <c r="M322" t="s">
+        <v>41</v>
+      </c>
+      <c r="N322" t="s">
+        <v>41</v>
+      </c>
+      <c r="O322" t="s">
+        <v>41</v>
+      </c>
+      <c r="P322" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q322" t="s">
+        <v>41</v>
+      </c>
+      <c r="R322" t="s">
+        <v>41</v>
+      </c>
+      <c r="S322" t="s">
+        <v>41</v>
+      </c>
+      <c r="T322" t="s">
+        <v>41</v>
+      </c>
+      <c r="U322" t="s">
+        <v>41</v>
+      </c>
+      <c r="V322" t="s">
+        <v>41</v>
+      </c>
+      <c r="W322" t="s">
+        <v>41</v>
+      </c>
+      <c r="X322" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y322" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z322" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA322" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB322" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC322" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD322" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE322" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF322" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG322" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH322" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI322" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ322" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK322" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL322" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM322" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN322" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO322" t="s">
+        <v>762</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/toutReponse.xlsx
+++ b/toutReponse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Etape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52384D4D-7337-4162-9F4C-6F0317DBEF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2155D1B9-71DA-45AC-9E41-01C33F7A7B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12746" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15626" uniqueCount="891">
   <si>
     <t>id</t>
   </si>
@@ -2309,6 +2309,390 @@
   </si>
   <si>
     <t>2022-04-06 14:30:54</t>
+  </si>
+  <si>
+    <t>Très bonne cohésion et animation de groupe grâce à l'intervenant.</t>
+  </si>
+  <si>
+    <t>2022-04-07 13:59:48</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>2021-12-27</t>
+  </si>
+  <si>
+    <t>2022-04-07 16:37:53</t>
+  </si>
+  <si>
+    <t>2022-04-07 16:38:59</t>
+  </si>
+  <si>
+    <t>Avoir des conventions de stage</t>
+  </si>
+  <si>
+    <t>2022-04-07 16:40:20</t>
+  </si>
+  <si>
+    <t>2021-12-10</t>
+  </si>
+  <si>
+    <t>2022-04-07 16:42:03</t>
+  </si>
+  <si>
+    <t>2022-04-07 16:43:06</t>
+  </si>
+  <si>
+    <t>2022-04-07 16:44:06</t>
+  </si>
+  <si>
+    <t>2022-02-14</t>
+  </si>
+  <si>
+    <t>2022-03-24</t>
+  </si>
+  <si>
+    <t>2022-04-07 16:45:18</t>
+  </si>
+  <si>
+    <t>2022-04-07 16:46:05</t>
+  </si>
+  <si>
+    <t>2022-04-07 16:47:01</t>
+  </si>
+  <si>
+    <t>Coutances</t>
+  </si>
+  <si>
+    <t>Importance du groupe, a permis de rompre l'isolement</t>
+  </si>
+  <si>
+    <t>2022-04-08 07:34:42</t>
+  </si>
+  <si>
+    <t>Les retours sont toujours positifs de la part des stagiaires avec de vrais projets de sortiers de dispositif. Implication du formateur très positive, très visible, et très apréciée.</t>
+  </si>
+  <si>
+    <t>2022-04-08 07:37:04</t>
+  </si>
+  <si>
+    <t>Intervenants et formateurs très à l'écoute, que du positif, expérience enrichissante</t>
+  </si>
+  <si>
+    <t>2022-04-08 07:38:33</t>
+  </si>
+  <si>
+    <t>2022-04-08 07:39:24</t>
+  </si>
+  <si>
+    <t>recommandaton pour les personnes en reconversion professionnelle</t>
+  </si>
+  <si>
+    <t>que cela dure un peu plus longtemps, ou des journées entières</t>
+  </si>
+  <si>
+    <t>2022-04-08 07:40:45</t>
+  </si>
+  <si>
+    <t>Dispositif intéressant, complet</t>
+  </si>
+  <si>
+    <t>cours de sophrologie en individuel, 3 semaines de stages</t>
+  </si>
+  <si>
+    <t>2022-04-08 07:41:39</t>
+  </si>
+  <si>
+    <t>Positif, il faut continuer cela aide vraiments les demandeurs d'emploi un peu perdu ou défaitiste</t>
+  </si>
+  <si>
+    <t>Atelier confiance en soi, nous aider un peu plus à réaliser les démarches parfois très stressante comme appeler les entreprises</t>
+  </si>
+  <si>
+    <t>2022-04-08 07:43:09</t>
+  </si>
+  <si>
+    <t>Aucun, formateur à l'écoute même en dehors des temps en groupe</t>
+  </si>
+  <si>
+    <t>2022-04-08 07:44:02</t>
+  </si>
+  <si>
+    <t>Ne rien changer, garder toujours à l'esprit votre envie de faire évoluer les personnes et leur donner un but c'est qui fait la force d'un groupe.</t>
+  </si>
+  <si>
+    <t>2022-04-08 07:45:07</t>
+  </si>
+  <si>
+    <t>2022-04-08 07:45:48</t>
+  </si>
+  <si>
+    <t>2022-04-08 07:46:23</t>
+  </si>
+  <si>
+    <t>2022-04-08 07:47:12</t>
+  </si>
+  <si>
+    <t>2022-04-08 07:48:04</t>
+  </si>
+  <si>
+    <t>Carentan</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>2022-04-08 12:21:41</t>
+  </si>
+  <si>
+    <t>interessant</t>
+  </si>
+  <si>
+    <t>2022-04-08 12:22:56</t>
+  </si>
+  <si>
+    <t>2022-04-08 12:24:32</t>
+  </si>
+  <si>
+    <t>2022-04-08 12:25:53</t>
+  </si>
+  <si>
+    <t>très intéressant</t>
+  </si>
+  <si>
+    <t>faire des formations</t>
+  </si>
+  <si>
+    <t>2022-04-08 12:27:39</t>
+  </si>
+  <si>
+    <t>2022-04-08 12:30:19</t>
+  </si>
+  <si>
+    <t>le groupe était satisfait de cette prestation et l'a exprimé au bilan final. L'organisation du recrutement le suivi de l'action malgré le changement d'intervenant s'est très bien passé avec des échanges réguliers sur les dossiers.</t>
+  </si>
+  <si>
+    <t>prévoir un bilan intermédiaire et faire intervenir un conseiller entreprise de pole emploi pour donner des informations sur le marché du travail.</t>
+  </si>
+  <si>
+    <t>2022-04-08 12:35:59</t>
+  </si>
+  <si>
+    <t>prévoir bilan intermédiaire</t>
+  </si>
+  <si>
+    <t>2022-04-08 12:38:20</t>
+  </si>
+  <si>
+    <t>2022-10-28</t>
+  </si>
+  <si>
+    <t>2022-04-14</t>
+  </si>
+  <si>
+    <t>Bien !</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:21:35</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:22:41</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:24:47</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:26:31</t>
+  </si>
+  <si>
+    <t>Les formateurs sont agréables et à l'écoute de nos besoins</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:28:11</t>
+  </si>
+  <si>
+    <t>2020-10-28</t>
+  </si>
+  <si>
+    <t>avoir deux rendez-vous collectif par semaine sur des jours différents</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:30:09</t>
+  </si>
+  <si>
+    <t>Cette primo sociale m'a permise de pouvoir faire d'autres connaissances en dehors de mon domicile, de connaitre différents outils et la référente de L'Etape est toujours à l'écoute. Donc vraiment satisfaite de cette action primo sociale</t>
+  </si>
+  <si>
+    <t>rien à dire</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:32:50</t>
+  </si>
+  <si>
+    <t>2021-06-17</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:36:11</t>
+  </si>
+  <si>
+    <t>J'ai eu du mal à m'ouvrir mais avec Aline c'était bien, c'est une bonne conseillère. Elle m'a aidé dans mon parcours. Merci à Aline pour ça.</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:36:21</t>
+  </si>
+  <si>
+    <t>12021-12-21</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:37:09</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:38:08</t>
+  </si>
+  <si>
+    <t>ateliers complets et diversifiés. Thèmes jugés intéressants par les bénéficiaires.</t>
+  </si>
+  <si>
+    <t>Développer le réseau à Domfront.</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:38:50</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:38:57</t>
+  </si>
+  <si>
+    <t>2021-06-22</t>
+  </si>
+  <si>
+    <t>Contact agréable avec la référente</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:40:23</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:41:03</t>
+  </si>
+  <si>
+    <t>Les objectifs de l'action sont atteints. Des suites de parcours sont engagées pour la plupart. La formatrice a réussi à motiver les bénéficiaires et les intéresser.</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:41:15</t>
+  </si>
+  <si>
+    <t>2022-01-03</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:42:25</t>
+  </si>
+  <si>
+    <t>Prestation qui redynamise les bénéficiaires. Prestation qui est délocalisée, ce qui est bien.</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:42:49</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:43:19</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:44:18</t>
+  </si>
+  <si>
+    <t>Il serait intéressant de rallonger la durée de la prestation.</t>
+  </si>
+  <si>
+    <t>Une prise en charge plus adaptée des frais de déplacements est indispensable.</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:44:36</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:45:06</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:47:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDV trop fréquents - pas le temps pour faire les actions  </t>
+  </si>
+  <si>
+    <t>Mise en relation avec des entreprises Allonger la durée du suivi</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:47:58</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:48:21</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:48:39</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:49:13</t>
+  </si>
+  <si>
+    <t>2022-03-04</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:49:29</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:50:08</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:50:09</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:51:00</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:51:01</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:51:35</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:52:35</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:54:09</t>
+  </si>
+  <si>
+    <t>2022-03-13</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:57:23</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:58:00</t>
+  </si>
+  <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
+    <t>2022-04-08 13:59:05</t>
+  </si>
+  <si>
+    <t>2022-04-08 14:00:10</t>
+  </si>
+  <si>
+    <t>2021-04-16</t>
+  </si>
+  <si>
+    <t>ce suivi a été parfait et m'a beaucoup aidé.</t>
+  </si>
+  <si>
+    <t>2022-04-08 14:10:40</t>
+  </si>
+  <si>
+    <t>2021-09-16</t>
+  </si>
+  <si>
+    <t>2022-04-08 14:11:26</t>
   </si>
 </sst>
 </file>
@@ -3222,10 +3606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO322"/>
+  <dimension ref="A1:AO394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH303" workbookViewId="0">
-      <selection activeCell="AM321" sqref="AM321"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="A318" sqref="A318:A394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43225,6 +43609,9006 @@
         <v>762</v>
       </c>
     </row>
+    <row r="323" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323" t="s">
+        <v>728</v>
+      </c>
+      <c r="C323" t="s">
+        <v>106</v>
+      </c>
+      <c r="D323" t="s">
+        <v>729</v>
+      </c>
+      <c r="E323" t="s">
+        <v>730</v>
+      </c>
+      <c r="F323" t="s">
+        <v>268</v>
+      </c>
+      <c r="G323" t="s">
+        <v>268</v>
+      </c>
+      <c r="H323" t="s">
+        <v>45</v>
+      </c>
+      <c r="I323" t="s">
+        <v>45</v>
+      </c>
+      <c r="J323" t="s">
+        <v>45</v>
+      </c>
+      <c r="K323" t="s">
+        <v>45</v>
+      </c>
+      <c r="L323" t="s">
+        <v>45</v>
+      </c>
+      <c r="M323" t="s">
+        <v>41</v>
+      </c>
+      <c r="N323" t="s">
+        <v>41</v>
+      </c>
+      <c r="O323" t="s">
+        <v>41</v>
+      </c>
+      <c r="P323" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q323" t="s">
+        <v>41</v>
+      </c>
+      <c r="R323" t="s">
+        <v>41</v>
+      </c>
+      <c r="S323" t="s">
+        <v>41</v>
+      </c>
+      <c r="T323" t="s">
+        <v>41</v>
+      </c>
+      <c r="U323" t="s">
+        <v>41</v>
+      </c>
+      <c r="V323" t="s">
+        <v>41</v>
+      </c>
+      <c r="W323" t="s">
+        <v>41</v>
+      </c>
+      <c r="X323" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y323" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z323" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA323" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB323" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC323" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD323" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE323" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF323" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG323" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH323" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI323" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ323" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK323" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL323" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM323" t="s">
+        <v>763</v>
+      </c>
+      <c r="AN323" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO323" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="324" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324" t="s">
+        <v>59</v>
+      </c>
+      <c r="C324" t="s">
+        <v>87</v>
+      </c>
+      <c r="D324" t="s">
+        <v>765</v>
+      </c>
+      <c r="E324" t="s">
+        <v>766</v>
+      </c>
+      <c r="F324" t="s">
+        <v>53</v>
+      </c>
+      <c r="G324" t="s">
+        <v>53</v>
+      </c>
+      <c r="H324" t="s">
+        <v>41</v>
+      </c>
+      <c r="I324" t="s">
+        <v>41</v>
+      </c>
+      <c r="J324" t="s">
+        <v>41</v>
+      </c>
+      <c r="K324" t="s">
+        <v>41</v>
+      </c>
+      <c r="L324" t="s">
+        <v>41</v>
+      </c>
+      <c r="M324" t="s">
+        <v>72</v>
+      </c>
+      <c r="N324" t="s">
+        <v>42</v>
+      </c>
+      <c r="O324" t="s">
+        <v>42</v>
+      </c>
+      <c r="P324" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q324" t="s">
+        <v>42</v>
+      </c>
+      <c r="R324" t="s">
+        <v>55</v>
+      </c>
+      <c r="S324" t="s">
+        <v>41</v>
+      </c>
+      <c r="T324" t="s">
+        <v>55</v>
+      </c>
+      <c r="U324" t="s">
+        <v>55</v>
+      </c>
+      <c r="V324" t="s">
+        <v>55</v>
+      </c>
+      <c r="W324" t="s">
+        <v>55</v>
+      </c>
+      <c r="X324" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y324" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z324" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA324" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB324" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC324" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD324" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE324" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF324" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG324" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH324" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI324" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ324" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK324" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL324" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM324" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN324" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO324" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="325" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325" t="s">
+        <v>59</v>
+      </c>
+      <c r="C325" t="s">
+        <v>87</v>
+      </c>
+      <c r="D325" t="s">
+        <v>765</v>
+      </c>
+      <c r="E325" t="s">
+        <v>766</v>
+      </c>
+      <c r="F325" t="s">
+        <v>49</v>
+      </c>
+      <c r="G325" t="s">
+        <v>347</v>
+      </c>
+      <c r="H325" t="s">
+        <v>41</v>
+      </c>
+      <c r="I325" t="s">
+        <v>41</v>
+      </c>
+      <c r="J325" t="s">
+        <v>41</v>
+      </c>
+      <c r="K325" t="s">
+        <v>41</v>
+      </c>
+      <c r="L325" t="s">
+        <v>41</v>
+      </c>
+      <c r="M325" t="s">
+        <v>41</v>
+      </c>
+      <c r="N325" t="s">
+        <v>41</v>
+      </c>
+      <c r="O325" t="s">
+        <v>41</v>
+      </c>
+      <c r="P325" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q325" t="s">
+        <v>41</v>
+      </c>
+      <c r="R325" t="s">
+        <v>41</v>
+      </c>
+      <c r="S325" t="s">
+        <v>41</v>
+      </c>
+      <c r="T325" t="s">
+        <v>41</v>
+      </c>
+      <c r="U325" t="s">
+        <v>41</v>
+      </c>
+      <c r="V325" t="s">
+        <v>41</v>
+      </c>
+      <c r="W325" t="s">
+        <v>41</v>
+      </c>
+      <c r="X325" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y325" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z325" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA325" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB325" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC325" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD325" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE325" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF325" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG325" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH325" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI325" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ325" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK325" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL325" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM325" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN325" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO325" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="326" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326" t="s">
+        <v>59</v>
+      </c>
+      <c r="C326" t="s">
+        <v>87</v>
+      </c>
+      <c r="D326" t="s">
+        <v>765</v>
+      </c>
+      <c r="E326" t="s">
+        <v>766</v>
+      </c>
+      <c r="F326" t="s">
+        <v>56</v>
+      </c>
+      <c r="G326" t="s">
+        <v>56</v>
+      </c>
+      <c r="H326" t="s">
+        <v>41</v>
+      </c>
+      <c r="I326" t="s">
+        <v>41</v>
+      </c>
+      <c r="J326" t="s">
+        <v>41</v>
+      </c>
+      <c r="K326" t="s">
+        <v>41</v>
+      </c>
+      <c r="L326" t="s">
+        <v>41</v>
+      </c>
+      <c r="M326" t="s">
+        <v>41</v>
+      </c>
+      <c r="N326" t="s">
+        <v>41</v>
+      </c>
+      <c r="O326" t="s">
+        <v>41</v>
+      </c>
+      <c r="P326" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q326" t="s">
+        <v>41</v>
+      </c>
+      <c r="R326" t="s">
+        <v>41</v>
+      </c>
+      <c r="S326" t="s">
+        <v>41</v>
+      </c>
+      <c r="T326" t="s">
+        <v>41</v>
+      </c>
+      <c r="U326" t="s">
+        <v>41</v>
+      </c>
+      <c r="V326" t="s">
+        <v>41</v>
+      </c>
+      <c r="W326" t="s">
+        <v>41</v>
+      </c>
+      <c r="X326" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y326" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z326" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA326" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB326" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC326" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD326" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE326" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF326" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG326" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH326" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI326" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ326" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK326" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL326" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM326" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN326" t="s">
+        <v>769</v>
+      </c>
+      <c r="AO326" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="327" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327" t="s">
+        <v>59</v>
+      </c>
+      <c r="C327" t="s">
+        <v>44</v>
+      </c>
+      <c r="D327" t="s">
+        <v>389</v>
+      </c>
+      <c r="E327" t="s">
+        <v>771</v>
+      </c>
+      <c r="F327" t="s">
+        <v>56</v>
+      </c>
+      <c r="G327" t="s">
+        <v>56</v>
+      </c>
+      <c r="H327" t="s">
+        <v>41</v>
+      </c>
+      <c r="I327" t="s">
+        <v>41</v>
+      </c>
+      <c r="J327" t="s">
+        <v>41</v>
+      </c>
+      <c r="K327" t="s">
+        <v>41</v>
+      </c>
+      <c r="L327" t="s">
+        <v>41</v>
+      </c>
+      <c r="M327" t="s">
+        <v>41</v>
+      </c>
+      <c r="N327" t="s">
+        <v>41</v>
+      </c>
+      <c r="O327" t="s">
+        <v>41</v>
+      </c>
+      <c r="P327" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q327" t="s">
+        <v>41</v>
+      </c>
+      <c r="R327" t="s">
+        <v>41</v>
+      </c>
+      <c r="S327" t="s">
+        <v>41</v>
+      </c>
+      <c r="T327" t="s">
+        <v>41</v>
+      </c>
+      <c r="U327" t="s">
+        <v>41</v>
+      </c>
+      <c r="V327" t="s">
+        <v>41</v>
+      </c>
+      <c r="W327" t="s">
+        <v>41</v>
+      </c>
+      <c r="X327" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y327" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z327" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA327" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB327" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC327" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD327" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE327" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF327" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG327" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH327" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI327" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ327" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK327" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL327" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM327" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN327" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO327" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="328" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328" t="s">
+        <v>59</v>
+      </c>
+      <c r="C328" t="s">
+        <v>44</v>
+      </c>
+      <c r="D328" t="s">
+        <v>389</v>
+      </c>
+      <c r="E328" t="s">
+        <v>771</v>
+      </c>
+      <c r="F328" t="s">
+        <v>49</v>
+      </c>
+      <c r="G328" t="s">
+        <v>347</v>
+      </c>
+      <c r="H328" t="s">
+        <v>41</v>
+      </c>
+      <c r="I328" t="s">
+        <v>41</v>
+      </c>
+      <c r="J328" t="s">
+        <v>41</v>
+      </c>
+      <c r="K328" t="s">
+        <v>41</v>
+      </c>
+      <c r="L328" t="s">
+        <v>41</v>
+      </c>
+      <c r="M328" t="s">
+        <v>41</v>
+      </c>
+      <c r="N328" t="s">
+        <v>41</v>
+      </c>
+      <c r="O328" t="s">
+        <v>41</v>
+      </c>
+      <c r="P328" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q328" t="s">
+        <v>41</v>
+      </c>
+      <c r="R328" t="s">
+        <v>41</v>
+      </c>
+      <c r="S328" t="s">
+        <v>41</v>
+      </c>
+      <c r="T328" t="s">
+        <v>41</v>
+      </c>
+      <c r="U328" t="s">
+        <v>41</v>
+      </c>
+      <c r="V328" t="s">
+        <v>41</v>
+      </c>
+      <c r="W328" t="s">
+        <v>41</v>
+      </c>
+      <c r="X328" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y328" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z328" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA328" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB328" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC328" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD328" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE328" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF328" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG328" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH328" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI328" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ328" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK328" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL328" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM328" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN328" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO328" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="329" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329" t="s">
+        <v>59</v>
+      </c>
+      <c r="C329" t="s">
+        <v>44</v>
+      </c>
+      <c r="D329" t="s">
+        <v>389</v>
+      </c>
+      <c r="E329" t="s">
+        <v>771</v>
+      </c>
+      <c r="F329" t="s">
+        <v>53</v>
+      </c>
+      <c r="G329" t="s">
+        <v>53</v>
+      </c>
+      <c r="H329" t="s">
+        <v>41</v>
+      </c>
+      <c r="I329" t="s">
+        <v>41</v>
+      </c>
+      <c r="J329" t="s">
+        <v>41</v>
+      </c>
+      <c r="K329" t="s">
+        <v>41</v>
+      </c>
+      <c r="L329" t="s">
+        <v>41</v>
+      </c>
+      <c r="M329" t="s">
+        <v>72</v>
+      </c>
+      <c r="N329" t="s">
+        <v>42</v>
+      </c>
+      <c r="O329" t="s">
+        <v>42</v>
+      </c>
+      <c r="P329" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q329" t="s">
+        <v>42</v>
+      </c>
+      <c r="R329" t="s">
+        <v>55</v>
+      </c>
+      <c r="S329" t="s">
+        <v>41</v>
+      </c>
+      <c r="T329" t="s">
+        <v>55</v>
+      </c>
+      <c r="U329" t="s">
+        <v>55</v>
+      </c>
+      <c r="V329" t="s">
+        <v>55</v>
+      </c>
+      <c r="W329" t="s">
+        <v>55</v>
+      </c>
+      <c r="X329" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y329" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z329" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA329" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB329" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC329" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD329" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE329" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF329" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG329" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH329" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI329" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ329" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK329" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL329" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM329" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN329" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO329" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="330" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330" t="s">
+        <v>59</v>
+      </c>
+      <c r="C330" t="s">
+        <v>44</v>
+      </c>
+      <c r="D330" t="s">
+        <v>775</v>
+      </c>
+      <c r="E330" t="s">
+        <v>776</v>
+      </c>
+      <c r="F330" t="s">
+        <v>49</v>
+      </c>
+      <c r="G330" t="s">
+        <v>49</v>
+      </c>
+      <c r="H330" t="s">
+        <v>41</v>
+      </c>
+      <c r="I330" t="s">
+        <v>41</v>
+      </c>
+      <c r="J330" t="s">
+        <v>41</v>
+      </c>
+      <c r="K330" t="s">
+        <v>41</v>
+      </c>
+      <c r="L330" t="s">
+        <v>41</v>
+      </c>
+      <c r="M330" t="s">
+        <v>41</v>
+      </c>
+      <c r="N330" t="s">
+        <v>41</v>
+      </c>
+      <c r="O330" t="s">
+        <v>41</v>
+      </c>
+      <c r="P330" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q330" t="s">
+        <v>41</v>
+      </c>
+      <c r="R330" t="s">
+        <v>41</v>
+      </c>
+      <c r="S330" t="s">
+        <v>41</v>
+      </c>
+      <c r="T330" t="s">
+        <v>41</v>
+      </c>
+      <c r="U330" t="s">
+        <v>41</v>
+      </c>
+      <c r="V330" t="s">
+        <v>41</v>
+      </c>
+      <c r="W330" t="s">
+        <v>41</v>
+      </c>
+      <c r="X330" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y330" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z330" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA330" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB330" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC330" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD330" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE330" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF330" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG330" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH330" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI330" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ330" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK330" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL330" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM330" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN330" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO330" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="331" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331" t="s">
+        <v>59</v>
+      </c>
+      <c r="C331" t="s">
+        <v>44</v>
+      </c>
+      <c r="D331" t="s">
+        <v>775</v>
+      </c>
+      <c r="E331" t="s">
+        <v>776</v>
+      </c>
+      <c r="F331" t="s">
+        <v>56</v>
+      </c>
+      <c r="G331" t="s">
+        <v>56</v>
+      </c>
+      <c r="H331" t="s">
+        <v>41</v>
+      </c>
+      <c r="I331" t="s">
+        <v>41</v>
+      </c>
+      <c r="J331" t="s">
+        <v>41</v>
+      </c>
+      <c r="K331" t="s">
+        <v>41</v>
+      </c>
+      <c r="L331" t="s">
+        <v>41</v>
+      </c>
+      <c r="M331" t="s">
+        <v>41</v>
+      </c>
+      <c r="N331" t="s">
+        <v>41</v>
+      </c>
+      <c r="O331" t="s">
+        <v>41</v>
+      </c>
+      <c r="P331" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q331" t="s">
+        <v>41</v>
+      </c>
+      <c r="R331" t="s">
+        <v>41</v>
+      </c>
+      <c r="S331" t="s">
+        <v>41</v>
+      </c>
+      <c r="T331" t="s">
+        <v>41</v>
+      </c>
+      <c r="U331" t="s">
+        <v>41</v>
+      </c>
+      <c r="V331" t="s">
+        <v>41</v>
+      </c>
+      <c r="W331" t="s">
+        <v>41</v>
+      </c>
+      <c r="X331" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y331" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z331" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA331" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB331" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC331" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD331" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE331" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF331" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG331" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH331" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI331" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ331" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK331" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL331" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM331" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN331" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO331" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="332" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332" t="s">
+        <v>59</v>
+      </c>
+      <c r="C332" t="s">
+        <v>44</v>
+      </c>
+      <c r="D332" t="s">
+        <v>775</v>
+      </c>
+      <c r="E332" t="s">
+        <v>776</v>
+      </c>
+      <c r="F332" t="s">
+        <v>53</v>
+      </c>
+      <c r="G332" t="s">
+        <v>53</v>
+      </c>
+      <c r="H332" t="s">
+        <v>41</v>
+      </c>
+      <c r="I332" t="s">
+        <v>41</v>
+      </c>
+      <c r="J332" t="s">
+        <v>41</v>
+      </c>
+      <c r="K332" t="s">
+        <v>41</v>
+      </c>
+      <c r="L332" t="s">
+        <v>41</v>
+      </c>
+      <c r="M332" t="s">
+        <v>72</v>
+      </c>
+      <c r="N332" t="s">
+        <v>42</v>
+      </c>
+      <c r="O332" t="s">
+        <v>42</v>
+      </c>
+      <c r="P332" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q332" t="s">
+        <v>42</v>
+      </c>
+      <c r="R332" t="s">
+        <v>55</v>
+      </c>
+      <c r="S332" t="s">
+        <v>41</v>
+      </c>
+      <c r="T332" t="s">
+        <v>55</v>
+      </c>
+      <c r="U332" t="s">
+        <v>55</v>
+      </c>
+      <c r="V332" t="s">
+        <v>55</v>
+      </c>
+      <c r="W332" t="s">
+        <v>55</v>
+      </c>
+      <c r="X332" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y332" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z332" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA332" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB332" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC332" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD332" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE332" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF332" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG332" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH332" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI332" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ332" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK332" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL332" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM332" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN332" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO332" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="333" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333" t="s">
+        <v>728</v>
+      </c>
+      <c r="C333" t="s">
+        <v>780</v>
+      </c>
+      <c r="D333" t="s">
+        <v>729</v>
+      </c>
+      <c r="E333" t="s">
+        <v>730</v>
+      </c>
+      <c r="F333" t="s">
+        <v>49</v>
+      </c>
+      <c r="G333" t="s">
+        <v>49</v>
+      </c>
+      <c r="H333" t="s">
+        <v>41</v>
+      </c>
+      <c r="I333" t="s">
+        <v>41</v>
+      </c>
+      <c r="J333" t="s">
+        <v>41</v>
+      </c>
+      <c r="K333" t="s">
+        <v>41</v>
+      </c>
+      <c r="L333" t="s">
+        <v>41</v>
+      </c>
+      <c r="M333" t="s">
+        <v>41</v>
+      </c>
+      <c r="N333" t="s">
+        <v>41</v>
+      </c>
+      <c r="O333" t="s">
+        <v>41</v>
+      </c>
+      <c r="P333" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q333" t="s">
+        <v>41</v>
+      </c>
+      <c r="R333" t="s">
+        <v>41</v>
+      </c>
+      <c r="S333" t="s">
+        <v>41</v>
+      </c>
+      <c r="T333" t="s">
+        <v>41</v>
+      </c>
+      <c r="U333" t="s">
+        <v>41</v>
+      </c>
+      <c r="V333" t="s">
+        <v>41</v>
+      </c>
+      <c r="W333" t="s">
+        <v>41</v>
+      </c>
+      <c r="X333" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y333" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z333" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA333" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB333" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC333" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD333" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE333" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF333" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG333" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH333" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI333" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ333" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK333" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL333" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM333" t="s">
+        <v>781</v>
+      </c>
+      <c r="AN333" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO333" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="334" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334" t="s">
+        <v>728</v>
+      </c>
+      <c r="C334" t="s">
+        <v>780</v>
+      </c>
+      <c r="D334" t="s">
+        <v>729</v>
+      </c>
+      <c r="E334" t="s">
+        <v>730</v>
+      </c>
+      <c r="F334" t="s">
+        <v>49</v>
+      </c>
+      <c r="G334" t="s">
+        <v>49</v>
+      </c>
+      <c r="H334" t="s">
+        <v>41</v>
+      </c>
+      <c r="I334" t="s">
+        <v>41</v>
+      </c>
+      <c r="J334" t="s">
+        <v>41</v>
+      </c>
+      <c r="K334" t="s">
+        <v>41</v>
+      </c>
+      <c r="L334" t="s">
+        <v>41</v>
+      </c>
+      <c r="M334" t="s">
+        <v>41</v>
+      </c>
+      <c r="N334" t="s">
+        <v>41</v>
+      </c>
+      <c r="O334" t="s">
+        <v>41</v>
+      </c>
+      <c r="P334" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q334" t="s">
+        <v>41</v>
+      </c>
+      <c r="R334" t="s">
+        <v>41</v>
+      </c>
+      <c r="S334" t="s">
+        <v>41</v>
+      </c>
+      <c r="T334" t="s">
+        <v>41</v>
+      </c>
+      <c r="U334" t="s">
+        <v>41</v>
+      </c>
+      <c r="V334" t="s">
+        <v>41</v>
+      </c>
+      <c r="W334" t="s">
+        <v>41</v>
+      </c>
+      <c r="X334" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y334" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z334" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA334" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB334" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC334" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD334" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE334" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF334" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG334" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH334" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI334" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ334" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK334" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL334" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM334" t="s">
+        <v>783</v>
+      </c>
+      <c r="AN334" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO334" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="335" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335" t="s">
+        <v>728</v>
+      </c>
+      <c r="C335" t="s">
+        <v>106</v>
+      </c>
+      <c r="D335" t="s">
+        <v>729</v>
+      </c>
+      <c r="E335" t="s">
+        <v>730</v>
+      </c>
+      <c r="F335" t="s">
+        <v>56</v>
+      </c>
+      <c r="G335" t="s">
+        <v>56</v>
+      </c>
+      <c r="H335" t="s">
+        <v>41</v>
+      </c>
+      <c r="I335" t="s">
+        <v>41</v>
+      </c>
+      <c r="J335" t="s">
+        <v>41</v>
+      </c>
+      <c r="K335" t="s">
+        <v>41</v>
+      </c>
+      <c r="L335" t="s">
+        <v>41</v>
+      </c>
+      <c r="M335" t="s">
+        <v>41</v>
+      </c>
+      <c r="N335" t="s">
+        <v>41</v>
+      </c>
+      <c r="O335" t="s">
+        <v>41</v>
+      </c>
+      <c r="P335" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q335" t="s">
+        <v>41</v>
+      </c>
+      <c r="R335" t="s">
+        <v>41</v>
+      </c>
+      <c r="S335" t="s">
+        <v>41</v>
+      </c>
+      <c r="T335" t="s">
+        <v>41</v>
+      </c>
+      <c r="U335" t="s">
+        <v>41</v>
+      </c>
+      <c r="V335" t="s">
+        <v>41</v>
+      </c>
+      <c r="W335" t="s">
+        <v>41</v>
+      </c>
+      <c r="X335" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y335" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z335" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA335" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB335" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC335" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD335" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE335" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF335" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG335" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH335" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI335" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ335" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK335" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL335" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM335" t="s">
+        <v>785</v>
+      </c>
+      <c r="AN335" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO335" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="336" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336" t="s">
+        <v>728</v>
+      </c>
+      <c r="C336" t="s">
+        <v>106</v>
+      </c>
+      <c r="D336" t="s">
+        <v>729</v>
+      </c>
+      <c r="E336" t="s">
+        <v>730</v>
+      </c>
+      <c r="F336" t="s">
+        <v>56</v>
+      </c>
+      <c r="G336" t="s">
+        <v>56</v>
+      </c>
+      <c r="H336" t="s">
+        <v>41</v>
+      </c>
+      <c r="I336" t="s">
+        <v>41</v>
+      </c>
+      <c r="J336" t="s">
+        <v>41</v>
+      </c>
+      <c r="K336" t="s">
+        <v>41</v>
+      </c>
+      <c r="L336" t="s">
+        <v>41</v>
+      </c>
+      <c r="M336" t="s">
+        <v>41</v>
+      </c>
+      <c r="N336" t="s">
+        <v>41</v>
+      </c>
+      <c r="O336" t="s">
+        <v>41</v>
+      </c>
+      <c r="P336" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q336" t="s">
+        <v>41</v>
+      </c>
+      <c r="R336" t="s">
+        <v>41</v>
+      </c>
+      <c r="S336" t="s">
+        <v>41</v>
+      </c>
+      <c r="T336" t="s">
+        <v>41</v>
+      </c>
+      <c r="U336" t="s">
+        <v>41</v>
+      </c>
+      <c r="V336" t="s">
+        <v>41</v>
+      </c>
+      <c r="W336" t="s">
+        <v>41</v>
+      </c>
+      <c r="X336" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y336" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z336" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA336" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB336" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC336" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD336" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE336" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF336" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG336" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH336" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI336" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ336" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK336" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL336" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM336" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN336" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO336" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="337" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337" t="s">
+        <v>728</v>
+      </c>
+      <c r="C337" t="s">
+        <v>106</v>
+      </c>
+      <c r="D337" t="s">
+        <v>729</v>
+      </c>
+      <c r="E337" t="s">
+        <v>730</v>
+      </c>
+      <c r="F337" t="s">
+        <v>56</v>
+      </c>
+      <c r="G337" t="s">
+        <v>56</v>
+      </c>
+      <c r="H337" t="s">
+        <v>41</v>
+      </c>
+      <c r="I337" t="s">
+        <v>41</v>
+      </c>
+      <c r="J337" t="s">
+        <v>41</v>
+      </c>
+      <c r="K337" t="s">
+        <v>41</v>
+      </c>
+      <c r="L337" t="s">
+        <v>41</v>
+      </c>
+      <c r="M337" t="s">
+        <v>41</v>
+      </c>
+      <c r="N337" t="s">
+        <v>41</v>
+      </c>
+      <c r="O337" t="s">
+        <v>41</v>
+      </c>
+      <c r="P337" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q337" t="s">
+        <v>41</v>
+      </c>
+      <c r="R337" t="s">
+        <v>41</v>
+      </c>
+      <c r="S337" t="s">
+        <v>41</v>
+      </c>
+      <c r="T337" t="s">
+        <v>41</v>
+      </c>
+      <c r="U337" t="s">
+        <v>41</v>
+      </c>
+      <c r="V337" t="s">
+        <v>41</v>
+      </c>
+      <c r="W337" t="s">
+        <v>41</v>
+      </c>
+      <c r="X337" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y337" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z337" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA337" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB337" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC337" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD337" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE337" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF337" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG337" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH337" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI337" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ337" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK337" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL337" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM337" t="s">
+        <v>788</v>
+      </c>
+      <c r="AN337" t="s">
+        <v>789</v>
+      </c>
+      <c r="AO337" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="338" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338" t="s">
+        <v>728</v>
+      </c>
+      <c r="C338" t="s">
+        <v>106</v>
+      </c>
+      <c r="D338" t="s">
+        <v>729</v>
+      </c>
+      <c r="E338" t="s">
+        <v>730</v>
+      </c>
+      <c r="F338" t="s">
+        <v>56</v>
+      </c>
+      <c r="G338" t="s">
+        <v>56</v>
+      </c>
+      <c r="H338" t="s">
+        <v>41</v>
+      </c>
+      <c r="I338" t="s">
+        <v>41</v>
+      </c>
+      <c r="J338" t="s">
+        <v>41</v>
+      </c>
+      <c r="K338" t="s">
+        <v>41</v>
+      </c>
+      <c r="L338" t="s">
+        <v>41</v>
+      </c>
+      <c r="M338" t="s">
+        <v>41</v>
+      </c>
+      <c r="N338" t="s">
+        <v>41</v>
+      </c>
+      <c r="O338" t="s">
+        <v>41</v>
+      </c>
+      <c r="P338" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q338" t="s">
+        <v>41</v>
+      </c>
+      <c r="R338" t="s">
+        <v>41</v>
+      </c>
+      <c r="S338" t="s">
+        <v>41</v>
+      </c>
+      <c r="T338" t="s">
+        <v>41</v>
+      </c>
+      <c r="U338" t="s">
+        <v>41</v>
+      </c>
+      <c r="V338" t="s">
+        <v>41</v>
+      </c>
+      <c r="W338" t="s">
+        <v>41</v>
+      </c>
+      <c r="X338" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y338" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z338" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA338" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB338" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC338" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD338" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE338" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF338" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG338" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH338" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI338" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ338" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK338" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL338" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM338" t="s">
+        <v>791</v>
+      </c>
+      <c r="AN338" t="s">
+        <v>792</v>
+      </c>
+      <c r="AO338" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="339" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339" t="s">
+        <v>728</v>
+      </c>
+      <c r="C339" t="s">
+        <v>106</v>
+      </c>
+      <c r="D339" t="s">
+        <v>729</v>
+      </c>
+      <c r="E339" t="s">
+        <v>730</v>
+      </c>
+      <c r="F339" t="s">
+        <v>56</v>
+      </c>
+      <c r="G339" t="s">
+        <v>56</v>
+      </c>
+      <c r="H339" t="s">
+        <v>41</v>
+      </c>
+      <c r="I339" t="s">
+        <v>41</v>
+      </c>
+      <c r="J339" t="s">
+        <v>41</v>
+      </c>
+      <c r="K339" t="s">
+        <v>41</v>
+      </c>
+      <c r="L339" t="s">
+        <v>41</v>
+      </c>
+      <c r="M339" t="s">
+        <v>41</v>
+      </c>
+      <c r="N339" t="s">
+        <v>41</v>
+      </c>
+      <c r="O339" t="s">
+        <v>41</v>
+      </c>
+      <c r="P339" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q339" t="s">
+        <v>41</v>
+      </c>
+      <c r="R339" t="s">
+        <v>41</v>
+      </c>
+      <c r="S339" t="s">
+        <v>41</v>
+      </c>
+      <c r="T339" t="s">
+        <v>41</v>
+      </c>
+      <c r="U339" t="s">
+        <v>41</v>
+      </c>
+      <c r="V339" t="s">
+        <v>41</v>
+      </c>
+      <c r="W339" t="s">
+        <v>41</v>
+      </c>
+      <c r="X339" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y339" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z339" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA339" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB339" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC339" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD339" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE339" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF339" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG339" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH339" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI339" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ339" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK339" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL339" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM339" t="s">
+        <v>794</v>
+      </c>
+      <c r="AN339" t="s">
+        <v>795</v>
+      </c>
+      <c r="AO339" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="340" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340" t="s">
+        <v>728</v>
+      </c>
+      <c r="C340" t="s">
+        <v>106</v>
+      </c>
+      <c r="D340" t="s">
+        <v>729</v>
+      </c>
+      <c r="E340" t="s">
+        <v>730</v>
+      </c>
+      <c r="F340" t="s">
+        <v>56</v>
+      </c>
+      <c r="G340" t="s">
+        <v>56</v>
+      </c>
+      <c r="H340" t="s">
+        <v>41</v>
+      </c>
+      <c r="I340" t="s">
+        <v>41</v>
+      </c>
+      <c r="J340" t="s">
+        <v>41</v>
+      </c>
+      <c r="K340" t="s">
+        <v>41</v>
+      </c>
+      <c r="L340" t="s">
+        <v>41</v>
+      </c>
+      <c r="M340" t="s">
+        <v>41</v>
+      </c>
+      <c r="N340" t="s">
+        <v>41</v>
+      </c>
+      <c r="O340" t="s">
+        <v>41</v>
+      </c>
+      <c r="P340" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q340" t="s">
+        <v>41</v>
+      </c>
+      <c r="R340" t="s">
+        <v>41</v>
+      </c>
+      <c r="S340" t="s">
+        <v>41</v>
+      </c>
+      <c r="T340" t="s">
+        <v>41</v>
+      </c>
+      <c r="U340" t="s">
+        <v>41</v>
+      </c>
+      <c r="V340" t="s">
+        <v>41</v>
+      </c>
+      <c r="W340" t="s">
+        <v>41</v>
+      </c>
+      <c r="X340" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y340" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z340" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA340" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB340" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC340" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD340" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE340" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF340" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG340" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH340" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI340" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ340" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK340" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL340" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM340" t="s">
+        <v>797</v>
+      </c>
+      <c r="AN340" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO340" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="341" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341" t="s">
+        <v>728</v>
+      </c>
+      <c r="C341" t="s">
+        <v>106</v>
+      </c>
+      <c r="D341" t="s">
+        <v>729</v>
+      </c>
+      <c r="E341" t="s">
+        <v>730</v>
+      </c>
+      <c r="F341" t="s">
+        <v>56</v>
+      </c>
+      <c r="G341" t="s">
+        <v>56</v>
+      </c>
+      <c r="H341" t="s">
+        <v>41</v>
+      </c>
+      <c r="I341" t="s">
+        <v>41</v>
+      </c>
+      <c r="J341" t="s">
+        <v>41</v>
+      </c>
+      <c r="K341" t="s">
+        <v>41</v>
+      </c>
+      <c r="L341" t="s">
+        <v>41</v>
+      </c>
+      <c r="M341" t="s">
+        <v>41</v>
+      </c>
+      <c r="N341" t="s">
+        <v>41</v>
+      </c>
+      <c r="O341" t="s">
+        <v>41</v>
+      </c>
+      <c r="P341" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q341" t="s">
+        <v>41</v>
+      </c>
+      <c r="R341" t="s">
+        <v>41</v>
+      </c>
+      <c r="S341" t="s">
+        <v>41</v>
+      </c>
+      <c r="T341" t="s">
+        <v>41</v>
+      </c>
+      <c r="U341" t="s">
+        <v>41</v>
+      </c>
+      <c r="V341" t="s">
+        <v>41</v>
+      </c>
+      <c r="W341" t="s">
+        <v>41</v>
+      </c>
+      <c r="X341" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y341" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z341" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA341" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB341" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC341" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD341" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE341" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF341" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG341" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH341" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI341" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ341" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK341" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL341" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM341" t="s">
+        <v>799</v>
+      </c>
+      <c r="AN341" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO341" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="342" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342" t="s">
+        <v>728</v>
+      </c>
+      <c r="C342" t="s">
+        <v>780</v>
+      </c>
+      <c r="D342" t="s">
+        <v>729</v>
+      </c>
+      <c r="E342" t="s">
+        <v>730</v>
+      </c>
+      <c r="F342" t="s">
+        <v>56</v>
+      </c>
+      <c r="G342" t="s">
+        <v>56</v>
+      </c>
+      <c r="H342" t="s">
+        <v>41</v>
+      </c>
+      <c r="I342" t="s">
+        <v>41</v>
+      </c>
+      <c r="J342" t="s">
+        <v>41</v>
+      </c>
+      <c r="K342" t="s">
+        <v>41</v>
+      </c>
+      <c r="L342" t="s">
+        <v>41</v>
+      </c>
+      <c r="M342" t="s">
+        <v>41</v>
+      </c>
+      <c r="N342" t="s">
+        <v>41</v>
+      </c>
+      <c r="O342" t="s">
+        <v>41</v>
+      </c>
+      <c r="P342" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q342" t="s">
+        <v>41</v>
+      </c>
+      <c r="R342" t="s">
+        <v>41</v>
+      </c>
+      <c r="S342" t="s">
+        <v>41</v>
+      </c>
+      <c r="T342" t="s">
+        <v>41</v>
+      </c>
+      <c r="U342" t="s">
+        <v>41</v>
+      </c>
+      <c r="V342" t="s">
+        <v>41</v>
+      </c>
+      <c r="W342" t="s">
+        <v>41</v>
+      </c>
+      <c r="X342" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y342" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z342" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA342" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB342" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC342" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD342" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE342" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF342" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG342" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH342" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI342" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ342" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK342" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL342" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM342" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN342" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO342" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="343" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343" t="s">
+        <v>728</v>
+      </c>
+      <c r="C343" t="s">
+        <v>780</v>
+      </c>
+      <c r="D343" t="s">
+        <v>729</v>
+      </c>
+      <c r="E343" t="s">
+        <v>730</v>
+      </c>
+      <c r="F343" t="s">
+        <v>56</v>
+      </c>
+      <c r="G343" t="s">
+        <v>56</v>
+      </c>
+      <c r="H343" t="s">
+        <v>41</v>
+      </c>
+      <c r="I343" t="s">
+        <v>41</v>
+      </c>
+      <c r="J343" t="s">
+        <v>41</v>
+      </c>
+      <c r="K343" t="s">
+        <v>41</v>
+      </c>
+      <c r="L343" t="s">
+        <v>41</v>
+      </c>
+      <c r="M343" t="s">
+        <v>41</v>
+      </c>
+      <c r="N343" t="s">
+        <v>41</v>
+      </c>
+      <c r="O343" t="s">
+        <v>41</v>
+      </c>
+      <c r="P343" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q343" t="s">
+        <v>41</v>
+      </c>
+      <c r="R343" t="s">
+        <v>41</v>
+      </c>
+      <c r="S343" t="s">
+        <v>41</v>
+      </c>
+      <c r="T343" t="s">
+        <v>41</v>
+      </c>
+      <c r="U343" t="s">
+        <v>41</v>
+      </c>
+      <c r="V343" t="s">
+        <v>41</v>
+      </c>
+      <c r="W343" t="s">
+        <v>41</v>
+      </c>
+      <c r="X343" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y343" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z343" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA343" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB343" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC343" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD343" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE343" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF343" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG343" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH343" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI343" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ343" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK343" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL343" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM343" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN343" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO343" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="344" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344" t="s">
+        <v>728</v>
+      </c>
+      <c r="C344" t="s">
+        <v>780</v>
+      </c>
+      <c r="D344" t="s">
+        <v>729</v>
+      </c>
+      <c r="E344" t="s">
+        <v>730</v>
+      </c>
+      <c r="F344" t="s">
+        <v>56</v>
+      </c>
+      <c r="G344" t="s">
+        <v>56</v>
+      </c>
+      <c r="H344" t="s">
+        <v>41</v>
+      </c>
+      <c r="I344" t="s">
+        <v>41</v>
+      </c>
+      <c r="J344" t="s">
+        <v>41</v>
+      </c>
+      <c r="K344" t="s">
+        <v>41</v>
+      </c>
+      <c r="L344" t="s">
+        <v>41</v>
+      </c>
+      <c r="M344" t="s">
+        <v>41</v>
+      </c>
+      <c r="N344" t="s">
+        <v>41</v>
+      </c>
+      <c r="O344" t="s">
+        <v>41</v>
+      </c>
+      <c r="P344" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q344" t="s">
+        <v>41</v>
+      </c>
+      <c r="R344" t="s">
+        <v>41</v>
+      </c>
+      <c r="S344" t="s">
+        <v>41</v>
+      </c>
+      <c r="T344" t="s">
+        <v>41</v>
+      </c>
+      <c r="U344" t="s">
+        <v>41</v>
+      </c>
+      <c r="V344" t="s">
+        <v>41</v>
+      </c>
+      <c r="W344" t="s">
+        <v>41</v>
+      </c>
+      <c r="X344" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y344" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z344" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA344" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB344" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC344" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD344" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE344" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF344" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG344" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH344" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI344" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ344" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK344" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL344" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM344" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN344" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO344" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="345" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>728</v>
+      </c>
+      <c r="C345" t="s">
+        <v>780</v>
+      </c>
+      <c r="D345" t="s">
+        <v>729</v>
+      </c>
+      <c r="E345" t="s">
+        <v>730</v>
+      </c>
+      <c r="F345" t="s">
+        <v>56</v>
+      </c>
+      <c r="G345" t="s">
+        <v>56</v>
+      </c>
+      <c r="H345" t="s">
+        <v>41</v>
+      </c>
+      <c r="I345" t="s">
+        <v>41</v>
+      </c>
+      <c r="J345" t="s">
+        <v>41</v>
+      </c>
+      <c r="K345" t="s">
+        <v>41</v>
+      </c>
+      <c r="L345" t="s">
+        <v>41</v>
+      </c>
+      <c r="M345" t="s">
+        <v>41</v>
+      </c>
+      <c r="N345" t="s">
+        <v>41</v>
+      </c>
+      <c r="O345" t="s">
+        <v>41</v>
+      </c>
+      <c r="P345" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q345" t="s">
+        <v>41</v>
+      </c>
+      <c r="R345" t="s">
+        <v>41</v>
+      </c>
+      <c r="S345" t="s">
+        <v>41</v>
+      </c>
+      <c r="T345" t="s">
+        <v>41</v>
+      </c>
+      <c r="U345" t="s">
+        <v>41</v>
+      </c>
+      <c r="V345" t="s">
+        <v>41</v>
+      </c>
+      <c r="W345" t="s">
+        <v>41</v>
+      </c>
+      <c r="X345" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y345" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z345" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA345" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB345" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC345" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD345" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE345" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF345" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG345" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH345" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI345" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ345" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK345" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL345" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM345" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN345" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO345" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="346" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346" t="s">
+        <v>50</v>
+      </c>
+      <c r="C346" t="s">
+        <v>805</v>
+      </c>
+      <c r="D346" t="s">
+        <v>806</v>
+      </c>
+      <c r="E346" t="s">
+        <v>702</v>
+      </c>
+      <c r="F346" t="s">
+        <v>56</v>
+      </c>
+      <c r="G346" t="s">
+        <v>56</v>
+      </c>
+      <c r="H346" t="s">
+        <v>41</v>
+      </c>
+      <c r="I346" t="s">
+        <v>41</v>
+      </c>
+      <c r="J346" t="s">
+        <v>41</v>
+      </c>
+      <c r="K346" t="s">
+        <v>41</v>
+      </c>
+      <c r="L346" t="s">
+        <v>41</v>
+      </c>
+      <c r="M346" t="s">
+        <v>41</v>
+      </c>
+      <c r="N346" t="s">
+        <v>41</v>
+      </c>
+      <c r="O346" t="s">
+        <v>41</v>
+      </c>
+      <c r="P346" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q346" t="s">
+        <v>41</v>
+      </c>
+      <c r="R346" t="s">
+        <v>41</v>
+      </c>
+      <c r="S346" t="s">
+        <v>41</v>
+      </c>
+      <c r="T346" t="s">
+        <v>41</v>
+      </c>
+      <c r="U346" t="s">
+        <v>41</v>
+      </c>
+      <c r="V346" t="s">
+        <v>41</v>
+      </c>
+      <c r="W346" t="s">
+        <v>41</v>
+      </c>
+      <c r="X346" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y346" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z346" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA346" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB346" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC346" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD346" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE346" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF346" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG346" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH346" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI346" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ346" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK346" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL346" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM346" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN346" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO346" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="347" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347" t="s">
+        <v>50</v>
+      </c>
+      <c r="C347" t="s">
+        <v>805</v>
+      </c>
+      <c r="D347" t="s">
+        <v>806</v>
+      </c>
+      <c r="E347" t="s">
+        <v>702</v>
+      </c>
+      <c r="F347" t="s">
+        <v>56</v>
+      </c>
+      <c r="G347" t="s">
+        <v>56</v>
+      </c>
+      <c r="H347" t="s">
+        <v>41</v>
+      </c>
+      <c r="I347" t="s">
+        <v>41</v>
+      </c>
+      <c r="J347" t="s">
+        <v>41</v>
+      </c>
+      <c r="K347" t="s">
+        <v>41</v>
+      </c>
+      <c r="L347" t="s">
+        <v>41</v>
+      </c>
+      <c r="M347" t="s">
+        <v>41</v>
+      </c>
+      <c r="N347" t="s">
+        <v>41</v>
+      </c>
+      <c r="O347" t="s">
+        <v>41</v>
+      </c>
+      <c r="P347" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q347" t="s">
+        <v>41</v>
+      </c>
+      <c r="R347" t="s">
+        <v>41</v>
+      </c>
+      <c r="S347" t="s">
+        <v>41</v>
+      </c>
+      <c r="T347" t="s">
+        <v>41</v>
+      </c>
+      <c r="U347" t="s">
+        <v>41</v>
+      </c>
+      <c r="V347" t="s">
+        <v>41</v>
+      </c>
+      <c r="W347" t="s">
+        <v>41</v>
+      </c>
+      <c r="X347" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y347" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z347" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA347" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB347" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC347" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD347" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE347" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF347" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG347" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH347" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI347" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ347" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK347" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL347" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM347" t="s">
+        <v>808</v>
+      </c>
+      <c r="AN347" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO347" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="348" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348" t="s">
+        <v>50</v>
+      </c>
+      <c r="C348" t="s">
+        <v>805</v>
+      </c>
+      <c r="D348" t="s">
+        <v>806</v>
+      </c>
+      <c r="E348" t="s">
+        <v>702</v>
+      </c>
+      <c r="F348" t="s">
+        <v>56</v>
+      </c>
+      <c r="G348" t="s">
+        <v>56</v>
+      </c>
+      <c r="H348" t="s">
+        <v>41</v>
+      </c>
+      <c r="I348" t="s">
+        <v>41</v>
+      </c>
+      <c r="J348" t="s">
+        <v>41</v>
+      </c>
+      <c r="K348" t="s">
+        <v>41</v>
+      </c>
+      <c r="L348" t="s">
+        <v>41</v>
+      </c>
+      <c r="M348" t="s">
+        <v>41</v>
+      </c>
+      <c r="N348" t="s">
+        <v>41</v>
+      </c>
+      <c r="O348" t="s">
+        <v>41</v>
+      </c>
+      <c r="P348" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q348" t="s">
+        <v>41</v>
+      </c>
+      <c r="R348" t="s">
+        <v>41</v>
+      </c>
+      <c r="S348" t="s">
+        <v>41</v>
+      </c>
+      <c r="T348" t="s">
+        <v>41</v>
+      </c>
+      <c r="U348" t="s">
+        <v>41</v>
+      </c>
+      <c r="V348" t="s">
+        <v>41</v>
+      </c>
+      <c r="W348" t="s">
+        <v>41</v>
+      </c>
+      <c r="X348" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y348" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z348" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA348" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB348" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC348" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD348" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE348" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF348" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG348" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH348" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI348" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ348" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK348" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL348" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM348" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN348" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO348" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="349" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349" t="s">
+        <v>50</v>
+      </c>
+      <c r="C349" t="s">
+        <v>805</v>
+      </c>
+      <c r="D349" t="s">
+        <v>806</v>
+      </c>
+      <c r="E349" t="s">
+        <v>702</v>
+      </c>
+      <c r="F349" t="s">
+        <v>56</v>
+      </c>
+      <c r="G349" t="s">
+        <v>56</v>
+      </c>
+      <c r="H349" t="s">
+        <v>41</v>
+      </c>
+      <c r="I349" t="s">
+        <v>41</v>
+      </c>
+      <c r="J349" t="s">
+        <v>41</v>
+      </c>
+      <c r="K349" t="s">
+        <v>41</v>
+      </c>
+      <c r="L349" t="s">
+        <v>41</v>
+      </c>
+      <c r="M349" t="s">
+        <v>41</v>
+      </c>
+      <c r="N349" t="s">
+        <v>41</v>
+      </c>
+      <c r="O349" t="s">
+        <v>41</v>
+      </c>
+      <c r="P349" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q349" t="s">
+        <v>41</v>
+      </c>
+      <c r="R349" t="s">
+        <v>41</v>
+      </c>
+      <c r="S349" t="s">
+        <v>41</v>
+      </c>
+      <c r="T349" t="s">
+        <v>41</v>
+      </c>
+      <c r="U349" t="s">
+        <v>41</v>
+      </c>
+      <c r="V349" t="s">
+        <v>41</v>
+      </c>
+      <c r="W349" t="s">
+        <v>41</v>
+      </c>
+      <c r="X349" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y349" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z349" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA349" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB349" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC349" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD349" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE349" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF349" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG349" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH349" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI349" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ349" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK349" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL349" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM349" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN349" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO349" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="350" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350" t="s">
+        <v>50</v>
+      </c>
+      <c r="C350" t="s">
+        <v>805</v>
+      </c>
+      <c r="D350" t="s">
+        <v>806</v>
+      </c>
+      <c r="E350" t="s">
+        <v>702</v>
+      </c>
+      <c r="F350" t="s">
+        <v>56</v>
+      </c>
+      <c r="G350" t="s">
+        <v>56</v>
+      </c>
+      <c r="H350" t="s">
+        <v>41</v>
+      </c>
+      <c r="I350" t="s">
+        <v>41</v>
+      </c>
+      <c r="J350" t="s">
+        <v>41</v>
+      </c>
+      <c r="K350" t="s">
+        <v>41</v>
+      </c>
+      <c r="L350" t="s">
+        <v>41</v>
+      </c>
+      <c r="M350" t="s">
+        <v>41</v>
+      </c>
+      <c r="N350" t="s">
+        <v>41</v>
+      </c>
+      <c r="O350" t="s">
+        <v>41</v>
+      </c>
+      <c r="P350" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q350" t="s">
+        <v>41</v>
+      </c>
+      <c r="R350" t="s">
+        <v>41</v>
+      </c>
+      <c r="S350" t="s">
+        <v>41</v>
+      </c>
+      <c r="T350" t="s">
+        <v>41</v>
+      </c>
+      <c r="U350" t="s">
+        <v>41</v>
+      </c>
+      <c r="V350" t="s">
+        <v>41</v>
+      </c>
+      <c r="W350" t="s">
+        <v>41</v>
+      </c>
+      <c r="X350" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y350" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z350" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA350" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB350" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC350" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD350" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE350" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF350" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG350" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH350" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI350" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ350" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK350" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL350" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM350" t="s">
+        <v>812</v>
+      </c>
+      <c r="AN350" t="s">
+        <v>813</v>
+      </c>
+      <c r="AO350" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="351" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351" t="s">
+        <v>50</v>
+      </c>
+      <c r="C351" t="s">
+        <v>805</v>
+      </c>
+      <c r="D351" t="s">
+        <v>806</v>
+      </c>
+      <c r="E351" t="s">
+        <v>702</v>
+      </c>
+      <c r="F351" t="s">
+        <v>53</v>
+      </c>
+      <c r="G351" t="s">
+        <v>53</v>
+      </c>
+      <c r="H351" t="s">
+        <v>41</v>
+      </c>
+      <c r="I351" t="s">
+        <v>41</v>
+      </c>
+      <c r="J351" t="s">
+        <v>41</v>
+      </c>
+      <c r="K351" t="s">
+        <v>41</v>
+      </c>
+      <c r="L351" t="s">
+        <v>41</v>
+      </c>
+      <c r="M351" t="s">
+        <v>48</v>
+      </c>
+      <c r="N351" t="s">
+        <v>42</v>
+      </c>
+      <c r="O351" t="s">
+        <v>42</v>
+      </c>
+      <c r="P351" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q351" t="s">
+        <v>42</v>
+      </c>
+      <c r="R351" t="s">
+        <v>55</v>
+      </c>
+      <c r="S351" t="s">
+        <v>41</v>
+      </c>
+      <c r="T351" t="s">
+        <v>55</v>
+      </c>
+      <c r="U351" t="s">
+        <v>55</v>
+      </c>
+      <c r="V351" t="s">
+        <v>55</v>
+      </c>
+      <c r="W351" t="s">
+        <v>55</v>
+      </c>
+      <c r="X351" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y351" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z351" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA351" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB351" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC351" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD351" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE351" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF351" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG351" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH351" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI351" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ351" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK351" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL351" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM351" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN351" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO351" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="352" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352" t="s">
+        <v>50</v>
+      </c>
+      <c r="C352" t="s">
+        <v>805</v>
+      </c>
+      <c r="D352" t="s">
+        <v>806</v>
+      </c>
+      <c r="E352" t="s">
+        <v>702</v>
+      </c>
+      <c r="F352" t="s">
+        <v>49</v>
+      </c>
+      <c r="G352" t="s">
+        <v>49</v>
+      </c>
+      <c r="H352" t="s">
+        <v>41</v>
+      </c>
+      <c r="I352" t="s">
+        <v>41</v>
+      </c>
+      <c r="J352" t="s">
+        <v>41</v>
+      </c>
+      <c r="K352" t="s">
+        <v>41</v>
+      </c>
+      <c r="L352" t="s">
+        <v>41</v>
+      </c>
+      <c r="M352" t="s">
+        <v>41</v>
+      </c>
+      <c r="N352" t="s">
+        <v>41</v>
+      </c>
+      <c r="O352" t="s">
+        <v>41</v>
+      </c>
+      <c r="P352" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q352" t="s">
+        <v>41</v>
+      </c>
+      <c r="R352" t="s">
+        <v>41</v>
+      </c>
+      <c r="S352" t="s">
+        <v>41</v>
+      </c>
+      <c r="T352" t="s">
+        <v>41</v>
+      </c>
+      <c r="U352" t="s">
+        <v>41</v>
+      </c>
+      <c r="V352" t="s">
+        <v>41</v>
+      </c>
+      <c r="W352" t="s">
+        <v>41</v>
+      </c>
+      <c r="X352" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y352" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z352" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA352" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB352" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC352" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD352" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE352" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF352" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG352" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH352" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI352" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ352" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK352" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL352" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM352" t="s">
+        <v>816</v>
+      </c>
+      <c r="AN352" t="s">
+        <v>817</v>
+      </c>
+      <c r="AO352" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="353" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353" t="s">
+        <v>50</v>
+      </c>
+      <c r="C353" t="s">
+        <v>805</v>
+      </c>
+      <c r="D353" t="s">
+        <v>806</v>
+      </c>
+      <c r="E353" t="s">
+        <v>702</v>
+      </c>
+      <c r="F353" t="s">
+        <v>268</v>
+      </c>
+      <c r="G353" t="s">
+        <v>268</v>
+      </c>
+      <c r="H353" t="s">
+        <v>45</v>
+      </c>
+      <c r="I353" t="s">
+        <v>45</v>
+      </c>
+      <c r="J353" t="s">
+        <v>45</v>
+      </c>
+      <c r="K353" t="s">
+        <v>46</v>
+      </c>
+      <c r="L353" t="s">
+        <v>46</v>
+      </c>
+      <c r="M353" t="s">
+        <v>41</v>
+      </c>
+      <c r="N353" t="s">
+        <v>41</v>
+      </c>
+      <c r="O353" t="s">
+        <v>41</v>
+      </c>
+      <c r="P353" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q353" t="s">
+        <v>41</v>
+      </c>
+      <c r="R353" t="s">
+        <v>41</v>
+      </c>
+      <c r="S353" t="s">
+        <v>41</v>
+      </c>
+      <c r="T353" t="s">
+        <v>41</v>
+      </c>
+      <c r="U353" t="s">
+        <v>41</v>
+      </c>
+      <c r="V353" t="s">
+        <v>41</v>
+      </c>
+      <c r="W353" t="s">
+        <v>41</v>
+      </c>
+      <c r="X353" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y353" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z353" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA353" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB353" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC353" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD353" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE353" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF353" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG353" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH353" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI353" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ353" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK353" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL353" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM353" t="s">
+        <v>816</v>
+      </c>
+      <c r="AN353" t="s">
+        <v>819</v>
+      </c>
+      <c r="AO353" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="354" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
+        <v>47</v>
+      </c>
+      <c r="C354" t="s">
+        <v>206</v>
+      </c>
+      <c r="D354" t="s">
+        <v>821</v>
+      </c>
+      <c r="E354" t="s">
+        <v>822</v>
+      </c>
+      <c r="F354" t="s">
+        <v>56</v>
+      </c>
+      <c r="G354" t="s">
+        <v>56</v>
+      </c>
+      <c r="H354" t="s">
+        <v>41</v>
+      </c>
+      <c r="I354" t="s">
+        <v>41</v>
+      </c>
+      <c r="J354" t="s">
+        <v>41</v>
+      </c>
+      <c r="K354" t="s">
+        <v>41</v>
+      </c>
+      <c r="L354" t="s">
+        <v>41</v>
+      </c>
+      <c r="M354" t="s">
+        <v>41</v>
+      </c>
+      <c r="N354" t="s">
+        <v>41</v>
+      </c>
+      <c r="O354" t="s">
+        <v>41</v>
+      </c>
+      <c r="P354" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q354" t="s">
+        <v>41</v>
+      </c>
+      <c r="R354" t="s">
+        <v>41</v>
+      </c>
+      <c r="S354" t="s">
+        <v>41</v>
+      </c>
+      <c r="T354" t="s">
+        <v>41</v>
+      </c>
+      <c r="U354" t="s">
+        <v>41</v>
+      </c>
+      <c r="V354" t="s">
+        <v>41</v>
+      </c>
+      <c r="W354" t="s">
+        <v>41</v>
+      </c>
+      <c r="X354" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y354" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z354" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA354" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB354" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC354" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD354" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE354" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF354" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG354" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH354" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI354" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ354" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK354" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL354" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM354" t="s">
+        <v>823</v>
+      </c>
+      <c r="AN354" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO354" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="355" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355" t="s">
+        <v>47</v>
+      </c>
+      <c r="C355" t="s">
+        <v>206</v>
+      </c>
+      <c r="D355" t="s">
+        <v>821</v>
+      </c>
+      <c r="E355" t="s">
+        <v>822</v>
+      </c>
+      <c r="F355" t="s">
+        <v>56</v>
+      </c>
+      <c r="G355" t="s">
+        <v>56</v>
+      </c>
+      <c r="H355" t="s">
+        <v>41</v>
+      </c>
+      <c r="I355" t="s">
+        <v>41</v>
+      </c>
+      <c r="J355" t="s">
+        <v>41</v>
+      </c>
+      <c r="K355" t="s">
+        <v>41</v>
+      </c>
+      <c r="L355" t="s">
+        <v>41</v>
+      </c>
+      <c r="M355" t="s">
+        <v>41</v>
+      </c>
+      <c r="N355" t="s">
+        <v>41</v>
+      </c>
+      <c r="O355" t="s">
+        <v>41</v>
+      </c>
+      <c r="P355" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q355" t="s">
+        <v>41</v>
+      </c>
+      <c r="R355" t="s">
+        <v>41</v>
+      </c>
+      <c r="S355" t="s">
+        <v>41</v>
+      </c>
+      <c r="T355" t="s">
+        <v>41</v>
+      </c>
+      <c r="U355" t="s">
+        <v>41</v>
+      </c>
+      <c r="V355" t="s">
+        <v>41</v>
+      </c>
+      <c r="W355" t="s">
+        <v>41</v>
+      </c>
+      <c r="X355" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y355" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z355" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA355" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB355" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC355" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD355" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE355" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF355" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG355" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH355" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI355" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ355" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK355" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL355" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM355" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN355" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO355" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="356" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356" t="s">
+        <v>47</v>
+      </c>
+      <c r="C356" t="s">
+        <v>206</v>
+      </c>
+      <c r="D356" t="s">
+        <v>507</v>
+      </c>
+      <c r="E356" t="s">
+        <v>822</v>
+      </c>
+      <c r="F356" t="s">
+        <v>56</v>
+      </c>
+      <c r="G356" t="s">
+        <v>56</v>
+      </c>
+      <c r="H356" t="s">
+        <v>41</v>
+      </c>
+      <c r="I356" t="s">
+        <v>41</v>
+      </c>
+      <c r="J356" t="s">
+        <v>41</v>
+      </c>
+      <c r="K356" t="s">
+        <v>41</v>
+      </c>
+      <c r="L356" t="s">
+        <v>41</v>
+      </c>
+      <c r="M356" t="s">
+        <v>41</v>
+      </c>
+      <c r="N356" t="s">
+        <v>41</v>
+      </c>
+      <c r="O356" t="s">
+        <v>41</v>
+      </c>
+      <c r="P356" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q356" t="s">
+        <v>41</v>
+      </c>
+      <c r="R356" t="s">
+        <v>41</v>
+      </c>
+      <c r="S356" t="s">
+        <v>41</v>
+      </c>
+      <c r="T356" t="s">
+        <v>41</v>
+      </c>
+      <c r="U356" t="s">
+        <v>41</v>
+      </c>
+      <c r="V356" t="s">
+        <v>41</v>
+      </c>
+      <c r="W356" t="s">
+        <v>41</v>
+      </c>
+      <c r="X356" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y356" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z356" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA356" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB356" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC356" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD356" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE356" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF356" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG356" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH356" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI356" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ356" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK356" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL356" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM356" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN356" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO356" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="357" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357" t="s">
+        <v>47</v>
+      </c>
+      <c r="C357" t="s">
+        <v>206</v>
+      </c>
+      <c r="D357" t="s">
+        <v>490</v>
+      </c>
+      <c r="E357" t="s">
+        <v>822</v>
+      </c>
+      <c r="F357" t="s">
+        <v>49</v>
+      </c>
+      <c r="G357" t="s">
+        <v>49</v>
+      </c>
+      <c r="H357" t="s">
+        <v>41</v>
+      </c>
+      <c r="I357" t="s">
+        <v>41</v>
+      </c>
+      <c r="J357" t="s">
+        <v>41</v>
+      </c>
+      <c r="K357" t="s">
+        <v>41</v>
+      </c>
+      <c r="L357" t="s">
+        <v>41</v>
+      </c>
+      <c r="M357" t="s">
+        <v>41</v>
+      </c>
+      <c r="N357" t="s">
+        <v>41</v>
+      </c>
+      <c r="O357" t="s">
+        <v>41</v>
+      </c>
+      <c r="P357" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q357" t="s">
+        <v>41</v>
+      </c>
+      <c r="R357" t="s">
+        <v>41</v>
+      </c>
+      <c r="S357" t="s">
+        <v>41</v>
+      </c>
+      <c r="T357" t="s">
+        <v>41</v>
+      </c>
+      <c r="U357" t="s">
+        <v>41</v>
+      </c>
+      <c r="V357" t="s">
+        <v>41</v>
+      </c>
+      <c r="W357" t="s">
+        <v>41</v>
+      </c>
+      <c r="X357" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y357" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z357" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA357" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB357" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC357" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD357" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE357" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF357" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG357" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH357" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI357" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ357" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK357" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL357" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM357" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN357" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO357" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="358" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358" t="s">
+        <v>47</v>
+      </c>
+      <c r="C358" t="s">
+        <v>206</v>
+      </c>
+      <c r="D358" t="s">
+        <v>507</v>
+      </c>
+      <c r="E358" t="s">
+        <v>822</v>
+      </c>
+      <c r="F358" t="s">
+        <v>56</v>
+      </c>
+      <c r="G358" t="s">
+        <v>56</v>
+      </c>
+      <c r="H358" t="s">
+        <v>41</v>
+      </c>
+      <c r="I358" t="s">
+        <v>41</v>
+      </c>
+      <c r="J358" t="s">
+        <v>41</v>
+      </c>
+      <c r="K358" t="s">
+        <v>41</v>
+      </c>
+      <c r="L358" t="s">
+        <v>41</v>
+      </c>
+      <c r="M358" t="s">
+        <v>41</v>
+      </c>
+      <c r="N358" t="s">
+        <v>41</v>
+      </c>
+      <c r="O358" t="s">
+        <v>41</v>
+      </c>
+      <c r="P358" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q358" t="s">
+        <v>41</v>
+      </c>
+      <c r="R358" t="s">
+        <v>41</v>
+      </c>
+      <c r="S358" t="s">
+        <v>41</v>
+      </c>
+      <c r="T358" t="s">
+        <v>41</v>
+      </c>
+      <c r="U358" t="s">
+        <v>41</v>
+      </c>
+      <c r="V358" t="s">
+        <v>41</v>
+      </c>
+      <c r="W358" t="s">
+        <v>41</v>
+      </c>
+      <c r="X358" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y358" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z358" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA358" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB358" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC358" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD358" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE358" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF358" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG358" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH358" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI358" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ358" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK358" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL358" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM358" t="s">
+        <v>828</v>
+      </c>
+      <c r="AN358" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO358" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="359" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
+        <v>47</v>
+      </c>
+      <c r="C359" t="s">
+        <v>206</v>
+      </c>
+      <c r="D359" t="s">
+        <v>830</v>
+      </c>
+      <c r="E359" t="s">
+        <v>822</v>
+      </c>
+      <c r="F359" t="s">
+        <v>56</v>
+      </c>
+      <c r="G359" t="s">
+        <v>56</v>
+      </c>
+      <c r="H359" t="s">
+        <v>41</v>
+      </c>
+      <c r="I359" t="s">
+        <v>41</v>
+      </c>
+      <c r="J359" t="s">
+        <v>41</v>
+      </c>
+      <c r="K359" t="s">
+        <v>41</v>
+      </c>
+      <c r="L359" t="s">
+        <v>41</v>
+      </c>
+      <c r="M359" t="s">
+        <v>41</v>
+      </c>
+      <c r="N359" t="s">
+        <v>41</v>
+      </c>
+      <c r="O359" t="s">
+        <v>41</v>
+      </c>
+      <c r="P359" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q359" t="s">
+        <v>41</v>
+      </c>
+      <c r="R359" t="s">
+        <v>41</v>
+      </c>
+      <c r="S359" t="s">
+        <v>41</v>
+      </c>
+      <c r="T359" t="s">
+        <v>41</v>
+      </c>
+      <c r="U359" t="s">
+        <v>41</v>
+      </c>
+      <c r="V359" t="s">
+        <v>41</v>
+      </c>
+      <c r="W359" t="s">
+        <v>41</v>
+      </c>
+      <c r="X359" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y359" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z359" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA359" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB359" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC359" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD359" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE359" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF359" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG359" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH359" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI359" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ359" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK359" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL359" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM359" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN359" t="s">
+        <v>831</v>
+      </c>
+      <c r="AO359" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="360" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360" t="s">
+        <v>47</v>
+      </c>
+      <c r="C360" t="s">
+        <v>206</v>
+      </c>
+      <c r="D360" t="s">
+        <v>507</v>
+      </c>
+      <c r="E360" t="s">
+        <v>822</v>
+      </c>
+      <c r="F360" t="s">
+        <v>56</v>
+      </c>
+      <c r="G360" t="s">
+        <v>56</v>
+      </c>
+      <c r="H360" t="s">
+        <v>41</v>
+      </c>
+      <c r="I360" t="s">
+        <v>41</v>
+      </c>
+      <c r="J360" t="s">
+        <v>41</v>
+      </c>
+      <c r="K360" t="s">
+        <v>41</v>
+      </c>
+      <c r="L360" t="s">
+        <v>41</v>
+      </c>
+      <c r="M360" t="s">
+        <v>41</v>
+      </c>
+      <c r="N360" t="s">
+        <v>41</v>
+      </c>
+      <c r="O360" t="s">
+        <v>41</v>
+      </c>
+      <c r="P360" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q360" t="s">
+        <v>41</v>
+      </c>
+      <c r="R360" t="s">
+        <v>41</v>
+      </c>
+      <c r="S360" t="s">
+        <v>41</v>
+      </c>
+      <c r="T360" t="s">
+        <v>41</v>
+      </c>
+      <c r="U360" t="s">
+        <v>41</v>
+      </c>
+      <c r="V360" t="s">
+        <v>41</v>
+      </c>
+      <c r="W360" t="s">
+        <v>41</v>
+      </c>
+      <c r="X360" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y360" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z360" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA360" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB360" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC360" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD360" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE360" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF360" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG360" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH360" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI360" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ360" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK360" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL360" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM360" t="s">
+        <v>833</v>
+      </c>
+      <c r="AN360" t="s">
+        <v>834</v>
+      </c>
+      <c r="AO360" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="361" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361" t="s">
+        <v>52</v>
+      </c>
+      <c r="C361" t="s">
+        <v>51</v>
+      </c>
+      <c r="D361" t="s">
+        <v>836</v>
+      </c>
+      <c r="E361" t="s">
+        <v>612</v>
+      </c>
+      <c r="F361" t="s">
+        <v>56</v>
+      </c>
+      <c r="G361" t="s">
+        <v>486</v>
+      </c>
+      <c r="H361" t="s">
+        <v>41</v>
+      </c>
+      <c r="I361" t="s">
+        <v>41</v>
+      </c>
+      <c r="J361" t="s">
+        <v>41</v>
+      </c>
+      <c r="K361" t="s">
+        <v>41</v>
+      </c>
+      <c r="L361" t="s">
+        <v>41</v>
+      </c>
+      <c r="M361" t="s">
+        <v>41</v>
+      </c>
+      <c r="N361" t="s">
+        <v>41</v>
+      </c>
+      <c r="O361" t="s">
+        <v>41</v>
+      </c>
+      <c r="P361" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q361" t="s">
+        <v>41</v>
+      </c>
+      <c r="R361" t="s">
+        <v>41</v>
+      </c>
+      <c r="S361" t="s">
+        <v>41</v>
+      </c>
+      <c r="T361" t="s">
+        <v>41</v>
+      </c>
+      <c r="U361" t="s">
+        <v>41</v>
+      </c>
+      <c r="V361" t="s">
+        <v>41</v>
+      </c>
+      <c r="W361" t="s">
+        <v>41</v>
+      </c>
+      <c r="X361" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y361" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z361" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA361" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB361" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC361" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD361" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE361" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF361" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG361" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH361" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI361" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ361" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK361" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL361" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM361" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN361" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO361" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="362" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362" t="s">
+        <v>47</v>
+      </c>
+      <c r="C362" t="s">
+        <v>206</v>
+      </c>
+      <c r="D362" t="s">
+        <v>507</v>
+      </c>
+      <c r="E362" t="s">
+        <v>822</v>
+      </c>
+      <c r="F362" t="s">
+        <v>56</v>
+      </c>
+      <c r="G362" t="s">
+        <v>56</v>
+      </c>
+      <c r="H362" t="s">
+        <v>41</v>
+      </c>
+      <c r="I362" t="s">
+        <v>41</v>
+      </c>
+      <c r="J362" t="s">
+        <v>41</v>
+      </c>
+      <c r="K362" t="s">
+        <v>41</v>
+      </c>
+      <c r="L362" t="s">
+        <v>41</v>
+      </c>
+      <c r="M362" t="s">
+        <v>41</v>
+      </c>
+      <c r="N362" t="s">
+        <v>41</v>
+      </c>
+      <c r="O362" t="s">
+        <v>41</v>
+      </c>
+      <c r="P362" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q362" t="s">
+        <v>41</v>
+      </c>
+      <c r="R362" t="s">
+        <v>41</v>
+      </c>
+      <c r="S362" t="s">
+        <v>41</v>
+      </c>
+      <c r="T362" t="s">
+        <v>41</v>
+      </c>
+      <c r="U362" t="s">
+        <v>41</v>
+      </c>
+      <c r="V362" t="s">
+        <v>41</v>
+      </c>
+      <c r="W362" t="s">
+        <v>41</v>
+      </c>
+      <c r="X362" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y362" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z362" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA362" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB362" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC362" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD362" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE362" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF362" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG362" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH362" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI362" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ362" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK362" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL362" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM362" t="s">
+        <v>838</v>
+      </c>
+      <c r="AN362" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO362" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="363" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363" t="s">
+        <v>52</v>
+      </c>
+      <c r="C363" t="s">
+        <v>51</v>
+      </c>
+      <c r="D363" t="s">
+        <v>836</v>
+      </c>
+      <c r="E363" t="s">
+        <v>840</v>
+      </c>
+      <c r="F363" t="s">
+        <v>53</v>
+      </c>
+      <c r="G363" t="s">
+        <v>53</v>
+      </c>
+      <c r="H363" t="s">
+        <v>41</v>
+      </c>
+      <c r="I363" t="s">
+        <v>41</v>
+      </c>
+      <c r="J363" t="s">
+        <v>41</v>
+      </c>
+      <c r="K363" t="s">
+        <v>41</v>
+      </c>
+      <c r="L363" t="s">
+        <v>41</v>
+      </c>
+      <c r="M363" t="s">
+        <v>72</v>
+      </c>
+      <c r="N363" t="s">
+        <v>42</v>
+      </c>
+      <c r="O363" t="s">
+        <v>42</v>
+      </c>
+      <c r="P363" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q363" t="s">
+        <v>42</v>
+      </c>
+      <c r="R363" t="s">
+        <v>54</v>
+      </c>
+      <c r="S363" t="s">
+        <v>46</v>
+      </c>
+      <c r="T363" t="s">
+        <v>55</v>
+      </c>
+      <c r="U363" t="s">
+        <v>55</v>
+      </c>
+      <c r="V363" t="s">
+        <v>55</v>
+      </c>
+      <c r="W363" t="s">
+        <v>55</v>
+      </c>
+      <c r="X363" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y363" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z363" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA363" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB363" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC363" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD363" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE363" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF363" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG363" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH363" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI363" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ363" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK363" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL363" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM363" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN363" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO363" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="364" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364" t="s">
+        <v>52</v>
+      </c>
+      <c r="C364" t="s">
+        <v>51</v>
+      </c>
+      <c r="D364" t="s">
+        <v>499</v>
+      </c>
+      <c r="E364" t="s">
+        <v>591</v>
+      </c>
+      <c r="F364" t="s">
+        <v>56</v>
+      </c>
+      <c r="G364" t="s">
+        <v>486</v>
+      </c>
+      <c r="H364" t="s">
+        <v>41</v>
+      </c>
+      <c r="I364" t="s">
+        <v>41</v>
+      </c>
+      <c r="J364" t="s">
+        <v>41</v>
+      </c>
+      <c r="K364" t="s">
+        <v>41</v>
+      </c>
+      <c r="L364" t="s">
+        <v>41</v>
+      </c>
+      <c r="M364" t="s">
+        <v>41</v>
+      </c>
+      <c r="N364" t="s">
+        <v>41</v>
+      </c>
+      <c r="O364" t="s">
+        <v>41</v>
+      </c>
+      <c r="P364" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q364" t="s">
+        <v>41</v>
+      </c>
+      <c r="R364" t="s">
+        <v>41</v>
+      </c>
+      <c r="S364" t="s">
+        <v>41</v>
+      </c>
+      <c r="T364" t="s">
+        <v>41</v>
+      </c>
+      <c r="U364" t="s">
+        <v>41</v>
+      </c>
+      <c r="V364" t="s">
+        <v>41</v>
+      </c>
+      <c r="W364" t="s">
+        <v>41</v>
+      </c>
+      <c r="X364" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y364" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z364" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA364" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB364" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC364" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD364" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE364" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF364" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG364" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH364" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI364" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ364" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK364" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL364" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM364" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN364" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO364" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="365" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365" t="s">
+        <v>47</v>
+      </c>
+      <c r="C365" t="s">
+        <v>270</v>
+      </c>
+      <c r="D365" t="s">
+        <v>507</v>
+      </c>
+      <c r="E365" t="s">
+        <v>822</v>
+      </c>
+      <c r="F365" t="s">
+        <v>268</v>
+      </c>
+      <c r="G365" t="s">
+        <v>268</v>
+      </c>
+      <c r="H365" t="s">
+        <v>45</v>
+      </c>
+      <c r="I365" t="s">
+        <v>45</v>
+      </c>
+      <c r="J365" t="s">
+        <v>45</v>
+      </c>
+      <c r="K365" t="s">
+        <v>45</v>
+      </c>
+      <c r="L365" t="s">
+        <v>45</v>
+      </c>
+      <c r="M365" t="s">
+        <v>41</v>
+      </c>
+      <c r="N365" t="s">
+        <v>41</v>
+      </c>
+      <c r="O365" t="s">
+        <v>41</v>
+      </c>
+      <c r="P365" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q365" t="s">
+        <v>41</v>
+      </c>
+      <c r="R365" t="s">
+        <v>41</v>
+      </c>
+      <c r="S365" t="s">
+        <v>41</v>
+      </c>
+      <c r="T365" t="s">
+        <v>41</v>
+      </c>
+      <c r="U365" t="s">
+        <v>41</v>
+      </c>
+      <c r="V365" t="s">
+        <v>41</v>
+      </c>
+      <c r="W365" t="s">
+        <v>41</v>
+      </c>
+      <c r="X365" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y365" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z365" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA365" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB365" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC365" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD365" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE365" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF365" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG365" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH365" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI365" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ365" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK365" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL365" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM365" t="s">
+        <v>843</v>
+      </c>
+      <c r="AN365" t="s">
+        <v>844</v>
+      </c>
+      <c r="AO365" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="366" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366" t="s">
+        <v>52</v>
+      </c>
+      <c r="C366" t="s">
+        <v>51</v>
+      </c>
+      <c r="D366" t="s">
+        <v>499</v>
+      </c>
+      <c r="E366" t="s">
+        <v>591</v>
+      </c>
+      <c r="F366" t="s">
+        <v>53</v>
+      </c>
+      <c r="G366" t="s">
+        <v>53</v>
+      </c>
+      <c r="H366" t="s">
+        <v>41</v>
+      </c>
+      <c r="I366" t="s">
+        <v>41</v>
+      </c>
+      <c r="J366" t="s">
+        <v>41</v>
+      </c>
+      <c r="K366" t="s">
+        <v>41</v>
+      </c>
+      <c r="L366" t="s">
+        <v>41</v>
+      </c>
+      <c r="M366" t="s">
+        <v>72</v>
+      </c>
+      <c r="N366" t="s">
+        <v>42</v>
+      </c>
+      <c r="O366" t="s">
+        <v>42</v>
+      </c>
+      <c r="P366" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q366" t="s">
+        <v>42</v>
+      </c>
+      <c r="R366" t="s">
+        <v>54</v>
+      </c>
+      <c r="S366" t="s">
+        <v>45</v>
+      </c>
+      <c r="T366" t="s">
+        <v>55</v>
+      </c>
+      <c r="U366" t="s">
+        <v>55</v>
+      </c>
+      <c r="V366" t="s">
+        <v>55</v>
+      </c>
+      <c r="W366" t="s">
+        <v>55</v>
+      </c>
+      <c r="X366" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y366" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z366" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA366" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB366" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC366" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD366" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE366" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF366" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG366" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH366" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI366" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ366" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK366" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL366" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM366" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN366" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO366" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="367" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367" t="s">
+        <v>52</v>
+      </c>
+      <c r="C367" t="s">
+        <v>51</v>
+      </c>
+      <c r="D367" t="s">
+        <v>847</v>
+      </c>
+      <c r="E367" t="s">
+        <v>591</v>
+      </c>
+      <c r="F367" t="s">
+        <v>56</v>
+      </c>
+      <c r="G367" t="s">
+        <v>486</v>
+      </c>
+      <c r="H367" t="s">
+        <v>41</v>
+      </c>
+      <c r="I367" t="s">
+        <v>41</v>
+      </c>
+      <c r="J367" t="s">
+        <v>41</v>
+      </c>
+      <c r="K367" t="s">
+        <v>41</v>
+      </c>
+      <c r="L367" t="s">
+        <v>41</v>
+      </c>
+      <c r="M367" t="s">
+        <v>41</v>
+      </c>
+      <c r="N367" t="s">
+        <v>41</v>
+      </c>
+      <c r="O367" t="s">
+        <v>41</v>
+      </c>
+      <c r="P367" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q367" t="s">
+        <v>41</v>
+      </c>
+      <c r="R367" t="s">
+        <v>41</v>
+      </c>
+      <c r="S367" t="s">
+        <v>41</v>
+      </c>
+      <c r="T367" t="s">
+        <v>41</v>
+      </c>
+      <c r="U367" t="s">
+        <v>41</v>
+      </c>
+      <c r="V367" t="s">
+        <v>41</v>
+      </c>
+      <c r="W367" t="s">
+        <v>41</v>
+      </c>
+      <c r="X367" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y367" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z367" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA367" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB367" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC367" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD367" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE367" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF367" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG367" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH367" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI367" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ367" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK367" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL367" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM367" t="s">
+        <v>848</v>
+      </c>
+      <c r="AN367" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO367" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="368" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368" t="s">
+        <v>52</v>
+      </c>
+      <c r="C368" t="s">
+        <v>51</v>
+      </c>
+      <c r="D368" t="s">
+        <v>847</v>
+      </c>
+      <c r="E368" t="s">
+        <v>591</v>
+      </c>
+      <c r="F368" t="s">
+        <v>53</v>
+      </c>
+      <c r="G368" t="s">
+        <v>53</v>
+      </c>
+      <c r="H368" t="s">
+        <v>41</v>
+      </c>
+      <c r="I368" t="s">
+        <v>41</v>
+      </c>
+      <c r="J368" t="s">
+        <v>41</v>
+      </c>
+      <c r="K368" t="s">
+        <v>41</v>
+      </c>
+      <c r="L368" t="s">
+        <v>41</v>
+      </c>
+      <c r="M368" t="s">
+        <v>72</v>
+      </c>
+      <c r="N368" t="s">
+        <v>42</v>
+      </c>
+      <c r="O368" t="s">
+        <v>42</v>
+      </c>
+      <c r="P368" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q368" t="s">
+        <v>42</v>
+      </c>
+      <c r="R368" t="s">
+        <v>54</v>
+      </c>
+      <c r="S368" t="s">
+        <v>45</v>
+      </c>
+      <c r="T368" t="s">
+        <v>55</v>
+      </c>
+      <c r="U368" t="s">
+        <v>55</v>
+      </c>
+      <c r="V368" t="s">
+        <v>55</v>
+      </c>
+      <c r="W368" t="s">
+        <v>55</v>
+      </c>
+      <c r="X368" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y368" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z368" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA368" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB368" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC368" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD368" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE368" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF368" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG368" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH368" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI368" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ368" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK368" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL368" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM368" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN368" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO368" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="369" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369" t="s">
+        <v>47</v>
+      </c>
+      <c r="C369" t="s">
+        <v>206</v>
+      </c>
+      <c r="D369" t="s">
+        <v>507</v>
+      </c>
+      <c r="E369" t="s">
+        <v>822</v>
+      </c>
+      <c r="F369" t="s">
+        <v>268</v>
+      </c>
+      <c r="G369" t="s">
+        <v>268</v>
+      </c>
+      <c r="H369" t="s">
+        <v>45</v>
+      </c>
+      <c r="I369" t="s">
+        <v>45</v>
+      </c>
+      <c r="J369" t="s">
+        <v>46</v>
+      </c>
+      <c r="K369" t="s">
+        <v>46</v>
+      </c>
+      <c r="L369" t="s">
+        <v>46</v>
+      </c>
+      <c r="M369" t="s">
+        <v>41</v>
+      </c>
+      <c r="N369" t="s">
+        <v>41</v>
+      </c>
+      <c r="O369" t="s">
+        <v>41</v>
+      </c>
+      <c r="P369" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q369" t="s">
+        <v>41</v>
+      </c>
+      <c r="R369" t="s">
+        <v>41</v>
+      </c>
+      <c r="S369" t="s">
+        <v>41</v>
+      </c>
+      <c r="T369" t="s">
+        <v>41</v>
+      </c>
+      <c r="U369" t="s">
+        <v>41</v>
+      </c>
+      <c r="V369" t="s">
+        <v>41</v>
+      </c>
+      <c r="W369" t="s">
+        <v>41</v>
+      </c>
+      <c r="X369" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y369" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z369" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA369" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB369" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC369" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD369" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE369" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF369" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG369" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH369" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI369" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ369" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK369" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL369" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM369" t="s">
+        <v>851</v>
+      </c>
+      <c r="AN369" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO369" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="370" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370" t="s">
+        <v>52</v>
+      </c>
+      <c r="C370" t="s">
+        <v>51</v>
+      </c>
+      <c r="D370" t="s">
+        <v>118</v>
+      </c>
+      <c r="E370" t="s">
+        <v>853</v>
+      </c>
+      <c r="F370" t="s">
+        <v>56</v>
+      </c>
+      <c r="G370" t="s">
+        <v>486</v>
+      </c>
+      <c r="H370" t="s">
+        <v>41</v>
+      </c>
+      <c r="I370" t="s">
+        <v>41</v>
+      </c>
+      <c r="J370" t="s">
+        <v>41</v>
+      </c>
+      <c r="K370" t="s">
+        <v>41</v>
+      </c>
+      <c r="L370" t="s">
+        <v>41</v>
+      </c>
+      <c r="M370" t="s">
+        <v>41</v>
+      </c>
+      <c r="N370" t="s">
+        <v>41</v>
+      </c>
+      <c r="O370" t="s">
+        <v>41</v>
+      </c>
+      <c r="P370" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q370" t="s">
+        <v>41</v>
+      </c>
+      <c r="R370" t="s">
+        <v>41</v>
+      </c>
+      <c r="S370" t="s">
+        <v>41</v>
+      </c>
+      <c r="T370" t="s">
+        <v>41</v>
+      </c>
+      <c r="U370" t="s">
+        <v>41</v>
+      </c>
+      <c r="V370" t="s">
+        <v>41</v>
+      </c>
+      <c r="W370" t="s">
+        <v>41</v>
+      </c>
+      <c r="X370" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y370" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z370" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA370" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB370" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC370" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD370" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE370" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF370" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG370" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH370" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI370" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ370" t="s">
+        <v>545</v>
+      </c>
+      <c r="AK370" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL370" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM370" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN370" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO370" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="371" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371" t="s">
+        <v>47</v>
+      </c>
+      <c r="C371" t="s">
+        <v>206</v>
+      </c>
+      <c r="D371" t="s">
+        <v>507</v>
+      </c>
+      <c r="E371" t="s">
+        <v>822</v>
+      </c>
+      <c r="F371" t="s">
+        <v>49</v>
+      </c>
+      <c r="G371" t="s">
+        <v>49</v>
+      </c>
+      <c r="H371" t="s">
+        <v>41</v>
+      </c>
+      <c r="I371" t="s">
+        <v>41</v>
+      </c>
+      <c r="J371" t="s">
+        <v>41</v>
+      </c>
+      <c r="K371" t="s">
+        <v>41</v>
+      </c>
+      <c r="L371" t="s">
+        <v>41</v>
+      </c>
+      <c r="M371" t="s">
+        <v>41</v>
+      </c>
+      <c r="N371" t="s">
+        <v>41</v>
+      </c>
+      <c r="O371" t="s">
+        <v>41</v>
+      </c>
+      <c r="P371" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q371" t="s">
+        <v>41</v>
+      </c>
+      <c r="R371" t="s">
+        <v>41</v>
+      </c>
+      <c r="S371" t="s">
+        <v>41</v>
+      </c>
+      <c r="T371" t="s">
+        <v>41</v>
+      </c>
+      <c r="U371" t="s">
+        <v>41</v>
+      </c>
+      <c r="V371" t="s">
+        <v>41</v>
+      </c>
+      <c r="W371" t="s">
+        <v>41</v>
+      </c>
+      <c r="X371" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y371" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z371" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA371" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB371" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC371" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD371" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE371" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF371" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG371" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH371" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI371" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ371" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK371" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL371" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM371" t="s">
+        <v>855</v>
+      </c>
+      <c r="AN371" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO371" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="372" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372" t="s">
+        <v>52</v>
+      </c>
+      <c r="C372" t="s">
+        <v>51</v>
+      </c>
+      <c r="D372" t="s">
+        <v>118</v>
+      </c>
+      <c r="E372" t="s">
+        <v>853</v>
+      </c>
+      <c r="F372" t="s">
+        <v>53</v>
+      </c>
+      <c r="G372" t="s">
+        <v>53</v>
+      </c>
+      <c r="H372" t="s">
+        <v>41</v>
+      </c>
+      <c r="I372" t="s">
+        <v>41</v>
+      </c>
+      <c r="J372" t="s">
+        <v>41</v>
+      </c>
+      <c r="K372" t="s">
+        <v>41</v>
+      </c>
+      <c r="L372" t="s">
+        <v>41</v>
+      </c>
+      <c r="M372" t="s">
+        <v>72</v>
+      </c>
+      <c r="N372" t="s">
+        <v>236</v>
+      </c>
+      <c r="O372" t="s">
+        <v>42</v>
+      </c>
+      <c r="P372" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q372" t="s">
+        <v>42</v>
+      </c>
+      <c r="R372" t="s">
+        <v>54</v>
+      </c>
+      <c r="S372" t="s">
+        <v>45</v>
+      </c>
+      <c r="T372" t="s">
+        <v>55</v>
+      </c>
+      <c r="U372" t="s">
+        <v>55</v>
+      </c>
+      <c r="V372" t="s">
+        <v>55</v>
+      </c>
+      <c r="W372" t="s">
+        <v>41</v>
+      </c>
+      <c r="X372" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y372" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z372" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA372" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB372" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC372" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD372" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE372" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF372" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG372" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH372" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI372" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ372" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK372" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL372" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM372" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN372" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO372" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="373" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373" t="s">
+        <v>52</v>
+      </c>
+      <c r="C373" t="s">
+        <v>51</v>
+      </c>
+      <c r="D373" t="s">
+        <v>292</v>
+      </c>
+      <c r="E373" t="s">
+        <v>619</v>
+      </c>
+      <c r="F373" t="s">
+        <v>56</v>
+      </c>
+      <c r="G373" t="s">
+        <v>486</v>
+      </c>
+      <c r="H373" t="s">
+        <v>41</v>
+      </c>
+      <c r="I373" t="s">
+        <v>41</v>
+      </c>
+      <c r="J373" t="s">
+        <v>41</v>
+      </c>
+      <c r="K373" t="s">
+        <v>41</v>
+      </c>
+      <c r="L373" t="s">
+        <v>41</v>
+      </c>
+      <c r="M373" t="s">
+        <v>41</v>
+      </c>
+      <c r="N373" t="s">
+        <v>41</v>
+      </c>
+      <c r="O373" t="s">
+        <v>41</v>
+      </c>
+      <c r="P373" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q373" t="s">
+        <v>41</v>
+      </c>
+      <c r="R373" t="s">
+        <v>41</v>
+      </c>
+      <c r="S373" t="s">
+        <v>41</v>
+      </c>
+      <c r="T373" t="s">
+        <v>41</v>
+      </c>
+      <c r="U373" t="s">
+        <v>41</v>
+      </c>
+      <c r="V373" t="s">
+        <v>41</v>
+      </c>
+      <c r="W373" t="s">
+        <v>41</v>
+      </c>
+      <c r="X373" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y373" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z373" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA373" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB373" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC373" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD373" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE373" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF373" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG373" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH373" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI373" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ373" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK373" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL373" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM373" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN373" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO373" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="374" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374" t="s">
+        <v>47</v>
+      </c>
+      <c r="C374" t="s">
+        <v>206</v>
+      </c>
+      <c r="D374" t="s">
+        <v>507</v>
+      </c>
+      <c r="E374" t="s">
+        <v>822</v>
+      </c>
+      <c r="F374" t="s">
+        <v>49</v>
+      </c>
+      <c r="G374" t="s">
+        <v>49</v>
+      </c>
+      <c r="H374" t="s">
+        <v>41</v>
+      </c>
+      <c r="I374" t="s">
+        <v>41</v>
+      </c>
+      <c r="J374" t="s">
+        <v>41</v>
+      </c>
+      <c r="K374" t="s">
+        <v>41</v>
+      </c>
+      <c r="L374" t="s">
+        <v>41</v>
+      </c>
+      <c r="M374" t="s">
+        <v>41</v>
+      </c>
+      <c r="N374" t="s">
+        <v>41</v>
+      </c>
+      <c r="O374" t="s">
+        <v>41</v>
+      </c>
+      <c r="P374" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q374" t="s">
+        <v>41</v>
+      </c>
+      <c r="R374" t="s">
+        <v>41</v>
+      </c>
+      <c r="S374" t="s">
+        <v>41</v>
+      </c>
+      <c r="T374" t="s">
+        <v>41</v>
+      </c>
+      <c r="U374" t="s">
+        <v>41</v>
+      </c>
+      <c r="V374" t="s">
+        <v>41</v>
+      </c>
+      <c r="W374" t="s">
+        <v>41</v>
+      </c>
+      <c r="X374" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y374" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z374" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA374" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB374" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC374" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD374" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE374" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF374" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG374" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH374" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI374" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ374" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK374" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL374" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM374" t="s">
+        <v>859</v>
+      </c>
+      <c r="AN374" t="s">
+        <v>860</v>
+      </c>
+      <c r="AO374" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="375" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375" t="s">
+        <v>52</v>
+      </c>
+      <c r="C375" t="s">
+        <v>51</v>
+      </c>
+      <c r="D375" t="s">
+        <v>292</v>
+      </c>
+      <c r="E375" t="s">
+        <v>619</v>
+      </c>
+      <c r="F375" t="s">
+        <v>53</v>
+      </c>
+      <c r="G375" t="s">
+        <v>53</v>
+      </c>
+      <c r="H375" t="s">
+        <v>41</v>
+      </c>
+      <c r="I375" t="s">
+        <v>41</v>
+      </c>
+      <c r="J375" t="s">
+        <v>41</v>
+      </c>
+      <c r="K375" t="s">
+        <v>41</v>
+      </c>
+      <c r="L375" t="s">
+        <v>41</v>
+      </c>
+      <c r="M375" t="s">
+        <v>41</v>
+      </c>
+      <c r="N375" t="s">
+        <v>42</v>
+      </c>
+      <c r="O375" t="s">
+        <v>42</v>
+      </c>
+      <c r="P375" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q375" t="s">
+        <v>42</v>
+      </c>
+      <c r="R375" t="s">
+        <v>54</v>
+      </c>
+      <c r="S375" t="s">
+        <v>45</v>
+      </c>
+      <c r="T375" t="s">
+        <v>55</v>
+      </c>
+      <c r="U375" t="s">
+        <v>55</v>
+      </c>
+      <c r="V375" t="s">
+        <v>55</v>
+      </c>
+      <c r="W375" t="s">
+        <v>55</v>
+      </c>
+      <c r="X375" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y375" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z375" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA375" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB375" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC375" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD375" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE375" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF375" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG375" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH375" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI375" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ375" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK375" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL375" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM375" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN375" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO375" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="376" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376" t="s">
+        <v>47</v>
+      </c>
+      <c r="C376" t="s">
+        <v>206</v>
+      </c>
+      <c r="D376" t="s">
+        <v>507</v>
+      </c>
+      <c r="E376" t="s">
+        <v>822</v>
+      </c>
+      <c r="F376" t="s">
+        <v>49</v>
+      </c>
+      <c r="G376" t="s">
+        <v>49</v>
+      </c>
+      <c r="H376" t="s">
+        <v>41</v>
+      </c>
+      <c r="I376" t="s">
+        <v>41</v>
+      </c>
+      <c r="J376" t="s">
+        <v>41</v>
+      </c>
+      <c r="K376" t="s">
+        <v>41</v>
+      </c>
+      <c r="L376" t="s">
+        <v>41</v>
+      </c>
+      <c r="M376" t="s">
+        <v>41</v>
+      </c>
+      <c r="N376" t="s">
+        <v>41</v>
+      </c>
+      <c r="O376" t="s">
+        <v>41</v>
+      </c>
+      <c r="P376" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q376" t="s">
+        <v>41</v>
+      </c>
+      <c r="R376" t="s">
+        <v>41</v>
+      </c>
+      <c r="S376" t="s">
+        <v>41</v>
+      </c>
+      <c r="T376" t="s">
+        <v>41</v>
+      </c>
+      <c r="U376" t="s">
+        <v>41</v>
+      </c>
+      <c r="V376" t="s">
+        <v>41</v>
+      </c>
+      <c r="W376" t="s">
+        <v>41</v>
+      </c>
+      <c r="X376" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y376" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z376" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA376" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB376" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC376" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD376" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE376" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF376" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG376" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH376" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI376" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ376" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK376" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL376" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM376" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN376" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO376" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="377" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377" t="s">
+        <v>52</v>
+      </c>
+      <c r="C377" t="s">
+        <v>51</v>
+      </c>
+      <c r="D377" t="s">
+        <v>292</v>
+      </c>
+      <c r="E377" t="s">
+        <v>729</v>
+      </c>
+      <c r="F377" t="s">
+        <v>56</v>
+      </c>
+      <c r="G377" t="s">
+        <v>486</v>
+      </c>
+      <c r="H377" t="s">
+        <v>41</v>
+      </c>
+      <c r="I377" t="s">
+        <v>41</v>
+      </c>
+      <c r="J377" t="s">
+        <v>41</v>
+      </c>
+      <c r="K377" t="s">
+        <v>41</v>
+      </c>
+      <c r="L377" t="s">
+        <v>41</v>
+      </c>
+      <c r="M377" t="s">
+        <v>41</v>
+      </c>
+      <c r="N377" t="s">
+        <v>41</v>
+      </c>
+      <c r="O377" t="s">
+        <v>41</v>
+      </c>
+      <c r="P377" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q377" t="s">
+        <v>41</v>
+      </c>
+      <c r="R377" t="s">
+        <v>41</v>
+      </c>
+      <c r="S377" t="s">
+        <v>41</v>
+      </c>
+      <c r="T377" t="s">
+        <v>41</v>
+      </c>
+      <c r="U377" t="s">
+        <v>41</v>
+      </c>
+      <c r="V377" t="s">
+        <v>41</v>
+      </c>
+      <c r="W377" t="s">
+        <v>41</v>
+      </c>
+      <c r="X377" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y377" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z377" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA377" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB377" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC377" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD377" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE377" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF377" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG377" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH377" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI377" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ377" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK377" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL377" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM377" t="s">
+        <v>864</v>
+      </c>
+      <c r="AN377" t="s">
+        <v>865</v>
+      </c>
+      <c r="AO377" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="378" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378" t="s">
+        <v>47</v>
+      </c>
+      <c r="C378" t="s">
+        <v>206</v>
+      </c>
+      <c r="D378" t="s">
+        <v>507</v>
+      </c>
+      <c r="E378" t="s">
+        <v>822</v>
+      </c>
+      <c r="F378" t="s">
+        <v>53</v>
+      </c>
+      <c r="G378" t="s">
+        <v>53</v>
+      </c>
+      <c r="H378" t="s">
+        <v>41</v>
+      </c>
+      <c r="I378" t="s">
+        <v>41</v>
+      </c>
+      <c r="J378" t="s">
+        <v>41</v>
+      </c>
+      <c r="K378" t="s">
+        <v>41</v>
+      </c>
+      <c r="L378" t="s">
+        <v>41</v>
+      </c>
+      <c r="M378" t="s">
+        <v>48</v>
+      </c>
+      <c r="N378" t="s">
+        <v>42</v>
+      </c>
+      <c r="O378" t="s">
+        <v>42</v>
+      </c>
+      <c r="P378" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q378" t="s">
+        <v>42</v>
+      </c>
+      <c r="R378" t="s">
+        <v>55</v>
+      </c>
+      <c r="S378" t="s">
+        <v>41</v>
+      </c>
+      <c r="T378" t="s">
+        <v>55</v>
+      </c>
+      <c r="U378" t="s">
+        <v>55</v>
+      </c>
+      <c r="V378" t="s">
+        <v>55</v>
+      </c>
+      <c r="W378" t="s">
+        <v>55</v>
+      </c>
+      <c r="X378" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y378" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z378" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA378" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB378" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC378" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD378" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE378" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF378" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG378" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH378" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI378" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ378" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK378" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL378" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM378" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN378" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO378" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="379" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379" t="s">
+        <v>52</v>
+      </c>
+      <c r="C379" t="s">
+        <v>51</v>
+      </c>
+      <c r="D379" t="s">
+        <v>292</v>
+      </c>
+      <c r="E379" t="s">
+        <v>729</v>
+      </c>
+      <c r="F379" t="s">
+        <v>53</v>
+      </c>
+      <c r="G379" t="s">
+        <v>53</v>
+      </c>
+      <c r="H379" t="s">
+        <v>41</v>
+      </c>
+      <c r="I379" t="s">
+        <v>41</v>
+      </c>
+      <c r="J379" t="s">
+        <v>41</v>
+      </c>
+      <c r="K379" t="s">
+        <v>41</v>
+      </c>
+      <c r="L379" t="s">
+        <v>41</v>
+      </c>
+      <c r="M379" t="s">
+        <v>72</v>
+      </c>
+      <c r="N379" t="s">
+        <v>42</v>
+      </c>
+      <c r="O379" t="s">
+        <v>42</v>
+      </c>
+      <c r="P379" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q379" t="s">
+        <v>42</v>
+      </c>
+      <c r="R379" t="s">
+        <v>54</v>
+      </c>
+      <c r="S379" t="s">
+        <v>45</v>
+      </c>
+      <c r="T379" t="s">
+        <v>55</v>
+      </c>
+      <c r="U379" t="s">
+        <v>55</v>
+      </c>
+      <c r="V379" t="s">
+        <v>55</v>
+      </c>
+      <c r="W379" t="s">
+        <v>55</v>
+      </c>
+      <c r="X379" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y379" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z379" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA379" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB379" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC379" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD379" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE379" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF379" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG379" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH379" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI379" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ379" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK379" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL379" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM379" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN379" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO379" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="380" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380" t="s">
+        <v>47</v>
+      </c>
+      <c r="C380" t="s">
+        <v>206</v>
+      </c>
+      <c r="D380" t="s">
+        <v>507</v>
+      </c>
+      <c r="E380" t="s">
+        <v>822</v>
+      </c>
+      <c r="F380" t="s">
+        <v>53</v>
+      </c>
+      <c r="G380" t="s">
+        <v>53</v>
+      </c>
+      <c r="H380" t="s">
+        <v>41</v>
+      </c>
+      <c r="I380" t="s">
+        <v>41</v>
+      </c>
+      <c r="J380" t="s">
+        <v>41</v>
+      </c>
+      <c r="K380" t="s">
+        <v>41</v>
+      </c>
+      <c r="L380" t="s">
+        <v>41</v>
+      </c>
+      <c r="M380" t="s">
+        <v>72</v>
+      </c>
+      <c r="N380" t="s">
+        <v>42</v>
+      </c>
+      <c r="O380" t="s">
+        <v>42</v>
+      </c>
+      <c r="P380" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q380" t="s">
+        <v>42</v>
+      </c>
+      <c r="R380" t="s">
+        <v>55</v>
+      </c>
+      <c r="S380" t="s">
+        <v>41</v>
+      </c>
+      <c r="T380" t="s">
+        <v>55</v>
+      </c>
+      <c r="U380" t="s">
+        <v>55</v>
+      </c>
+      <c r="V380" t="s">
+        <v>55</v>
+      </c>
+      <c r="W380" t="s">
+        <v>55</v>
+      </c>
+      <c r="X380" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y380" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z380" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA380" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB380" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC380" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD380" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE380" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF380" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG380" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH380" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI380" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ380" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK380" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL380" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM380" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN380" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO380" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="381" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
+        <v>52</v>
+      </c>
+      <c r="C381" t="s">
+        <v>51</v>
+      </c>
+      <c r="D381" t="s">
+        <v>389</v>
+      </c>
+      <c r="E381" t="s">
+        <v>870</v>
+      </c>
+      <c r="F381" t="s">
+        <v>56</v>
+      </c>
+      <c r="G381" t="s">
+        <v>486</v>
+      </c>
+      <c r="H381" t="s">
+        <v>41</v>
+      </c>
+      <c r="I381" t="s">
+        <v>41</v>
+      </c>
+      <c r="J381" t="s">
+        <v>41</v>
+      </c>
+      <c r="K381" t="s">
+        <v>41</v>
+      </c>
+      <c r="L381" t="s">
+        <v>41</v>
+      </c>
+      <c r="M381" t="s">
+        <v>41</v>
+      </c>
+      <c r="N381" t="s">
+        <v>41</v>
+      </c>
+      <c r="O381" t="s">
+        <v>41</v>
+      </c>
+      <c r="P381" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q381" t="s">
+        <v>41</v>
+      </c>
+      <c r="R381" t="s">
+        <v>41</v>
+      </c>
+      <c r="S381" t="s">
+        <v>41</v>
+      </c>
+      <c r="T381" t="s">
+        <v>41</v>
+      </c>
+      <c r="U381" t="s">
+        <v>41</v>
+      </c>
+      <c r="V381" t="s">
+        <v>41</v>
+      </c>
+      <c r="W381" t="s">
+        <v>41</v>
+      </c>
+      <c r="X381" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y381" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z381" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA381" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB381" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC381" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD381" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE381" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF381" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG381" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH381" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI381" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ381" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK381" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL381" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM381" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN381" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO381" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="382" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382" t="s">
+        <v>47</v>
+      </c>
+      <c r="C382" t="s">
+        <v>206</v>
+      </c>
+      <c r="D382" t="s">
+        <v>507</v>
+      </c>
+      <c r="E382" t="s">
+        <v>822</v>
+      </c>
+      <c r="F382" t="s">
+        <v>53</v>
+      </c>
+      <c r="G382" t="s">
+        <v>53</v>
+      </c>
+      <c r="H382" t="s">
+        <v>41</v>
+      </c>
+      <c r="I382" t="s">
+        <v>41</v>
+      </c>
+      <c r="J382" t="s">
+        <v>41</v>
+      </c>
+      <c r="K382" t="s">
+        <v>41</v>
+      </c>
+      <c r="L382" t="s">
+        <v>41</v>
+      </c>
+      <c r="M382" t="s">
+        <v>48</v>
+      </c>
+      <c r="N382" t="s">
+        <v>42</v>
+      </c>
+      <c r="O382" t="s">
+        <v>42</v>
+      </c>
+      <c r="P382" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q382" t="s">
+        <v>42</v>
+      </c>
+      <c r="R382" t="s">
+        <v>55</v>
+      </c>
+      <c r="S382" t="s">
+        <v>41</v>
+      </c>
+      <c r="T382" t="s">
+        <v>55</v>
+      </c>
+      <c r="U382" t="s">
+        <v>55</v>
+      </c>
+      <c r="V382" t="s">
+        <v>55</v>
+      </c>
+      <c r="W382" t="s">
+        <v>55</v>
+      </c>
+      <c r="X382" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y382" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z382" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA382" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB382" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC382" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD382" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE382" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF382" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG382" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH382" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI382" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ382" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK382" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL382" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM382" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN382" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO382" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="383" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383" t="s">
+        <v>52</v>
+      </c>
+      <c r="C383" t="s">
+        <v>51</v>
+      </c>
+      <c r="D383" t="s">
+        <v>389</v>
+      </c>
+      <c r="E383" t="s">
+        <v>870</v>
+      </c>
+      <c r="F383" t="s">
+        <v>53</v>
+      </c>
+      <c r="G383" t="s">
+        <v>53</v>
+      </c>
+      <c r="H383" t="s">
+        <v>41</v>
+      </c>
+      <c r="I383" t="s">
+        <v>41</v>
+      </c>
+      <c r="J383" t="s">
+        <v>41</v>
+      </c>
+      <c r="K383" t="s">
+        <v>41</v>
+      </c>
+      <c r="L383" t="s">
+        <v>41</v>
+      </c>
+      <c r="M383" t="s">
+        <v>72</v>
+      </c>
+      <c r="N383" t="s">
+        <v>42</v>
+      </c>
+      <c r="O383" t="s">
+        <v>42</v>
+      </c>
+      <c r="P383" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q383" t="s">
+        <v>42</v>
+      </c>
+      <c r="R383" t="s">
+        <v>54</v>
+      </c>
+      <c r="S383" t="s">
+        <v>45</v>
+      </c>
+      <c r="T383" t="s">
+        <v>55</v>
+      </c>
+      <c r="U383" t="s">
+        <v>55</v>
+      </c>
+      <c r="V383" t="s">
+        <v>55</v>
+      </c>
+      <c r="W383" t="s">
+        <v>55</v>
+      </c>
+      <c r="X383" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y383" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z383" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA383" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB383" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC383" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD383" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE383" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF383" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG383" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH383" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI383" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ383" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK383" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL383" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM383" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN383" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO383" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="384" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384" t="s">
+        <v>52</v>
+      </c>
+      <c r="C384" t="s">
+        <v>51</v>
+      </c>
+      <c r="D384" t="s">
+        <v>646</v>
+      </c>
+      <c r="E384" t="s">
+        <v>747</v>
+      </c>
+      <c r="F384" t="s">
+        <v>56</v>
+      </c>
+      <c r="G384" t="s">
+        <v>486</v>
+      </c>
+      <c r="H384" t="s">
+        <v>41</v>
+      </c>
+      <c r="I384" t="s">
+        <v>41</v>
+      </c>
+      <c r="J384" t="s">
+        <v>41</v>
+      </c>
+      <c r="K384" t="s">
+        <v>41</v>
+      </c>
+      <c r="L384" t="s">
+        <v>41</v>
+      </c>
+      <c r="M384" t="s">
+        <v>41</v>
+      </c>
+      <c r="N384" t="s">
+        <v>41</v>
+      </c>
+      <c r="O384" t="s">
+        <v>41</v>
+      </c>
+      <c r="P384" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q384" t="s">
+        <v>41</v>
+      </c>
+      <c r="R384" t="s">
+        <v>41</v>
+      </c>
+      <c r="S384" t="s">
+        <v>41</v>
+      </c>
+      <c r="T384" t="s">
+        <v>41</v>
+      </c>
+      <c r="U384" t="s">
+        <v>41</v>
+      </c>
+      <c r="V384" t="s">
+        <v>41</v>
+      </c>
+      <c r="W384" t="s">
+        <v>41</v>
+      </c>
+      <c r="X384" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y384" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z384" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA384" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB384" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC384" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD384" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE384" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF384" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG384" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH384" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI384" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ384" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK384" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL384" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM384" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN384" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO384" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="385" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385" t="s">
+        <v>47</v>
+      </c>
+      <c r="C385" t="s">
+        <v>206</v>
+      </c>
+      <c r="D385" t="s">
+        <v>507</v>
+      </c>
+      <c r="E385" t="s">
+        <v>822</v>
+      </c>
+      <c r="F385" t="s">
+        <v>53</v>
+      </c>
+      <c r="G385" t="s">
+        <v>53</v>
+      </c>
+      <c r="H385" t="s">
+        <v>41</v>
+      </c>
+      <c r="I385" t="s">
+        <v>41</v>
+      </c>
+      <c r="J385" t="s">
+        <v>41</v>
+      </c>
+      <c r="K385" t="s">
+        <v>41</v>
+      </c>
+      <c r="L385" t="s">
+        <v>41</v>
+      </c>
+      <c r="M385" t="s">
+        <v>72</v>
+      </c>
+      <c r="N385" t="s">
+        <v>42</v>
+      </c>
+      <c r="O385" t="s">
+        <v>42</v>
+      </c>
+      <c r="P385" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q385" t="s">
+        <v>42</v>
+      </c>
+      <c r="R385" t="s">
+        <v>41</v>
+      </c>
+      <c r="S385" t="s">
+        <v>41</v>
+      </c>
+      <c r="T385" t="s">
+        <v>55</v>
+      </c>
+      <c r="U385" t="s">
+        <v>55</v>
+      </c>
+      <c r="V385" t="s">
+        <v>55</v>
+      </c>
+      <c r="W385" t="s">
+        <v>55</v>
+      </c>
+      <c r="X385" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y385" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z385" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA385" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB385" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC385" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD385" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE385" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF385" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG385" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH385" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI385" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ385" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK385" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL385" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM385" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN385" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO385" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="386" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386" t="s">
+        <v>52</v>
+      </c>
+      <c r="C386" t="s">
+        <v>51</v>
+      </c>
+      <c r="D386" t="s">
+        <v>646</v>
+      </c>
+      <c r="E386" t="s">
+        <v>747</v>
+      </c>
+      <c r="F386" t="s">
+        <v>53</v>
+      </c>
+      <c r="G386" t="s">
+        <v>53</v>
+      </c>
+      <c r="H386" t="s">
+        <v>41</v>
+      </c>
+      <c r="I386" t="s">
+        <v>41</v>
+      </c>
+      <c r="J386" t="s">
+        <v>41</v>
+      </c>
+      <c r="K386" t="s">
+        <v>41</v>
+      </c>
+      <c r="L386" t="s">
+        <v>41</v>
+      </c>
+      <c r="M386" t="s">
+        <v>72</v>
+      </c>
+      <c r="N386" t="s">
+        <v>42</v>
+      </c>
+      <c r="O386" t="s">
+        <v>42</v>
+      </c>
+      <c r="P386" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q386" t="s">
+        <v>42</v>
+      </c>
+      <c r="R386" t="s">
+        <v>54</v>
+      </c>
+      <c r="S386" t="s">
+        <v>45</v>
+      </c>
+      <c r="T386" t="s">
+        <v>55</v>
+      </c>
+      <c r="U386" t="s">
+        <v>55</v>
+      </c>
+      <c r="V386" t="s">
+        <v>55</v>
+      </c>
+      <c r="W386" t="s">
+        <v>55</v>
+      </c>
+      <c r="X386" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y386" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z386" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA386" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB386" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC386" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD386" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE386" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF386" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG386" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH386" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI386" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ386" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK386" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL386" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM386" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN386" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO386" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="387" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387" t="s">
+        <v>52</v>
+      </c>
+      <c r="C387" t="s">
+        <v>51</v>
+      </c>
+      <c r="D387" t="s">
+        <v>877</v>
+      </c>
+      <c r="E387" t="s">
+        <v>870</v>
+      </c>
+      <c r="F387" t="s">
+        <v>56</v>
+      </c>
+      <c r="G387" t="s">
+        <v>486</v>
+      </c>
+      <c r="H387" t="s">
+        <v>41</v>
+      </c>
+      <c r="I387" t="s">
+        <v>41</v>
+      </c>
+      <c r="J387" t="s">
+        <v>41</v>
+      </c>
+      <c r="K387" t="s">
+        <v>41</v>
+      </c>
+      <c r="L387" t="s">
+        <v>41</v>
+      </c>
+      <c r="M387" t="s">
+        <v>41</v>
+      </c>
+      <c r="N387" t="s">
+        <v>41</v>
+      </c>
+      <c r="O387" t="s">
+        <v>41</v>
+      </c>
+      <c r="P387" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q387" t="s">
+        <v>41</v>
+      </c>
+      <c r="R387" t="s">
+        <v>41</v>
+      </c>
+      <c r="S387" t="s">
+        <v>41</v>
+      </c>
+      <c r="T387" t="s">
+        <v>41</v>
+      </c>
+      <c r="U387" t="s">
+        <v>41</v>
+      </c>
+      <c r="V387" t="s">
+        <v>41</v>
+      </c>
+      <c r="W387" t="s">
+        <v>41</v>
+      </c>
+      <c r="X387" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y387" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z387" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA387" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB387" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC387" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD387" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE387" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF387" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG387" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH387" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI387" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ387" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK387" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL387" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM387" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN387" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO387" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="388" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388" t="s">
+        <v>52</v>
+      </c>
+      <c r="C388" t="s">
+        <v>51</v>
+      </c>
+      <c r="D388" t="s">
+        <v>877</v>
+      </c>
+      <c r="E388" t="s">
+        <v>870</v>
+      </c>
+      <c r="F388" t="s">
+        <v>53</v>
+      </c>
+      <c r="G388" t="s">
+        <v>53</v>
+      </c>
+      <c r="H388" t="s">
+        <v>41</v>
+      </c>
+      <c r="I388" t="s">
+        <v>41</v>
+      </c>
+      <c r="J388" t="s">
+        <v>41</v>
+      </c>
+      <c r="K388" t="s">
+        <v>41</v>
+      </c>
+      <c r="L388" t="s">
+        <v>41</v>
+      </c>
+      <c r="M388" t="s">
+        <v>72</v>
+      </c>
+      <c r="N388" t="s">
+        <v>42</v>
+      </c>
+      <c r="O388" t="s">
+        <v>42</v>
+      </c>
+      <c r="P388" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q388" t="s">
+        <v>42</v>
+      </c>
+      <c r="R388" t="s">
+        <v>54</v>
+      </c>
+      <c r="S388" t="s">
+        <v>45</v>
+      </c>
+      <c r="T388" t="s">
+        <v>55</v>
+      </c>
+      <c r="U388" t="s">
+        <v>55</v>
+      </c>
+      <c r="V388" t="s">
+        <v>55</v>
+      </c>
+      <c r="W388" t="s">
+        <v>55</v>
+      </c>
+      <c r="X388" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y388" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z388" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA388" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB388" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC388" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD388" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE388" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF388" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG388" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH388" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI388" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ388" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK388" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL388" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM388" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN388" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO388" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="389" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389" t="s">
+        <v>52</v>
+      </c>
+      <c r="C389" t="s">
+        <v>51</v>
+      </c>
+      <c r="D389" t="s">
+        <v>611</v>
+      </c>
+      <c r="E389" t="s">
+        <v>880</v>
+      </c>
+      <c r="F389" t="s">
+        <v>56</v>
+      </c>
+      <c r="G389" t="s">
+        <v>486</v>
+      </c>
+      <c r="H389" t="s">
+        <v>41</v>
+      </c>
+      <c r="I389" t="s">
+        <v>41</v>
+      </c>
+      <c r="J389" t="s">
+        <v>41</v>
+      </c>
+      <c r="K389" t="s">
+        <v>41</v>
+      </c>
+      <c r="L389" t="s">
+        <v>41</v>
+      </c>
+      <c r="M389" t="s">
+        <v>41</v>
+      </c>
+      <c r="N389" t="s">
+        <v>41</v>
+      </c>
+      <c r="O389" t="s">
+        <v>41</v>
+      </c>
+      <c r="P389" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q389" t="s">
+        <v>41</v>
+      </c>
+      <c r="R389" t="s">
+        <v>41</v>
+      </c>
+      <c r="S389" t="s">
+        <v>41</v>
+      </c>
+      <c r="T389" t="s">
+        <v>41</v>
+      </c>
+      <c r="U389" t="s">
+        <v>41</v>
+      </c>
+      <c r="V389" t="s">
+        <v>41</v>
+      </c>
+      <c r="W389" t="s">
+        <v>41</v>
+      </c>
+      <c r="X389" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y389" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z389" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA389" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB389" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC389" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD389" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE389" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF389" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG389" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH389" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI389" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ389" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK389" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL389" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM389" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN389" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO389" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="390" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390" t="s">
+        <v>52</v>
+      </c>
+      <c r="C390" t="s">
+        <v>51</v>
+      </c>
+      <c r="D390" t="s">
+        <v>611</v>
+      </c>
+      <c r="E390" t="s">
+        <v>880</v>
+      </c>
+      <c r="F390" t="s">
+        <v>53</v>
+      </c>
+      <c r="G390" t="s">
+        <v>53</v>
+      </c>
+      <c r="H390" t="s">
+        <v>41</v>
+      </c>
+      <c r="I390" t="s">
+        <v>41</v>
+      </c>
+      <c r="J390" t="s">
+        <v>41</v>
+      </c>
+      <c r="K390" t="s">
+        <v>41</v>
+      </c>
+      <c r="L390" t="s">
+        <v>41</v>
+      </c>
+      <c r="M390" t="s">
+        <v>72</v>
+      </c>
+      <c r="N390" t="s">
+        <v>42</v>
+      </c>
+      <c r="O390" t="s">
+        <v>42</v>
+      </c>
+      <c r="P390" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q390" t="s">
+        <v>42</v>
+      </c>
+      <c r="R390" t="s">
+        <v>54</v>
+      </c>
+      <c r="S390" t="s">
+        <v>45</v>
+      </c>
+      <c r="T390" t="s">
+        <v>55</v>
+      </c>
+      <c r="U390" t="s">
+        <v>55</v>
+      </c>
+      <c r="V390" t="s">
+        <v>55</v>
+      </c>
+      <c r="W390" t="s">
+        <v>55</v>
+      </c>
+      <c r="X390" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y390" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z390" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA390" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB390" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC390" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD390" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE390" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF390" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG390" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH390" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI390" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ390" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK390" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL390" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM390" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN390" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO390" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="391" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391" t="s">
+        <v>52</v>
+      </c>
+      <c r="C391" t="s">
+        <v>51</v>
+      </c>
+      <c r="D391" t="s">
+        <v>616</v>
+      </c>
+      <c r="E391" t="s">
+        <v>883</v>
+      </c>
+      <c r="F391" t="s">
+        <v>56</v>
+      </c>
+      <c r="G391" t="s">
+        <v>486</v>
+      </c>
+      <c r="H391" t="s">
+        <v>41</v>
+      </c>
+      <c r="I391" t="s">
+        <v>41</v>
+      </c>
+      <c r="J391" t="s">
+        <v>41</v>
+      </c>
+      <c r="K391" t="s">
+        <v>41</v>
+      </c>
+      <c r="L391" t="s">
+        <v>41</v>
+      </c>
+      <c r="M391" t="s">
+        <v>41</v>
+      </c>
+      <c r="N391" t="s">
+        <v>41</v>
+      </c>
+      <c r="O391" t="s">
+        <v>41</v>
+      </c>
+      <c r="P391" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q391" t="s">
+        <v>41</v>
+      </c>
+      <c r="R391" t="s">
+        <v>41</v>
+      </c>
+      <c r="S391" t="s">
+        <v>41</v>
+      </c>
+      <c r="T391" t="s">
+        <v>41</v>
+      </c>
+      <c r="U391" t="s">
+        <v>41</v>
+      </c>
+      <c r="V391" t="s">
+        <v>41</v>
+      </c>
+      <c r="W391" t="s">
+        <v>41</v>
+      </c>
+      <c r="X391" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y391" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z391" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA391" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB391" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC391" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD391" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE391" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF391" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG391" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH391" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI391" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ391" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK391" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL391" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM391" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN391" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO391" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="392" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392" t="s">
+        <v>52</v>
+      </c>
+      <c r="C392" t="s">
+        <v>51</v>
+      </c>
+      <c r="D392" t="s">
+        <v>616</v>
+      </c>
+      <c r="E392" t="s">
+        <v>883</v>
+      </c>
+      <c r="F392" t="s">
+        <v>53</v>
+      </c>
+      <c r="G392" t="s">
+        <v>53</v>
+      </c>
+      <c r="H392" t="s">
+        <v>41</v>
+      </c>
+      <c r="I392" t="s">
+        <v>41</v>
+      </c>
+      <c r="J392" t="s">
+        <v>41</v>
+      </c>
+      <c r="K392" t="s">
+        <v>41</v>
+      </c>
+      <c r="L392" t="s">
+        <v>41</v>
+      </c>
+      <c r="M392" t="s">
+        <v>72</v>
+      </c>
+      <c r="N392" t="s">
+        <v>236</v>
+      </c>
+      <c r="O392" t="s">
+        <v>42</v>
+      </c>
+      <c r="P392" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q392" t="s">
+        <v>42</v>
+      </c>
+      <c r="R392" t="s">
+        <v>54</v>
+      </c>
+      <c r="S392" t="s">
+        <v>45</v>
+      </c>
+      <c r="T392" t="s">
+        <v>55</v>
+      </c>
+      <c r="U392" t="s">
+        <v>55</v>
+      </c>
+      <c r="V392" t="s">
+        <v>55</v>
+      </c>
+      <c r="W392" t="s">
+        <v>55</v>
+      </c>
+      <c r="X392" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y392" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z392" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA392" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB392" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC392" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD392" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE392" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF392" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG392" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH392" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI392" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ392" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK392" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL392" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM392" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN392" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO392" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="393" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393" t="s">
+        <v>52</v>
+      </c>
+      <c r="C393" t="s">
+        <v>51</v>
+      </c>
+      <c r="D393" t="s">
+        <v>886</v>
+      </c>
+      <c r="E393" t="s">
+        <v>702</v>
+      </c>
+      <c r="F393" t="s">
+        <v>56</v>
+      </c>
+      <c r="G393" t="s">
+        <v>486</v>
+      </c>
+      <c r="H393" t="s">
+        <v>41</v>
+      </c>
+      <c r="I393" t="s">
+        <v>41</v>
+      </c>
+      <c r="J393" t="s">
+        <v>41</v>
+      </c>
+      <c r="K393" t="s">
+        <v>41</v>
+      </c>
+      <c r="L393" t="s">
+        <v>41</v>
+      </c>
+      <c r="M393" t="s">
+        <v>41</v>
+      </c>
+      <c r="N393" t="s">
+        <v>41</v>
+      </c>
+      <c r="O393" t="s">
+        <v>41</v>
+      </c>
+      <c r="P393" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q393" t="s">
+        <v>41</v>
+      </c>
+      <c r="R393" t="s">
+        <v>41</v>
+      </c>
+      <c r="S393" t="s">
+        <v>41</v>
+      </c>
+      <c r="T393" t="s">
+        <v>41</v>
+      </c>
+      <c r="U393" t="s">
+        <v>41</v>
+      </c>
+      <c r="V393" t="s">
+        <v>41</v>
+      </c>
+      <c r="W393" t="s">
+        <v>41</v>
+      </c>
+      <c r="X393" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y393" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z393" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA393" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB393" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC393" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD393" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE393" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF393" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG393" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH393" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI393" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ393" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK393" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL393" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM393" t="s">
+        <v>887</v>
+      </c>
+      <c r="AN393" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO393" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="394" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394" t="s">
+        <v>52</v>
+      </c>
+      <c r="C394" t="s">
+        <v>51</v>
+      </c>
+      <c r="D394" t="s">
+        <v>889</v>
+      </c>
+      <c r="E394" t="s">
+        <v>702</v>
+      </c>
+      <c r="F394" t="s">
+        <v>53</v>
+      </c>
+      <c r="G394" t="s">
+        <v>53</v>
+      </c>
+      <c r="H394" t="s">
+        <v>41</v>
+      </c>
+      <c r="I394" t="s">
+        <v>41</v>
+      </c>
+      <c r="J394" t="s">
+        <v>41</v>
+      </c>
+      <c r="K394" t="s">
+        <v>41</v>
+      </c>
+      <c r="L394" t="s">
+        <v>41</v>
+      </c>
+      <c r="M394" t="s">
+        <v>72</v>
+      </c>
+      <c r="N394" t="s">
+        <v>42</v>
+      </c>
+      <c r="O394" t="s">
+        <v>42</v>
+      </c>
+      <c r="P394" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q394" t="s">
+        <v>42</v>
+      </c>
+      <c r="R394" t="s">
+        <v>54</v>
+      </c>
+      <c r="S394" t="s">
+        <v>45</v>
+      </c>
+      <c r="T394" t="s">
+        <v>55</v>
+      </c>
+      <c r="U394" t="s">
+        <v>55</v>
+      </c>
+      <c r="V394" t="s">
+        <v>55</v>
+      </c>
+      <c r="W394" t="s">
+        <v>55</v>
+      </c>
+      <c r="X394" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y394" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z394" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA394" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB394" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC394" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD394" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE394" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF394" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG394" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH394" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI394" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ394" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK394" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL394" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM394" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN394" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO394" t="s">
+        <v>890</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
